--- a/2023/DongTien.xlsx
+++ b/2023/DongTien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/stocks/2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trung.nguyenhoang/Documents/github/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C373CA4-C665-1E4A-9F46-1D7F0BD102E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08155C2-2962-8F4F-A9CA-3F79AE5D9B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{42582BF8-9AD7-9540-81DE-245C476BF20D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{42582BF8-9AD7-9540-81DE-245C476BF20D}"/>
   </bookViews>
   <sheets>
     <sheet name="GDNN T11-T12" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="63">
   <si>
     <t>CHỨNG KHOÁN</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>MR-GG</t>
+  </si>
+  <si>
+    <t>1095.43</t>
+  </si>
+  <si>
+    <t>VCG</t>
   </si>
 </sst>
 </file>
@@ -543,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -578,12 +584,47 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -601,56 +642,20 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -658,6 +663,126 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1001,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC78DB7-94EE-DD4A-955E-8CCDACC517C9}">
-  <dimension ref="A1:GB36"/>
+  <dimension ref="A1:GK36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FM1" workbookViewId="0">
-      <selection activeCell="GE10" sqref="GE10"/>
+    <sheetView tabSelected="1" topLeftCell="FK1" workbookViewId="0">
+      <selection activeCell="FV24" sqref="FV24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1012,6 +1137,7 @@
     <col min="7" max="7" width="15.1640625" customWidth="1"/>
     <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="13.6640625" customWidth="1"/>
+    <col min="36" max="36" width="15.1640625" customWidth="1"/>
     <col min="41" max="41" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="13.83203125" customWidth="1"/>
     <col min="89" max="89" width="12.83203125" customWidth="1"/>
@@ -1019,49 +1145,49 @@
     <col min="91" max="91" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:193" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="33"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
@@ -1072,92 +1198,92 @@
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
       <c r="AV1" s="1"/>
-      <c r="AW1" s="38" t="s">
+      <c r="AW1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="38"/>
-      <c r="BJ1" s="38"/>
-      <c r="BK1" s="38"/>
-      <c r="BL1" s="38"/>
-      <c r="BM1" s="38"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
       <c r="BN1" s="1"/>
-      <c r="BO1" s="39" t="s">
+      <c r="BO1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="39"/>
-      <c r="BQ1" s="39"/>
-      <c r="BR1" s="39"/>
-      <c r="BS1" s="39"/>
-      <c r="BT1" s="39"/>
-      <c r="BU1" s="39"/>
-      <c r="BV1" s="39"/>
-      <c r="BW1" s="39"/>
-      <c r="BX1" s="39"/>
-      <c r="BY1" s="39"/>
-      <c r="BZ1" s="39"/>
-      <c r="CA1" s="39"/>
-      <c r="CB1" s="39"/>
-      <c r="CC1" s="39"/>
-      <c r="CD1" s="39"/>
-      <c r="CE1" s="39"/>
+      <c r="BP1" s="50"/>
+      <c r="BQ1" s="50"/>
+      <c r="BR1" s="50"/>
+      <c r="BS1" s="50"/>
+      <c r="BT1" s="50"/>
+      <c r="BU1" s="50"/>
+      <c r="BV1" s="50"/>
+      <c r="BW1" s="50"/>
+      <c r="BX1" s="50"/>
+      <c r="BY1" s="50"/>
+      <c r="BZ1" s="50"/>
+      <c r="CA1" s="50"/>
+      <c r="CB1" s="50"/>
+      <c r="CC1" s="50"/>
+      <c r="CD1" s="50"/>
+      <c r="CE1" s="50"/>
       <c r="CF1" s="1"/>
-      <c r="CG1" s="40" t="s">
+      <c r="CG1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="CH1" s="40"/>
-      <c r="CI1" s="40"/>
-      <c r="CJ1" s="40"/>
-      <c r="CK1" s="40"/>
-      <c r="CL1" s="40"/>
-      <c r="CM1" s="40"/>
-      <c r="CN1" s="40"/>
-      <c r="CO1" s="40"/>
-      <c r="CP1" s="40"/>
-      <c r="CQ1" s="40"/>
-      <c r="CR1" s="40"/>
-      <c r="CS1" s="40"/>
-      <c r="CT1" s="40"/>
-      <c r="CU1" s="40"/>
-      <c r="CV1" s="40"/>
-      <c r="CW1" s="40"/>
-      <c r="CX1" s="40"/>
-      <c r="CY1" s="40"/>
-      <c r="CZ1" s="40"/>
-      <c r="DA1" s="40"/>
-      <c r="DB1" s="40"/>
-      <c r="DC1" s="40"/>
-      <c r="DD1" s="40"/>
-      <c r="DE1" s="40"/>
-      <c r="DF1" s="40"/>
-      <c r="DG1" s="40"/>
-      <c r="DH1" s="40"/>
-      <c r="DI1" s="40"/>
-      <c r="DJ1" s="40"/>
-      <c r="DK1" s="40"/>
-      <c r="DL1" s="40"/>
-      <c r="DM1" s="40"/>
-      <c r="DN1" s="40"/>
-      <c r="DO1" s="40"/>
-      <c r="DP1" s="40"/>
-      <c r="DQ1" s="40"/>
-      <c r="DR1" s="40"/>
-      <c r="DS1" s="40"/>
-      <c r="DT1" s="40"/>
-      <c r="DU1" s="40"/>
-      <c r="DV1" s="40"/>
-      <c r="DW1" s="40"/>
-      <c r="DX1" s="40"/>
+      <c r="CH1" s="51"/>
+      <c r="CI1" s="51"/>
+      <c r="CJ1" s="51"/>
+      <c r="CK1" s="51"/>
+      <c r="CL1" s="51"/>
+      <c r="CM1" s="51"/>
+      <c r="CN1" s="51"/>
+      <c r="CO1" s="51"/>
+      <c r="CP1" s="51"/>
+      <c r="CQ1" s="51"/>
+      <c r="CR1" s="51"/>
+      <c r="CS1" s="51"/>
+      <c r="CT1" s="51"/>
+      <c r="CU1" s="51"/>
+      <c r="CV1" s="51"/>
+      <c r="CW1" s="51"/>
+      <c r="CX1" s="51"/>
+      <c r="CY1" s="51"/>
+      <c r="CZ1" s="51"/>
+      <c r="DA1" s="51"/>
+      <c r="DB1" s="51"/>
+      <c r="DC1" s="51"/>
+      <c r="DD1" s="51"/>
+      <c r="DE1" s="51"/>
+      <c r="DF1" s="51"/>
+      <c r="DG1" s="51"/>
+      <c r="DH1" s="51"/>
+      <c r="DI1" s="51"/>
+      <c r="DJ1" s="51"/>
+      <c r="DK1" s="51"/>
+      <c r="DL1" s="51"/>
+      <c r="DM1" s="51"/>
+      <c r="DN1" s="51"/>
+      <c r="DO1" s="51"/>
+      <c r="DP1" s="51"/>
+      <c r="DQ1" s="51"/>
+      <c r="DR1" s="51"/>
+      <c r="DS1" s="51"/>
+      <c r="DT1" s="51"/>
+      <c r="DU1" s="51"/>
+      <c r="DV1" s="51"/>
+      <c r="DW1" s="51"/>
+      <c r="DX1" s="51"/>
       <c r="DY1" s="1"/>
       <c r="DZ1" s="46" t="s">
         <v>5</v>
@@ -1179,277 +1305,297 @@
       <c r="EO1" s="46"/>
       <c r="EP1" s="46"/>
       <c r="EQ1" s="1"/>
-      <c r="ER1" s="42" t="s">
+      <c r="ER1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="ES1" s="42"/>
-      <c r="ET1" s="42"/>
-      <c r="EU1" s="42"/>
-      <c r="EV1" s="42"/>
-      <c r="EW1" s="42"/>
-      <c r="EX1" s="42"/>
-      <c r="EY1" s="42"/>
-      <c r="EZ1" s="1"/>
-      <c r="FA1" s="43" t="s">
+      <c r="ES1" s="54"/>
+      <c r="ET1" s="54"/>
+      <c r="EU1" s="54"/>
+      <c r="EV1" s="54"/>
+      <c r="EW1" s="54"/>
+      <c r="EX1" s="54"/>
+      <c r="EY1" s="54"/>
+      <c r="EZ1" s="54"/>
+      <c r="FA1" s="54"/>
+      <c r="FB1" s="54"/>
+      <c r="FC1" s="54"/>
+      <c r="FD1" s="54"/>
+      <c r="FE1" s="54"/>
+      <c r="FF1" s="54"/>
+      <c r="FG1" s="54"/>
+      <c r="FH1" s="54"/>
+      <c r="FI1" s="54"/>
+      <c r="FJ1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="FB1" s="43"/>
-      <c r="FC1" s="43"/>
-      <c r="FD1" s="43"/>
-      <c r="FE1" s="43"/>
-      <c r="FF1" s="43"/>
-      <c r="FG1" s="43"/>
-      <c r="FH1" s="43"/>
-      <c r="FI1" s="1"/>
-      <c r="FJ1" s="44" t="s">
+      <c r="FK1" s="43"/>
+      <c r="FL1" s="43"/>
+      <c r="FM1" s="43"/>
+      <c r="FN1" s="43"/>
+      <c r="FO1" s="43"/>
+      <c r="FP1" s="43"/>
+      <c r="FQ1" s="43"/>
+      <c r="FR1" s="1"/>
+      <c r="FS1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="FK1" s="44"/>
-      <c r="FL1" s="44"/>
-      <c r="FM1" s="44"/>
-      <c r="FN1" s="44"/>
-      <c r="FO1" s="44"/>
-      <c r="FP1" s="44"/>
-      <c r="FQ1" s="44"/>
-      <c r="FR1" s="1"/>
-      <c r="FS1" s="45" t="s">
+      <c r="FT1" s="44"/>
+      <c r="FU1" s="44"/>
+      <c r="FV1" s="44"/>
+      <c r="FW1" s="44"/>
+      <c r="FX1" s="44"/>
+      <c r="FY1" s="44"/>
+      <c r="FZ1" s="44"/>
+      <c r="GA1" s="1"/>
+      <c r="GB1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="FT1" s="45"/>
-      <c r="FU1" s="45"/>
-      <c r="FV1" s="45"/>
-      <c r="FW1" s="45"/>
-      <c r="FX1" s="45"/>
-      <c r="FY1" s="45"/>
-      <c r="FZ1" s="45"/>
+      <c r="GC1" s="45"/>
+      <c r="GD1" s="45"/>
+      <c r="GE1" s="45"/>
+      <c r="GF1" s="45"/>
+      <c r="GG1" s="45"/>
+      <c r="GH1" s="45"/>
+      <c r="GI1" s="45"/>
     </row>
-    <row r="2" spans="1:184" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:193" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="34"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="41" t="s">
+      <c r="V2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="34"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="32"/>
       <c r="AE2" s="1"/>
-      <c r="AF2" s="41" t="s">
+      <c r="AF2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
       <c r="AN2" s="1"/>
-      <c r="AO2" s="41" t="s">
+      <c r="AO2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
       <c r="AW2" s="1"/>
-      <c r="AX2" s="41" t="s">
+      <c r="AX2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="41"/>
-      <c r="BB2" s="41"/>
-      <c r="BC2" s="41"/>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="41"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="39"/>
+      <c r="BD2" s="39"/>
+      <c r="BE2" s="39"/>
       <c r="BF2" s="1"/>
-      <c r="BG2" s="47" t="s">
+      <c r="BG2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="BH2" s="48"/>
-      <c r="BI2" s="48"/>
-      <c r="BJ2" s="48"/>
-      <c r="BK2" s="48"/>
-      <c r="BL2" s="48"/>
-      <c r="BM2" s="48"/>
-      <c r="BN2" s="49"/>
+      <c r="BH2" s="41"/>
+      <c r="BI2" s="41"/>
+      <c r="BJ2" s="41"/>
+      <c r="BK2" s="41"/>
+      <c r="BL2" s="41"/>
+      <c r="BM2" s="41"/>
+      <c r="BN2" s="42"/>
       <c r="BO2" s="1"/>
-      <c r="BP2" s="47" t="s">
+      <c r="BP2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="BQ2" s="48"/>
-      <c r="BR2" s="48"/>
-      <c r="BS2" s="48"/>
-      <c r="BT2" s="48"/>
-      <c r="BU2" s="48"/>
-      <c r="BV2" s="49"/>
+      <c r="BQ2" s="41"/>
+      <c r="BR2" s="41"/>
+      <c r="BS2" s="41"/>
+      <c r="BT2" s="41"/>
+      <c r="BU2" s="41"/>
+      <c r="BV2" s="42"/>
       <c r="BW2" s="3"/>
       <c r="BX2" s="1"/>
-      <c r="BY2" s="41" t="s">
+      <c r="BY2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="BZ2" s="41"/>
-      <c r="CA2" s="41"/>
-      <c r="CB2" s="41"/>
-      <c r="CC2" s="41"/>
-      <c r="CD2" s="41"/>
-      <c r="CE2" s="41"/>
-      <c r="CF2" s="41"/>
+      <c r="BZ2" s="39"/>
+      <c r="CA2" s="39"/>
+      <c r="CB2" s="39"/>
+      <c r="CC2" s="39"/>
+      <c r="CD2" s="39"/>
+      <c r="CE2" s="39"/>
+      <c r="CF2" s="39"/>
       <c r="CG2" s="1"/>
-      <c r="CH2" s="41" t="s">
+      <c r="CH2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="CI2" s="41"/>
-      <c r="CJ2" s="41"/>
-      <c r="CK2" s="41"/>
-      <c r="CL2" s="41"/>
-      <c r="CM2" s="41"/>
-      <c r="CN2" s="41"/>
-      <c r="CO2" s="41"/>
+      <c r="CI2" s="39"/>
+      <c r="CJ2" s="39"/>
+      <c r="CK2" s="39"/>
+      <c r="CL2" s="39"/>
+      <c r="CM2" s="39"/>
+      <c r="CN2" s="39"/>
+      <c r="CO2" s="39"/>
       <c r="CP2" s="1"/>
-      <c r="CQ2" s="41" t="s">
+      <c r="CQ2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="CR2" s="41"/>
-      <c r="CS2" s="41"/>
-      <c r="CT2" s="41"/>
-      <c r="CU2" s="41"/>
-      <c r="CV2" s="41"/>
-      <c r="CW2" s="41"/>
-      <c r="CX2" s="41"/>
+      <c r="CR2" s="39"/>
+      <c r="CS2" s="39"/>
+      <c r="CT2" s="39"/>
+      <c r="CU2" s="39"/>
+      <c r="CV2" s="39"/>
+      <c r="CW2" s="39"/>
+      <c r="CX2" s="39"/>
       <c r="CY2" s="1"/>
-      <c r="CZ2" s="41" t="s">
+      <c r="CZ2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="DA2" s="41"/>
-      <c r="DB2" s="41"/>
-      <c r="DC2" s="41"/>
-      <c r="DD2" s="41"/>
-      <c r="DE2" s="41"/>
-      <c r="DF2" s="41"/>
-      <c r="DG2" s="41"/>
+      <c r="DA2" s="39"/>
+      <c r="DB2" s="39"/>
+      <c r="DC2" s="39"/>
+      <c r="DD2" s="39"/>
+      <c r="DE2" s="39"/>
+      <c r="DF2" s="39"/>
+      <c r="DG2" s="39"/>
       <c r="DH2" s="1"/>
-      <c r="DI2" s="41" t="s">
+      <c r="DI2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="DJ2" s="41"/>
-      <c r="DK2" s="41"/>
-      <c r="DL2" s="41"/>
-      <c r="DM2" s="41"/>
-      <c r="DN2" s="41"/>
-      <c r="DO2" s="41"/>
-      <c r="DP2" s="41"/>
+      <c r="DJ2" s="39"/>
+      <c r="DK2" s="39"/>
+      <c r="DL2" s="39"/>
+      <c r="DM2" s="39"/>
+      <c r="DN2" s="39"/>
+      <c r="DO2" s="39"/>
+      <c r="DP2" s="39"/>
       <c r="DQ2" s="1"/>
-      <c r="DR2" s="41" t="s">
+      <c r="DR2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="DS2" s="41"/>
-      <c r="DT2" s="41"/>
-      <c r="DU2" s="41"/>
-      <c r="DV2" s="41"/>
-      <c r="DW2" s="41"/>
-      <c r="DX2" s="41"/>
-      <c r="DY2" s="41"/>
+      <c r="DS2" s="39"/>
+      <c r="DT2" s="39"/>
+      <c r="DU2" s="39"/>
+      <c r="DV2" s="39"/>
+      <c r="DW2" s="39"/>
+      <c r="DX2" s="39"/>
+      <c r="DY2" s="39"/>
       <c r="DZ2" s="1"/>
-      <c r="EA2" s="41" t="s">
+      <c r="EA2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="EB2" s="41"/>
-      <c r="EC2" s="41"/>
-      <c r="ED2" s="41"/>
-      <c r="EE2" s="41"/>
-      <c r="EF2" s="41"/>
-      <c r="EG2" s="41"/>
-      <c r="EH2" s="41"/>
+      <c r="EB2" s="39"/>
+      <c r="EC2" s="39"/>
+      <c r="ED2" s="39"/>
+      <c r="EE2" s="39"/>
+      <c r="EF2" s="39"/>
+      <c r="EG2" s="39"/>
+      <c r="EH2" s="39"/>
       <c r="EI2" s="1"/>
-      <c r="EJ2" s="41" t="s">
+      <c r="EJ2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="EK2" s="41"/>
-      <c r="EL2" s="41"/>
-      <c r="EM2" s="41"/>
-      <c r="EN2" s="41"/>
-      <c r="EO2" s="41"/>
-      <c r="EP2" s="41"/>
-      <c r="EQ2" s="41"/>
+      <c r="EK2" s="39"/>
+      <c r="EL2" s="39"/>
+      <c r="EM2" s="39"/>
+      <c r="EN2" s="39"/>
+      <c r="EO2" s="39"/>
+      <c r="EP2" s="39"/>
+      <c r="EQ2" s="39"/>
       <c r="ER2" s="1"/>
-      <c r="ES2" s="41" t="s">
+      <c r="ES2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="ET2" s="41"/>
-      <c r="EU2" s="41"/>
-      <c r="EV2" s="41"/>
-      <c r="EW2" s="41"/>
-      <c r="EX2" s="41"/>
-      <c r="EY2" s="41"/>
-      <c r="EZ2" s="41"/>
+      <c r="ET2" s="39"/>
+      <c r="EU2" s="39"/>
+      <c r="EV2" s="39"/>
+      <c r="EW2" s="39"/>
+      <c r="EX2" s="39"/>
+      <c r="EY2" s="39"/>
+      <c r="EZ2" s="39"/>
       <c r="FA2" s="1"/>
-      <c r="FB2" s="41" t="s">
+      <c r="FB2" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="FC2" s="39"/>
+      <c r="FD2" s="39"/>
+      <c r="FE2" s="39"/>
+      <c r="FF2" s="39"/>
+      <c r="FG2" s="39"/>
+      <c r="FH2" s="39"/>
+      <c r="FI2" s="39"/>
+      <c r="FJ2" s="1"/>
+      <c r="FK2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="FC2" s="41"/>
-      <c r="FD2" s="41"/>
-      <c r="FE2" s="41"/>
-      <c r="FF2" s="41"/>
-      <c r="FG2" s="41"/>
-      <c r="FH2" s="41"/>
-      <c r="FI2" s="41"/>
-      <c r="FJ2" s="1"/>
-      <c r="FK2" s="41" t="s">
+      <c r="FL2" s="39"/>
+      <c r="FM2" s="39"/>
+      <c r="FN2" s="39"/>
+      <c r="FO2" s="39"/>
+      <c r="FP2" s="39"/>
+      <c r="FQ2" s="39"/>
+      <c r="FR2" s="39"/>
+      <c r="FS2" s="1"/>
+      <c r="FT2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="FL2" s="41"/>
-      <c r="FM2" s="41"/>
-      <c r="FN2" s="41"/>
-      <c r="FO2" s="41"/>
-      <c r="FP2" s="41"/>
-      <c r="FQ2" s="41"/>
-      <c r="FR2" s="41"/>
-      <c r="FS2" s="1"/>
-      <c r="FT2" s="41" t="s">
+      <c r="FU2" s="39"/>
+      <c r="FV2" s="39"/>
+      <c r="FW2" s="39"/>
+      <c r="FX2" s="39"/>
+      <c r="FY2" s="39"/>
+      <c r="FZ2" s="39"/>
+      <c r="GA2" s="39"/>
+      <c r="GB2" s="1"/>
+      <c r="GC2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="FU2" s="41"/>
-      <c r="FV2" s="41"/>
-      <c r="FW2" s="41"/>
-      <c r="FX2" s="41"/>
-      <c r="FY2" s="41"/>
-      <c r="FZ2" s="41"/>
-      <c r="GA2" s="41"/>
-      <c r="GB2" s="1"/>
+      <c r="GD2" s="39"/>
+      <c r="GE2" s="39"/>
+      <c r="GF2" s="39"/>
+      <c r="GG2" s="39"/>
+      <c r="GH2" s="39"/>
+      <c r="GI2" s="39"/>
+      <c r="GJ2" s="39"/>
+      <c r="GK2" s="1"/>
     </row>
-    <row r="3" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -1477,7 +1623,7 @@
       <c r="I3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="4" t="s">
         <v>57</v>
       </c>
       <c r="K3" s="1"/>
@@ -1505,7 +1651,7 @@
       <c r="S3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="4" t="s">
         <v>60</v>
       </c>
       <c r="U3" s="1"/>
@@ -1530,7 +1676,7 @@
       <c r="AB3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="54" t="s">
+      <c r="AC3" s="34" t="s">
         <v>37</v>
       </c>
       <c r="AD3" s="4" t="s">
@@ -1962,8 +2108,33 @@
         <v>37</v>
       </c>
       <c r="GB3" s="1"/>
+      <c r="GC3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="GD3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="GE3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="GF3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="GG3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="GH3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="GI3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="GJ3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="GK3" s="1"/>
     </row>
-    <row r="4" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>45250</v>
       </c>
@@ -2053,7 +2224,7 @@
       <c r="AC4" s="8">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="AD4" s="55">
+      <c r="AD4" s="35">
         <f>IF(AND(AC4&lt;-2%, W4&gt;X4), IF(AND(AA4&gt; AA30 + AA30*0.15, W4&gt;X30+X30*0.15), 1, 0), 0)</f>
         <v>0</v>
       </c>
@@ -2095,7 +2266,7 @@
         <v>881700</v>
       </c>
       <c r="AR4" s="6">
-        <f>AP4-AQ4</f>
+        <f t="shared" ref="AR4:AR10" si="5">AP4-AQ4</f>
         <v>110800</v>
       </c>
       <c r="AS4" s="6">
@@ -2122,7 +2293,7 @@
         <v>2133894</v>
       </c>
       <c r="BA4" s="6">
-        <f>AY4-AZ4</f>
+        <f t="shared" ref="BA4:BA10" si="6">AY4-AZ4</f>
         <v>210406</v>
       </c>
       <c r="BB4" s="6">
@@ -2176,7 +2347,7 @@
         <v>1209600</v>
       </c>
       <c r="BS4" s="6">
-        <f>BQ4-BR4</f>
+        <f t="shared" ref="BS4:BS10" si="7">BQ4-BR4</f>
         <v>-500000</v>
       </c>
       <c r="BT4" s="6">
@@ -2203,7 +2374,7 @@
         <v>2044402</v>
       </c>
       <c r="CB4" s="6">
-        <f>BZ4-CA4</f>
+        <f t="shared" ref="CB4:CB10" si="8">BZ4-CA4</f>
         <v>-1679095</v>
       </c>
       <c r="CC4" s="6">
@@ -2230,7 +2401,7 @@
         <v>1291650</v>
       </c>
       <c r="CK4" s="6">
-        <f t="shared" ref="CK4:CK11" si="5">CI4-CJ4</f>
+        <f t="shared" ref="CK4:CK10" si="9">CI4-CJ4</f>
         <v>-862150</v>
       </c>
       <c r="CL4" s="6">
@@ -2257,7 +2428,7 @@
         <v>100800</v>
       </c>
       <c r="CT4" s="6">
-        <f>CR4-CS4</f>
+        <f t="shared" ref="CT4:CT10" si="10">CR4-CS4</f>
         <v>1038810</v>
       </c>
       <c r="CU4" s="6">
@@ -2284,7 +2455,7 @@
         <v>219800</v>
       </c>
       <c r="DC4" s="6">
-        <f>DA4-DB4</f>
+        <f t="shared" ref="DC4:DC10" si="11">DA4-DB4</f>
         <v>-156000</v>
       </c>
       <c r="DD4" s="6">
@@ -2311,7 +2482,7 @@
         <v>10759</v>
       </c>
       <c r="DL4" s="6">
-        <f>DJ4-DK4</f>
+        <f t="shared" ref="DL4:DL10" si="12">DJ4-DK4</f>
         <v>220353</v>
       </c>
       <c r="DM4" s="6">
@@ -2338,7 +2509,7 @@
         <v>396900</v>
       </c>
       <c r="DU4" s="6">
-        <f>DS4-DT4</f>
+        <f t="shared" ref="DU4:DU10" si="13">DS4-DT4</f>
         <v>-115300</v>
       </c>
       <c r="DV4" s="6">
@@ -2365,7 +2536,7 @@
         <v>102900</v>
       </c>
       <c r="ED4" s="6">
-        <f>EB4-EC4</f>
+        <f t="shared" ref="ED4:ED10" si="14">EB4-EC4</f>
         <v>17200</v>
       </c>
       <c r="EE4" s="6">
@@ -2392,7 +2563,7 @@
         <v>11400</v>
       </c>
       <c r="EM4" s="6">
-        <f>EK4-EL4</f>
+        <f t="shared" ref="EM4:EM10" si="15">EK4-EL4</f>
         <v>113300</v>
       </c>
       <c r="EN4" s="6">
@@ -2419,7 +2590,7 @@
         <v>3004</v>
       </c>
       <c r="EV4" s="6">
-        <f>ET4-EU4</f>
+        <f t="shared" ref="EV4:EV10" si="16">ET4-EU4</f>
         <v>67263</v>
       </c>
       <c r="EW4" s="6">
@@ -2440,85 +2611,112 @@
         <v>45250</v>
       </c>
       <c r="FC4" s="6">
-        <v>495900</v>
+        <v>241336</v>
       </c>
       <c r="FD4" s="6">
-        <v>38900</v>
+        <v>12200</v>
       </c>
       <c r="FE4" s="6">
-        <f>FC4-FD4</f>
-        <v>457000</v>
+        <f t="shared" ref="FE4:FE10" si="17">FC4-FD4</f>
+        <v>229136</v>
       </c>
       <c r="FF4" s="6">
-        <v>9806430</v>
+        <v>5253330</v>
       </c>
       <c r="FG4" s="6">
-        <v>21362700</v>
+        <v>8199300</v>
       </c>
       <c r="FH4" s="7">
         <f>(FC4+FD4)/FG4</f>
-        <v>2.5034288736910597E-2</v>
+        <v>3.0921664044491603E-2</v>
       </c>
       <c r="FI4" s="8">
-        <v>1.3899999999999999E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="FJ4" s="1"/>
       <c r="FK4" s="5">
         <v>45250</v>
       </c>
       <c r="FL4" s="6">
-        <v>229100</v>
+        <v>495900</v>
       </c>
       <c r="FM4" s="6">
-        <v>17298</v>
+        <v>38900</v>
       </c>
       <c r="FN4" s="6">
-        <f>FL4-FM4</f>
-        <v>211802</v>
+        <f t="shared" ref="FN4:FN10" si="18">FL4-FM4</f>
+        <v>457000</v>
       </c>
       <c r="FO4" s="6">
-        <v>19723470</v>
+        <v>9806430</v>
       </c>
       <c r="FP4" s="6">
-        <v>1840100</v>
+        <v>21362700</v>
       </c>
       <c r="FQ4" s="7">
         <f>(FL4+FM4)/FP4</f>
-        <v>0.13390467909352752</v>
+        <v>2.5034288736910597E-2</v>
       </c>
       <c r="FR4" s="8">
-        <v>0</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="FS4" s="1"/>
       <c r="FT4" s="5">
         <v>45250</v>
       </c>
       <c r="FU4" s="6">
-        <v>1500</v>
+        <v>229100</v>
       </c>
       <c r="FV4" s="6">
-        <v>107000</v>
+        <v>17298</v>
       </c>
       <c r="FW4" s="6">
-        <f>FU4-FV4</f>
-        <v>-105500</v>
+        <f t="shared" ref="FW4:FW10" si="19">FU4-FV4</f>
+        <v>211802</v>
       </c>
       <c r="FX4" s="6">
-        <v>-7409130</v>
+        <v>19723470</v>
       </c>
       <c r="FY4" s="6">
-        <v>613500</v>
+        <v>1840100</v>
       </c>
       <c r="FZ4" s="7">
         <f>(FU4+FV4)/FY4</f>
+        <v>0.13390467909352752</v>
+      </c>
+      <c r="GA4" s="8">
+        <v>0</v>
+      </c>
+      <c r="GB4" s="1"/>
+      <c r="GC4" s="5">
+        <v>45250</v>
+      </c>
+      <c r="GD4" s="6">
+        <v>1500</v>
+      </c>
+      <c r="GE4" s="6">
+        <v>107000</v>
+      </c>
+      <c r="GF4" s="6">
+        <f t="shared" ref="GF4:GF10" si="20">GD4-GE4</f>
+        <v>-105500</v>
+      </c>
+      <c r="GG4" s="6">
+        <v>-7409130</v>
+      </c>
+      <c r="GH4" s="6">
+        <v>613500</v>
+      </c>
+      <c r="GI4" s="7">
+        <f>(GD4+GE4)/GH4</f>
         <v>0.17685411572942136</v>
       </c>
-      <c r="GA4" s="8">
+      <c r="GJ4" s="8">
         <v>-1.55E-2</v>
       </c>
-      <c r="GB4" s="1"/>
+      <c r="GK4" s="1"/>
     </row>
-    <row r="5" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>45251</v>
       </c>
@@ -2546,7 +2744,7 @@
         <v>2.3599999999999999E-2</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" ref="I5:I10" si="6">IF(AND(H5&lt;-2%, B5&gt;C5), IF(AND(F5&gt; F30 + F30*0.15, B5&gt;B30+B30*0.15), 1, 0), 0)</f>
+        <f t="shared" ref="I5:I10" si="21">IF(AND(H5&lt;-2%, B5&gt;C5), IF(AND(F5&gt; F30 + F30*0.15, B5&gt;B30+B30*0.15), 1, 0), 0)</f>
         <v>0</v>
       </c>
       <c r="J5" s="9"/>
@@ -2571,14 +2769,14 @@
         <v>17289800</v>
       </c>
       <c r="R5" s="7">
-        <f t="shared" ref="R5:R27" si="7">(M5+N5)/Q5</f>
+        <f t="shared" ref="R5:R27" si="22">(M5+N5)/Q5</f>
         <v>0.16796880241529688</v>
       </c>
       <c r="S5" s="8">
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="T5" s="9">
-        <f t="shared" ref="T5:T10" si="8">IF(AND(S5&lt;-2%, M5&gt;N5), IF(AND(Q5&gt; Q29 + Q29*0.15, M5&gt; N31 + N31* 0.15), 1, 0), 0)</f>
+        <f t="shared" ref="T5:T10" si="23">IF(AND(S5&lt;-2%, M5&gt;N5), IF(AND(Q5&gt; Q29 + Q29*0.15, M5&gt; N31 + N31* 0.15), 1, 0), 0)</f>
         <v>0</v>
       </c>
       <c r="U5" s="1"/>
@@ -2602,14 +2800,14 @@
         <v>1256400</v>
       </c>
       <c r="AB5" s="7">
-        <f t="shared" ref="AB5:AB27" si="9">(W5+X5)/AA5</f>
+        <f t="shared" ref="AB5:AB27" si="24">(W5+X5)/AA5</f>
         <v>0.72284622731614134</v>
       </c>
       <c r="AC5" s="8">
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="AD5" s="9">
-        <f t="shared" ref="AD5:AD10" si="10">IF(AND(AC5&lt;-2%, W5&gt;X5), IF(AND(AA5&gt; AA31 + AA31*0.15, W5&gt;X31+X31*0.15), 1, 0), 0)</f>
+        <f t="shared" ref="AD5:AD10" si="25">IF(AND(AC5&lt;-2%, W5&gt;X5), IF(AND(AA5&gt; AA31 + AA31*0.15, W5&gt;X31+X31*0.15), 1, 0), 0)</f>
         <v>0</v>
       </c>
       <c r="AE5" s="1"/>
@@ -2633,7 +2831,7 @@
         <v>33669600</v>
       </c>
       <c r="AL5" s="7">
-        <f t="shared" ref="AL5:AL27" si="11">(AG5+AH5)/AK5</f>
+        <f t="shared" ref="AL5:AL27" si="26">(AG5+AH5)/AK5</f>
         <v>0.56837414165894462</v>
       </c>
       <c r="AM5" s="8">
@@ -2650,7 +2848,7 @@
         <v>195500</v>
       </c>
       <c r="AR5" s="6">
-        <f>AP5-AQ5</f>
+        <f t="shared" si="5"/>
         <v>260600</v>
       </c>
       <c r="AS5" s="6">
@@ -2660,7 +2858,7 @@
         <v>7061500</v>
       </c>
       <c r="AU5" s="7">
-        <f t="shared" ref="AU5:AU27" si="12">(AP5+AQ5)/AT5</f>
+        <f t="shared" ref="AU5:AU27" si="27">(AP5+AQ5)/AT5</f>
         <v>9.2275012391135031E-2</v>
       </c>
       <c r="AV5" s="8">
@@ -2677,7 +2875,7 @@
         <v>1426237</v>
       </c>
       <c r="BA5" s="6">
-        <f>AY5-AZ5</f>
+        <f t="shared" si="6"/>
         <v>-1078227</v>
       </c>
       <c r="BB5" s="6">
@@ -2687,7 +2885,7 @@
         <v>26772700</v>
       </c>
       <c r="BD5" s="7">
-        <f t="shared" ref="BD5:BD27" si="13">(AY5+AZ5)/BC5</f>
+        <f t="shared" ref="BD5:BD27" si="28">(AY5+AZ5)/BC5</f>
         <v>6.6270753416726738E-2</v>
       </c>
       <c r="BE5" s="8">
@@ -2704,7 +2902,7 @@
         <v>238300</v>
       </c>
       <c r="BJ5" s="6">
-        <f t="shared" ref="BJ5:BJ10" si="14">BH5-BI5</f>
+        <f t="shared" ref="BJ5:BJ10" si="29">BH5-BI5</f>
         <v>82200</v>
       </c>
       <c r="BK5" s="6">
@@ -2714,7 +2912,7 @@
         <v>17533500</v>
       </c>
       <c r="BM5" s="7">
-        <f t="shared" ref="BM5:BM27" si="15">(BH5+BI5)/BL5</f>
+        <f t="shared" ref="BM5:BM27" si="30">(BH5+BI5)/BL5</f>
         <v>3.187041948270454E-2</v>
       </c>
       <c r="BN5" s="8">
@@ -2731,7 +2929,7 @@
         <v>1703500</v>
       </c>
       <c r="BS5" s="6">
-        <f>BQ5-BR5</f>
+        <f t="shared" si="7"/>
         <v>-574600</v>
       </c>
       <c r="BT5" s="6">
@@ -2741,7 +2939,7 @@
         <v>6743700</v>
       </c>
       <c r="BV5" s="7">
-        <f t="shared" ref="BV5:BV27" si="16">(BQ5+BR5)/BU5</f>
+        <f t="shared" ref="BV5:BV27" si="31">(BQ5+BR5)/BU5</f>
         <v>0.42000682118125066</v>
       </c>
       <c r="BW5" s="8">
@@ -2758,7 +2956,7 @@
         <v>3014500</v>
       </c>
       <c r="CB5" s="6">
-        <f>BZ5-CA5</f>
+        <f t="shared" si="8"/>
         <v>-2597040</v>
       </c>
       <c r="CC5" s="6">
@@ -2768,7 +2966,7 @@
         <v>4601900</v>
       </c>
       <c r="CE5" s="7">
-        <f t="shared" ref="CE5:CE27" si="17">(BZ5+CA5)/CD5</f>
+        <f t="shared" ref="CE5:CE27" si="32">(BZ5+CA5)/CD5</f>
         <v>0.74577022534170667</v>
       </c>
       <c r="CF5" s="8">
@@ -2785,7 +2983,7 @@
         <v>1819270</v>
       </c>
       <c r="CK5" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1359222</v>
       </c>
       <c r="CL5" s="6">
@@ -2795,7 +2993,7 @@
         <v>4789100</v>
       </c>
       <c r="CN5" s="7">
-        <f t="shared" ref="CN5:CN27" si="18">(CI5+CJ5)/CM5</f>
+        <f t="shared" ref="CN5:CN27" si="33">(CI5+CJ5)/CM5</f>
         <v>0.47593869411789269</v>
       </c>
       <c r="CO5" s="8">
@@ -2812,7 +3010,7 @@
         <v>364600</v>
       </c>
       <c r="CT5" s="6">
-        <f>CR5-CS5</f>
+        <f t="shared" si="10"/>
         <v>-61500</v>
       </c>
       <c r="CU5" s="6">
@@ -2822,7 +3020,7 @@
         <v>31277360</v>
       </c>
       <c r="CW5" s="7">
-        <f t="shared" ref="CW5:CW27" si="19">(CR5+CS5)/CV5</f>
+        <f t="shared" ref="CW5:CW27" si="34">(CR5+CS5)/CV5</f>
         <v>2.1347709653244392E-2</v>
       </c>
       <c r="CX5" s="8">
@@ -2839,7 +3037,7 @@
         <v>609100</v>
       </c>
       <c r="DC5" s="6">
-        <f>DA5-DB5</f>
+        <f t="shared" si="11"/>
         <v>-103200</v>
       </c>
       <c r="DD5" s="6">
@@ -2849,7 +3047,7 @@
         <v>13436900</v>
       </c>
       <c r="DF5" s="7">
-        <f t="shared" ref="DF5:DF27" si="20">(DA5+DB5)/DE5</f>
+        <f t="shared" ref="DF5:DF27" si="35">(DA5+DB5)/DE5</f>
         <v>8.2980449359599306E-2</v>
       </c>
       <c r="DG5" s="8">
@@ -2866,7 +3064,7 @@
         <v>294500</v>
       </c>
       <c r="DL5" s="6">
-        <f>DJ5-DK5</f>
+        <f t="shared" si="12"/>
         <v>-284400</v>
       </c>
       <c r="DM5" s="6">
@@ -2876,7 +3074,7 @@
         <v>14470900</v>
       </c>
       <c r="DO5" s="7">
-        <f t="shared" ref="DO5:DO27" si="21">(DJ5+DK5)/DN5</f>
+        <f t="shared" ref="DO5:DO27" si="36">(DJ5+DK5)/DN5</f>
         <v>2.1049139998203292E-2</v>
       </c>
       <c r="DP5" s="8">
@@ -2893,7 +3091,7 @@
         <v>149500</v>
       </c>
       <c r="DU5" s="6">
-        <f>DS5-DT5</f>
+        <f t="shared" si="13"/>
         <v>240200</v>
       </c>
       <c r="DV5" s="6">
@@ -2903,7 +3101,7 @@
         <v>6030600</v>
       </c>
       <c r="DX5" s="7">
-        <f t="shared" ref="DX5:DX27" si="22">(DS5+DT5)/DW5</f>
+        <f t="shared" ref="DX5:DX27" si="37">(DS5+DT5)/DW5</f>
         <v>8.9410672238251582E-2</v>
       </c>
       <c r="DY5" s="8">
@@ -2920,7 +3118,7 @@
         <v>227800</v>
       </c>
       <c r="ED5" s="6">
-        <f>EB5-EC5</f>
+        <f t="shared" si="14"/>
         <v>-63900</v>
       </c>
       <c r="EE5" s="6">
@@ -2930,7 +3128,7 @@
         <v>774200</v>
       </c>
       <c r="EG5" s="7">
-        <f t="shared" ref="EG5:EG27" si="23">(EB5+EC5)/EF5</f>
+        <f t="shared" ref="EG5:EG27" si="38">(EB5+EC5)/EF5</f>
         <v>0.50594161715319041</v>
       </c>
       <c r="EH5" s="8">
@@ -2947,7 +3145,7 @@
         <v>5800</v>
       </c>
       <c r="EM5" s="6">
-        <f>EK5-EL5</f>
+        <f t="shared" si="15"/>
         <v>-2600</v>
       </c>
       <c r="EN5" s="6">
@@ -2957,7 +3155,7 @@
         <v>1479300</v>
       </c>
       <c r="EP5" s="7">
-        <f t="shared" ref="EP5:EP27" si="24">(EK5+EL5)/EO5</f>
+        <f t="shared" ref="EP5:EP27" si="39">(EK5+EL5)/EO5</f>
         <v>6.0839586290813222E-3</v>
       </c>
       <c r="EQ5" s="8">
@@ -2974,7 +3172,7 @@
         <v>171999</v>
       </c>
       <c r="EV5" s="6">
-        <f>ET5-EU5</f>
+        <f t="shared" si="16"/>
         <v>-171399</v>
       </c>
       <c r="EW5" s="6">
@@ -2984,7 +3182,7 @@
         <v>3492200</v>
       </c>
       <c r="EY5" s="7">
-        <f t="shared" ref="EY5:EY27" si="25">(ET5+EU5)/EX5</f>
+        <f t="shared" ref="EY5:EY27" si="40">(ET5+EU5)/EX5</f>
         <v>4.9424145237958877E-2</v>
       </c>
       <c r="EZ5" s="8">
@@ -2995,85 +3193,112 @@
         <v>45251</v>
       </c>
       <c r="FC5" s="6">
-        <v>22200</v>
+        <v>2000</v>
       </c>
       <c r="FD5" s="6">
-        <v>355900</v>
+        <v>196600</v>
       </c>
       <c r="FE5" s="6">
-        <f>FC5-FD5</f>
-        <v>-333700</v>
+        <f t="shared" si="17"/>
+        <v>-194600</v>
       </c>
       <c r="FF5" s="6">
-        <v>-7350140</v>
+        <v>-4471310</v>
       </c>
       <c r="FG5" s="6">
-        <v>11893400</v>
+        <v>5981100</v>
       </c>
       <c r="FH5" s="7">
-        <f t="shared" ref="FH5:FH27" si="26">(FC5+FD5)/FG5</f>
-        <v>3.1790741083289893E-2</v>
+        <f t="shared" ref="FH5:FH27" si="41">(FC5+FD5)/FG5</f>
+        <v>3.3204594472588653E-2</v>
       </c>
       <c r="FI5" s="8">
-        <v>1.83E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="FJ5" s="1"/>
       <c r="FK5" s="5">
         <v>45251</v>
       </c>
       <c r="FL5" s="6">
-        <v>384400</v>
+        <v>22200</v>
       </c>
       <c r="FM5" s="6">
-        <v>280300</v>
+        <v>355900</v>
       </c>
       <c r="FN5" s="6">
-        <f>FL5-FM5</f>
-        <v>104100</v>
+        <f t="shared" si="18"/>
+        <v>-333700</v>
       </c>
       <c r="FO5" s="6">
-        <v>9861300</v>
+        <v>-7350140</v>
       </c>
       <c r="FP5" s="6">
-        <v>2232100</v>
+        <v>11893400</v>
       </c>
       <c r="FQ5" s="7">
-        <f t="shared" ref="FQ5:FQ27" si="27">(FL5+FM5)/FP5</f>
-        <v>0.2977913175932978</v>
+        <f t="shared" ref="FQ5:FQ27" si="42">(FL5+FM5)/FP5</f>
+        <v>3.1790741083289893E-2</v>
       </c>
       <c r="FR5" s="8">
-        <v>1.7100000000000001E-2</v>
+        <v>1.83E-2</v>
       </c>
       <c r="FS5" s="1"/>
       <c r="FT5" s="5">
         <v>45251</v>
       </c>
       <c r="FU5" s="6">
+        <v>384400</v>
+      </c>
+      <c r="FV5" s="6">
+        <v>280300</v>
+      </c>
+      <c r="FW5" s="6">
+        <f t="shared" si="19"/>
+        <v>104100</v>
+      </c>
+      <c r="FX5" s="6">
+        <v>9861300</v>
+      </c>
+      <c r="FY5" s="6">
+        <v>2232100</v>
+      </c>
+      <c r="FZ5" s="7">
+        <f t="shared" ref="FZ5:FZ27" si="43">(FU5+FV5)/FY5</f>
+        <v>0.2977913175932978</v>
+      </c>
+      <c r="GA5" s="8">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="GB5" s="1"/>
+      <c r="GC5" s="5">
+        <v>45251</v>
+      </c>
+      <c r="GD5" s="6">
         <v>600</v>
       </c>
-      <c r="FV5" s="6">
+      <c r="GE5" s="6">
         <v>198100</v>
       </c>
-      <c r="FW5" s="6">
-        <f>FU5-FV5</f>
+      <c r="GF5" s="6">
+        <f t="shared" si="20"/>
         <v>-197500</v>
       </c>
-      <c r="FX5" s="6">
+      <c r="GG5" s="6">
         <v>-13927430</v>
       </c>
-      <c r="FY5" s="6">
+      <c r="GH5" s="6">
         <v>559000</v>
       </c>
-      <c r="FZ5" s="7">
-        <f t="shared" ref="FZ5:FZ27" si="28">(FU5+FV5)/FY5</f>
+      <c r="GI5" s="7">
+        <f t="shared" ref="GI5:GI27" si="44">(GD5+GE5)/GH5</f>
         <v>0.35545617173524152</v>
       </c>
-      <c r="GA5" s="8">
+      <c r="GJ5" s="8">
         <v>1.43E-2</v>
       </c>
-      <c r="GB5" s="1"/>
+      <c r="GK5" s="1"/>
     </row>
-    <row r="6" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>45252</v>
       </c>
@@ -3101,7 +3326,7 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J6" s="9"/>
@@ -3126,14 +3351,14 @@
         <v>22922800</v>
       </c>
       <c r="R6" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>0.10476481930654195</v>
       </c>
       <c r="S6" s="8">
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="T6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U6" s="1"/>
@@ -3157,14 +3382,14 @@
         <v>1071700</v>
       </c>
       <c r="AB6" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0.74374918354016983</v>
       </c>
       <c r="AC6" s="8">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="AD6" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AE6" s="1"/>
@@ -3188,7 +3413,7 @@
         <v>38807213</v>
       </c>
       <c r="AL6" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>0.6539024072664017</v>
       </c>
       <c r="AM6" s="8">
@@ -3205,7 +3430,7 @@
         <v>668000</v>
       </c>
       <c r="AR6" s="6">
-        <f>AP6-AQ6</f>
+        <f t="shared" si="5"/>
         <v>3574700</v>
       </c>
       <c r="AS6" s="6">
@@ -3215,7 +3440,7 @@
         <v>22780700</v>
       </c>
       <c r="AU6" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>0.21556405202649612</v>
       </c>
       <c r="AV6" s="8">
@@ -3232,7 +3457,7 @@
         <v>1643922</v>
       </c>
       <c r="BA6" s="6">
-        <f>AY6-AZ6</f>
+        <f t="shared" si="6"/>
         <v>-630475</v>
       </c>
       <c r="BB6" s="6">
@@ -3242,7 +3467,7 @@
         <v>17945500</v>
       </c>
       <c r="BD6" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>0.14807996433646317</v>
       </c>
       <c r="BE6" s="8">
@@ -3259,7 +3484,7 @@
         <v>820</v>
       </c>
       <c r="BJ6" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>1566984</v>
       </c>
       <c r="BK6" s="6">
@@ -3269,7 +3494,7 @@
         <v>11798900</v>
       </c>
       <c r="BM6" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>0.13294663061810846</v>
       </c>
       <c r="BN6" s="8">
@@ -3286,7 +3511,7 @@
         <v>2700900</v>
       </c>
       <c r="BS6" s="6">
-        <f>BQ6-BR6</f>
+        <f t="shared" si="7"/>
         <v>-1465000</v>
       </c>
       <c r="BT6" s="6">
@@ -3296,7 +3521,7 @@
         <v>15397500</v>
       </c>
       <c r="BV6" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>0.25567786978405588</v>
       </c>
       <c r="BW6" s="8">
@@ -3313,7 +3538,7 @@
         <v>2139210</v>
       </c>
       <c r="CB6" s="6">
-        <f>BZ6-CA6</f>
+        <f t="shared" si="8"/>
         <v>-1950120</v>
       </c>
       <c r="CC6" s="6">
@@ -3323,7 +3548,7 @@
         <v>3400700</v>
       </c>
       <c r="CE6" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0.68465315964360274</v>
       </c>
       <c r="CF6" s="8">
@@ -3340,7 +3565,7 @@
         <v>2297494</v>
       </c>
       <c r="CK6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1877118</v>
       </c>
       <c r="CL6" s="6">
@@ -3350,7 +3575,7 @@
         <v>5807600</v>
       </c>
       <c r="CN6" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.46798505406708452</v>
       </c>
       <c r="CO6" s="8">
@@ -3367,7 +3592,7 @@
         <v>250900</v>
       </c>
       <c r="CT6" s="6">
-        <f>CR6-CS6</f>
+        <f t="shared" si="10"/>
         <v>113500</v>
       </c>
       <c r="CU6" s="6">
@@ -3377,7 +3602,7 @@
         <v>71894251</v>
       </c>
       <c r="CW6" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>8.5584033694154488E-3</v>
       </c>
       <c r="CX6" s="8">
@@ -3394,7 +3619,7 @@
         <v>309317</v>
       </c>
       <c r="DC6" s="6">
-        <f>DA6-DB6</f>
+        <f t="shared" si="11"/>
         <v>-240317</v>
       </c>
       <c r="DD6" s="6">
@@ -3404,7 +3629,7 @@
         <v>13279400</v>
       </c>
       <c r="DF6" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>2.8489013057818879E-2</v>
       </c>
       <c r="DG6" s="8">
@@ -3421,7 +3646,7 @@
         <v>591615</v>
       </c>
       <c r="DL6" s="6">
-        <f>DJ6-DK6</f>
+        <f t="shared" si="12"/>
         <v>-575405</v>
       </c>
       <c r="DM6" s="6">
@@ -3431,7 +3656,7 @@
         <v>67956600</v>
       </c>
       <c r="DO6" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>8.9443115164678632E-3</v>
       </c>
       <c r="DP6" s="8">
@@ -3448,7 +3673,7 @@
         <v>186613</v>
       </c>
       <c r="DU6" s="6">
-        <f>DS6-DT6</f>
+        <f t="shared" si="13"/>
         <v>-27113</v>
       </c>
       <c r="DV6" s="6">
@@ -3458,7 +3683,7 @@
         <v>7206100</v>
       </c>
       <c r="DX6" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>4.8030557444387396E-2</v>
       </c>
       <c r="DY6" s="8">
@@ -3475,7 +3700,7 @@
         <v>123500</v>
       </c>
       <c r="ED6" s="6">
-        <f>EB6-EC6</f>
+        <f t="shared" si="14"/>
         <v>-43300</v>
       </c>
       <c r="EE6" s="6">
@@ -3485,7 +3710,7 @@
         <v>498800</v>
       </c>
       <c r="EG6" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>0.40838011226944665</v>
       </c>
       <c r="EH6" s="8">
@@ -3502,7 +3727,7 @@
         <v>25600</v>
       </c>
       <c r="EM6" s="6">
-        <f>EK6-EL6</f>
+        <f t="shared" si="15"/>
         <v>-25200</v>
       </c>
       <c r="EN6" s="6">
@@ -3512,7 +3737,7 @@
         <v>3205100</v>
       </c>
       <c r="EP6" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>8.1120713862281989E-3</v>
       </c>
       <c r="EQ6" s="8">
@@ -3529,7 +3754,7 @@
         <v>11813</v>
       </c>
       <c r="EV6" s="6">
-        <f>ET6-EU6</f>
+        <f t="shared" si="16"/>
         <v>-11813</v>
       </c>
       <c r="EW6" s="6">
@@ -3539,7 +3764,7 @@
         <v>1675300</v>
       </c>
       <c r="EY6" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>7.0512743986151736E-3</v>
       </c>
       <c r="EZ6" s="8">
@@ -3550,85 +3775,112 @@
         <v>45252</v>
       </c>
       <c r="FC6" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="FD6" s="6">
-        <v>475000</v>
+        <v>211800</v>
       </c>
       <c r="FE6" s="6">
-        <f>FC6-FD6</f>
-        <v>-473000</v>
+        <f t="shared" si="17"/>
+        <v>-211800</v>
       </c>
       <c r="FF6" s="6">
-        <v>-10731370</v>
+        <v>-5098470</v>
       </c>
       <c r="FG6" s="6">
-        <v>43215800</v>
+        <v>12447600</v>
       </c>
       <c r="FH6" s="7">
-        <f t="shared" si="26"/>
-        <v>1.1037629755783764E-2</v>
+        <f t="shared" si="41"/>
+        <v>1.7015328256049359E-2</v>
       </c>
       <c r="FI6" s="8">
-        <v>3.8100000000000002E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="FJ6" s="1"/>
       <c r="FK6" s="5">
         <v>45252</v>
       </c>
       <c r="FL6" s="6">
-        <v>100847</v>
+        <v>2000</v>
       </c>
       <c r="FM6" s="6">
-        <v>85500</v>
+        <v>475000</v>
       </c>
       <c r="FN6" s="6">
-        <f>FL6-FM6</f>
-        <v>15347</v>
+        <f t="shared" si="18"/>
+        <v>-473000</v>
       </c>
       <c r="FO6" s="6">
-        <v>1456870</v>
+        <v>-10731370</v>
       </c>
       <c r="FP6" s="6">
-        <v>3916500</v>
+        <v>43215800</v>
       </c>
       <c r="FQ6" s="7">
-        <f t="shared" si="27"/>
-        <v>4.7579982126899019E-2</v>
+        <f t="shared" si="42"/>
+        <v>1.1037629755783764E-2</v>
       </c>
       <c r="FR6" s="8">
-        <v>1.37E-2</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="FS6" s="1"/>
       <c r="FT6" s="5">
         <v>45252</v>
       </c>
       <c r="FU6" s="6">
+        <v>100847</v>
+      </c>
+      <c r="FV6" s="6">
+        <v>85500</v>
+      </c>
+      <c r="FW6" s="6">
+        <f t="shared" si="19"/>
+        <v>15347</v>
+      </c>
+      <c r="FX6" s="6">
+        <v>1456870</v>
+      </c>
+      <c r="FY6" s="6">
+        <v>3916500</v>
+      </c>
+      <c r="FZ6" s="7">
+        <f t="shared" si="43"/>
+        <v>4.7579982126899019E-2</v>
+      </c>
+      <c r="GA6" s="8">
+        <v>1.37E-2</v>
+      </c>
+      <c r="GB6" s="1"/>
+      <c r="GC6" s="5">
+        <v>45252</v>
+      </c>
+      <c r="GD6" s="6">
         <v>16700</v>
       </c>
-      <c r="FV6" s="6">
+      <c r="GE6" s="6">
         <v>303800</v>
       </c>
-      <c r="FW6" s="6">
-        <f>FU6-FV6</f>
+      <c r="GF6" s="6">
+        <f t="shared" si="20"/>
         <v>-287100</v>
       </c>
-      <c r="FX6" s="6">
+      <c r="GG6" s="6">
         <v>-20318170</v>
       </c>
-      <c r="FY6" s="6">
+      <c r="GH6" s="6">
         <v>659500</v>
       </c>
-      <c r="FZ6" s="7">
-        <f t="shared" si="28"/>
+      <c r="GI6" s="7">
+        <f t="shared" si="44"/>
         <v>0.48597422289613346</v>
       </c>
-      <c r="GA6" s="8">
+      <c r="GJ6" s="8">
         <v>0</v>
       </c>
-      <c r="GB6" s="1"/>
+      <c r="GK6" s="1"/>
     </row>
-    <row r="7" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>45253</v>
       </c>
@@ -3656,7 +3908,7 @@
         <v>-5.9400000000000001E-2</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="J7" s="9"/>
@@ -3681,14 +3933,14 @@
         <v>27082200</v>
       </c>
       <c r="R7" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>4.287871738632755E-2</v>
       </c>
       <c r="S7" s="8">
         <v>-6.08E-2</v>
       </c>
       <c r="T7" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U7" s="1"/>
@@ -3712,14 +3964,14 @@
         <v>647200</v>
       </c>
       <c r="AB7" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0.83399876390605687</v>
       </c>
       <c r="AC7" s="8">
         <v>-1.38E-2</v>
       </c>
       <c r="AD7" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AE7" s="1"/>
@@ -3743,7 +3995,7 @@
         <v>10595200</v>
       </c>
       <c r="AL7" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>0.52838172002416184</v>
       </c>
       <c r="AM7" s="8">
@@ -3760,7 +4012,7 @@
         <v>873200</v>
       </c>
       <c r="AR7" s="6">
-        <f>AP7-AQ7</f>
+        <f t="shared" si="5"/>
         <v>-517300</v>
       </c>
       <c r="AS7" s="6">
@@ -3770,7 +4022,7 @@
         <v>16575800</v>
       </c>
       <c r="AU7" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>7.4150267257085636E-2</v>
       </c>
       <c r="AV7" s="8">
@@ -3787,7 +4039,7 @@
         <v>1433905</v>
       </c>
       <c r="BA7" s="6">
-        <f>AY7-AZ7</f>
+        <f t="shared" si="6"/>
         <v>-84105</v>
       </c>
       <c r="BB7" s="6">
@@ -3797,7 +4049,7 @@
         <v>21684500</v>
       </c>
       <c r="BD7" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>0.12837303142797851</v>
       </c>
       <c r="BE7" s="8">
@@ -3814,7 +4066,7 @@
         <v>40700</v>
       </c>
       <c r="BJ7" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>590100</v>
       </c>
       <c r="BK7" s="6">
@@ -3824,7 +4076,7 @@
         <v>17641000</v>
       </c>
       <c r="BM7" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>3.8064735559208661E-2</v>
       </c>
       <c r="BN7" s="8">
@@ -3841,7 +4093,7 @@
         <v>2160062</v>
       </c>
       <c r="BS7" s="6">
-        <f>BQ7-BR7</f>
+        <f t="shared" si="7"/>
         <v>-1035617</v>
       </c>
       <c r="BT7" s="6">
@@ -3851,7 +4103,7 @@
         <v>8073600</v>
       </c>
       <c r="BV7" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>0.40682062524772095</v>
       </c>
       <c r="BW7" s="8">
@@ -3868,7 +4120,7 @@
         <v>2566800</v>
       </c>
       <c r="CB7" s="6">
-        <f>BZ7-CA7</f>
+        <f t="shared" si="8"/>
         <v>-2385300</v>
       </c>
       <c r="CC7" s="6">
@@ -3878,7 +4130,7 @@
         <v>5353700</v>
       </c>
       <c r="CE7" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0.51334591030502275</v>
       </c>
       <c r="CF7" s="8">
@@ -3895,7 +4147,7 @@
         <v>3351900</v>
       </c>
       <c r="CK7" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3004700</v>
       </c>
       <c r="CL7" s="6">
@@ -3905,7 +4157,7 @@
         <v>7659600</v>
       </c>
       <c r="CN7" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.48293644576740302</v>
       </c>
       <c r="CO7" s="8">
@@ -3922,7 +4174,7 @@
         <v>1236810</v>
       </c>
       <c r="CT7" s="6">
-        <f>CR7-CS7</f>
+        <f t="shared" si="10"/>
         <v>-496710</v>
       </c>
       <c r="CU7" s="6">
@@ -3932,7 +4184,7 @@
         <v>22132100</v>
       </c>
       <c r="CW7" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>8.9323200238567504E-2</v>
       </c>
       <c r="CX7" s="8">
@@ -3949,7 +4201,7 @@
         <v>1262500</v>
       </c>
       <c r="DC7" s="6">
-        <f>DA7-DB7</f>
+        <f t="shared" si="11"/>
         <v>-995300</v>
       </c>
       <c r="DD7" s="6">
@@ -3959,7 +4211,7 @@
         <v>24849800</v>
       </c>
       <c r="DF7" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>6.155783949971428E-2</v>
       </c>
       <c r="DG7" s="8">
@@ -3976,7 +4228,7 @@
         <v>448300</v>
       </c>
       <c r="DL7" s="6">
-        <f>DJ7-DK7</f>
+        <f t="shared" si="12"/>
         <v>189800</v>
       </c>
       <c r="DM7" s="6">
@@ -3986,7 +4238,7 @@
         <v>59213200</v>
       </c>
       <c r="DO7" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>1.8347260408152235E-2</v>
       </c>
       <c r="DP7" s="8">
@@ -4003,7 +4255,7 @@
         <v>674200</v>
       </c>
       <c r="DU7" s="6">
-        <f>DS7-DT7</f>
+        <f t="shared" si="13"/>
         <v>-172000</v>
       </c>
       <c r="DV7" s="6">
@@ -4013,7 +4265,7 @@
         <v>9273800</v>
       </c>
       <c r="DX7" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>0.12685199163234057</v>
       </c>
       <c r="DY7" s="8">
@@ -4030,7 +4282,7 @@
         <v>126000</v>
       </c>
       <c r="ED7" s="6">
-        <f>EB7-EC7</f>
+        <f t="shared" si="14"/>
         <v>332400</v>
       </c>
       <c r="EE7" s="6">
@@ -4040,7 +4292,7 @@
         <v>870700</v>
       </c>
       <c r="EG7" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>0.67118410474331003</v>
       </c>
       <c r="EH7" s="8">
@@ -4057,7 +4309,7 @@
         <v>114800</v>
       </c>
       <c r="EM7" s="6">
-        <f>EK7-EL7</f>
+        <f t="shared" si="15"/>
         <v>-93100</v>
       </c>
       <c r="EN7" s="6">
@@ -4067,7 +4319,7 @@
         <v>3167100</v>
       </c>
       <c r="EP7" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>4.3099365350004734E-2</v>
       </c>
       <c r="EQ7" s="8">
@@ -4084,7 +4336,7 @@
         <v>76900</v>
       </c>
       <c r="EV7" s="6">
-        <f>ET7-EU7</f>
+        <f t="shared" si="16"/>
         <v>-64400</v>
       </c>
       <c r="EW7" s="6">
@@ -4094,7 +4346,7 @@
         <v>2116700</v>
       </c>
       <c r="EY7" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>4.223555534558511E-2</v>
       </c>
       <c r="EZ7" s="8">
@@ -4104,86 +4356,113 @@
       <c r="FB7" s="5">
         <v>45253</v>
       </c>
-      <c r="FC7" s="6">
-        <v>284000</v>
+      <c r="FC7" s="55">
+        <v>23300</v>
       </c>
       <c r="FD7" s="6">
-        <v>1208400</v>
+        <v>520700</v>
       </c>
       <c r="FE7" s="6">
-        <f>FC7-FD7</f>
-        <v>-924400</v>
+        <f t="shared" si="17"/>
+        <v>-497400</v>
       </c>
       <c r="FF7" s="6">
-        <v>-21295961</v>
+        <v>-11929700</v>
       </c>
       <c r="FG7" s="6">
-        <v>27252600</v>
+        <v>12261600</v>
       </c>
       <c r="FH7" s="7">
-        <f t="shared" si="26"/>
-        <v>5.4761747502990538E-2</v>
+        <f t="shared" si="41"/>
+        <v>4.4366151236380241E-2</v>
       </c>
       <c r="FI7" s="8">
-        <v>-6.9099999999999995E-2</v>
+        <v>-6.6699999999999995E-2</v>
       </c>
       <c r="FJ7" s="1"/>
       <c r="FK7" s="5">
         <v>45253</v>
       </c>
       <c r="FL7" s="6">
-        <v>1206250</v>
+        <v>284000</v>
       </c>
       <c r="FM7" s="6">
-        <v>228700</v>
+        <v>1208400</v>
       </c>
       <c r="FN7" s="6">
-        <f>FL7-FM7</f>
-        <v>977550</v>
+        <f t="shared" si="18"/>
+        <v>-924400</v>
       </c>
       <c r="FO7" s="6">
-        <v>92925637</v>
+        <v>-21295961</v>
       </c>
       <c r="FP7" s="6">
-        <v>2597700</v>
+        <v>27252600</v>
       </c>
       <c r="FQ7" s="7">
-        <f t="shared" si="27"/>
-        <v>0.5523925010586288</v>
+        <f t="shared" si="42"/>
+        <v>5.4761747502990538E-2</v>
       </c>
       <c r="FR7" s="8">
-        <v>-3.4299999999999997E-2</v>
+        <v>-6.9099999999999995E-2</v>
       </c>
       <c r="FS7" s="1"/>
       <c r="FT7" s="5">
         <v>45253</v>
       </c>
       <c r="FU7" s="6">
+        <v>1206250</v>
+      </c>
+      <c r="FV7" s="6">
+        <v>228700</v>
+      </c>
+      <c r="FW7" s="6">
+        <f t="shared" si="19"/>
+        <v>977550</v>
+      </c>
+      <c r="FX7" s="6">
+        <v>92925637</v>
+      </c>
+      <c r="FY7" s="6">
+        <v>2597700</v>
+      </c>
+      <c r="FZ7" s="7">
+        <f t="shared" si="43"/>
+        <v>0.5523925010586288</v>
+      </c>
+      <c r="GA7" s="8">
+        <v>-3.4299999999999997E-2</v>
+      </c>
+      <c r="GB7" s="1"/>
+      <c r="GC7" s="5">
+        <v>45253</v>
+      </c>
+      <c r="GD7" s="6">
         <v>1300</v>
       </c>
-      <c r="FV7" s="6">
+      <c r="GE7" s="6">
         <v>194700</v>
       </c>
-      <c r="FW7" s="6">
-        <f>FU7-FV7</f>
+      <c r="GF7" s="6">
+        <f t="shared" si="20"/>
         <v>-193400</v>
       </c>
-      <c r="FX7" s="6">
+      <c r="GG7" s="6">
         <v>-13755250</v>
       </c>
-      <c r="FY7" s="6">
+      <c r="GH7" s="6">
         <v>796600</v>
       </c>
-      <c r="FZ7" s="7">
-        <f t="shared" si="28"/>
+      <c r="GI7" s="7">
+        <f t="shared" si="44"/>
         <v>0.24604569420035149</v>
       </c>
-      <c r="GA7" s="8">
+      <c r="GJ7" s="8">
         <v>-2.1100000000000001E-2</v>
       </c>
-      <c r="GB7" s="1"/>
+      <c r="GK7" s="1"/>
     </row>
-    <row r="8" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>45254</v>
       </c>
@@ -4211,7 +4490,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J8" s="9"/>
@@ -4236,14 +4515,14 @@
         <v>24682500</v>
       </c>
       <c r="R8" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>7.9170789020561128E-2</v>
       </c>
       <c r="S8" s="8">
         <v>3.56E-2</v>
       </c>
       <c r="T8" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U8" s="1"/>
@@ -4267,14 +4546,14 @@
         <v>734500</v>
       </c>
       <c r="AB8" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0.33164057181756296</v>
       </c>
       <c r="AC8" s="8">
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="AD8" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AE8" s="1"/>
@@ -4298,7 +4577,7 @@
         <v>10847900</v>
       </c>
       <c r="AL8" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>0.20254611491625107</v>
       </c>
       <c r="AM8" s="8">
@@ -4315,7 +4594,7 @@
         <v>345400</v>
       </c>
       <c r="AR8" s="6">
-        <f>AP8-AQ8</f>
+        <f t="shared" si="5"/>
         <v>1159800</v>
       </c>
       <c r="AS8" s="6">
@@ -4325,7 +4604,7 @@
         <v>23863000</v>
       </c>
       <c r="AU8" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>7.7551020408163265E-2</v>
       </c>
       <c r="AV8" s="8">
@@ -4342,7 +4621,7 @@
         <v>4926400</v>
       </c>
       <c r="BA8" s="6">
-        <f>AY8-AZ8</f>
+        <f t="shared" si="6"/>
         <v>-1054500</v>
       </c>
       <c r="BB8" s="6">
@@ -4352,7 +4631,7 @@
         <v>26228500</v>
       </c>
       <c r="BD8" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>0.33544808128562442</v>
       </c>
       <c r="BE8" s="8">
@@ -4369,7 +4648,7 @@
         <v>100</v>
       </c>
       <c r="BJ8" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>1313300</v>
       </c>
       <c r="BK8" s="6">
@@ -4379,7 +4658,7 @@
         <v>17659300</v>
       </c>
       <c r="BM8" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>7.4380071690270846E-2</v>
       </c>
       <c r="BN8" s="8">
@@ -4396,7 +4675,7 @@
         <v>1526100</v>
       </c>
       <c r="BS8" s="6">
-        <f>BQ8-BR8</f>
+        <f t="shared" si="7"/>
         <v>171500</v>
       </c>
       <c r="BT8" s="6">
@@ -4406,7 +4685,7 @@
         <v>11181000</v>
       </c>
       <c r="BV8" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>0.288319470530364</v>
       </c>
       <c r="BW8" s="8">
@@ -4423,7 +4702,7 @@
         <v>1553100</v>
       </c>
       <c r="CB8" s="6">
-        <f>BZ8-CA8</f>
+        <f t="shared" si="8"/>
         <v>-1352600</v>
       </c>
       <c r="CC8" s="6">
@@ -4433,7 +4712,7 @@
         <v>4005100</v>
       </c>
       <c r="CE8" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0.4378417517664977</v>
       </c>
       <c r="CF8" s="8">
@@ -4450,7 +4729,7 @@
         <v>2031275</v>
       </c>
       <c r="CK8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1289875</v>
       </c>
       <c r="CL8" s="6">
@@ -4460,7 +4739,7 @@
         <v>7382900</v>
       </c>
       <c r="CN8" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.37555364423194137</v>
       </c>
       <c r="CO8" s="8">
@@ -4477,7 +4756,7 @@
         <v>372100</v>
       </c>
       <c r="CT8" s="6">
-        <f>CR8-CS8</f>
+        <f t="shared" si="10"/>
         <v>185120</v>
       </c>
       <c r="CU8" s="6">
@@ -4487,7 +4766,7 @@
         <v>26456200</v>
       </c>
       <c r="CW8" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>3.512673777791217E-2</v>
       </c>
       <c r="CX8" s="8">
@@ -4504,7 +4783,7 @@
         <v>265800</v>
       </c>
       <c r="DC8" s="6">
-        <f>DA8-DB8</f>
+        <f t="shared" si="11"/>
         <v>893300</v>
       </c>
       <c r="DD8" s="6">
@@ -4514,7 +4793,7 @@
         <v>20178600</v>
       </c>
       <c r="DF8" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>7.0614413289326314E-2</v>
       </c>
       <c r="DG8" s="8">
@@ -4531,7 +4810,7 @@
         <v>411000</v>
       </c>
       <c r="DL8" s="6">
-        <f>DJ8-DK8</f>
+        <f t="shared" si="12"/>
         <v>-360600</v>
       </c>
       <c r="DM8" s="6">
@@ -4541,7 +4820,7 @@
         <v>47248500</v>
       </c>
       <c r="DO8" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>9.7653893774405538E-3</v>
       </c>
       <c r="DP8" s="8">
@@ -4558,7 +4837,7 @@
         <v>9100</v>
       </c>
       <c r="DU8" s="6">
-        <f>DS8-DT8</f>
+        <f t="shared" si="13"/>
         <v>749400</v>
       </c>
       <c r="DV8" s="6">
@@ -4568,7 +4847,7 @@
         <v>9947700</v>
       </c>
       <c r="DX8" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>7.716356544728932E-2</v>
       </c>
       <c r="DY8" s="8">
@@ -4585,17 +4864,17 @@
         <v>599000</v>
       </c>
       <c r="ED8" s="6">
-        <f>EB8-EC8</f>
+        <f t="shared" si="14"/>
         <v>-338700</v>
       </c>
       <c r="EE8" s="6">
         <v>-23053302</v>
       </c>
-      <c r="EF8" s="6">
+      <c r="EF8" s="53">
         <v>1703100</v>
       </c>
       <c r="EG8" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>0.50455052551230106</v>
       </c>
       <c r="EH8" s="8">
@@ -4612,7 +4891,7 @@
         <v>20600</v>
       </c>
       <c r="EM8" s="6">
-        <f>EK8-EL8</f>
+        <f t="shared" si="15"/>
         <v>77500</v>
       </c>
       <c r="EN8" s="6">
@@ -4622,7 +4901,7 @@
         <v>3168900</v>
       </c>
       <c r="EP8" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>3.7457792924989741E-2</v>
       </c>
       <c r="EQ8" s="8">
@@ -4639,7 +4918,7 @@
         <v>7000</v>
       </c>
       <c r="EV8" s="6">
-        <f>ET8-EU8</f>
+        <f t="shared" si="16"/>
         <v>3200</v>
       </c>
       <c r="EW8" s="6">
@@ -4649,7 +4928,7 @@
         <v>3802700</v>
       </c>
       <c r="EY8" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>4.5231020064690876E-3</v>
       </c>
       <c r="EZ8" s="8">
@@ -4660,85 +4939,112 @@
         <v>45254</v>
       </c>
       <c r="FC8" s="6">
-        <v>42400</v>
+        <v>162114</v>
       </c>
       <c r="FD8" s="6">
-        <v>272600</v>
+        <v>4200</v>
       </c>
       <c r="FE8" s="6">
-        <f>FC8-FD8</f>
-        <v>-230200</v>
+        <f t="shared" si="17"/>
+        <v>157914</v>
       </c>
       <c r="FF8" s="6">
-        <v>-4976960</v>
+        <v>3514900</v>
       </c>
       <c r="FG8" s="6">
-        <v>24643000</v>
+        <v>9679000</v>
       </c>
       <c r="FH8" s="7">
-        <f t="shared" si="26"/>
-        <v>1.2782534594002354E-2</v>
+        <f t="shared" si="41"/>
+        <v>1.7182973447670214E-2</v>
       </c>
       <c r="FI8" s="8">
-        <v>1.1599999999999999E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="FJ8" s="1"/>
       <c r="FK8" s="5">
         <v>45254</v>
       </c>
       <c r="FL8" s="6">
-        <v>563300</v>
+        <v>42400</v>
       </c>
       <c r="FM8" s="6">
-        <v>11700</v>
+        <v>272600</v>
       </c>
       <c r="FN8" s="6">
-        <f>FL8-FM8</f>
-        <v>551600</v>
+        <f t="shared" si="18"/>
+        <v>-230200</v>
       </c>
       <c r="FO8" s="6">
-        <v>51565692</v>
+        <v>-4976960</v>
       </c>
       <c r="FP8" s="6">
-        <v>3115600</v>
+        <v>24643000</v>
       </c>
       <c r="FQ8" s="7">
-        <f t="shared" si="27"/>
-        <v>0.18455514186673513</v>
+        <f t="shared" si="42"/>
+        <v>1.2782534594002354E-2</v>
       </c>
       <c r="FR8" s="8">
-        <v>2.8000000000000001E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="FS8" s="1"/>
       <c r="FT8" s="5">
         <v>45254</v>
       </c>
       <c r="FU8" s="6">
+        <v>563300</v>
+      </c>
+      <c r="FV8" s="6">
+        <v>11700</v>
+      </c>
+      <c r="FW8" s="6">
+        <f t="shared" si="19"/>
+        <v>551600</v>
+      </c>
+      <c r="FX8" s="6">
+        <v>51565692</v>
+      </c>
+      <c r="FY8" s="6">
+        <v>3115600</v>
+      </c>
+      <c r="FZ8" s="7">
+        <f t="shared" si="43"/>
+        <v>0.18455514186673513</v>
+      </c>
+      <c r="GA8" s="8">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="GB8" s="1"/>
+      <c r="GC8" s="5">
+        <v>45254</v>
+      </c>
+      <c r="GD8" s="6">
         <v>1100</v>
       </c>
-      <c r="FV8" s="6">
+      <c r="GE8" s="6">
         <v>124700</v>
       </c>
-      <c r="FW8" s="6">
-        <f>FU8-FV8</f>
+      <c r="GF8" s="6">
+        <f t="shared" si="20"/>
         <v>-123600</v>
       </c>
-      <c r="FX8" s="6">
+      <c r="GG8" s="6">
         <v>-8490310</v>
       </c>
-      <c r="FY8" s="6">
+      <c r="GH8" s="6">
         <v>664900</v>
       </c>
-      <c r="FZ8" s="7">
-        <f t="shared" si="28"/>
+      <c r="GI8" s="7">
+        <f t="shared" si="44"/>
         <v>0.18920138366671679</v>
       </c>
-      <c r="GA8" s="8">
+      <c r="GJ8" s="8">
         <v>0</v>
       </c>
-      <c r="GB8" s="1"/>
+      <c r="GK8" s="1"/>
     </row>
-    <row r="9" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>45257</v>
       </c>
@@ -4766,7 +5072,7 @@
         <v>-3.2899999999999999E-2</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J9" s="9"/>
@@ -4791,12 +5097,14 @@
         <v>15100900</v>
       </c>
       <c r="R9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>0.11784251269791866</v>
       </c>
-      <c r="S9" s="8"/>
+      <c r="S9" s="8">
+        <v>-3.1300000000000001E-2</v>
+      </c>
       <c r="T9" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U9" s="1"/>
@@ -4820,14 +5128,14 @@
         <v>443000</v>
       </c>
       <c r="AB9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0.7879232505643341</v>
       </c>
       <c r="AC9" s="8">
         <v>-2.3E-3</v>
       </c>
       <c r="AD9" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AE9" s="1"/>
@@ -4851,7 +5159,7 @@
         <v>8007700</v>
       </c>
       <c r="AL9" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>0.90580691084830856</v>
       </c>
       <c r="AM9" s="8">
@@ -4868,7 +5176,7 @@
         <v>885400</v>
       </c>
       <c r="AR9" s="6">
-        <f>AP9-AQ9</f>
+        <f t="shared" si="5"/>
         <v>-657200</v>
       </c>
       <c r="AS9" s="6">
@@ -4878,7 +5186,7 @@
         <v>19908300</v>
       </c>
       <c r="AU9" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>5.5936468709030907E-2</v>
       </c>
       <c r="AV9" s="8">
@@ -4895,7 +5203,7 @@
         <v>1177417</v>
       </c>
       <c r="BA9" s="6">
-        <f>AY9-AZ9</f>
+        <f t="shared" si="6"/>
         <v>2751883</v>
       </c>
       <c r="BB9" s="6">
@@ -4905,7 +5213,7 @@
         <v>16724600</v>
       </c>
       <c r="BD9" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>0.30534165241620126</v>
       </c>
       <c r="BE9" s="8">
@@ -4922,7 +5230,7 @@
         <v>349100</v>
       </c>
       <c r="BJ9" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>-344200</v>
       </c>
       <c r="BK9" s="6">
@@ -4932,7 +5240,7 @@
         <v>8933100</v>
       </c>
       <c r="BM9" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>3.962790072875038E-2</v>
       </c>
       <c r="BN9" s="8">
@@ -4949,7 +5257,7 @@
         <v>645700</v>
       </c>
       <c r="BS9" s="6">
-        <f>BQ9-BR9</f>
+        <f t="shared" si="7"/>
         <v>88060</v>
       </c>
       <c r="BT9" s="6">
@@ -4959,7 +5267,7 @@
         <v>6093900</v>
       </c>
       <c r="BV9" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>0.2263673509575149</v>
       </c>
       <c r="BW9" s="8">
@@ -4976,7 +5284,7 @@
         <v>672509</v>
       </c>
       <c r="CB9" s="6">
-        <f>BZ9-CA9</f>
+        <f t="shared" si="8"/>
         <v>-547159</v>
       </c>
       <c r="CC9" s="6">
@@ -4986,7 +5294,7 @@
         <v>2222200</v>
       </c>
       <c r="CE9" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0.35904014040140403</v>
       </c>
       <c r="CF9" s="8">
@@ -5003,7 +5311,7 @@
         <v>577920</v>
       </c>
       <c r="CK9" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-349286</v>
       </c>
       <c r="CL9" s="6">
@@ -5013,7 +5321,7 @@
         <v>5760600</v>
       </c>
       <c r="CN9" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.14001215151199528</v>
       </c>
       <c r="CO9" s="8"/>
@@ -5028,7 +5336,7 @@
         <v>259500</v>
       </c>
       <c r="CT9" s="6">
-        <f>CR9-CS9</f>
+        <f t="shared" si="10"/>
         <v>-250000</v>
       </c>
       <c r="CU9" s="6">
@@ -5038,7 +5346,7 @@
         <v>10907400</v>
       </c>
       <c r="CW9" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>2.4662155967508297E-2</v>
       </c>
       <c r="CX9" s="8">
@@ -5055,7 +5363,7 @@
         <v>314800</v>
       </c>
       <c r="DC9" s="6">
-        <f>DA9-DB9</f>
+        <f t="shared" si="11"/>
         <v>-305700</v>
       </c>
       <c r="DD9" s="6">
@@ -5065,7 +5373,7 @@
         <v>8456600</v>
       </c>
       <c r="DF9" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>3.8301445025187425E-2</v>
       </c>
       <c r="DG9" s="8">
@@ -5082,7 +5390,7 @@
         <v>23341</v>
       </c>
       <c r="DL9" s="6">
-        <f>DJ9-DK9</f>
+        <f t="shared" si="12"/>
         <v>335529</v>
       </c>
       <c r="DM9" s="6">
@@ -5092,7 +5400,7 @@
         <v>22774900</v>
       </c>
       <c r="DO9" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>1.678211539896992E-2</v>
       </c>
       <c r="DP9" s="8">
@@ -5109,7 +5417,7 @@
         <v>19600</v>
       </c>
       <c r="DU9" s="6">
-        <f>DS9-DT9</f>
+        <f t="shared" si="13"/>
         <v>124700</v>
       </c>
       <c r="DV9" s="6">
@@ -5119,7 +5427,7 @@
         <v>3719900</v>
       </c>
       <c r="DX9" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>4.4060324202263502E-2</v>
       </c>
       <c r="DY9" s="8">
@@ -5136,7 +5444,7 @@
         <v>94400</v>
       </c>
       <c r="ED9" s="6">
-        <f>EB9-EC9</f>
+        <f t="shared" si="14"/>
         <v>9800</v>
       </c>
       <c r="EE9" s="6">
@@ -5146,7 +5454,7 @@
         <v>456000</v>
       </c>
       <c r="EG9" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>0.43552631578947371</v>
       </c>
       <c r="EH9" s="8">
@@ -5163,7 +5471,7 @@
         <v>14100</v>
       </c>
       <c r="EM9" s="6">
-        <f>EK9-EL9</f>
+        <f t="shared" si="15"/>
         <v>-13800</v>
       </c>
       <c r="EN9" s="6">
@@ -5173,7 +5481,7 @@
         <v>2722300</v>
       </c>
       <c r="EP9" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>5.2896447856591849E-3</v>
       </c>
       <c r="EQ9" s="8">
@@ -5190,18 +5498,18 @@
         <v>7666</v>
       </c>
       <c r="EV9" s="6">
-        <f>ET9-EU9</f>
+        <f t="shared" si="16"/>
         <v>-2766</v>
       </c>
       <c r="EW9" s="6">
         <v>-173710</v>
       </c>
       <c r="EX9" s="6">
-        <v>67704320</v>
+        <v>1101100</v>
       </c>
       <c r="EY9" s="7">
-        <f t="shared" si="25"/>
-        <v>1.8560115514046962E-4</v>
+        <f t="shared" si="40"/>
+        <v>1.1412224139496868E-2</v>
       </c>
       <c r="EZ9" s="8">
         <v>1.9E-2</v>
@@ -5211,85 +5519,112 @@
         <v>45257</v>
       </c>
       <c r="FC9" s="6">
-        <v>28900</v>
+        <v>23900</v>
       </c>
       <c r="FD9" s="6">
-        <v>1000</v>
+        <v>8400</v>
       </c>
       <c r="FE9" s="6">
-        <f>FC9-FD9</f>
-        <v>27900</v>
+        <f t="shared" si="17"/>
+        <v>15500</v>
       </c>
       <c r="FF9" s="6">
-        <v>599680</v>
+        <v>340240</v>
       </c>
       <c r="FG9" s="6">
-        <v>9830800</v>
+        <v>4647200</v>
       </c>
       <c r="FH9" s="7">
-        <f t="shared" si="26"/>
-        <v>3.0414615290718966E-3</v>
+        <f t="shared" si="41"/>
+        <v>6.9504217593389572E-3</v>
       </c>
       <c r="FI9" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>-2.4299999999999999E-2</v>
       </c>
       <c r="FJ9" s="1"/>
       <c r="FK9" s="5">
         <v>45257</v>
       </c>
       <c r="FL9" s="6">
-        <v>201700</v>
+        <v>28900</v>
       </c>
       <c r="FM9" s="6">
-        <v>30600</v>
+        <v>1000</v>
       </c>
       <c r="FN9" s="6">
-        <f>FL9-FM9</f>
-        <v>171100</v>
+        <f t="shared" si="18"/>
+        <v>27900</v>
       </c>
       <c r="FO9" s="6">
-        <v>16251650</v>
+        <v>599680</v>
       </c>
       <c r="FP9" s="6">
-        <v>795100</v>
+        <v>9830800</v>
       </c>
       <c r="FQ9" s="7">
-        <f t="shared" si="27"/>
-        <v>0.29216450760910578</v>
+        <f t="shared" si="42"/>
+        <v>3.0414615290718966E-3</v>
       </c>
       <c r="FR9" s="8">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="FS9" s="1"/>
       <c r="FT9" s="5">
         <v>45257</v>
       </c>
       <c r="FU9" s="6">
+        <v>201700</v>
+      </c>
+      <c r="FV9" s="6">
+        <v>30600</v>
+      </c>
+      <c r="FW9" s="6">
+        <f t="shared" si="19"/>
+        <v>171100</v>
+      </c>
+      <c r="FX9" s="6">
+        <v>16251650</v>
+      </c>
+      <c r="FY9" s="6">
+        <v>795100</v>
+      </c>
+      <c r="FZ9" s="7">
+        <f t="shared" si="43"/>
+        <v>0.29216450760910578</v>
+      </c>
+      <c r="GA9" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="GB9" s="1"/>
+      <c r="GC9" s="5">
+        <v>45257</v>
+      </c>
+      <c r="GD9" s="6">
         <v>17400</v>
       </c>
-      <c r="FV9" s="6">
+      <c r="GE9" s="6">
         <v>12000</v>
       </c>
-      <c r="FW9" s="6">
-        <f>FU9-FV9</f>
+      <c r="GF9" s="6">
+        <f t="shared" si="20"/>
         <v>5400</v>
       </c>
-      <c r="FX9" s="6">
+      <c r="GG9" s="6">
         <v>374140</v>
       </c>
-      <c r="FY9" s="6">
+      <c r="GH9" s="6">
         <v>285900</v>
       </c>
-      <c r="FZ9" s="7">
-        <f t="shared" si="28"/>
+      <c r="GI9" s="7">
+        <f t="shared" si="44"/>
         <v>0.10283315844700944</v>
       </c>
-      <c r="GA9" s="8">
+      <c r="GJ9" s="8">
         <v>0</v>
       </c>
-      <c r="GB9" s="1"/>
+      <c r="GK9" s="1"/>
     </row>
-    <row r="10" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>45258</v>
       </c>
@@ -5317,7 +5652,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J10" s="8"/>
@@ -5342,14 +5677,14 @@
         <v>21396800</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>0.12416113624467211</v>
       </c>
       <c r="S10" s="8">
         <v>1.29E-2</v>
       </c>
       <c r="T10" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U10" s="1"/>
@@ -5373,14 +5708,14 @@
         <v>779400</v>
       </c>
       <c r="AB10" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>1.0347741852707211</v>
       </c>
       <c r="AC10" s="8">
         <v>0</v>
       </c>
       <c r="AD10" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AE10" s="1"/>
@@ -5404,7 +5739,7 @@
         <v>5746400</v>
       </c>
       <c r="AL10" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>0.57242795489349851</v>
       </c>
       <c r="AM10" s="8">
@@ -5421,7 +5756,7 @@
         <v>1173400</v>
       </c>
       <c r="AR10" s="6">
-        <f>AP10-AQ10</f>
+        <f t="shared" si="5"/>
         <v>-413400</v>
       </c>
       <c r="AS10" s="6">
@@ -5431,7 +5766,7 @@
         <v>17252700</v>
       </c>
       <c r="AU10" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>0.11206361902774638</v>
       </c>
       <c r="AV10" s="8">
@@ -5448,7 +5783,7 @@
         <v>2268051</v>
       </c>
       <c r="BA10" s="6">
-        <f>AY10-AZ10</f>
+        <f t="shared" si="6"/>
         <v>707749</v>
       </c>
       <c r="BB10" s="6">
@@ -5458,7 +5793,7 @@
         <v>18863600</v>
       </c>
       <c r="BD10" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>0.27798781780784154</v>
       </c>
       <c r="BE10" s="8">
@@ -5475,7 +5810,7 @@
         <v>18000</v>
       </c>
       <c r="BJ10" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>170600</v>
       </c>
       <c r="BK10" s="6">
@@ -5485,7 +5820,7 @@
         <v>17317100</v>
       </c>
       <c r="BM10" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>1.1930404051486682E-2</v>
       </c>
       <c r="BN10" s="8">
@@ -5502,7 +5837,7 @@
         <v>1725100</v>
       </c>
       <c r="BS10" s="6">
-        <f>BQ10-BR10</f>
+        <f t="shared" si="7"/>
         <v>-476300</v>
       </c>
       <c r="BT10" s="6">
@@ -5512,7 +5847,7 @@
         <v>6131600</v>
       </c>
       <c r="BV10" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>0.48501206862809054</v>
       </c>
       <c r="BW10" s="8">
@@ -5529,7 +5864,7 @@
         <v>194407</v>
       </c>
       <c r="CB10" s="6">
-        <f>BZ10-CA10</f>
+        <f t="shared" si="8"/>
         <v>-7207</v>
       </c>
       <c r="CC10" s="6">
@@ -5539,7 +5874,7 @@
         <v>1971100</v>
       </c>
       <c r="CE10" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0.19360103495510123</v>
       </c>
       <c r="CF10" s="8">
@@ -5556,7 +5891,7 @@
         <v>1277500</v>
       </c>
       <c r="CK10" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>705400</v>
       </c>
       <c r="CL10" s="6">
@@ -5566,7 +5901,7 @@
         <v>7384400</v>
       </c>
       <c r="CN10" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.44152537782351986</v>
       </c>
       <c r="CO10" s="8"/>
@@ -5574,14 +5909,14 @@
       <c r="CQ10" s="5">
         <v>45258</v>
       </c>
-      <c r="CR10" s="56">
+      <c r="CR10" s="6">
         <v>406800</v>
       </c>
       <c r="CS10" s="6">
         <v>1317800</v>
       </c>
       <c r="CT10" s="6">
-        <f>CR10-CS10</f>
+        <f t="shared" si="10"/>
         <v>-911000</v>
       </c>
       <c r="CU10" s="6">
@@ -5591,7 +5926,7 @@
         <v>16867800</v>
       </c>
       <c r="CW10" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>0.10224214183236699</v>
       </c>
       <c r="CX10" s="8">
@@ -5608,7 +5943,7 @@
         <v>319300</v>
       </c>
       <c r="DC10" s="6">
-        <f>DA10-DB10</f>
+        <f t="shared" si="11"/>
         <v>-22700</v>
       </c>
       <c r="DD10" s="6">
@@ -5618,7 +5953,7 @@
         <v>12233300</v>
       </c>
       <c r="DF10" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>5.0346186229390272E-2</v>
       </c>
       <c r="DG10" s="8">
@@ -5635,7 +5970,7 @@
         <v>443529</v>
       </c>
       <c r="DL10" s="6">
-        <f>DJ10-DK10</f>
+        <f t="shared" si="12"/>
         <v>-423075</v>
       </c>
       <c r="DM10" s="6">
@@ -5645,7 +5980,7 @@
         <v>28249000</v>
       </c>
       <c r="DO10" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>1.6424758398527382E-2</v>
       </c>
       <c r="DP10" s="8">
@@ -5662,7 +5997,7 @@
         <v>625266</v>
       </c>
       <c r="DU10" s="6">
-        <f>DS10-DT10</f>
+        <f t="shared" si="13"/>
         <v>-601966</v>
       </c>
       <c r="DV10" s="6">
@@ -5672,7 +6007,7 @@
         <v>7293100</v>
       </c>
       <c r="DX10" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>8.8928713441472074E-2</v>
       </c>
       <c r="DY10" s="8">
@@ -5689,7 +6024,7 @@
         <v>212200</v>
       </c>
       <c r="ED10" s="6">
-        <f>EB10-EC10</f>
+        <f t="shared" si="14"/>
         <v>-63900</v>
       </c>
       <c r="EE10" s="6">
@@ -5699,7 +6034,7 @@
         <v>914800</v>
       </c>
       <c r="EG10" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>0.39407520769567117</v>
       </c>
       <c r="EH10" s="8">
@@ -5716,17 +6051,17 @@
         <v>25000</v>
       </c>
       <c r="EM10" s="6">
-        <f>EK10-EL10</f>
+        <f t="shared" si="15"/>
         <v>-3100</v>
       </c>
       <c r="EN10" s="6">
         <v>-104240</v>
       </c>
-      <c r="EO10" s="6">
+      <c r="EO10" s="53">
         <v>5259300</v>
       </c>
       <c r="EP10" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>8.9175365542942982E-3</v>
       </c>
       <c r="EQ10" s="8">
@@ -5743,18 +6078,18 @@
         <v>7098</v>
       </c>
       <c r="EV10" s="6">
-        <f>ET10-EU10</f>
+        <f t="shared" si="16"/>
         <v>110202</v>
       </c>
       <c r="EW10" s="6">
         <v>6743820</v>
       </c>
       <c r="EX10" s="6">
-        <v>93994779</v>
+        <v>1537800</v>
       </c>
       <c r="EY10" s="7">
-        <f t="shared" si="25"/>
-        <v>1.3234564868757231E-3</v>
+        <f t="shared" si="40"/>
+        <v>8.0893484198205232E-2</v>
       </c>
       <c r="EZ10" s="8">
         <v>3.1699999999999999E-2</v>
@@ -5764,85 +6099,112 @@
         <v>45258</v>
       </c>
       <c r="FC10" s="6">
-        <v>223300</v>
+        <v>215700</v>
       </c>
       <c r="FD10" s="6">
-        <v>2000</v>
+        <v>169700</v>
       </c>
       <c r="FE10" s="6">
-        <f>FC10-FD10</f>
-        <v>221300</v>
+        <f t="shared" si="17"/>
+        <v>46000</v>
       </c>
       <c r="FF10" s="6">
-        <v>4684740</v>
+        <v>1105400</v>
       </c>
       <c r="FG10" s="6">
-        <v>15727100</v>
+        <v>5883000</v>
       </c>
       <c r="FH10" s="7">
-        <f t="shared" si="26"/>
-        <v>1.4325590859090361E-2</v>
+        <f t="shared" si="41"/>
+        <v>6.5510793812680601E-2</v>
       </c>
       <c r="FI10" s="8">
-        <v>1.4200000000000001E-2</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="FJ10" s="1"/>
       <c r="FK10" s="5">
         <v>45258</v>
       </c>
       <c r="FL10" s="6">
-        <v>970600</v>
+        <v>223300</v>
       </c>
       <c r="FM10" s="6">
-        <v>216300</v>
+        <v>2000</v>
       </c>
       <c r="FN10" s="6">
-        <f>FL10-FM10</f>
-        <v>754300</v>
+        <f t="shared" si="18"/>
+        <v>221300</v>
       </c>
       <c r="FO10" s="6">
-        <v>71099091</v>
+        <v>4684740</v>
       </c>
       <c r="FP10" s="6">
-        <v>1749500</v>
+        <v>15727100</v>
       </c>
       <c r="FQ10" s="7">
-        <f t="shared" si="27"/>
-        <v>0.67842240640182905</v>
+        <f t="shared" si="42"/>
+        <v>1.4325590859090361E-2</v>
       </c>
       <c r="FR10" s="8">
-        <v>1.1000000000000001E-3</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="FS10" s="1"/>
       <c r="FT10" s="5">
         <v>45258</v>
       </c>
       <c r="FU10" s="6">
+        <v>970600</v>
+      </c>
+      <c r="FV10" s="6">
+        <v>216300</v>
+      </c>
+      <c r="FW10" s="6">
+        <f t="shared" si="19"/>
+        <v>754300</v>
+      </c>
+      <c r="FX10" s="6">
+        <v>71099091</v>
+      </c>
+      <c r="FY10" s="6">
+        <v>1749500</v>
+      </c>
+      <c r="FZ10" s="7">
+        <f t="shared" si="43"/>
+        <v>0.67842240640182905</v>
+      </c>
+      <c r="GA10" s="8">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="GB10" s="1"/>
+      <c r="GC10" s="5">
+        <v>45258</v>
+      </c>
+      <c r="GD10" s="6">
         <v>76100</v>
       </c>
-      <c r="FV10" s="6">
+      <c r="GE10" s="6">
         <v>23000</v>
       </c>
-      <c r="FW10" s="6">
-        <f>FU10-FV10</f>
+      <c r="GF10" s="6">
+        <f t="shared" si="20"/>
         <v>53100</v>
       </c>
-      <c r="FX10" s="6">
+      <c r="GG10" s="6">
         <v>3605350</v>
       </c>
-      <c r="FY10" s="6">
+      <c r="GH10" s="6">
         <v>471400</v>
       </c>
-      <c r="FZ10" s="7">
-        <f t="shared" si="28"/>
+      <c r="GI10" s="7">
+        <f t="shared" si="44"/>
         <v>0.21022486211285532</v>
       </c>
-      <c r="GA10" s="8">
+      <c r="GJ10" s="8">
         <v>0</v>
       </c>
-      <c r="GB10" s="1"/>
+      <c r="GK10" s="1"/>
     </row>
-    <row r="11" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>45259</v>
       </c>
@@ -5852,7 +6214,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7" t="e">
-        <f t="shared" ref="G11:G27" si="29">(B11+C11)/F11</f>
+        <f t="shared" ref="G11:G27" si="45">(B11+C11)/F11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="8"/>
@@ -5868,7 +6230,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S11" s="8"/>
@@ -5883,7 +6245,7 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC11" s="8"/>
@@ -5898,7 +6260,7 @@
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
       <c r="AL11" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM11" s="8"/>
@@ -5925,7 +6287,7 @@
       <c r="BB11" s="6"/>
       <c r="BC11" s="6"/>
       <c r="BD11" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE11" s="8"/>
@@ -5939,7 +6301,7 @@
       <c r="BK11" s="6"/>
       <c r="BL11" s="6"/>
       <c r="BM11" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN11" s="8"/>
@@ -5953,7 +6315,7 @@
       <c r="BT11" s="6"/>
       <c r="BU11" s="6"/>
       <c r="BV11" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW11" s="8">
@@ -5969,7 +6331,7 @@
       <c r="CC11" s="6"/>
       <c r="CD11" s="6"/>
       <c r="CE11" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF11" s="8"/>
@@ -5983,7 +6345,7 @@
       <c r="CL11" s="6"/>
       <c r="CM11" s="6"/>
       <c r="CN11" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO11" s="8"/>
@@ -5997,7 +6359,7 @@
       <c r="CU11" s="6"/>
       <c r="CV11" s="6"/>
       <c r="CW11" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX11" s="8"/>
@@ -6011,7 +6373,7 @@
       <c r="DD11" s="6"/>
       <c r="DE11" s="6"/>
       <c r="DF11" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG11" s="8"/>
@@ -6025,7 +6387,7 @@
       <c r="DM11" s="6"/>
       <c r="DN11" s="6"/>
       <c r="DO11" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP11" s="8"/>
@@ -6039,7 +6401,7 @@
       <c r="DV11" s="6"/>
       <c r="DW11" s="6"/>
       <c r="DX11" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY11" s="8"/>
@@ -6053,7 +6415,7 @@
       <c r="EE11" s="6"/>
       <c r="EF11" s="6"/>
       <c r="EG11" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH11" s="8"/>
@@ -6067,7 +6429,7 @@
       <c r="EN11" s="6"/>
       <c r="EO11" s="6"/>
       <c r="EP11" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ11" s="8"/>
@@ -6081,7 +6443,7 @@
       <c r="EW11" s="6"/>
       <c r="EX11" s="6"/>
       <c r="EY11" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ11" s="8"/>
@@ -6095,7 +6457,7 @@
       <c r="FF11" s="6"/>
       <c r="FG11" s="6"/>
       <c r="FH11" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI11" s="8"/>
@@ -6109,7 +6471,7 @@
       <c r="FO11" s="6"/>
       <c r="FP11" s="6"/>
       <c r="FQ11" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR11" s="8"/>
@@ -6123,13 +6485,27 @@
       <c r="FX11" s="6"/>
       <c r="FY11" s="6"/>
       <c r="FZ11" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA11" s="8"/>
       <c r="GB11" s="1"/>
+      <c r="GC11" s="5">
+        <v>45259</v>
+      </c>
+      <c r="GD11" s="6"/>
+      <c r="GE11" s="6"/>
+      <c r="GF11" s="6"/>
+      <c r="GG11" s="6"/>
+      <c r="GH11" s="6"/>
+      <c r="GI11" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ11" s="8"/>
+      <c r="GK11" s="1"/>
     </row>
-    <row r="12" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>45260</v>
       </c>
@@ -6139,7 +6515,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="8"/>
@@ -6155,7 +6531,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S12" s="8"/>
@@ -6170,7 +6546,7 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC12" s="8"/>
@@ -6185,7 +6561,7 @@
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
       <c r="AL12" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM12" s="8"/>
@@ -6199,7 +6575,7 @@
       <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
       <c r="AU12" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV12" s="8"/>
@@ -6213,7 +6589,7 @@
       <c r="BB12" s="6"/>
       <c r="BC12" s="6"/>
       <c r="BD12" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE12" s="8"/>
@@ -6227,7 +6603,7 @@
       <c r="BK12" s="6"/>
       <c r="BL12" s="6"/>
       <c r="BM12" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN12" s="8"/>
@@ -6241,7 +6617,7 @@
       <c r="BT12" s="6"/>
       <c r="BU12" s="6"/>
       <c r="BV12" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW12" s="8"/>
@@ -6255,7 +6631,7 @@
       <c r="CC12" s="6"/>
       <c r="CD12" s="6"/>
       <c r="CE12" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF12" s="8"/>
@@ -6269,7 +6645,7 @@
       <c r="CL12" s="6"/>
       <c r="CM12" s="6"/>
       <c r="CN12" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO12" s="8"/>
@@ -6283,7 +6659,7 @@
       <c r="CU12" s="6"/>
       <c r="CV12" s="6"/>
       <c r="CW12" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX12" s="8"/>
@@ -6297,7 +6673,7 @@
       <c r="DD12" s="6"/>
       <c r="DE12" s="6"/>
       <c r="DF12" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG12" s="8"/>
@@ -6311,7 +6687,7 @@
       <c r="DM12" s="6"/>
       <c r="DN12" s="6"/>
       <c r="DO12" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP12" s="8"/>
@@ -6325,7 +6701,7 @@
       <c r="DV12" s="6"/>
       <c r="DW12" s="6"/>
       <c r="DX12" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY12" s="8"/>
@@ -6339,7 +6715,7 @@
       <c r="EE12" s="6"/>
       <c r="EF12" s="6"/>
       <c r="EG12" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH12" s="8"/>
@@ -6353,7 +6729,7 @@
       <c r="EN12" s="6"/>
       <c r="EO12" s="6"/>
       <c r="EP12" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ12" s="8"/>
@@ -6367,7 +6743,7 @@
       <c r="EW12" s="6"/>
       <c r="EX12" s="6"/>
       <c r="EY12" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ12" s="8"/>
@@ -6381,7 +6757,7 @@
       <c r="FF12" s="6"/>
       <c r="FG12" s="6"/>
       <c r="FH12" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI12" s="8"/>
@@ -6395,7 +6771,7 @@
       <c r="FO12" s="6"/>
       <c r="FP12" s="6"/>
       <c r="FQ12" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR12" s="8"/>
@@ -6409,13 +6785,27 @@
       <c r="FX12" s="6"/>
       <c r="FY12" s="6"/>
       <c r="FZ12" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA12" s="8"/>
       <c r="GB12" s="1"/>
+      <c r="GC12" s="5">
+        <v>45260</v>
+      </c>
+      <c r="GD12" s="6"/>
+      <c r="GE12" s="6"/>
+      <c r="GF12" s="6"/>
+      <c r="GG12" s="6"/>
+      <c r="GH12" s="6"/>
+      <c r="GI12" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ12" s="8"/>
+      <c r="GK12" s="1"/>
     </row>
-    <row r="13" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>45261</v>
       </c>
@@ -6425,7 +6815,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="8"/>
@@ -6441,7 +6831,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S13" s="8"/>
@@ -6456,7 +6846,7 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC13" s="8"/>
@@ -6471,7 +6861,7 @@
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
       <c r="AL13" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM13" s="8"/>
@@ -6485,7 +6875,7 @@
       <c r="AS13" s="6"/>
       <c r="AT13" s="6"/>
       <c r="AU13" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV13" s="8"/>
@@ -6499,7 +6889,7 @@
       <c r="BB13" s="6"/>
       <c r="BC13" s="6"/>
       <c r="BD13" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE13" s="8"/>
@@ -6513,7 +6903,7 @@
       <c r="BK13" s="6"/>
       <c r="BL13" s="6"/>
       <c r="BM13" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN13" s="8"/>
@@ -6527,7 +6917,7 @@
       <c r="BT13" s="6"/>
       <c r="BU13" s="6"/>
       <c r="BV13" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW13" s="8"/>
@@ -6541,7 +6931,7 @@
       <c r="CC13" s="6"/>
       <c r="CD13" s="6"/>
       <c r="CE13" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF13" s="8"/>
@@ -6555,7 +6945,7 @@
       <c r="CL13" s="6"/>
       <c r="CM13" s="6"/>
       <c r="CN13" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO13" s="8"/>
@@ -6569,7 +6959,7 @@
       <c r="CU13" s="6"/>
       <c r="CV13" s="6"/>
       <c r="CW13" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX13" s="8"/>
@@ -6583,7 +6973,7 @@
       <c r="DD13" s="6"/>
       <c r="DE13" s="6"/>
       <c r="DF13" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG13" s="8"/>
@@ -6597,7 +6987,7 @@
       <c r="DM13" s="6"/>
       <c r="DN13" s="6"/>
       <c r="DO13" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP13" s="8"/>
@@ -6611,7 +7001,7 @@
       <c r="DV13" s="6"/>
       <c r="DW13" s="6"/>
       <c r="DX13" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY13" s="8"/>
@@ -6625,7 +7015,7 @@
       <c r="EE13" s="6"/>
       <c r="EF13" s="6"/>
       <c r="EG13" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH13" s="8"/>
@@ -6639,7 +7029,7 @@
       <c r="EN13" s="6"/>
       <c r="EO13" s="6"/>
       <c r="EP13" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ13" s="8"/>
@@ -6653,7 +7043,7 @@
       <c r="EW13" s="6"/>
       <c r="EX13" s="6"/>
       <c r="EY13" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ13" s="8"/>
@@ -6667,7 +7057,7 @@
       <c r="FF13" s="6"/>
       <c r="FG13" s="6"/>
       <c r="FH13" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI13" s="8"/>
@@ -6681,7 +7071,7 @@
       <c r="FO13" s="6"/>
       <c r="FP13" s="6"/>
       <c r="FQ13" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR13" s="8"/>
@@ -6695,13 +7085,27 @@
       <c r="FX13" s="6"/>
       <c r="FY13" s="6"/>
       <c r="FZ13" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA13" s="8"/>
       <c r="GB13" s="1"/>
+      <c r="GC13" s="5">
+        <v>45261</v>
+      </c>
+      <c r="GD13" s="6"/>
+      <c r="GE13" s="6"/>
+      <c r="GF13" s="6"/>
+      <c r="GG13" s="6"/>
+      <c r="GH13" s="6"/>
+      <c r="GI13" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ13" s="8"/>
+      <c r="GK13" s="1"/>
     </row>
-    <row r="14" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>45264</v>
       </c>
@@ -6711,7 +7115,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="8"/>
@@ -6727,7 +7131,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S14" s="8"/>
@@ -6742,7 +7146,7 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC14" s="8"/>
@@ -6757,7 +7161,7 @@
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
       <c r="AL14" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM14" s="8"/>
@@ -6771,7 +7175,7 @@
       <c r="AS14" s="6"/>
       <c r="AT14" s="6"/>
       <c r="AU14" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV14" s="8"/>
@@ -6785,7 +7189,7 @@
       <c r="BB14" s="6"/>
       <c r="BC14" s="6"/>
       <c r="BD14" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE14" s="8"/>
@@ -6799,7 +7203,7 @@
       <c r="BK14" s="6"/>
       <c r="BL14" s="6"/>
       <c r="BM14" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN14" s="8"/>
@@ -6813,7 +7217,7 @@
       <c r="BT14" s="6"/>
       <c r="BU14" s="6"/>
       <c r="BV14" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW14" s="8"/>
@@ -6827,7 +7231,7 @@
       <c r="CC14" s="6"/>
       <c r="CD14" s="6"/>
       <c r="CE14" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF14" s="8"/>
@@ -6841,7 +7245,7 @@
       <c r="CL14" s="6"/>
       <c r="CM14" s="6"/>
       <c r="CN14" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO14" s="8"/>
@@ -6855,7 +7259,7 @@
       <c r="CU14" s="6"/>
       <c r="CV14" s="6"/>
       <c r="CW14" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX14" s="8"/>
@@ -6869,7 +7273,7 @@
       <c r="DD14" s="6"/>
       <c r="DE14" s="6"/>
       <c r="DF14" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG14" s="8"/>
@@ -6883,7 +7287,7 @@
       <c r="DM14" s="6"/>
       <c r="DN14" s="6"/>
       <c r="DO14" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP14" s="8"/>
@@ -6897,7 +7301,7 @@
       <c r="DV14" s="6"/>
       <c r="DW14" s="6"/>
       <c r="DX14" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY14" s="8"/>
@@ -6911,7 +7315,7 @@
       <c r="EE14" s="6"/>
       <c r="EF14" s="6"/>
       <c r="EG14" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH14" s="8"/>
@@ -6925,7 +7329,7 @@
       <c r="EN14" s="6"/>
       <c r="EO14" s="6"/>
       <c r="EP14" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ14" s="8"/>
@@ -6939,7 +7343,7 @@
       <c r="EW14" s="6"/>
       <c r="EX14" s="6"/>
       <c r="EY14" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ14" s="8"/>
@@ -6953,7 +7357,7 @@
       <c r="FF14" s="6"/>
       <c r="FG14" s="6"/>
       <c r="FH14" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI14" s="8"/>
@@ -6967,7 +7371,7 @@
       <c r="FO14" s="6"/>
       <c r="FP14" s="6"/>
       <c r="FQ14" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR14" s="8"/>
@@ -6981,13 +7385,27 @@
       <c r="FX14" s="6"/>
       <c r="FY14" s="6"/>
       <c r="FZ14" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA14" s="8"/>
       <c r="GB14" s="1"/>
+      <c r="GC14" s="5">
+        <v>45264</v>
+      </c>
+      <c r="GD14" s="6"/>
+      <c r="GE14" s="6"/>
+      <c r="GF14" s="6"/>
+      <c r="GG14" s="6"/>
+      <c r="GH14" s="6"/>
+      <c r="GI14" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ14" s="8"/>
+      <c r="GK14" s="1"/>
     </row>
-    <row r="15" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>45265</v>
       </c>
@@ -6997,7 +7415,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="8"/>
@@ -7013,7 +7431,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S15" s="8"/>
@@ -7028,7 +7446,7 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC15" s="8"/>
@@ -7043,7 +7461,7 @@
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
       <c r="AL15" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM15" s="8"/>
@@ -7057,7 +7475,7 @@
       <c r="AS15" s="6"/>
       <c r="AT15" s="6"/>
       <c r="AU15" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV15" s="8"/>
@@ -7071,7 +7489,7 @@
       <c r="BB15" s="6"/>
       <c r="BC15" s="6"/>
       <c r="BD15" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE15" s="8"/>
@@ -7085,7 +7503,7 @@
       <c r="BK15" s="6"/>
       <c r="BL15" s="6"/>
       <c r="BM15" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN15" s="8"/>
@@ -7099,7 +7517,7 @@
       <c r="BT15" s="6"/>
       <c r="BU15" s="6"/>
       <c r="BV15" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW15" s="8"/>
@@ -7113,7 +7531,7 @@
       <c r="CC15" s="6"/>
       <c r="CD15" s="6"/>
       <c r="CE15" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF15" s="8"/>
@@ -7127,7 +7545,7 @@
       <c r="CL15" s="6"/>
       <c r="CM15" s="6"/>
       <c r="CN15" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO15" s="8"/>
@@ -7141,7 +7559,7 @@
       <c r="CU15" s="6"/>
       <c r="CV15" s="6"/>
       <c r="CW15" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX15" s="8"/>
@@ -7155,7 +7573,7 @@
       <c r="DD15" s="6"/>
       <c r="DE15" s="6"/>
       <c r="DF15" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG15" s="8"/>
@@ -7169,7 +7587,7 @@
       <c r="DM15" s="6"/>
       <c r="DN15" s="6"/>
       <c r="DO15" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP15" s="8"/>
@@ -7183,7 +7601,7 @@
       <c r="DV15" s="6"/>
       <c r="DW15" s="6"/>
       <c r="DX15" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY15" s="8"/>
@@ -7197,7 +7615,7 @@
       <c r="EE15" s="6"/>
       <c r="EF15" s="6"/>
       <c r="EG15" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH15" s="8"/>
@@ -7211,7 +7629,7 @@
       <c r="EN15" s="6"/>
       <c r="EO15" s="6"/>
       <c r="EP15" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ15" s="8"/>
@@ -7225,7 +7643,7 @@
       <c r="EW15" s="6"/>
       <c r="EX15" s="6"/>
       <c r="EY15" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ15" s="8"/>
@@ -7239,7 +7657,7 @@
       <c r="FF15" s="6"/>
       <c r="FG15" s="6"/>
       <c r="FH15" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI15" s="8"/>
@@ -7253,7 +7671,7 @@
       <c r="FO15" s="6"/>
       <c r="FP15" s="6"/>
       <c r="FQ15" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR15" s="8"/>
@@ -7267,13 +7685,27 @@
       <c r="FX15" s="6"/>
       <c r="FY15" s="6"/>
       <c r="FZ15" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA15" s="8"/>
       <c r="GB15" s="1"/>
+      <c r="GC15" s="5">
+        <v>45265</v>
+      </c>
+      <c r="GD15" s="6"/>
+      <c r="GE15" s="6"/>
+      <c r="GF15" s="6"/>
+      <c r="GG15" s="6"/>
+      <c r="GH15" s="6"/>
+      <c r="GI15" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ15" s="8"/>
+      <c r="GK15" s="1"/>
     </row>
-    <row r="16" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>45266</v>
       </c>
@@ -7283,7 +7715,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="8"/>
@@ -7299,7 +7731,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S16" s="8"/>
@@ -7314,7 +7746,7 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC16" s="8"/>
@@ -7329,7 +7761,7 @@
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
       <c r="AL16" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM16" s="8"/>
@@ -7343,7 +7775,7 @@
       <c r="AS16" s="6"/>
       <c r="AT16" s="6"/>
       <c r="AU16" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV16" s="8"/>
@@ -7356,7 +7788,7 @@
       <c r="BB16" s="6"/>
       <c r="BC16" s="6"/>
       <c r="BD16" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE16" s="8"/>
@@ -7370,7 +7802,7 @@
       <c r="BK16" s="6"/>
       <c r="BL16" s="6"/>
       <c r="BM16" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN16" s="8"/>
@@ -7384,7 +7816,7 @@
       <c r="BT16" s="6"/>
       <c r="BU16" s="6"/>
       <c r="BV16" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW16" s="8"/>
@@ -7398,7 +7830,7 @@
       <c r="CC16" s="6"/>
       <c r="CD16" s="6"/>
       <c r="CE16" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF16" s="8"/>
@@ -7412,7 +7844,7 @@
       <c r="CL16" s="6"/>
       <c r="CM16" s="6"/>
       <c r="CN16" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO16" s="8"/>
@@ -7426,7 +7858,7 @@
       <c r="CU16" s="6"/>
       <c r="CV16" s="6"/>
       <c r="CW16" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX16" s="8"/>
@@ -7440,7 +7872,7 @@
       <c r="DD16" s="6"/>
       <c r="DE16" s="6"/>
       <c r="DF16" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG16" s="8"/>
@@ -7454,7 +7886,7 @@
       <c r="DM16" s="6"/>
       <c r="DN16" s="6"/>
       <c r="DO16" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP16" s="8"/>
@@ -7468,7 +7900,7 @@
       <c r="DV16" s="6"/>
       <c r="DW16" s="6"/>
       <c r="DX16" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY16" s="8"/>
@@ -7482,7 +7914,7 @@
       <c r="EE16" s="6"/>
       <c r="EF16" s="6"/>
       <c r="EG16" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH16" s="8"/>
@@ -7496,7 +7928,7 @@
       <c r="EN16" s="6"/>
       <c r="EO16" s="6"/>
       <c r="EP16" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ16" s="8"/>
@@ -7510,7 +7942,7 @@
       <c r="EW16" s="6"/>
       <c r="EX16" s="6"/>
       <c r="EY16" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ16" s="8"/>
@@ -7524,7 +7956,7 @@
       <c r="FF16" s="6"/>
       <c r="FG16" s="6"/>
       <c r="FH16" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI16" s="8"/>
@@ -7538,7 +7970,7 @@
       <c r="FO16" s="6"/>
       <c r="FP16" s="6"/>
       <c r="FQ16" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR16" s="8"/>
@@ -7552,13 +7984,27 @@
       <c r="FX16" s="6"/>
       <c r="FY16" s="6"/>
       <c r="FZ16" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA16" s="8"/>
       <c r="GB16" s="1"/>
+      <c r="GC16" s="5">
+        <v>45266</v>
+      </c>
+      <c r="GD16" s="6"/>
+      <c r="GE16" s="6"/>
+      <c r="GF16" s="6"/>
+      <c r="GG16" s="6"/>
+      <c r="GH16" s="6"/>
+      <c r="GI16" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ16" s="8"/>
+      <c r="GK16" s="1"/>
     </row>
-    <row r="17" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>45267</v>
       </c>
@@ -7568,7 +8014,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="8"/>
@@ -7584,7 +8030,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S17" s="8"/>
@@ -7599,7 +8045,7 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC17" s="8"/>
@@ -7614,7 +8060,7 @@
       <c r="AJ17" s="6"/>
       <c r="AK17" s="6"/>
       <c r="AL17" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM17" s="8"/>
@@ -7628,7 +8074,7 @@
       <c r="AS17" s="6"/>
       <c r="AT17" s="6"/>
       <c r="AU17" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV17" s="8"/>
@@ -7642,7 +8088,7 @@
       <c r="BB17" s="6"/>
       <c r="BC17" s="6"/>
       <c r="BD17" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE17" s="8"/>
@@ -7656,7 +8102,7 @@
       <c r="BK17" s="6"/>
       <c r="BL17" s="6"/>
       <c r="BM17" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN17" s="8"/>
@@ -7670,7 +8116,7 @@
       <c r="BT17" s="6"/>
       <c r="BU17" s="6"/>
       <c r="BV17" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW17" s="8"/>
@@ -7684,7 +8130,7 @@
       <c r="CC17" s="6"/>
       <c r="CD17" s="6"/>
       <c r="CE17" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF17" s="8"/>
@@ -7698,7 +8144,7 @@
       <c r="CL17" s="6"/>
       <c r="CM17" s="6"/>
       <c r="CN17" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO17" s="8"/>
@@ -7712,7 +8158,7 @@
       <c r="CU17" s="6"/>
       <c r="CV17" s="6"/>
       <c r="CW17" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX17" s="8"/>
@@ -7726,7 +8172,7 @@
       <c r="DD17" s="6"/>
       <c r="DE17" s="6"/>
       <c r="DF17" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG17" s="8"/>
@@ -7740,7 +8186,7 @@
       <c r="DM17" s="6"/>
       <c r="DN17" s="6"/>
       <c r="DO17" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP17" s="8"/>
@@ -7754,7 +8200,7 @@
       <c r="DV17" s="6"/>
       <c r="DW17" s="6"/>
       <c r="DX17" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY17" s="8"/>
@@ -7768,7 +8214,7 @@
       <c r="EE17" s="6"/>
       <c r="EF17" s="6"/>
       <c r="EG17" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH17" s="8"/>
@@ -7782,7 +8228,7 @@
       <c r="EN17" s="6"/>
       <c r="EO17" s="6"/>
       <c r="EP17" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ17" s="8"/>
@@ -7796,7 +8242,7 @@
       <c r="EW17" s="6"/>
       <c r="EX17" s="6"/>
       <c r="EY17" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ17" s="8"/>
@@ -7810,7 +8256,7 @@
       <c r="FF17" s="6"/>
       <c r="FG17" s="6"/>
       <c r="FH17" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI17" s="8"/>
@@ -7824,7 +8270,7 @@
       <c r="FO17" s="6"/>
       <c r="FP17" s="6"/>
       <c r="FQ17" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR17" s="8"/>
@@ -7838,13 +8284,27 @@
       <c r="FX17" s="6"/>
       <c r="FY17" s="6"/>
       <c r="FZ17" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA17" s="8"/>
       <c r="GB17" s="1"/>
+      <c r="GC17" s="5">
+        <v>45267</v>
+      </c>
+      <c r="GD17" s="6"/>
+      <c r="GE17" s="6"/>
+      <c r="GF17" s="6"/>
+      <c r="GG17" s="6"/>
+      <c r="GH17" s="6"/>
+      <c r="GI17" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ17" s="8"/>
+      <c r="GK17" s="1"/>
     </row>
-    <row r="18" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>45268</v>
       </c>
@@ -7854,7 +8314,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="8"/>
@@ -7870,7 +8330,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S18" s="8"/>
@@ -7885,7 +8345,7 @@
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC18" s="8"/>
@@ -7900,7 +8360,7 @@
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
       <c r="AL18" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM18" s="8"/>
@@ -7914,7 +8374,7 @@
       <c r="AS18" s="6"/>
       <c r="AT18" s="6"/>
       <c r="AU18" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV18" s="8"/>
@@ -7928,7 +8388,7 @@
       <c r="BB18" s="6"/>
       <c r="BC18" s="6"/>
       <c r="BD18" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE18" s="8"/>
@@ -7942,7 +8402,7 @@
       <c r="BK18" s="6"/>
       <c r="BL18" s="6"/>
       <c r="BM18" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN18" s="8"/>
@@ -7956,7 +8416,7 @@
       <c r="BT18" s="6"/>
       <c r="BU18" s="6"/>
       <c r="BV18" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW18" s="8"/>
@@ -7970,7 +8430,7 @@
       <c r="CC18" s="6"/>
       <c r="CD18" s="6"/>
       <c r="CE18" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF18" s="8"/>
@@ -7984,7 +8444,7 @@
       <c r="CL18" s="6"/>
       <c r="CM18" s="6"/>
       <c r="CN18" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO18" s="8"/>
@@ -7998,7 +8458,7 @@
       <c r="CU18" s="6"/>
       <c r="CV18" s="6"/>
       <c r="CW18" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX18" s="8"/>
@@ -8012,7 +8472,7 @@
       <c r="DD18" s="6"/>
       <c r="DE18" s="6"/>
       <c r="DF18" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG18" s="8"/>
@@ -8026,7 +8486,7 @@
       <c r="DM18" s="6"/>
       <c r="DN18" s="6"/>
       <c r="DO18" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP18" s="8"/>
@@ -8040,7 +8500,7 @@
       <c r="DV18" s="6"/>
       <c r="DW18" s="6"/>
       <c r="DX18" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY18" s="8"/>
@@ -8054,7 +8514,7 @@
       <c r="EE18" s="6"/>
       <c r="EF18" s="6"/>
       <c r="EG18" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH18" s="8"/>
@@ -8068,7 +8528,7 @@
       <c r="EN18" s="6"/>
       <c r="EO18" s="6"/>
       <c r="EP18" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ18" s="8"/>
@@ -8082,7 +8542,7 @@
       <c r="EW18" s="6"/>
       <c r="EX18" s="6"/>
       <c r="EY18" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ18" s="8"/>
@@ -8096,7 +8556,7 @@
       <c r="FF18" s="6"/>
       <c r="FG18" s="6"/>
       <c r="FH18" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI18" s="8"/>
@@ -8110,7 +8570,7 @@
       <c r="FO18" s="6"/>
       <c r="FP18" s="6"/>
       <c r="FQ18" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR18" s="8"/>
@@ -8124,18 +8584,32 @@
       <c r="FX18" s="6"/>
       <c r="FY18" s="6"/>
       <c r="FZ18" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA18" s="8"/>
       <c r="GB18" s="1"/>
+      <c r="GC18" s="5">
+        <v>45268</v>
+      </c>
+      <c r="GD18" s="6"/>
+      <c r="GE18" s="6"/>
+      <c r="GF18" s="6"/>
+      <c r="GG18" s="6"/>
+      <c r="GH18" s="6"/>
+      <c r="GI18" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ18" s="8"/>
+      <c r="GK18" s="1"/>
     </row>
-    <row r="19" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>45271</v>
       </c>
       <c r="G19" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="8"/>
@@ -8148,7 +8622,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="R19" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S19" s="8"/>
@@ -8160,7 +8634,7 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AB19" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC19" s="8"/>
@@ -8172,7 +8646,7 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
       <c r="AL19" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM19" s="8"/>
@@ -8183,7 +8657,7 @@
       <c r="AR19" s="6"/>
       <c r="AS19" s="6"/>
       <c r="AU19" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV19" s="8"/>
@@ -8194,7 +8668,7 @@
       <c r="BA19" s="6"/>
       <c r="BB19" s="6"/>
       <c r="BD19" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE19" s="8"/>
@@ -8208,7 +8682,7 @@
       <c r="BK19" s="6"/>
       <c r="BL19" s="6"/>
       <c r="BM19" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN19" s="8"/>
@@ -8219,7 +8693,7 @@
       <c r="BS19" s="6"/>
       <c r="BT19" s="6"/>
       <c r="BV19" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW19" s="8"/>
@@ -8230,7 +8704,7 @@
       <c r="CB19" s="6"/>
       <c r="CC19" s="6"/>
       <c r="CE19" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF19" s="8"/>
@@ -8241,7 +8715,7 @@
       <c r="CK19" s="6"/>
       <c r="CL19" s="6"/>
       <c r="CN19" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO19" s="8"/>
@@ -8252,7 +8726,7 @@
       <c r="CT19" s="6"/>
       <c r="CU19" s="6"/>
       <c r="CW19" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX19" s="8"/>
@@ -8263,7 +8737,7 @@
       <c r="DC19" s="6"/>
       <c r="DD19" s="6"/>
       <c r="DF19" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG19" s="8"/>
@@ -8274,7 +8748,7 @@
       <c r="DL19" s="6"/>
       <c r="DM19" s="6"/>
       <c r="DO19" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP19" s="8"/>
@@ -8285,7 +8759,7 @@
       <c r="DU19" s="6"/>
       <c r="DV19" s="6"/>
       <c r="DX19" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY19" s="8"/>
@@ -8296,7 +8770,7 @@
       <c r="ED19" s="6"/>
       <c r="EE19" s="6"/>
       <c r="EG19" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH19" s="8"/>
@@ -8307,7 +8781,7 @@
       <c r="EM19" s="6"/>
       <c r="EN19" s="6"/>
       <c r="EP19" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ19" s="8"/>
@@ -8318,7 +8792,7 @@
       <c r="EV19" s="6"/>
       <c r="EW19" s="6"/>
       <c r="EY19" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ19" s="8"/>
@@ -8329,7 +8803,7 @@
       <c r="FE19" s="6"/>
       <c r="FF19" s="6"/>
       <c r="FH19" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI19" s="8"/>
@@ -8340,7 +8814,7 @@
       <c r="FN19" s="6"/>
       <c r="FO19" s="6"/>
       <c r="FQ19" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR19" s="8"/>
@@ -8351,18 +8825,29 @@
       <c r="FW19" s="6"/>
       <c r="FX19" s="6"/>
       <c r="FZ19" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA19" s="8"/>
       <c r="GB19" s="1"/>
+      <c r="GC19" s="5">
+        <v>45271</v>
+      </c>
+      <c r="GF19" s="6"/>
+      <c r="GG19" s="6"/>
+      <c r="GI19" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ19" s="8"/>
+      <c r="GK19" s="1"/>
     </row>
-    <row r="20" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>45272</v>
       </c>
       <c r="G20" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="8"/>
@@ -8375,7 +8860,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="R20" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S20" s="8"/>
@@ -8387,7 +8872,7 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AB20" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC20" s="8"/>
@@ -8399,7 +8884,7 @@
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
       <c r="AL20" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM20" s="8"/>
@@ -8410,7 +8895,7 @@
       <c r="AR20" s="6"/>
       <c r="AS20" s="6"/>
       <c r="AU20" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV20" s="8"/>
@@ -8421,7 +8906,7 @@
       <c r="BA20" s="6"/>
       <c r="BB20" s="6"/>
       <c r="BD20" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE20" s="8"/>
@@ -8435,7 +8920,7 @@
       <c r="BK20" s="6"/>
       <c r="BL20" s="6"/>
       <c r="BM20" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN20" s="8"/>
@@ -8446,7 +8931,7 @@
       <c r="BS20" s="6"/>
       <c r="BT20" s="6"/>
       <c r="BV20" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW20" s="8"/>
@@ -8457,7 +8942,7 @@
       <c r="CB20" s="6"/>
       <c r="CC20" s="6"/>
       <c r="CE20" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF20" s="8"/>
@@ -8468,7 +8953,7 @@
       <c r="CK20" s="6"/>
       <c r="CL20" s="6"/>
       <c r="CN20" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO20" s="8"/>
@@ -8479,7 +8964,7 @@
       <c r="CT20" s="6"/>
       <c r="CU20" s="6"/>
       <c r="CW20" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX20" s="8"/>
@@ -8490,7 +8975,7 @@
       <c r="DC20" s="6"/>
       <c r="DD20" s="6"/>
       <c r="DF20" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG20" s="8"/>
@@ -8501,7 +8986,7 @@
       <c r="DL20" s="6"/>
       <c r="DM20" s="6"/>
       <c r="DO20" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP20" s="8"/>
@@ -8512,7 +8997,7 @@
       <c r="DU20" s="6"/>
       <c r="DV20" s="6"/>
       <c r="DX20" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY20" s="8"/>
@@ -8523,7 +9008,7 @@
       <c r="ED20" s="6"/>
       <c r="EE20" s="6"/>
       <c r="EG20" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH20" s="8"/>
@@ -8534,7 +9019,7 @@
       <c r="EM20" s="6"/>
       <c r="EN20" s="6"/>
       <c r="EP20" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ20" s="8"/>
@@ -8545,7 +9030,7 @@
       <c r="EV20" s="6"/>
       <c r="EW20" s="6"/>
       <c r="EY20" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ20" s="8"/>
@@ -8556,7 +9041,7 @@
       <c r="FE20" s="6"/>
       <c r="FF20" s="6"/>
       <c r="FH20" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI20" s="8"/>
@@ -8567,7 +9052,7 @@
       <c r="FN20" s="6"/>
       <c r="FO20" s="6"/>
       <c r="FQ20" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR20" s="8"/>
@@ -8578,18 +9063,29 @@
       <c r="FW20" s="6"/>
       <c r="FX20" s="6"/>
       <c r="FZ20" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA20" s="8"/>
       <c r="GB20" s="1"/>
+      <c r="GC20" s="5">
+        <v>45272</v>
+      </c>
+      <c r="GF20" s="6"/>
+      <c r="GG20" s="6"/>
+      <c r="GI20" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ20" s="8"/>
+      <c r="GK20" s="1"/>
     </row>
-    <row r="21" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>45273</v>
       </c>
       <c r="G21" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="8"/>
@@ -8602,7 +9098,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="R21" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S21" s="8"/>
@@ -8614,7 +9110,7 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AB21" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC21" s="8"/>
@@ -8626,7 +9122,7 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
       <c r="AL21" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM21" s="8"/>
@@ -8637,7 +9133,7 @@
       <c r="AR21" s="6"/>
       <c r="AS21" s="6"/>
       <c r="AU21" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV21" s="8"/>
@@ -8648,7 +9144,7 @@
       <c r="BA21" s="6"/>
       <c r="BB21" s="6"/>
       <c r="BD21" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE21" s="8"/>
@@ -8662,7 +9158,7 @@
       <c r="BK21" s="6"/>
       <c r="BL21" s="6"/>
       <c r="BM21" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN21" s="8"/>
@@ -8673,7 +9169,7 @@
       <c r="BS21" s="6"/>
       <c r="BT21" s="6"/>
       <c r="BV21" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW21" s="8"/>
@@ -8684,7 +9180,7 @@
       <c r="CB21" s="6"/>
       <c r="CC21" s="6"/>
       <c r="CE21" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF21" s="8"/>
@@ -8695,7 +9191,7 @@
       <c r="CK21" s="6"/>
       <c r="CL21" s="6"/>
       <c r="CN21" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO21" s="8"/>
@@ -8706,7 +9202,7 @@
       <c r="CT21" s="6"/>
       <c r="CU21" s="6"/>
       <c r="CW21" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX21" s="8"/>
@@ -8717,7 +9213,7 @@
       <c r="DC21" s="6"/>
       <c r="DD21" s="6"/>
       <c r="DF21" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG21" s="8"/>
@@ -8728,7 +9224,7 @@
       <c r="DL21" s="6"/>
       <c r="DM21" s="6"/>
       <c r="DO21" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP21" s="8"/>
@@ -8739,7 +9235,7 @@
       <c r="DU21" s="6"/>
       <c r="DV21" s="6"/>
       <c r="DX21" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY21" s="8"/>
@@ -8750,7 +9246,7 @@
       <c r="ED21" s="6"/>
       <c r="EE21" s="6"/>
       <c r="EG21" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH21" s="8"/>
@@ -8761,7 +9257,7 @@
       <c r="EM21" s="6"/>
       <c r="EN21" s="6"/>
       <c r="EP21" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ21" s="8"/>
@@ -8772,7 +9268,7 @@
       <c r="EV21" s="6"/>
       <c r="EW21" s="6"/>
       <c r="EY21" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ21" s="8"/>
@@ -8783,7 +9279,7 @@
       <c r="FE21" s="6"/>
       <c r="FF21" s="6"/>
       <c r="FH21" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI21" s="8"/>
@@ -8794,7 +9290,7 @@
       <c r="FN21" s="6"/>
       <c r="FO21" s="6"/>
       <c r="FQ21" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR21" s="8"/>
@@ -8805,18 +9301,29 @@
       <c r="FW21" s="6"/>
       <c r="FX21" s="6"/>
       <c r="FZ21" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA21" s="8"/>
       <c r="GB21" s="1"/>
+      <c r="GC21" s="5">
+        <v>45273</v>
+      </c>
+      <c r="GF21" s="6"/>
+      <c r="GG21" s="6"/>
+      <c r="GI21" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ21" s="8"/>
+      <c r="GK21" s="1"/>
     </row>
-    <row r="22" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>45274</v>
       </c>
       <c r="G22" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="8"/>
@@ -8829,7 +9336,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="R22" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S22" s="8"/>
@@ -8841,7 +9348,7 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AB22" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC22" s="8"/>
@@ -8853,7 +9360,7 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
       <c r="AL22" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM22" s="8"/>
@@ -8864,7 +9371,7 @@
       <c r="AR22" s="6"/>
       <c r="AS22" s="6"/>
       <c r="AU22" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV22" s="8"/>
@@ -8875,7 +9382,7 @@
       <c r="BA22" s="6"/>
       <c r="BB22" s="6"/>
       <c r="BD22" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE22" s="8"/>
@@ -8889,7 +9396,7 @@
       <c r="BK22" s="6"/>
       <c r="BL22" s="6"/>
       <c r="BM22" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN22" s="8"/>
@@ -8900,7 +9407,7 @@
       <c r="BS22" s="6"/>
       <c r="BT22" s="6"/>
       <c r="BV22" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW22" s="8"/>
@@ -8911,7 +9418,7 @@
       <c r="CB22" s="6"/>
       <c r="CC22" s="6"/>
       <c r="CE22" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF22" s="8"/>
@@ -8922,7 +9429,7 @@
       <c r="CK22" s="6"/>
       <c r="CL22" s="6"/>
       <c r="CN22" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO22" s="8"/>
@@ -8933,7 +9440,7 @@
       <c r="CT22" s="6"/>
       <c r="CU22" s="6"/>
       <c r="CW22" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX22" s="8"/>
@@ -8944,7 +9451,7 @@
       <c r="DC22" s="6"/>
       <c r="DD22" s="6"/>
       <c r="DF22" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG22" s="8"/>
@@ -8955,7 +9462,7 @@
       <c r="DL22" s="6"/>
       <c r="DM22" s="6"/>
       <c r="DO22" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP22" s="8"/>
@@ -8966,7 +9473,7 @@
       <c r="DU22" s="6"/>
       <c r="DV22" s="6"/>
       <c r="DX22" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY22" s="8"/>
@@ -8977,7 +9484,7 @@
       <c r="ED22" s="6"/>
       <c r="EE22" s="6"/>
       <c r="EG22" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH22" s="8"/>
@@ -8988,7 +9495,7 @@
       <c r="EM22" s="6"/>
       <c r="EN22" s="6"/>
       <c r="EP22" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ22" s="8"/>
@@ -8999,7 +9506,7 @@
       <c r="EV22" s="6"/>
       <c r="EW22" s="6"/>
       <c r="EY22" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ22" s="8"/>
@@ -9010,7 +9517,7 @@
       <c r="FE22" s="6"/>
       <c r="FF22" s="6"/>
       <c r="FH22" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI22" s="8"/>
@@ -9021,7 +9528,7 @@
       <c r="FN22" s="6"/>
       <c r="FO22" s="6"/>
       <c r="FQ22" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR22" s="8"/>
@@ -9032,18 +9539,29 @@
       <c r="FW22" s="6"/>
       <c r="FX22" s="6"/>
       <c r="FZ22" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA22" s="8"/>
       <c r="GB22" s="1"/>
+      <c r="GC22" s="5">
+        <v>45274</v>
+      </c>
+      <c r="GF22" s="6"/>
+      <c r="GG22" s="6"/>
+      <c r="GI22" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ22" s="8"/>
+      <c r="GK22" s="1"/>
     </row>
-    <row r="23" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>45275</v>
       </c>
       <c r="G23" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="8"/>
@@ -9056,7 +9574,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="R23" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S23" s="8"/>
@@ -9068,7 +9586,7 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AB23" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC23" s="8"/>
@@ -9080,7 +9598,7 @@
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
       <c r="AL23" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM23" s="8"/>
@@ -9091,7 +9609,7 @@
       <c r="AR23" s="6"/>
       <c r="AS23" s="6"/>
       <c r="AU23" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV23" s="8"/>
@@ -9102,7 +9620,7 @@
       <c r="BA23" s="6"/>
       <c r="BB23" s="6"/>
       <c r="BD23" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE23" s="8"/>
@@ -9116,7 +9634,7 @@
       <c r="BK23" s="6"/>
       <c r="BL23" s="6"/>
       <c r="BM23" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN23" s="8"/>
@@ -9127,7 +9645,7 @@
       <c r="BS23" s="6"/>
       <c r="BT23" s="6"/>
       <c r="BV23" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW23" s="8"/>
@@ -9138,7 +9656,7 @@
       <c r="CB23" s="6"/>
       <c r="CC23" s="6"/>
       <c r="CE23" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF23" s="8"/>
@@ -9149,7 +9667,7 @@
       <c r="CK23" s="6"/>
       <c r="CL23" s="6"/>
       <c r="CN23" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO23" s="8"/>
@@ -9160,7 +9678,7 @@
       <c r="CT23" s="6"/>
       <c r="CU23" s="6"/>
       <c r="CW23" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX23" s="8"/>
@@ -9171,7 +9689,7 @@
       <c r="DC23" s="6"/>
       <c r="DD23" s="6"/>
       <c r="DF23" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG23" s="8"/>
@@ -9182,7 +9700,7 @@
       <c r="DL23" s="6"/>
       <c r="DM23" s="6"/>
       <c r="DO23" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP23" s="8"/>
@@ -9193,7 +9711,7 @@
       <c r="DU23" s="6"/>
       <c r="DV23" s="6"/>
       <c r="DX23" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY23" s="8"/>
@@ -9204,7 +9722,7 @@
       <c r="ED23" s="6"/>
       <c r="EE23" s="6"/>
       <c r="EG23" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH23" s="8"/>
@@ -9215,7 +9733,7 @@
       <c r="EM23" s="6"/>
       <c r="EN23" s="6"/>
       <c r="EP23" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ23" s="8"/>
@@ -9226,7 +9744,7 @@
       <c r="EV23" s="6"/>
       <c r="EW23" s="6"/>
       <c r="EY23" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ23" s="8"/>
@@ -9237,7 +9755,7 @@
       <c r="FE23" s="6"/>
       <c r="FF23" s="6"/>
       <c r="FH23" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI23" s="8"/>
@@ -9248,7 +9766,7 @@
       <c r="FN23" s="6"/>
       <c r="FO23" s="6"/>
       <c r="FQ23" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR23" s="8"/>
@@ -9259,18 +9777,29 @@
       <c r="FW23" s="6"/>
       <c r="FX23" s="6"/>
       <c r="FZ23" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA23" s="8"/>
       <c r="GB23" s="1"/>
+      <c r="GC23" s="5">
+        <v>45275</v>
+      </c>
+      <c r="GF23" s="6"/>
+      <c r="GG23" s="6"/>
+      <c r="GI23" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ23" s="8"/>
+      <c r="GK23" s="1"/>
     </row>
-    <row r="24" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>45278</v>
       </c>
       <c r="G24" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="8"/>
@@ -9283,7 +9812,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="R24" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="8"/>
@@ -9295,7 +9824,7 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AB24" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC24" s="8"/>
@@ -9307,7 +9836,7 @@
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
       <c r="AL24" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM24" s="8"/>
@@ -9318,7 +9847,7 @@
       <c r="AR24" s="6"/>
       <c r="AS24" s="6"/>
       <c r="AU24" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV24" s="8"/>
@@ -9329,7 +9858,7 @@
       <c r="BA24" s="6"/>
       <c r="BB24" s="6"/>
       <c r="BD24" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE24" s="8"/>
@@ -9343,7 +9872,7 @@
       <c r="BK24" s="6"/>
       <c r="BL24" s="6"/>
       <c r="BM24" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN24" s="8"/>
@@ -9354,7 +9883,7 @@
       <c r="BS24" s="6"/>
       <c r="BT24" s="6"/>
       <c r="BV24" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW24" s="8"/>
@@ -9365,7 +9894,7 @@
       <c r="CB24" s="6"/>
       <c r="CC24" s="6"/>
       <c r="CE24" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF24" s="8"/>
@@ -9376,7 +9905,7 @@
       <c r="CK24" s="6"/>
       <c r="CL24" s="6"/>
       <c r="CN24" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO24" s="8"/>
@@ -9387,7 +9916,7 @@
       <c r="CT24" s="6"/>
       <c r="CU24" s="6"/>
       <c r="CW24" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX24" s="8"/>
@@ -9398,7 +9927,7 @@
       <c r="DC24" s="6"/>
       <c r="DD24" s="6"/>
       <c r="DF24" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG24" s="8"/>
@@ -9409,7 +9938,7 @@
       <c r="DL24" s="6"/>
       <c r="DM24" s="6"/>
       <c r="DO24" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP24" s="8"/>
@@ -9420,7 +9949,7 @@
       <c r="DU24" s="6"/>
       <c r="DV24" s="6"/>
       <c r="DX24" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY24" s="8"/>
@@ -9431,7 +9960,7 @@
       <c r="ED24" s="6"/>
       <c r="EE24" s="6"/>
       <c r="EG24" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH24" s="8"/>
@@ -9442,7 +9971,7 @@
       <c r="EM24" s="6"/>
       <c r="EN24" s="6"/>
       <c r="EP24" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ24" s="8"/>
@@ -9453,7 +9982,7 @@
       <c r="EV24" s="6"/>
       <c r="EW24" s="6"/>
       <c r="EY24" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ24" s="8"/>
@@ -9464,7 +9993,7 @@
       <c r="FE24" s="6"/>
       <c r="FF24" s="6"/>
       <c r="FH24" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI24" s="8"/>
@@ -9475,7 +10004,7 @@
       <c r="FN24" s="6"/>
       <c r="FO24" s="6"/>
       <c r="FQ24" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR24" s="8"/>
@@ -9486,18 +10015,29 @@
       <c r="FW24" s="6"/>
       <c r="FX24" s="6"/>
       <c r="FZ24" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA24" s="8"/>
       <c r="GB24" s="1"/>
+      <c r="GC24" s="5">
+        <v>45278</v>
+      </c>
+      <c r="GF24" s="6"/>
+      <c r="GG24" s="6"/>
+      <c r="GI24" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ24" s="8"/>
+      <c r="GK24" s="1"/>
     </row>
-    <row r="25" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>45279</v>
       </c>
       <c r="G25" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="8"/>
@@ -9510,7 +10050,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="R25" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="8"/>
@@ -9522,7 +10062,7 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AB25" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC25" s="8"/>
@@ -9534,7 +10074,7 @@
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
       <c r="AL25" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM25" s="8"/>
@@ -9545,7 +10085,7 @@
       <c r="AR25" s="6"/>
       <c r="AS25" s="6"/>
       <c r="AU25" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV25" s="8"/>
@@ -9556,7 +10096,7 @@
       <c r="BA25" s="6"/>
       <c r="BB25" s="6"/>
       <c r="BD25" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE25" s="8"/>
@@ -9570,7 +10110,7 @@
       <c r="BK25" s="6"/>
       <c r="BL25" s="6"/>
       <c r="BM25" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN25" s="8"/>
@@ -9581,7 +10121,7 @@
       <c r="BS25" s="6"/>
       <c r="BT25" s="6"/>
       <c r="BV25" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW25" s="8"/>
@@ -9592,7 +10132,7 @@
       <c r="CB25" s="6"/>
       <c r="CC25" s="6"/>
       <c r="CE25" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF25" s="8"/>
@@ -9603,7 +10143,7 @@
       <c r="CK25" s="6"/>
       <c r="CL25" s="6"/>
       <c r="CN25" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO25" s="8"/>
@@ -9614,7 +10154,7 @@
       <c r="CT25" s="6"/>
       <c r="CU25" s="6"/>
       <c r="CW25" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX25" s="8"/>
@@ -9625,7 +10165,7 @@
       <c r="DC25" s="6"/>
       <c r="DD25" s="6"/>
       <c r="DF25" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG25" s="8"/>
@@ -9636,7 +10176,7 @@
       <c r="DL25" s="6"/>
       <c r="DM25" s="6"/>
       <c r="DO25" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP25" s="8"/>
@@ -9647,7 +10187,7 @@
       <c r="DU25" s="6"/>
       <c r="DV25" s="6"/>
       <c r="DX25" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY25" s="8"/>
@@ -9658,7 +10198,7 @@
       <c r="ED25" s="6"/>
       <c r="EE25" s="6"/>
       <c r="EG25" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH25" s="8"/>
@@ -9669,7 +10209,7 @@
       <c r="EM25" s="6"/>
       <c r="EN25" s="6"/>
       <c r="EP25" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ25" s="8"/>
@@ -9680,7 +10220,7 @@
       <c r="EV25" s="6"/>
       <c r="EW25" s="6"/>
       <c r="EY25" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ25" s="8"/>
@@ -9691,7 +10231,7 @@
       <c r="FE25" s="6"/>
       <c r="FF25" s="6"/>
       <c r="FH25" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI25" s="8"/>
@@ -9702,7 +10242,7 @@
       <c r="FN25" s="6"/>
       <c r="FO25" s="6"/>
       <c r="FQ25" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR25" s="8"/>
@@ -9713,18 +10253,29 @@
       <c r="FW25" s="6"/>
       <c r="FX25" s="6"/>
       <c r="FZ25" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA25" s="8"/>
       <c r="GB25" s="1"/>
+      <c r="GC25" s="5">
+        <v>45279</v>
+      </c>
+      <c r="GF25" s="6"/>
+      <c r="GG25" s="6"/>
+      <c r="GI25" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ25" s="8"/>
+      <c r="GK25" s="1"/>
     </row>
-    <row r="26" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>45280</v>
       </c>
       <c r="G26" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="8"/>
@@ -9737,7 +10288,7 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="R26" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S26" s="8"/>
@@ -9749,7 +10300,7 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AB26" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC26" s="8"/>
@@ -9761,7 +10312,7 @@
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
       <c r="AL26" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM26" s="8"/>
@@ -9772,7 +10323,7 @@
       <c r="AR26" s="6"/>
       <c r="AS26" s="6"/>
       <c r="AU26" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV26" s="8"/>
@@ -9783,7 +10334,7 @@
       <c r="BA26" s="6"/>
       <c r="BB26" s="6"/>
       <c r="BD26" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE26" s="8"/>
@@ -9797,7 +10348,7 @@
       <c r="BK26" s="6"/>
       <c r="BL26" s="6"/>
       <c r="BM26" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN26" s="8"/>
@@ -9808,7 +10359,7 @@
       <c r="BS26" s="6"/>
       <c r="BT26" s="6"/>
       <c r="BV26" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW26" s="8"/>
@@ -9819,7 +10370,7 @@
       <c r="CB26" s="6"/>
       <c r="CC26" s="6"/>
       <c r="CE26" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF26" s="8"/>
@@ -9830,7 +10381,7 @@
       <c r="CK26" s="6"/>
       <c r="CL26" s="6"/>
       <c r="CN26" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO26" s="8"/>
@@ -9841,7 +10392,7 @@
       <c r="CT26" s="6"/>
       <c r="CU26" s="6"/>
       <c r="CW26" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX26" s="8"/>
@@ -9852,7 +10403,7 @@
       <c r="DC26" s="6"/>
       <c r="DD26" s="6"/>
       <c r="DF26" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG26" s="8"/>
@@ -9863,7 +10414,7 @@
       <c r="DL26" s="6"/>
       <c r="DM26" s="6"/>
       <c r="DO26" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP26" s="8"/>
@@ -9874,7 +10425,7 @@
       <c r="DU26" s="6"/>
       <c r="DV26" s="6"/>
       <c r="DX26" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY26" s="8"/>
@@ -9885,7 +10436,7 @@
       <c r="ED26" s="6"/>
       <c r="EE26" s="6"/>
       <c r="EG26" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH26" s="8"/>
@@ -9896,7 +10447,7 @@
       <c r="EM26" s="6"/>
       <c r="EN26" s="6"/>
       <c r="EP26" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ26" s="8"/>
@@ -9907,7 +10458,7 @@
       <c r="EV26" s="6"/>
       <c r="EW26" s="6"/>
       <c r="EY26" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ26" s="8"/>
@@ -9918,7 +10469,7 @@
       <c r="FE26" s="6"/>
       <c r="FF26" s="6"/>
       <c r="FH26" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI26" s="8"/>
@@ -9929,7 +10480,7 @@
       <c r="FN26" s="6"/>
       <c r="FO26" s="6"/>
       <c r="FQ26" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR26" s="8"/>
@@ -9940,18 +10491,29 @@
       <c r="FW26" s="6"/>
       <c r="FX26" s="6"/>
       <c r="FZ26" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA26" s="8"/>
       <c r="GB26" s="1"/>
+      <c r="GC26" s="5">
+        <v>45280</v>
+      </c>
+      <c r="GF26" s="6"/>
+      <c r="GG26" s="6"/>
+      <c r="GI26" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ26" s="8"/>
+      <c r="GK26" s="1"/>
     </row>
-    <row r="27" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>45281</v>
       </c>
       <c r="G27" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="8"/>
@@ -9964,7 +10526,7 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="R27" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="8"/>
@@ -9976,7 +10538,7 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AB27" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC27" s="8"/>
@@ -9988,7 +10550,7 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
       <c r="AL27" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM27" s="8"/>
@@ -9999,7 +10561,7 @@
       <c r="AR27" s="6"/>
       <c r="AS27" s="6"/>
       <c r="AU27" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV27" s="8"/>
@@ -10010,7 +10572,7 @@
       <c r="BA27" s="6"/>
       <c r="BB27" s="6"/>
       <c r="BD27" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE27" s="8"/>
@@ -10024,7 +10586,7 @@
       <c r="BK27" s="6"/>
       <c r="BL27" s="6"/>
       <c r="BM27" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN27" s="8"/>
@@ -10035,7 +10597,7 @@
       <c r="BS27" s="6"/>
       <c r="BT27" s="6"/>
       <c r="BV27" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW27" s="8"/>
@@ -10046,7 +10608,7 @@
       <c r="CB27" s="6"/>
       <c r="CC27" s="6"/>
       <c r="CE27" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF27" s="8"/>
@@ -10057,7 +10619,7 @@
       <c r="CK27" s="6"/>
       <c r="CL27" s="6"/>
       <c r="CN27" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO27" s="8"/>
@@ -10068,7 +10630,7 @@
       <c r="CT27" s="6"/>
       <c r="CU27" s="6"/>
       <c r="CW27" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX27" s="8"/>
@@ -10079,7 +10641,7 @@
       <c r="DC27" s="6"/>
       <c r="DD27" s="6"/>
       <c r="DF27" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG27" s="8"/>
@@ -10090,7 +10652,7 @@
       <c r="DL27" s="6"/>
       <c r="DM27" s="6"/>
       <c r="DO27" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP27" s="8"/>
@@ -10101,7 +10663,7 @@
       <c r="DU27" s="6"/>
       <c r="DV27" s="6"/>
       <c r="DX27" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DY27" s="8"/>
@@ -10112,7 +10674,7 @@
       <c r="ED27" s="6"/>
       <c r="EE27" s="6"/>
       <c r="EG27" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH27" s="8"/>
@@ -10123,7 +10685,7 @@
       <c r="EM27" s="6"/>
       <c r="EN27" s="6"/>
       <c r="EP27" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ27" s="8"/>
@@ -10134,7 +10696,7 @@
       <c r="EV27" s="6"/>
       <c r="EW27" s="6"/>
       <c r="EY27" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EZ27" s="8"/>
@@ -10145,7 +10707,7 @@
       <c r="FE27" s="6"/>
       <c r="FF27" s="6"/>
       <c r="FH27" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FI27" s="8"/>
@@ -10156,7 +10718,7 @@
       <c r="FN27" s="6"/>
       <c r="FO27" s="6"/>
       <c r="FQ27" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FR27" s="8"/>
@@ -10167,13 +10729,24 @@
       <c r="FW27" s="6"/>
       <c r="FX27" s="6"/>
       <c r="FZ27" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="GA27" s="8"/>
       <c r="GB27" s="1"/>
+      <c r="GC27" s="5">
+        <v>45281</v>
+      </c>
+      <c r="GF27" s="6"/>
+      <c r="GG27" s="6"/>
+      <c r="GI27" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GJ27" s="8"/>
+      <c r="GK27" s="1"/>
     </row>
-    <row r="28" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="G28" s="7"/>
       <c r="H28" s="8"/>
@@ -10183,10 +10756,7 @@
       <c r="L28" s="5"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-      <c r="Q28" s="6">
-        <f>AVERAGE(Q4:Q27)</f>
-        <v>22328271.571428571</v>
-      </c>
+      <c r="Q28" s="6"/>
       <c r="R28" s="7"/>
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
@@ -10303,8 +10873,14 @@
       <c r="FZ28" s="7"/>
       <c r="GA28" s="8"/>
       <c r="GB28" s="1"/>
+      <c r="GC28" s="5"/>
+      <c r="GF28" s="6"/>
+      <c r="GG28" s="6"/>
+      <c r="GI28" s="7"/>
+      <c r="GJ28" s="8"/>
+      <c r="GK28" s="1"/>
     </row>
-    <row r="29" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>39</v>
       </c>
@@ -10322,15 +10898,19 @@
       </c>
       <c r="G29" s="6"/>
       <c r="K29" s="1"/>
-      <c r="L29" t="s">
+      <c r="L29" s="10" t="s">
         <v>39</v>
       </c>
       <c r="M29" s="6">
         <f>AVERAGE(M4:M27)</f>
         <v>1407378.5714285714</v>
       </c>
+      <c r="Q29" s="6">
+        <f>AVERAGE(Q4:Q27)</f>
+        <v>22328271.571428571</v>
+      </c>
       <c r="U29" s="1"/>
-      <c r="V29" t="s">
+      <c r="V29" s="10" t="s">
         <v>39</v>
       </c>
       <c r="W29" s="6">
@@ -10346,7 +10926,7 @@
         <v>869942.85714285716</v>
       </c>
       <c r="AE29" s="1"/>
-      <c r="AF29" t="s">
+      <c r="AF29" s="10" t="s">
         <v>39</v>
       </c>
       <c r="AG29" s="6">
@@ -10357,38 +10937,298 @@
         <f>AVERAGE(AH4:AH27)</f>
         <v>6921605.7142857146</v>
       </c>
+      <c r="AK29" s="6">
+        <f>AVERAGE(AK4:AK27)</f>
+        <v>18269016.142857142</v>
+      </c>
       <c r="AN29" s="1"/>
+      <c r="AO29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP29" s="6">
+        <f>AVERAGE(AP4:AP28)</f>
+        <v>1220085.7142857143</v>
+      </c>
+      <c r="AQ29" s="6">
+        <f>AVERAGE(AQ4:AQ27)</f>
+        <v>717514.28571428568</v>
+      </c>
+      <c r="AT29" s="6">
+        <f>AVERAGE(AT4:AT27)</f>
+        <v>17926114.285714287</v>
+      </c>
       <c r="AW29" s="1"/>
+      <c r="AX29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY29" s="6">
+        <f>AVERAGE(AY4:AY28)</f>
+        <v>2261793.8571428573</v>
+      </c>
+      <c r="AZ29" s="6">
+        <f>AVERAGE(AZ4:AZ27)</f>
+        <v>2144260.8571428573</v>
+      </c>
+      <c r="BC29" s="6">
+        <f>AVERAGE(BC4:BC27)</f>
+        <v>20924200</v>
+      </c>
       <c r="BF29" s="1"/>
+      <c r="BG29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH29" s="6">
+        <f>AVERAGE(BH4:BH28)</f>
+        <v>684220</v>
+      </c>
+      <c r="BI29" s="6">
+        <f>AVERAGE(BI4:BI27)</f>
+        <v>93231.428571428565</v>
+      </c>
+      <c r="BL29" s="6">
+        <f>AVERAGE(BL4:BL27)</f>
+        <v>14883671.428571429</v>
+      </c>
       <c r="BO29" s="1"/>
+      <c r="BP29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ29" s="6">
+        <f>AVERAGE(BQ4:BQ28)</f>
+        <v>1125572.142857143</v>
+      </c>
+      <c r="BR29" s="6">
+        <f>AVERAGE(BR4:BR27)</f>
+        <v>1667280.2857142857</v>
+      </c>
+      <c r="BU29" s="6">
+        <f>AVERAGE(BU4:BU27)</f>
+        <v>8760685.7142857146</v>
+      </c>
       <c r="BX29" s="1"/>
+      <c r="BY29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ29" s="6">
+        <f>AVERAGE(BZ4:BZ28)</f>
+        <v>238058.14285714287</v>
+      </c>
+      <c r="CA29" s="6">
+        <f>AVERAGE(CA4:CA27)</f>
+        <v>1740704</v>
+      </c>
+      <c r="CD29" s="6">
+        <f>AVERAGE(CD4:CD27)</f>
+        <v>3659142.8571428573</v>
+      </c>
       <c r="CG29" s="1"/>
+      <c r="CH29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="CI29" s="6">
+        <f>AVERAGE(CI4:CI28)</f>
+        <v>658579.71428571432</v>
+      </c>
+      <c r="CJ29" s="6">
+        <f>AVERAGE(CJ4:CJ27)</f>
+        <v>1806715.5714285714</v>
+      </c>
+      <c r="CM29" s="6">
+        <f>AVERAGE(CM4:CM27)</f>
+        <v>6383114.2857142854</v>
+      </c>
       <c r="CP29" s="1"/>
+      <c r="CQ29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="CR29" s="6">
+        <f>AVERAGE(CR4:CR28)</f>
+        <v>502961.42857142858</v>
+      </c>
+      <c r="CS29" s="6">
+        <f>AVERAGE(CS4:CS27)</f>
+        <v>557501.42857142852</v>
+      </c>
+      <c r="CV29" s="6">
+        <f>AVERAGE(CV4:CV27)</f>
+        <v>30048434.714285713</v>
+      </c>
       <c r="CY29" s="1"/>
+      <c r="CZ29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="DA29" s="6">
+        <f>AVERAGE(DA4:DA28)</f>
+        <v>338671.42857142858</v>
+      </c>
+      <c r="DB29" s="6">
+        <f>AVERAGE(DB4:DB27)</f>
+        <v>471516.71428571426</v>
+      </c>
+      <c r="DE29" s="6">
+        <f>AVERAGE(DE4:DE27)</f>
+        <v>15517085.714285715</v>
+      </c>
       <c r="DH29" s="1"/>
+      <c r="DI29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="DJ29" s="6">
+        <f>AVERAGE(DJ4:DJ28)</f>
+        <v>189320.85714285713</v>
+      </c>
+      <c r="DK29" s="6">
+        <f>AVERAGE(DK4:DK27)</f>
+        <v>317577.71428571426</v>
+      </c>
+      <c r="DN29" s="6">
+        <f>AVERAGE(DN4:DN27)</f>
+        <v>37284171.428571425</v>
+      </c>
       <c r="DQ29" s="1"/>
+      <c r="DR29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="DS29" s="6">
+        <f>AVERAGE(DS4:DS28)</f>
+        <v>322728.57142857142</v>
+      </c>
+      <c r="DT29" s="6">
+        <f>AVERAGE(DT4:DT27)</f>
+        <v>294454.14285714284</v>
+      </c>
+      <c r="DW29" s="6">
+        <f>AVERAGE(DW4:DW27)</f>
+        <v>7999257.1428571427</v>
+      </c>
       <c r="DZ29" s="1"/>
+      <c r="EA29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="EB29" s="6">
+        <f>AVERAGE(EB4:EB28)</f>
+        <v>190771.42857142858</v>
+      </c>
+      <c r="EC29" s="6">
+        <f>AVERAGE(EC4:EC27)</f>
+        <v>212257.14285714287</v>
+      </c>
+      <c r="EF29" s="6">
+        <f>AVERAGE(EF4:EF27)</f>
+        <v>832257.14285714284</v>
+      </c>
       <c r="EI29" s="1"/>
+      <c r="EJ29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="EK29" s="6">
+        <f>AVERAGE(EK4:EK28)</f>
+        <v>38614.285714285717</v>
+      </c>
+      <c r="EL29" s="6">
+        <f>AVERAGE(EL4:EL27)</f>
+        <v>31042.857142857141</v>
+      </c>
+      <c r="EO29" s="6">
+        <f>AVERAGE(EO4:EO27)</f>
+        <v>3012285.7142857141</v>
+      </c>
       <c r="ER29" s="1"/>
+      <c r="ES29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="ET29" s="6">
+        <f>AVERAGE(ET4:ET28)</f>
+        <v>30823.857142857141</v>
+      </c>
+      <c r="EU29" s="6">
+        <f>AVERAGE(EU4:EU27)</f>
+        <v>40782.857142857145</v>
+      </c>
+      <c r="EX29" s="6">
+        <f>AVERAGE(EX4:EX27)</f>
+        <v>2223914.2857142859</v>
+      </c>
       <c r="FA29" s="1"/>
+      <c r="FB29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="FC29" s="6">
+        <f>AVERAGE(FC4:FC28)</f>
+        <v>95478.571428571435</v>
+      </c>
+      <c r="FD29" s="6">
+        <f>AVERAGE(FD4:FD27)</f>
+        <v>160514.28571428571</v>
+      </c>
+      <c r="FG29" s="6">
+        <f>AVERAGE(FG4:FG27)</f>
+        <v>8442685.7142857146</v>
+      </c>
       <c r="FJ29" s="1"/>
+      <c r="FK29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="FL29" s="6">
+        <f>AVERAGE(FL4:FL28)</f>
+        <v>156957.14285714287</v>
+      </c>
+      <c r="FM29" s="6">
+        <f>AVERAGE(FM4:FM27)</f>
+        <v>336257.14285714284</v>
+      </c>
+      <c r="FP29" s="6">
+        <f>AVERAGE(FP4:FP27)</f>
+        <v>21989342.857142858</v>
+      </c>
       <c r="FS29" s="1"/>
+      <c r="FT29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="FU29" s="6">
+        <f>AVERAGE(FU4:FU28)</f>
+        <v>522313.85714285716</v>
+      </c>
+      <c r="FV29" s="6">
+        <f>AVERAGE(FV4:FV27)</f>
+        <v>124342.57142857143</v>
+      </c>
+      <c r="FY29" s="6">
+        <f>AVERAGE(FY4:FY27)</f>
+        <v>2320942.8571428573</v>
+      </c>
       <c r="GB29" s="1"/>
+      <c r="GC29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="GD29" s="6">
+        <f>AVERAGE(GD4:GD28)</f>
+        <v>16385.714285714286</v>
+      </c>
+      <c r="GE29" s="6">
+        <f>AVERAGE(GE4:GE27)</f>
+        <v>137614.28571428571</v>
+      </c>
+      <c r="GH29" s="6">
+        <f>AVERAGE(GH4:GH27)</f>
+        <v>578685.71428571432</v>
+      </c>
+      <c r="GK29" s="1"/>
     </row>
-    <row r="30" spans="1:184" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
+    <row r="30" spans="1:193" x14ac:dyDescent="0.2">
+      <c r="A30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="38"/>
       <c r="D30" s="6">
         <f>SUM(D4:D27)</f>
         <v>5948887</v>
       </c>
       <c r="K30" s="1"/>
-      <c r="L30" s="50" t="s">
+      <c r="L30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="M30" s="50"/>
+      <c r="M30" s="38"/>
       <c r="N30" s="6">
         <f>AVERAGE(N4:N29)</f>
         <v>862550.42857142852</v>
@@ -10399,10 +11239,10 @@
       </c>
       <c r="P30" s="6"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="50" t="s">
+      <c r="V30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W30" s="50"/>
+      <c r="W30" s="38"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6">
         <f>SUM(Y3:Y26)</f>
@@ -10410,10 +11250,10 @@
       </c>
       <c r="Z30" s="6"/>
       <c r="AE30" s="1"/>
-      <c r="AF30" s="50" t="s">
+      <c r="AF30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AG30" s="50"/>
+      <c r="AG30" s="38"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="6">
         <f>SUM(AI3:AI26)</f>
@@ -10421,10 +11261,10 @@
       </c>
       <c r="AJ30" s="6"/>
       <c r="AN30" s="1"/>
-      <c r="AO30" s="50" t="s">
+      <c r="AO30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AP30" s="50"/>
+      <c r="AP30" s="38"/>
       <c r="AQ30" s="6"/>
       <c r="AR30" s="6">
         <f>SUM(AR3:AR26)</f>
@@ -10432,10 +11272,10 @@
       </c>
       <c r="AS30" s="6"/>
       <c r="AW30" s="1"/>
-      <c r="AX30" s="50" t="s">
+      <c r="AX30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AY30" s="50"/>
+      <c r="AY30" s="38"/>
       <c r="AZ30" s="6"/>
       <c r="BA30" s="6">
         <f>SUM(BA3:BA26)</f>
@@ -10443,19 +11283,19 @@
       </c>
       <c r="BB30" s="6"/>
       <c r="BF30" s="1"/>
-      <c r="BG30" s="50" t="s">
+      <c r="BG30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="BH30" s="50"/>
+      <c r="BH30" s="38"/>
       <c r="BJ30" s="6">
         <f>SUM(BJ3:BJ26)</f>
         <v>4136920</v>
       </c>
       <c r="BO30" s="1"/>
-      <c r="BP30" s="50" t="s">
+      <c r="BP30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="BQ30" s="50"/>
+      <c r="BQ30" s="38"/>
       <c r="BR30" s="6"/>
       <c r="BS30" s="6">
         <f>SUM(BS3:BS26)</f>
@@ -10463,10 +11303,10 @@
       </c>
       <c r="BT30" s="6"/>
       <c r="BX30" s="1"/>
-      <c r="BY30" s="50" t="s">
+      <c r="BY30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="BZ30" s="50"/>
+      <c r="BZ30" s="38"/>
       <c r="CA30" s="6"/>
       <c r="CB30" s="6">
         <f>SUM(CB3:CB26)</f>
@@ -10474,10 +11314,10 @@
       </c>
       <c r="CC30" s="6"/>
       <c r="CG30" s="1"/>
-      <c r="CH30" s="50" t="s">
+      <c r="CH30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="CI30" s="50"/>
+      <c r="CI30" s="38"/>
       <c r="CJ30" s="6"/>
       <c r="CK30" s="6">
         <f>SUM(CK3:CK26)</f>
@@ -10485,10 +11325,10 @@
       </c>
       <c r="CL30" s="6"/>
       <c r="CP30" s="1"/>
-      <c r="CQ30" s="50" t="s">
+      <c r="CQ30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="CR30" s="50"/>
+      <c r="CR30" s="38"/>
       <c r="CS30" s="6"/>
       <c r="CT30" s="6">
         <f>SUM(CT3:CT26)</f>
@@ -10496,10 +11336,10 @@
       </c>
       <c r="CU30" s="6"/>
       <c r="CY30" s="1"/>
-      <c r="CZ30" s="50" t="s">
+      <c r="CZ30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="DA30" s="50"/>
+      <c r="DA30" s="38"/>
       <c r="DB30" s="6"/>
       <c r="DC30" s="6">
         <f>SUM(DC3:DC26)</f>
@@ -10507,10 +11347,10 @@
       </c>
       <c r="DD30" s="6"/>
       <c r="DH30" s="1"/>
-      <c r="DI30" s="50" t="s">
+      <c r="DI30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="DJ30" s="50"/>
+      <c r="DJ30" s="38"/>
       <c r="DK30" s="6"/>
       <c r="DL30" s="6">
         <f>SUM(DL3:DL26)</f>
@@ -10518,10 +11358,10 @@
       </c>
       <c r="DM30" s="6"/>
       <c r="DQ30" s="1"/>
-      <c r="DR30" s="50" t="s">
+      <c r="DR30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="DS30" s="50"/>
+      <c r="DS30" s="38"/>
       <c r="DT30" s="6"/>
       <c r="DU30" s="6">
         <f>SUM(DU3:DU26)</f>
@@ -10529,10 +11369,10 @@
       </c>
       <c r="DV30" s="6"/>
       <c r="DZ30" s="1"/>
-      <c r="EA30" s="50" t="s">
+      <c r="EA30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="EB30" s="50"/>
+      <c r="EB30" s="38"/>
       <c r="EC30" s="6"/>
       <c r="ED30" s="6">
         <f>SUM(ED3:ED26)</f>
@@ -10540,10 +11380,10 @@
       </c>
       <c r="EE30" s="6"/>
       <c r="EI30" s="1"/>
-      <c r="EJ30" s="50" t="s">
+      <c r="EJ30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="EK30" s="50"/>
+      <c r="EK30" s="38"/>
       <c r="EL30" s="6"/>
       <c r="EM30" s="6">
         <f>SUM(EM3:EM26)</f>
@@ -10551,10 +11391,10 @@
       </c>
       <c r="EN30" s="6"/>
       <c r="ER30" s="1"/>
-      <c r="ES30" s="50" t="s">
+      <c r="ES30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="ET30" s="50"/>
+      <c r="ET30" s="38"/>
       <c r="EU30" s="6"/>
       <c r="EV30" s="6">
         <f>SUM(EV3:EV26)</f>
@@ -10562,55 +11402,66 @@
       </c>
       <c r="EW30" s="6"/>
       <c r="FA30" s="1"/>
-      <c r="FB30" s="50" t="s">
+      <c r="FB30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="FC30" s="50"/>
+      <c r="FC30" s="38"/>
       <c r="FD30" s="6"/>
       <c r="FE30" s="6">
         <f>SUM(FE3:FE26)</f>
-        <v>-1255100</v>
+        <v>-455250</v>
       </c>
       <c r="FF30" s="6"/>
       <c r="FJ30" s="1"/>
-      <c r="FK30" s="50" t="s">
+      <c r="FK30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="FL30" s="50"/>
+      <c r="FL30" s="38"/>
       <c r="FM30" s="6"/>
       <c r="FN30" s="6">
         <f>SUM(FN3:FN26)</f>
-        <v>2785799</v>
+        <v>-1255100</v>
       </c>
       <c r="FO30" s="6"/>
       <c r="FS30" s="1"/>
-      <c r="FT30" s="50" t="s">
+      <c r="FT30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="FU30" s="50"/>
+      <c r="FU30" s="38"/>
       <c r="FV30" s="6"/>
       <c r="FW30" s="6">
         <f>SUM(FW3:FW26)</f>
-        <v>-848600</v>
+        <v>2785799</v>
       </c>
       <c r="FX30" s="6"/>
       <c r="GB30" s="1"/>
+      <c r="GC30" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="GD30" s="38"/>
+      <c r="GE30" s="6"/>
+      <c r="GF30" s="6">
+        <f>SUM(GF3:GF26)</f>
+        <v>-848600</v>
+      </c>
+      <c r="GG30" s="6"/>
+      <c r="GK30" s="1"/>
     </row>
-    <row r="31" spans="1:184" x14ac:dyDescent="0.2">
-      <c r="A31" s="50" t="s">
+    <row r="31" spans="1:193" x14ac:dyDescent="0.2">
+      <c r="A31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="50"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="6"/>
       <c r="E31" s="6">
         <f>SUM(E4:E27)</f>
         <v>127679368</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="L31" s="50" t="s">
+      <c r="L31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="M31" s="50"/>
+      <c r="M31" s="38"/>
       <c r="N31" s="6"/>
       <c r="P31" s="6">
         <f>SUM(P4:P27)</f>
@@ -10618,10 +11469,10 @@
       </c>
       <c r="Q31" s="6"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="50" t="s">
+      <c r="V31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W31" s="50"/>
+      <c r="W31" s="38"/>
       <c r="X31" s="6"/>
       <c r="Z31" s="6">
         <f>SUM(Z4:Z27)</f>
@@ -10629,10 +11480,10 @@
       </c>
       <c r="AA31" s="6"/>
       <c r="AE31" s="1"/>
-      <c r="AF31" s="50" t="s">
+      <c r="AF31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AG31" s="50"/>
+      <c r="AG31" s="38"/>
       <c r="AH31" s="6"/>
       <c r="AJ31" s="6">
         <f>SUM(AJ4:AJ27)</f>
@@ -10640,10 +11491,10 @@
       </c>
       <c r="AK31" s="6"/>
       <c r="AN31" s="1"/>
-      <c r="AO31" s="50" t="s">
+      <c r="AO31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AP31" s="50"/>
+      <c r="AP31" s="38"/>
       <c r="AQ31" s="6"/>
       <c r="AS31" s="6">
         <f>SUM(AS4:AS27)</f>
@@ -10651,10 +11502,10 @@
       </c>
       <c r="AT31" s="6"/>
       <c r="AW31" s="1"/>
-      <c r="AX31" s="50" t="s">
+      <c r="AX31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AY31" s="50"/>
+      <c r="AY31" s="38"/>
       <c r="AZ31" s="6"/>
       <c r="BB31" s="6">
         <f>SUM(BB4:BB27)</f>
@@ -10662,19 +11513,19 @@
       </c>
       <c r="BC31" s="6"/>
       <c r="BF31" s="1"/>
-      <c r="BG31" s="50" t="s">
+      <c r="BG31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="BH31" s="50"/>
+      <c r="BH31" s="38"/>
       <c r="BK31" s="6">
         <f>SUM(BK4:BK27)</f>
         <v>90675999</v>
       </c>
       <c r="BO31" s="1"/>
-      <c r="BP31" s="50" t="s">
+      <c r="BP31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="BQ31" s="50"/>
+      <c r="BQ31" s="38"/>
       <c r="BR31" s="6"/>
       <c r="BT31" s="6">
         <f>SUM(BT4:BT27)</f>
@@ -10682,10 +11533,10 @@
       </c>
       <c r="BU31" s="6"/>
       <c r="BX31" s="1"/>
-      <c r="BY31" s="50" t="s">
+      <c r="BY31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="BZ31" s="50"/>
+      <c r="BZ31" s="38"/>
       <c r="CA31" s="6"/>
       <c r="CC31" s="6">
         <f>SUM(CB4:CB27)</f>
@@ -10693,10 +11544,10 @@
       </c>
       <c r="CD31" s="6"/>
       <c r="CG31" s="1"/>
-      <c r="CH31" s="50" t="s">
+      <c r="CH31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="CI31" s="50"/>
+      <c r="CI31" s="38"/>
       <c r="CJ31" s="6"/>
       <c r="CL31" s="6">
         <f>SUM(CL4:CL27)</f>
@@ -10704,10 +11555,10 @@
       </c>
       <c r="CM31" s="6"/>
       <c r="CP31" s="1"/>
-      <c r="CQ31" s="50" t="s">
+      <c r="CQ31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="CR31" s="50"/>
+      <c r="CR31" s="38"/>
       <c r="CS31" s="6"/>
       <c r="CU31" s="6">
         <f>SUM(CU4:CU27)</f>
@@ -10715,10 +11566,10 @@
       </c>
       <c r="CV31" s="6"/>
       <c r="CY31" s="1"/>
-      <c r="CZ31" s="50" t="s">
+      <c r="CZ31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="DA31" s="50"/>
+      <c r="DA31" s="38"/>
       <c r="DB31" s="6"/>
       <c r="DD31" s="6">
         <f>SUM(DD4:DD27)</f>
@@ -10726,10 +11577,10 @@
       </c>
       <c r="DE31" s="6"/>
       <c r="DH31" s="1"/>
-      <c r="DI31" s="50" t="s">
+      <c r="DI31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="DJ31" s="50"/>
+      <c r="DJ31" s="38"/>
       <c r="DK31" s="6"/>
       <c r="DM31" s="6">
         <f>SUM(DM4:DM27)</f>
@@ -10737,10 +11588,10 @@
       </c>
       <c r="DN31" s="6"/>
       <c r="DQ31" s="1"/>
-      <c r="DR31" s="50" t="s">
+      <c r="DR31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="DS31" s="50"/>
+      <c r="DS31" s="38"/>
       <c r="DT31" s="6"/>
       <c r="DV31" s="6">
         <f>SUM(DV4:DV27)</f>
@@ -10748,10 +11599,10 @@
       </c>
       <c r="DW31" s="6"/>
       <c r="DZ31" s="1"/>
-      <c r="EA31" s="50" t="s">
+      <c r="EA31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="EB31" s="50"/>
+      <c r="EB31" s="38"/>
       <c r="EC31" s="6"/>
       <c r="EE31" s="6">
         <f>SUM(EE4:EE27)</f>
@@ -10759,10 +11610,10 @@
       </c>
       <c r="EF31" s="6"/>
       <c r="EI31" s="1"/>
-      <c r="EJ31" s="50" t="s">
+      <c r="EJ31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="EK31" s="50"/>
+      <c r="EK31" s="38"/>
       <c r="EL31" s="6"/>
       <c r="EN31" s="6">
         <f>SUM(EN4:EN27)</f>
@@ -10770,10 +11621,10 @@
       </c>
       <c r="EO31" s="6"/>
       <c r="ER31" s="1"/>
-      <c r="ES31" s="50" t="s">
+      <c r="ES31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="ET31" s="50"/>
+      <c r="ET31" s="38"/>
       <c r="EU31" s="6"/>
       <c r="EW31" s="6">
         <f>SUM(EW4:EW27)</f>
@@ -10781,45 +11632,56 @@
       </c>
       <c r="EX31" s="6"/>
       <c r="FA31" s="1"/>
-      <c r="FB31" s="50" t="s">
+      <c r="FB31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="FC31" s="50"/>
+      <c r="FC31" s="38"/>
       <c r="FD31" s="6"/>
       <c r="FF31" s="6">
         <f>SUM(FF4:FF27)</f>
-        <v>-29263581</v>
+        <v>-11285610</v>
       </c>
       <c r="FG31" s="6"/>
       <c r="FJ31" s="1"/>
-      <c r="FK31" s="50" t="s">
+      <c r="FK31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="FL31" s="50"/>
+      <c r="FL31" s="38"/>
       <c r="FM31" s="6"/>
       <c r="FO31" s="6">
         <f>SUM(FO4:FO27)</f>
-        <v>262883710</v>
+        <v>-29263581</v>
       </c>
       <c r="FP31" s="6"/>
       <c r="FS31" s="1"/>
-      <c r="FT31" s="50" t="s">
+      <c r="FT31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="FU31" s="50"/>
+      <c r="FU31" s="38"/>
       <c r="FV31" s="6"/>
       <c r="FX31" s="6">
         <f>SUM(FX4:FX27)</f>
-        <v>-59920800</v>
+        <v>262883710</v>
       </c>
       <c r="FY31" s="6"/>
       <c r="GB31" s="1"/>
+      <c r="GC31" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="GD31" s="38"/>
+      <c r="GE31" s="6"/>
+      <c r="GG31" s="6">
+        <f>SUM(GG4:GG27)</f>
+        <v>-59920800</v>
+      </c>
+      <c r="GH31" s="6"/>
+      <c r="GK31" s="1"/>
     </row>
-    <row r="32" spans="1:184" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
+    <row r="32" spans="1:193" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="50"/>
+      <c r="B32" s="38"/>
       <c r="F32" s="6"/>
       <c r="H32" s="11">
         <f>SUM(H4:H27)</f>
@@ -10828,21 +11690,21 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="50" t="s">
+      <c r="L32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M32" s="50"/>
+      <c r="M32" s="38"/>
       <c r="Q32" s="6"/>
       <c r="S32" s="11">
         <f>SUM(S4:S27)</f>
-        <v>3.1699999999999999E-2</v>
+        <v>3.9999999999999584E-4</v>
       </c>
       <c r="T32" s="11"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="50" t="s">
+      <c r="V32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="W32" s="50"/>
+      <c r="W32" s="38"/>
       <c r="AA32" s="6"/>
       <c r="AC32" s="11">
         <f>SUM(AC4:AC27)</f>
@@ -10850,223 +11712,259 @@
       </c>
       <c r="AD32" s="11"/>
       <c r="AE32" s="1"/>
-      <c r="AF32" s="50" t="s">
+      <c r="AF32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AG32" s="50"/>
+      <c r="AG32" s="38"/>
       <c r="AK32" s="6"/>
       <c r="AM32" s="11">
         <f>SUM(AM4:AM27)</f>
         <v>3.0999999999999986E-3</v>
       </c>
       <c r="AN32" s="1"/>
-      <c r="AO32" s="50" t="s">
+      <c r="AO32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AP32" s="50"/>
+      <c r="AP32" s="38"/>
       <c r="AT32" s="6"/>
       <c r="AV32" s="11">
         <f>SUM(AV4:AV27)</f>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AW32" s="1"/>
-      <c r="AX32" s="50" t="s">
+      <c r="AX32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AY32" s="50"/>
+      <c r="AY32" s="38"/>
       <c r="BC32" s="6"/>
       <c r="BE32" s="11">
         <f>SUM(BE4:BE27)</f>
         <v>1.7100000000000004E-2</v>
       </c>
       <c r="BF32" s="1"/>
-      <c r="BG32" s="50" t="s">
+      <c r="BG32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="BH32" s="50"/>
+      <c r="BH32" s="38"/>
       <c r="BL32" s="6"/>
       <c r="BN32" s="11">
         <f>SUM(BN4:BN27)</f>
         <v>7.1000000000000008E-2</v>
       </c>
       <c r="BO32" s="1"/>
-      <c r="BP32" s="50" t="s">
+      <c r="BP32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="BQ32" s="50"/>
+      <c r="BQ32" s="38"/>
       <c r="BU32" s="6"/>
       <c r="BW32" s="11">
         <f>SUM(BW4:BW27)</f>
         <v>-6.8099999999999994E-2</v>
       </c>
       <c r="BX32" s="1"/>
-      <c r="BY32" s="50" t="s">
+      <c r="BY32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="BZ32" s="50"/>
+      <c r="BZ32" s="38"/>
       <c r="CD32" s="6"/>
       <c r="CF32" s="11">
         <f>SUM(CF4:CF27)</f>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="CG32" s="1"/>
-      <c r="CH32" s="50" t="s">
+      <c r="CH32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="CI32" s="50"/>
+      <c r="CI32" s="38"/>
       <c r="CM32" s="6"/>
       <c r="CO32" s="11">
         <f>SUM(CO4:CO27)</f>
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="CP32" s="1"/>
-      <c r="CQ32" s="50" t="s">
+      <c r="CQ32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="CR32" s="50"/>
+      <c r="CR32" s="38"/>
       <c r="CV32" s="6"/>
       <c r="CX32" s="11">
         <f>SUM(CX4:CX27)</f>
         <v>3.5399999999999987E-2</v>
       </c>
       <c r="CY32" s="1"/>
-      <c r="CZ32" s="50" t="s">
+      <c r="CZ32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="DA32" s="50"/>
+      <c r="DA32" s="38"/>
       <c r="DE32" s="6"/>
       <c r="DG32" s="11">
         <f>SUM(DG4:DG27)</f>
         <v>-3.0000000000000061E-3</v>
       </c>
       <c r="DH32" s="1"/>
-      <c r="DI32" s="50" t="s">
+      <c r="DI32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="DJ32" s="50"/>
+      <c r="DJ32" s="38"/>
       <c r="DN32" s="6"/>
       <c r="DP32" s="11">
         <f>SUM(DP4:DP27)</f>
         <v>9.8900000000000002E-2</v>
       </c>
       <c r="DQ32" s="1"/>
-      <c r="DR32" s="50" t="s">
+      <c r="DR32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="DS32" s="50"/>
+      <c r="DS32" s="38"/>
       <c r="DW32" s="6"/>
       <c r="DY32" s="11">
         <f>SUM(DY4:DY27)</f>
         <v>-3.9999999999999758E-4</v>
       </c>
       <c r="DZ32" s="1"/>
-      <c r="EA32" s="50" t="s">
+      <c r="EA32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="EB32" s="50"/>
+      <c r="EB32" s="38"/>
       <c r="EF32" s="6"/>
       <c r="EH32" s="11">
         <f>SUM(EH4:EH27)</f>
         <v>-3.199999999999998E-3</v>
       </c>
       <c r="EI32" s="1"/>
-      <c r="EJ32" s="50" t="s">
+      <c r="EJ32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="EK32" s="50"/>
+      <c r="EK32" s="38"/>
       <c r="EO32" s="6"/>
       <c r="EQ32" s="11">
         <f>SUM(EQ4:EQ27)</f>
         <v>6.7799999999999999E-2</v>
       </c>
       <c r="ER32" s="1"/>
-      <c r="ES32" s="50" t="s">
+      <c r="ES32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="ET32" s="50"/>
+      <c r="ET32" s="38"/>
       <c r="EX32" s="6"/>
       <c r="EZ32" s="11">
         <f>SUM(EZ4:EZ27)</f>
         <v>6.2799999999999995E-2</v>
       </c>
       <c r="FA32" s="1"/>
-      <c r="FB32" s="50" t="s">
+      <c r="FB32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="FC32" s="50"/>
+      <c r="FC32" s="38"/>
       <c r="FG32" s="6"/>
       <c r="FI32" s="11">
         <f>SUM(FI4:FI27)</f>
-        <v>3.0000000000000006E-2</v>
+        <v>-1.6399999999999991E-2</v>
       </c>
       <c r="FJ32" s="1"/>
-      <c r="FK32" s="50" t="s">
+      <c r="FK32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="FL32" s="50"/>
+      <c r="FL32" s="38"/>
       <c r="FP32" s="6"/>
       <c r="FR32" s="11">
         <f>SUM(FR4:FR27)</f>
-        <v>2.6600000000000006E-2</v>
+        <v>3.0000000000000006E-2</v>
       </c>
       <c r="FS32" s="1"/>
-      <c r="FT32" s="50" t="s">
+      <c r="FT32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="FU32" s="50"/>
+      <c r="FU32" s="38"/>
       <c r="FY32" s="6"/>
       <c r="GA32" s="11">
         <f>SUM(GA4:GA27)</f>
+        <v>2.6600000000000006E-2</v>
+      </c>
+      <c r="GB32" s="1"/>
+      <c r="GC32" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="GD32" s="38"/>
+      <c r="GH32" s="6"/>
+      <c r="GJ32" s="11">
+        <f>SUM(GJ4:GJ27)</f>
         <v>-2.23E-2</v>
       </c>
-      <c r="GB32" s="1"/>
+      <c r="GK32" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
-      <c r="K36">
-        <v>3515</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="EA32:EB32"/>
-    <mergeCell ref="EJ32:EK32"/>
-    <mergeCell ref="ES32:ET32"/>
-    <mergeCell ref="FB32:FC32"/>
-    <mergeCell ref="BG31:BH31"/>
-    <mergeCell ref="BP31:BQ31"/>
-    <mergeCell ref="BY31:BZ31"/>
-    <mergeCell ref="CH31:CI31"/>
-    <mergeCell ref="CQ31:CR31"/>
-    <mergeCell ref="CZ31:DA31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AO31:AP31"/>
-    <mergeCell ref="FK32:FL32"/>
-    <mergeCell ref="FT32:FU32"/>
-    <mergeCell ref="BY32:BZ32"/>
-    <mergeCell ref="CH32:CI32"/>
-    <mergeCell ref="CQ32:CR32"/>
-    <mergeCell ref="CZ32:DA32"/>
-    <mergeCell ref="DI32:DJ32"/>
-    <mergeCell ref="DR32:DS32"/>
-    <mergeCell ref="FK31:FL31"/>
+  <mergeCells count="94">
+    <mergeCell ref="BO1:CE1"/>
+    <mergeCell ref="CG1:DX1"/>
+    <mergeCell ref="FB2:FI2"/>
+    <mergeCell ref="FB30:FC30"/>
+    <mergeCell ref="FB31:FC31"/>
+    <mergeCell ref="ER1:FI1"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="V1:AL1"/>
+    <mergeCell ref="AW1:BM1"/>
+    <mergeCell ref="FT2:GA2"/>
+    <mergeCell ref="GC2:GJ2"/>
+    <mergeCell ref="EA2:EH2"/>
+    <mergeCell ref="EJ2:EQ2"/>
+    <mergeCell ref="ES2:EZ2"/>
+    <mergeCell ref="FK2:FR2"/>
+    <mergeCell ref="FJ1:FQ1"/>
+    <mergeCell ref="FS1:FZ1"/>
+    <mergeCell ref="GB1:GI1"/>
+    <mergeCell ref="DZ1:EP1"/>
+    <mergeCell ref="DI2:DP2"/>
+    <mergeCell ref="DR2:DY2"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AO30:AP30"/>
+    <mergeCell ref="BG2:BN2"/>
+    <mergeCell ref="BP2:BV2"/>
+    <mergeCell ref="BY2:CF2"/>
+    <mergeCell ref="CH2:CO2"/>
+    <mergeCell ref="CQ2:CX2"/>
+    <mergeCell ref="CZ2:DG2"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="V2:AC2"/>
+    <mergeCell ref="AF2:AM2"/>
+    <mergeCell ref="FT30:FU30"/>
+    <mergeCell ref="GC30:GD30"/>
+    <mergeCell ref="BY30:BZ30"/>
+    <mergeCell ref="CH30:CI30"/>
+    <mergeCell ref="CQ30:CR30"/>
+    <mergeCell ref="CZ30:DA30"/>
+    <mergeCell ref="DI30:DJ30"/>
+    <mergeCell ref="DR30:DS30"/>
+    <mergeCell ref="AX31:AY31"/>
+    <mergeCell ref="EA30:EB30"/>
+    <mergeCell ref="EJ30:EK30"/>
+    <mergeCell ref="ES30:ET30"/>
+    <mergeCell ref="FK30:FL30"/>
+    <mergeCell ref="AX30:AY30"/>
+    <mergeCell ref="BG30:BH30"/>
+    <mergeCell ref="BP30:BQ30"/>
     <mergeCell ref="FT31:FU31"/>
+    <mergeCell ref="GC31:GD31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="V32:W32"/>
@@ -11080,61 +11978,46 @@
     <mergeCell ref="EA31:EB31"/>
     <mergeCell ref="EJ31:EK31"/>
     <mergeCell ref="ES31:ET31"/>
-    <mergeCell ref="FB31:FC31"/>
-    <mergeCell ref="AX31:AY31"/>
-    <mergeCell ref="EA30:EB30"/>
-    <mergeCell ref="EJ30:EK30"/>
-    <mergeCell ref="ES30:ET30"/>
-    <mergeCell ref="FB30:FC30"/>
-    <mergeCell ref="FK30:FL30"/>
-    <mergeCell ref="FT30:FU30"/>
-    <mergeCell ref="BY30:BZ30"/>
-    <mergeCell ref="CH30:CI30"/>
-    <mergeCell ref="CQ30:CR30"/>
-    <mergeCell ref="CZ30:DA30"/>
-    <mergeCell ref="DI30:DJ30"/>
-    <mergeCell ref="DR30:DS30"/>
-    <mergeCell ref="AX30:AY30"/>
-    <mergeCell ref="BG30:BH30"/>
-    <mergeCell ref="BP30:BQ30"/>
-    <mergeCell ref="DI2:DP2"/>
-    <mergeCell ref="DR2:DY2"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AO30:AP30"/>
-    <mergeCell ref="BG2:BN2"/>
-    <mergeCell ref="BP2:BV2"/>
-    <mergeCell ref="BY2:CF2"/>
-    <mergeCell ref="CH2:CO2"/>
-    <mergeCell ref="CQ2:CX2"/>
-    <mergeCell ref="CZ2:DG2"/>
-    <mergeCell ref="ER1:EY1"/>
-    <mergeCell ref="FA1:FH1"/>
-    <mergeCell ref="FJ1:FQ1"/>
-    <mergeCell ref="FS1:FZ1"/>
-    <mergeCell ref="DZ1:EP1"/>
-    <mergeCell ref="FK2:FR2"/>
-    <mergeCell ref="FT2:GA2"/>
-    <mergeCell ref="EA2:EH2"/>
-    <mergeCell ref="EJ2:EQ2"/>
-    <mergeCell ref="ES2:EZ2"/>
-    <mergeCell ref="FB2:FI2"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="V2:AC2"/>
-    <mergeCell ref="AF2:AM2"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="V1:AL1"/>
-    <mergeCell ref="AW1:BM1"/>
-    <mergeCell ref="BO1:CE1"/>
-    <mergeCell ref="CG1:DX1"/>
+    <mergeCell ref="FK31:FL31"/>
+    <mergeCell ref="FT32:FU32"/>
+    <mergeCell ref="GC32:GD32"/>
+    <mergeCell ref="BY32:BZ32"/>
+    <mergeCell ref="CH32:CI32"/>
+    <mergeCell ref="CQ32:CR32"/>
+    <mergeCell ref="CZ32:DA32"/>
+    <mergeCell ref="DI32:DJ32"/>
+    <mergeCell ref="DR32:DS32"/>
+    <mergeCell ref="FB32:FC32"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="EA32:EB32"/>
+    <mergeCell ref="EJ32:EK32"/>
+    <mergeCell ref="ES32:ET32"/>
+    <mergeCell ref="FK32:FL32"/>
+    <mergeCell ref="BG31:BH31"/>
+    <mergeCell ref="BP31:BQ31"/>
+    <mergeCell ref="BY31:BZ31"/>
+    <mergeCell ref="CH31:CI31"/>
+    <mergeCell ref="CQ31:CR31"/>
+    <mergeCell ref="CZ31:DA31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AO31:AP31"/>
   </mergeCells>
   <conditionalFormatting sqref="I4:I10">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$F$4&gt;$F$29 + $F$29*0.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F7">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>$F$6&gt;$F$29 + $F$29*0.2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11146,8 +12029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F7BD41-53A8-314D-BC0D-3D6EA387CE74}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11156,19 +12039,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -11221,7 +12104,7 @@
       <c r="E3" s="17">
         <v>2.06E-2</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="6">
         <v>958343250</v>
       </c>
       <c r="G3" s="18">
@@ -11258,7 +12141,7 @@
       <c r="E4" s="17">
         <v>0.01</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="6">
         <v>595015296</v>
       </c>
       <c r="G4" s="23">
@@ -11283,14 +12166,30 @@
       <c r="A5" s="21">
         <v>45258</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="B5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="22">
+        <v>7.37</v>
+      </c>
+      <c r="D5" s="17">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>681884544</v>
+      </c>
+      <c r="G5" s="23">
+        <v>290</v>
+      </c>
+      <c r="H5" s="23">
+        <v>100</v>
+      </c>
+      <c r="I5" s="23">
+        <v>210</v>
+      </c>
       <c r="J5" s="19">
         <f>IF(AND(C5&gt;0,G5+H5&lt;I5),1,0)</f>
         <v>0</v>
@@ -11308,7 +12207,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="33"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
@@ -11329,7 +12228,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="33"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
@@ -11350,7 +12249,7 @@
       <c r="C8" s="22"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="33"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -11371,7 +12270,7 @@
       <c r="C9" s="22"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="33"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
@@ -11392,7 +12291,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="33"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -11413,7 +12312,7 @@
       <c r="C11" s="22"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="33"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -11434,7 +12333,7 @@
       <c r="C12" s="22"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="33"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -11455,7 +12354,7 @@
       <c r="C13" s="22"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="33"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -11476,7 +12375,7 @@
       <c r="C14" s="22"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="33"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -11497,7 +12396,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="33"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
@@ -11518,7 +12417,7 @@
       <c r="C16" s="22"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="33"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -11539,7 +12438,7 @@
       <c r="C17" s="22"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="33"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -11560,7 +12459,7 @@
       <c r="C18" s="22"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="33"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -11581,7 +12480,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="33"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -11602,7 +12501,7 @@
       <c r="C20" s="22"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="33"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -11623,7 +12522,7 @@
       <c r="C21" s="22"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="33"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -11644,7 +12543,7 @@
       <c r="C22" s="22"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="33"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -11665,7 +12564,7 @@
       <c r="C23" s="22"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="33"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -11686,7 +12585,7 @@
       <c r="C24" s="22"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="33"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -11707,7 +12606,7 @@
       <c r="C25" s="22"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="33"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -11728,7 +12627,7 @@
       <c r="C26" s="22"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="33"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
@@ -11749,7 +12648,7 @@
       <c r="C27" s="22"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="33"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
@@ -11770,7 +12669,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="33"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
@@ -11791,7 +12690,7 @@
       <c r="C29" s="22"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="33"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
@@ -11826,23 +12725,23 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="50"/>
+      <c r="B32" s="38"/>
       <c r="D32" s="11">
         <f>SUM(D3:D30)</f>
-        <v>-4.0000000000000018E-4</v>
+        <v>6.3999999999999994E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="38"/>
       <c r="F33" s="6">
         <f>AVERAGE(F3:F30)</f>
-        <v>776679273</v>
+        <v>745081030</v>
       </c>
     </row>
   </sheetData>

--- a/2023/DongTien.xlsx
+++ b/2023/DongTien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trung.nguyenhoang/Documents/github/2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/stocks/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29B34C5-CCA3-5845-8AF1-C508BB48198E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329BF1E5-7CBC-3249-A477-418C4835E298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{42582BF8-9AD7-9540-81DE-245C476BF20D}"/>
+    <workbookView xWindow="17000" yWindow="0" windowWidth="16600" windowHeight="21000" xr2:uid="{42582BF8-9AD7-9540-81DE-245C476BF20D}"/>
   </bookViews>
   <sheets>
     <sheet name="GDNN T11-T12" sheetId="1" r:id="rId1"/>
@@ -548,13 +548,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -566,58 +603,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -625,46 +625,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1000,12 +960,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC78DB7-94EE-DD4A-955E-8CCDACC517C9}">
   <dimension ref="A1:GG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
-      <selection activeCell="CO18" sqref="CO18"/>
+    <sheetView tabSelected="1" topLeftCell="FX1" workbookViewId="0">
+      <selection activeCell="GH11" sqref="GH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" customWidth="1"/>
     <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13.6640625" customWidth="1"/>
@@ -1019,44 +980,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:189" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
@@ -1067,398 +1028,398 @@
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="AR1" s="1"/>
-      <c r="AS1" s="43" t="s">
+      <c r="AS1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43"/>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43"/>
-      <c r="BE1" s="43"/>
-      <c r="BF1" s="43"/>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="43"/>
-      <c r="BI1" s="43"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="48"/>
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
       <c r="BJ1" s="1"/>
-      <c r="BK1" s="44" t="s">
+      <c r="BK1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BL1" s="44"/>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="44"/>
-      <c r="BO1" s="44"/>
-      <c r="BP1" s="44"/>
-      <c r="BQ1" s="44"/>
-      <c r="BR1" s="44"/>
-      <c r="BS1" s="44"/>
-      <c r="BT1" s="44"/>
-      <c r="BU1" s="44"/>
-      <c r="BV1" s="44"/>
-      <c r="BW1" s="44"/>
-      <c r="BX1" s="44"/>
-      <c r="BY1" s="44"/>
-      <c r="BZ1" s="44"/>
-      <c r="CA1" s="44"/>
+      <c r="BL1" s="42"/>
+      <c r="BM1" s="42"/>
+      <c r="BN1" s="42"/>
+      <c r="BO1" s="42"/>
+      <c r="BP1" s="42"/>
+      <c r="BQ1" s="42"/>
+      <c r="BR1" s="42"/>
+      <c r="BS1" s="42"/>
+      <c r="BT1" s="42"/>
+      <c r="BU1" s="42"/>
+      <c r="BV1" s="42"/>
+      <c r="BW1" s="42"/>
+      <c r="BX1" s="42"/>
+      <c r="BY1" s="42"/>
+      <c r="BZ1" s="42"/>
+      <c r="CA1" s="42"/>
       <c r="CB1" s="1"/>
-      <c r="CC1" s="45" t="s">
+      <c r="CC1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="CD1" s="45"/>
-      <c r="CE1" s="45"/>
-      <c r="CF1" s="45"/>
-      <c r="CG1" s="45"/>
-      <c r="CH1" s="45"/>
-      <c r="CI1" s="45"/>
-      <c r="CJ1" s="45"/>
-      <c r="CK1" s="45"/>
-      <c r="CL1" s="45"/>
-      <c r="CM1" s="45"/>
-      <c r="CN1" s="45"/>
-      <c r="CO1" s="45"/>
-      <c r="CP1" s="45"/>
-      <c r="CQ1" s="45"/>
-      <c r="CR1" s="45"/>
-      <c r="CS1" s="45"/>
-      <c r="CT1" s="45"/>
-      <c r="CU1" s="45"/>
-      <c r="CV1" s="45"/>
-      <c r="CW1" s="45"/>
-      <c r="CX1" s="45"/>
-      <c r="CY1" s="45"/>
-      <c r="CZ1" s="45"/>
-      <c r="DA1" s="45"/>
-      <c r="DB1" s="45"/>
-      <c r="DC1" s="45"/>
-      <c r="DD1" s="45"/>
-      <c r="DE1" s="45"/>
-      <c r="DF1" s="45"/>
-      <c r="DG1" s="45"/>
-      <c r="DH1" s="45"/>
-      <c r="DI1" s="45"/>
-      <c r="DJ1" s="45"/>
-      <c r="DK1" s="45"/>
-      <c r="DL1" s="45"/>
-      <c r="DM1" s="45"/>
-      <c r="DN1" s="45"/>
-      <c r="DO1" s="45"/>
-      <c r="DP1" s="45"/>
-      <c r="DQ1" s="45"/>
-      <c r="DR1" s="45"/>
-      <c r="DS1" s="45"/>
-      <c r="DT1" s="45"/>
+      <c r="CD1" s="43"/>
+      <c r="CE1" s="43"/>
+      <c r="CF1" s="43"/>
+      <c r="CG1" s="43"/>
+      <c r="CH1" s="43"/>
+      <c r="CI1" s="43"/>
+      <c r="CJ1" s="43"/>
+      <c r="CK1" s="43"/>
+      <c r="CL1" s="43"/>
+      <c r="CM1" s="43"/>
+      <c r="CN1" s="43"/>
+      <c r="CO1" s="43"/>
+      <c r="CP1" s="43"/>
+      <c r="CQ1" s="43"/>
+      <c r="CR1" s="43"/>
+      <c r="CS1" s="43"/>
+      <c r="CT1" s="43"/>
+      <c r="CU1" s="43"/>
+      <c r="CV1" s="43"/>
+      <c r="CW1" s="43"/>
+      <c r="CX1" s="43"/>
+      <c r="CY1" s="43"/>
+      <c r="CZ1" s="43"/>
+      <c r="DA1" s="43"/>
+      <c r="DB1" s="43"/>
+      <c r="DC1" s="43"/>
+      <c r="DD1" s="43"/>
+      <c r="DE1" s="43"/>
+      <c r="DF1" s="43"/>
+      <c r="DG1" s="43"/>
+      <c r="DH1" s="43"/>
+      <c r="DI1" s="43"/>
+      <c r="DJ1" s="43"/>
+      <c r="DK1" s="43"/>
+      <c r="DL1" s="43"/>
+      <c r="DM1" s="43"/>
+      <c r="DN1" s="43"/>
+      <c r="DO1" s="43"/>
+      <c r="DP1" s="43"/>
+      <c r="DQ1" s="43"/>
+      <c r="DR1" s="43"/>
+      <c r="DS1" s="43"/>
+      <c r="DT1" s="43"/>
       <c r="DU1" s="1"/>
-      <c r="DV1" s="40" t="s">
+      <c r="DV1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="DW1" s="40"/>
-      <c r="DX1" s="40"/>
-      <c r="DY1" s="40"/>
-      <c r="DZ1" s="40"/>
-      <c r="EA1" s="40"/>
-      <c r="EB1" s="40"/>
-      <c r="EC1" s="40"/>
-      <c r="ED1" s="40"/>
-      <c r="EE1" s="40"/>
-      <c r="EF1" s="40"/>
-      <c r="EG1" s="40"/>
-      <c r="EH1" s="40"/>
-      <c r="EI1" s="40"/>
-      <c r="EJ1" s="40"/>
-      <c r="EK1" s="40"/>
-      <c r="EL1" s="40"/>
+      <c r="DW1" s="49"/>
+      <c r="DX1" s="49"/>
+      <c r="DY1" s="49"/>
+      <c r="DZ1" s="49"/>
+      <c r="EA1" s="49"/>
+      <c r="EB1" s="49"/>
+      <c r="EC1" s="49"/>
+      <c r="ED1" s="49"/>
+      <c r="EE1" s="49"/>
+      <c r="EF1" s="49"/>
+      <c r="EG1" s="49"/>
+      <c r="EH1" s="49"/>
+      <c r="EI1" s="49"/>
+      <c r="EJ1" s="49"/>
+      <c r="EK1" s="49"/>
+      <c r="EL1" s="49"/>
       <c r="EM1" s="1"/>
-      <c r="EN1" s="48" t="s">
+      <c r="EN1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="EO1" s="48"/>
-      <c r="EP1" s="48"/>
-      <c r="EQ1" s="48"/>
-      <c r="ER1" s="48"/>
-      <c r="ES1" s="48"/>
-      <c r="ET1" s="48"/>
-      <c r="EU1" s="48"/>
-      <c r="EV1" s="48"/>
-      <c r="EW1" s="48"/>
-      <c r="EX1" s="48"/>
-      <c r="EY1" s="48"/>
-      <c r="EZ1" s="48"/>
-      <c r="FA1" s="48"/>
-      <c r="FB1" s="48"/>
-      <c r="FC1" s="48"/>
-      <c r="FD1" s="48"/>
-      <c r="FE1" s="48"/>
+      <c r="EO1" s="45"/>
+      <c r="EP1" s="45"/>
+      <c r="EQ1" s="45"/>
+      <c r="ER1" s="45"/>
+      <c r="ES1" s="45"/>
+      <c r="ET1" s="45"/>
+      <c r="EU1" s="45"/>
+      <c r="EV1" s="45"/>
+      <c r="EW1" s="45"/>
+      <c r="EX1" s="45"/>
+      <c r="EY1" s="45"/>
+      <c r="EZ1" s="45"/>
+      <c r="FA1" s="45"/>
+      <c r="FB1" s="45"/>
+      <c r="FC1" s="45"/>
+      <c r="FD1" s="45"/>
+      <c r="FE1" s="45"/>
       <c r="FF1" s="1"/>
-      <c r="FG1" s="37" t="s">
+      <c r="FG1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="FH1" s="37"/>
-      <c r="FI1" s="37"/>
-      <c r="FJ1" s="37"/>
-      <c r="FK1" s="37"/>
-      <c r="FL1" s="37"/>
-      <c r="FM1" s="37"/>
-      <c r="FN1" s="37"/>
+      <c r="FH1" s="52"/>
+      <c r="FI1" s="52"/>
+      <c r="FJ1" s="52"/>
+      <c r="FK1" s="52"/>
+      <c r="FL1" s="52"/>
+      <c r="FM1" s="52"/>
+      <c r="FN1" s="52"/>
       <c r="FO1" s="1"/>
-      <c r="FP1" s="38" t="s">
+      <c r="FP1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="FQ1" s="38"/>
-      <c r="FR1" s="38"/>
-      <c r="FS1" s="38"/>
-      <c r="FT1" s="38"/>
-      <c r="FU1" s="38"/>
-      <c r="FV1" s="38"/>
-      <c r="FW1" s="38"/>
+      <c r="FQ1" s="51"/>
+      <c r="FR1" s="51"/>
+      <c r="FS1" s="51"/>
+      <c r="FT1" s="51"/>
+      <c r="FU1" s="51"/>
+      <c r="FV1" s="51"/>
+      <c r="FW1" s="51"/>
       <c r="FX1" s="1"/>
-      <c r="FY1" s="39" t="s">
+      <c r="FY1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="FZ1" s="39"/>
-      <c r="GA1" s="39"/>
-      <c r="GB1" s="39"/>
-      <c r="GC1" s="39"/>
-      <c r="GD1" s="39"/>
-      <c r="GE1" s="39"/>
-      <c r="GF1" s="39"/>
+      <c r="FZ1" s="50"/>
+      <c r="GA1" s="50"/>
+      <c r="GB1" s="50"/>
+      <c r="GC1" s="50"/>
+      <c r="GD1" s="50"/>
+      <c r="GE1" s="50"/>
+      <c r="GF1" s="50"/>
     </row>
     <row r="2" spans="1:189" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="33" t="s">
+      <c r="AB2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
       <c r="AJ2" s="1"/>
-      <c r="AK2" s="33" t="s">
+      <c r="AK2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
       <c r="AS2" s="1"/>
-      <c r="AT2" s="33" t="s">
+      <c r="AT2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
       <c r="BB2" s="1"/>
-      <c r="BC2" s="34" t="s">
+      <c r="BC2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="35"/>
-      <c r="BG2" s="35"/>
-      <c r="BH2" s="35"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="36"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="55"/>
       <c r="BK2" s="1"/>
-      <c r="BL2" s="34" t="s">
+      <c r="BL2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="BM2" s="35"/>
-      <c r="BN2" s="35"/>
-      <c r="BO2" s="35"/>
-      <c r="BP2" s="35"/>
-      <c r="BQ2" s="35"/>
-      <c r="BR2" s="36"/>
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="54"/>
+      <c r="BO2" s="54"/>
+      <c r="BP2" s="54"/>
+      <c r="BQ2" s="54"/>
+      <c r="BR2" s="55"/>
       <c r="BS2" s="3"/>
       <c r="BT2" s="1"/>
-      <c r="BU2" s="33" t="s">
+      <c r="BU2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BV2" s="33"/>
-      <c r="BW2" s="33"/>
-      <c r="BX2" s="33"/>
-      <c r="BY2" s="33"/>
-      <c r="BZ2" s="33"/>
-      <c r="CA2" s="33"/>
-      <c r="CB2" s="33"/>
+      <c r="BV2" s="44"/>
+      <c r="BW2" s="44"/>
+      <c r="BX2" s="44"/>
+      <c r="BY2" s="44"/>
+      <c r="BZ2" s="44"/>
+      <c r="CA2" s="44"/>
+      <c r="CB2" s="44"/>
       <c r="CC2" s="1"/>
-      <c r="CD2" s="33" t="s">
+      <c r="CD2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CE2" s="33"/>
-      <c r="CF2" s="33"/>
-      <c r="CG2" s="33"/>
-      <c r="CH2" s="33"/>
-      <c r="CI2" s="33"/>
-      <c r="CJ2" s="33"/>
-      <c r="CK2" s="33"/>
+      <c r="CE2" s="44"/>
+      <c r="CF2" s="44"/>
+      <c r="CG2" s="44"/>
+      <c r="CH2" s="44"/>
+      <c r="CI2" s="44"/>
+      <c r="CJ2" s="44"/>
+      <c r="CK2" s="44"/>
       <c r="CL2" s="1"/>
-      <c r="CM2" s="33" t="s">
+      <c r="CM2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CN2" s="33"/>
-      <c r="CO2" s="33"/>
-      <c r="CP2" s="33"/>
-      <c r="CQ2" s="33"/>
-      <c r="CR2" s="33"/>
-      <c r="CS2" s="33"/>
-      <c r="CT2" s="33"/>
+      <c r="CN2" s="44"/>
+      <c r="CO2" s="44"/>
+      <c r="CP2" s="44"/>
+      <c r="CQ2" s="44"/>
+      <c r="CR2" s="44"/>
+      <c r="CS2" s="44"/>
+      <c r="CT2" s="44"/>
       <c r="CU2" s="1"/>
-      <c r="CV2" s="33" t="s">
+      <c r="CV2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CW2" s="33"/>
-      <c r="CX2" s="33"/>
-      <c r="CY2" s="33"/>
-      <c r="CZ2" s="33"/>
-      <c r="DA2" s="33"/>
-      <c r="DB2" s="33"/>
-      <c r="DC2" s="33"/>
+      <c r="CW2" s="44"/>
+      <c r="CX2" s="44"/>
+      <c r="CY2" s="44"/>
+      <c r="CZ2" s="44"/>
+      <c r="DA2" s="44"/>
+      <c r="DB2" s="44"/>
+      <c r="DC2" s="44"/>
       <c r="DD2" s="1"/>
-      <c r="DE2" s="33" t="s">
+      <c r="DE2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="DF2" s="33"/>
-      <c r="DG2" s="33"/>
-      <c r="DH2" s="33"/>
-      <c r="DI2" s="33"/>
-      <c r="DJ2" s="33"/>
-      <c r="DK2" s="33"/>
-      <c r="DL2" s="33"/>
+      <c r="DF2" s="44"/>
+      <c r="DG2" s="44"/>
+      <c r="DH2" s="44"/>
+      <c r="DI2" s="44"/>
+      <c r="DJ2" s="44"/>
+      <c r="DK2" s="44"/>
+      <c r="DL2" s="44"/>
       <c r="DM2" s="1"/>
-      <c r="DN2" s="33" t="s">
+      <c r="DN2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="DO2" s="33"/>
-      <c r="DP2" s="33"/>
-      <c r="DQ2" s="33"/>
-      <c r="DR2" s="33"/>
-      <c r="DS2" s="33"/>
-      <c r="DT2" s="33"/>
-      <c r="DU2" s="33"/>
+      <c r="DO2" s="44"/>
+      <c r="DP2" s="44"/>
+      <c r="DQ2" s="44"/>
+      <c r="DR2" s="44"/>
+      <c r="DS2" s="44"/>
+      <c r="DT2" s="44"/>
+      <c r="DU2" s="44"/>
       <c r="DV2" s="1"/>
-      <c r="DW2" s="33" t="s">
+      <c r="DW2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="DX2" s="33"/>
-      <c r="DY2" s="33"/>
-      <c r="DZ2" s="33"/>
-      <c r="EA2" s="33"/>
-      <c r="EB2" s="33"/>
-      <c r="EC2" s="33"/>
-      <c r="ED2" s="33"/>
+      <c r="DX2" s="44"/>
+      <c r="DY2" s="44"/>
+      <c r="DZ2" s="44"/>
+      <c r="EA2" s="44"/>
+      <c r="EB2" s="44"/>
+      <c r="EC2" s="44"/>
+      <c r="ED2" s="44"/>
       <c r="EE2" s="1"/>
-      <c r="EF2" s="33" t="s">
+      <c r="EF2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="EG2" s="33"/>
-      <c r="EH2" s="33"/>
-      <c r="EI2" s="33"/>
-      <c r="EJ2" s="33"/>
-      <c r="EK2" s="33"/>
-      <c r="EL2" s="33"/>
-      <c r="EM2" s="33"/>
+      <c r="EG2" s="44"/>
+      <c r="EH2" s="44"/>
+      <c r="EI2" s="44"/>
+      <c r="EJ2" s="44"/>
+      <c r="EK2" s="44"/>
+      <c r="EL2" s="44"/>
+      <c r="EM2" s="44"/>
       <c r="EN2" s="1"/>
-      <c r="EO2" s="33" t="s">
+      <c r="EO2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="EP2" s="33"/>
-      <c r="EQ2" s="33"/>
-      <c r="ER2" s="33"/>
-      <c r="ES2" s="33"/>
-      <c r="ET2" s="33"/>
-      <c r="EU2" s="33"/>
-      <c r="EV2" s="33"/>
+      <c r="EP2" s="44"/>
+      <c r="EQ2" s="44"/>
+      <c r="ER2" s="44"/>
+      <c r="ES2" s="44"/>
+      <c r="ET2" s="44"/>
+      <c r="EU2" s="44"/>
+      <c r="EV2" s="44"/>
       <c r="EW2" s="1"/>
-      <c r="EX2" s="33" t="s">
+      <c r="EX2" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="EY2" s="33"/>
-      <c r="EZ2" s="33"/>
-      <c r="FA2" s="33"/>
-      <c r="FB2" s="33"/>
-      <c r="FC2" s="33"/>
-      <c r="FD2" s="33"/>
-      <c r="FE2" s="33"/>
+      <c r="EY2" s="44"/>
+      <c r="EZ2" s="44"/>
+      <c r="FA2" s="44"/>
+      <c r="FB2" s="44"/>
+      <c r="FC2" s="44"/>
+      <c r="FD2" s="44"/>
+      <c r="FE2" s="44"/>
       <c r="FF2" s="1"/>
-      <c r="FG2" s="33" t="s">
+      <c r="FG2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="FH2" s="33"/>
-      <c r="FI2" s="33"/>
-      <c r="FJ2" s="33"/>
-      <c r="FK2" s="33"/>
-      <c r="FL2" s="33"/>
-      <c r="FM2" s="33"/>
-      <c r="FN2" s="33"/>
+      <c r="FH2" s="44"/>
+      <c r="FI2" s="44"/>
+      <c r="FJ2" s="44"/>
+      <c r="FK2" s="44"/>
+      <c r="FL2" s="44"/>
+      <c r="FM2" s="44"/>
+      <c r="FN2" s="44"/>
       <c r="FO2" s="1"/>
-      <c r="FP2" s="33" t="s">
+      <c r="FP2" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="FQ2" s="33"/>
-      <c r="FR2" s="33"/>
-      <c r="FS2" s="33"/>
-      <c r="FT2" s="33"/>
-      <c r="FU2" s="33"/>
-      <c r="FV2" s="33"/>
-      <c r="FW2" s="33"/>
+      <c r="FQ2" s="44"/>
+      <c r="FR2" s="44"/>
+      <c r="FS2" s="44"/>
+      <c r="FT2" s="44"/>
+      <c r="FU2" s="44"/>
+      <c r="FV2" s="44"/>
+      <c r="FW2" s="44"/>
       <c r="FX2" s="1"/>
-      <c r="FY2" s="33" t="s">
+      <c r="FY2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="FZ2" s="33"/>
-      <c r="GA2" s="33"/>
-      <c r="GB2" s="33"/>
-      <c r="GC2" s="33"/>
-      <c r="GD2" s="33"/>
-      <c r="GE2" s="33"/>
-      <c r="GF2" s="33"/>
+      <c r="FZ2" s="44"/>
+      <c r="GA2" s="44"/>
+      <c r="GB2" s="44"/>
+      <c r="GC2" s="44"/>
+      <c r="GD2" s="44"/>
+      <c r="GE2" s="44"/>
+      <c r="GF2" s="44"/>
       <c r="GG2" s="1"/>
     </row>
     <row r="3" spans="1:189" x14ac:dyDescent="0.2">
@@ -1999,13 +1960,13 @@
         <v>384330</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D11" si="0">B4-C4</f>
+        <f t="shared" ref="D4:D12" si="0">B4-C4</f>
         <v>1774270</v>
       </c>
       <c r="E4" s="6">
         <v>36109950</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="38">
         <v>38309700</v>
       </c>
       <c r="G4" s="7">
@@ -2026,7 +1987,7 @@
         <v>439391</v>
       </c>
       <c r="M4" s="6">
-        <f t="shared" ref="M4:M11" si="2">K4-L4</f>
+        <f t="shared" ref="M4:M12" si="2">K4-L4</f>
         <v>2153509</v>
       </c>
       <c r="N4" s="6">
@@ -2053,7 +2014,7 @@
         <v>129945</v>
       </c>
       <c r="V4" s="6">
-        <f t="shared" ref="V4:V11" si="3">T4-U4</f>
+        <f t="shared" ref="V4:V12" si="3">T4-U4</f>
         <v>316655</v>
       </c>
       <c r="W4" s="6">
@@ -2080,7 +2041,7 @@
         <v>1073400</v>
       </c>
       <c r="AE4" s="6">
-        <f t="shared" ref="AE4:AE11" si="4">AC4-AD4</f>
+        <f t="shared" ref="AE4:AE12" si="4">AC4-AD4</f>
         <v>416000</v>
       </c>
       <c r="AF4" s="6">
@@ -2107,7 +2068,7 @@
         <v>881700</v>
       </c>
       <c r="AN4" s="6">
-        <f t="shared" ref="AN4:AN11" si="5">AL4-AM4</f>
+        <f t="shared" ref="AN4:AN12" si="5">AL4-AM4</f>
         <v>110800</v>
       </c>
       <c r="AO4" s="6">
@@ -2134,7 +2095,7 @@
         <v>2133894</v>
       </c>
       <c r="AW4" s="6">
-        <f t="shared" ref="AW4:AW11" si="6">AU4-AV4</f>
+        <f t="shared" ref="AW4:AW12" si="6">AU4-AV4</f>
         <v>210406</v>
       </c>
       <c r="AX4" s="6">
@@ -2188,7 +2149,7 @@
         <v>1209600</v>
       </c>
       <c r="BO4" s="6">
-        <f t="shared" ref="BO4:BO11" si="7">BM4-BN4</f>
+        <f t="shared" ref="BO4:BO12" si="7">BM4-BN4</f>
         <v>-500000</v>
       </c>
       <c r="BP4" s="6">
@@ -2215,7 +2176,7 @@
         <v>2044402</v>
       </c>
       <c r="BX4" s="6">
-        <f t="shared" ref="BX4:BX11" si="8">BV4-BW4</f>
+        <f t="shared" ref="BX4:BX12" si="8">BV4-BW4</f>
         <v>-1679095</v>
       </c>
       <c r="BY4" s="6">
@@ -2242,7 +2203,7 @@
         <v>1291650</v>
       </c>
       <c r="CG4" s="6">
-        <f t="shared" ref="CG4:CG11" si="9">CE4-CF4</f>
+        <f t="shared" ref="CG4:CG12" si="9">CE4-CF4</f>
         <v>-862150</v>
       </c>
       <c r="CH4" s="6">
@@ -2269,7 +2230,7 @@
         <v>100800</v>
       </c>
       <c r="CP4" s="6">
-        <f t="shared" ref="CP4:CP11" si="10">CN4-CO4</f>
+        <f t="shared" ref="CP4:CP12" si="10">CN4-CO4</f>
         <v>1038810</v>
       </c>
       <c r="CQ4" s="6">
@@ -2296,7 +2257,7 @@
         <v>219800</v>
       </c>
       <c r="CY4" s="6">
-        <f t="shared" ref="CY4:CY11" si="11">CW4-CX4</f>
+        <f t="shared" ref="CY4:CY12" si="11">CW4-CX4</f>
         <v>-156000</v>
       </c>
       <c r="CZ4" s="6">
@@ -2323,7 +2284,7 @@
         <v>10759</v>
       </c>
       <c r="DH4" s="6">
-        <f t="shared" ref="DH4:DH11" si="12">DF4-DG4</f>
+        <f t="shared" ref="DH4:DH12" si="12">DF4-DG4</f>
         <v>220353</v>
       </c>
       <c r="DI4" s="6">
@@ -2350,7 +2311,7 @@
         <v>396900</v>
       </c>
       <c r="DQ4" s="6">
-        <f t="shared" ref="DQ4:DQ11" si="13">DO4-DP4</f>
+        <f t="shared" ref="DQ4:DQ12" si="13">DO4-DP4</f>
         <v>-115300</v>
       </c>
       <c r="DR4" s="6">
@@ -2377,7 +2338,7 @@
         <v>102900</v>
       </c>
       <c r="DZ4" s="6">
-        <f t="shared" ref="DZ4:DZ11" si="14">DX4-DY4</f>
+        <f t="shared" ref="DZ4:DZ12" si="14">DX4-DY4</f>
         <v>17200</v>
       </c>
       <c r="EA4" s="6">
@@ -2404,7 +2365,7 @@
         <v>11400</v>
       </c>
       <c r="EI4" s="6">
-        <f t="shared" ref="EI4:EI11" si="15">EG4-EH4</f>
+        <f t="shared" ref="EI4:EI12" si="15">EG4-EH4</f>
         <v>113300</v>
       </c>
       <c r="EJ4" s="6">
@@ -2431,7 +2392,7 @@
         <v>3004</v>
       </c>
       <c r="ER4" s="6">
-        <f t="shared" ref="ER4:ER11" si="16">EP4-EQ4</f>
+        <f t="shared" ref="ER4:ER12" si="16">EP4-EQ4</f>
         <v>67263</v>
       </c>
       <c r="ES4" s="6">
@@ -2458,7 +2419,7 @@
         <v>12200</v>
       </c>
       <c r="FA4" s="6">
-        <f t="shared" ref="FA4:FA11" si="17">EY4-EZ4</f>
+        <f t="shared" ref="FA4:FA12" si="17">EY4-EZ4</f>
         <v>229136</v>
       </c>
       <c r="FB4" s="6">
@@ -2512,7 +2473,7 @@
         <v>17298</v>
       </c>
       <c r="FS4" s="6">
-        <f t="shared" ref="FS4:FS11" si="19">FQ4-FR4</f>
+        <f t="shared" ref="FS4:FS12" si="19">FQ4-FR4</f>
         <v>211802</v>
       </c>
       <c r="FT4" s="6">
@@ -2539,7 +2500,7 @@
         <v>107000</v>
       </c>
       <c r="GB4" s="6">
-        <f t="shared" ref="GB4:GB11" si="20">FZ4-GA4</f>
+        <f t="shared" ref="GB4:GB12" si="20">FZ4-GA4</f>
         <v>-105500</v>
       </c>
       <c r="GC4" s="6">
@@ -2730,7 +2691,7 @@
         <v>238300</v>
       </c>
       <c r="BF5" s="6">
-        <f t="shared" ref="BF5:BF11" si="26">BD5-BE5</f>
+        <f t="shared" ref="BF5:BF12" si="26">BD5-BE5</f>
         <v>82200</v>
       </c>
       <c r="BG5" s="6">
@@ -3699,13 +3660,13 @@
       <c r="A7" s="5">
         <v>45253</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="31">
         <v>4154700</v>
       </c>
       <c r="C7" s="6">
         <v>430500</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="31">
         <f t="shared" si="0"/>
         <v>3724200</v>
       </c>
@@ -3715,11 +3676,11 @@
       <c r="F7" s="6">
         <v>45917300</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="39">
         <f t="shared" si="1"/>
         <v>9.9857787805467654E-2</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="40">
         <v>-5.9400000000000001E-2</v>
       </c>
       <c r="I7" s="1"/>
@@ -4158,7 +4119,7 @@
       <c r="EX7" s="5">
         <v>45253</v>
       </c>
-      <c r="EY7" s="49">
+      <c r="EY7" s="32">
         <v>23300</v>
       </c>
       <c r="EZ7" s="6">
@@ -4659,7 +4620,7 @@
       <c r="EA8" s="6">
         <v>-23053302</v>
       </c>
-      <c r="EB8" s="47">
+      <c r="EB8" s="31">
         <v>1703100</v>
       </c>
       <c r="EC8" s="7">
@@ -5824,7 +5785,7 @@
       <c r="EJ10" s="6">
         <v>-104240</v>
       </c>
-      <c r="EK10" s="47">
+      <c r="EK10" s="31">
         <v>5259300</v>
       </c>
       <c r="EL10" s="7">
@@ -6167,10 +6128,10 @@
       <c r="BM11" s="6">
         <v>586900</v>
       </c>
-      <c r="BN11" s="47">
+      <c r="BN11" s="31">
         <v>3721970</v>
       </c>
-      <c r="BO11" s="47">
+      <c r="BO11" s="31">
         <f t="shared" si="7"/>
         <v>-3135070</v>
       </c>
@@ -6180,11 +6141,11 @@
       <c r="BQ11" s="6">
         <v>8518200</v>
       </c>
-      <c r="BR11" s="57">
+      <c r="BR11" s="39">
         <f t="shared" si="28"/>
         <v>0.50584278368669433</v>
       </c>
-      <c r="BS11" s="58">
+      <c r="BS11" s="40">
         <v>2.1100000000000001E-2</v>
       </c>
       <c r="BT11" s="1"/>
@@ -6544,296 +6505,567 @@
       <c r="A12" s="5">
         <v>45260</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7" t="e">
+      <c r="B12" s="6">
+        <v>48707524</v>
+      </c>
+      <c r="C12" s="6">
+        <v>54247976</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>-5540452</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-383</v>
+      </c>
+      <c r="F12" s="6">
+        <v>723483392</v>
+      </c>
+      <c r="G12" s="7">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="8"/>
+        <v>0.14230527077531036</v>
+      </c>
+      <c r="H12" s="8">
+        <v>-7.9000000000000008E-3</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="5">
         <v>45260</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="7" t="e">
+      <c r="K12" s="6">
+        <v>520501</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1945798</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="2"/>
+        <v>-1425297</v>
+      </c>
+      <c r="N12" s="6">
+        <v>-44566840</v>
+      </c>
+      <c r="O12" s="6">
+        <v>16679400</v>
+      </c>
+      <c r="P12" s="7">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" s="8"/>
+        <v>0.1478649711620322</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>-9.4999999999999998E-3</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="S12" s="5">
         <v>45260</v>
       </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="7" t="e">
+      <c r="T12" s="6">
+        <v>155100</v>
+      </c>
+      <c r="U12" s="6">
+        <v>406560</v>
+      </c>
+      <c r="V12" s="6">
+        <f t="shared" si="3"/>
+        <v>-251460</v>
+      </c>
+      <c r="W12" s="6">
+        <v>-21373210</v>
+      </c>
+      <c r="X12" s="6">
+        <v>927600</v>
+      </c>
+      <c r="Y12" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z12" s="8"/>
+        <v>0.60549805950840885</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>-4.7000000000000002E-3</v>
+      </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="5">
         <v>45260</v>
       </c>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="7" t="e">
+      <c r="AC12" s="6">
+        <v>2945000</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>3710400</v>
+      </c>
+      <c r="AE12" s="6">
+        <f t="shared" si="4"/>
+        <v>-765400</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>-14697603</v>
+      </c>
+      <c r="AG12" s="6">
+        <v>6750000</v>
+      </c>
+      <c r="AH12" s="7">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI12" s="8"/>
+        <v>0.98598518518518519</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>-7.7999999999999996E-3</v>
+      </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="5">
         <v>45260</v>
       </c>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="7" t="e">
+      <c r="AL12" s="6">
+        <v>171800</v>
+      </c>
+      <c r="AM12" s="6">
+        <v>1279700</v>
+      </c>
+      <c r="AN12" s="6">
+        <f t="shared" si="5"/>
+        <v>-1107900</v>
+      </c>
+      <c r="AO12" s="6">
+        <v>-30869561</v>
+      </c>
+      <c r="AP12" s="6">
+        <v>13608300</v>
+      </c>
+      <c r="AQ12" s="7">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR12" s="8"/>
+        <v>0.10666284546930917</v>
+      </c>
+      <c r="AR12" s="8">
+        <v>-1.0800000000000001E-2</v>
+      </c>
       <c r="AS12" s="1"/>
       <c r="AT12" s="5">
         <v>45260</v>
       </c>
-      <c r="AU12" s="6"/>
-      <c r="AV12" s="6"/>
-      <c r="AW12" s="6"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="7" t="e">
+      <c r="AU12" s="6">
+        <v>2617100</v>
+      </c>
+      <c r="AV12" s="6">
+        <v>4977515</v>
+      </c>
+      <c r="AW12" s="6">
+        <f t="shared" si="6"/>
+        <v>-2360415</v>
+      </c>
+      <c r="AX12" s="6">
+        <v>-62480712</v>
+      </c>
+      <c r="AY12" s="6">
+        <v>21208100</v>
+      </c>
+      <c r="AZ12" s="7">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA12" s="8"/>
+        <v>0.35809973547842572</v>
+      </c>
+      <c r="BA12" s="8">
+        <v>-1.67E-2</v>
+      </c>
       <c r="BB12" s="1"/>
       <c r="BC12" s="5">
         <v>45260</v>
       </c>
-      <c r="BD12" s="6"/>
-      <c r="BE12" s="6"/>
-      <c r="BF12" s="6"/>
-      <c r="BG12" s="6"/>
-      <c r="BH12" s="6"/>
-      <c r="BI12" s="7" t="e">
+      <c r="BD12" s="6">
+        <v>2605300</v>
+      </c>
+      <c r="BE12" s="6">
+        <v>76300</v>
+      </c>
+      <c r="BF12" s="6">
+        <f t="shared" si="26"/>
+        <v>2529000</v>
+      </c>
+      <c r="BG12" s="6">
+        <v>58154770</v>
+      </c>
+      <c r="BH12" s="6">
+        <v>12675300</v>
+      </c>
+      <c r="BI12" s="7">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ12" s="8"/>
+        <v>0.21156106758814386</v>
+      </c>
+      <c r="BJ12" s="8">
+        <v>4.4000000000000003E-3</v>
+      </c>
       <c r="BK12" s="1"/>
       <c r="BL12" s="5">
         <v>45260</v>
       </c>
-      <c r="BM12" s="6"/>
-      <c r="BN12" s="6"/>
-      <c r="BO12" s="6"/>
-      <c r="BP12" s="6"/>
-      <c r="BQ12" s="6"/>
-      <c r="BR12" s="7" t="e">
+      <c r="BM12" s="6">
+        <v>482500</v>
+      </c>
+      <c r="BN12" s="6">
+        <v>427400</v>
+      </c>
+      <c r="BO12" s="6">
+        <f t="shared" si="7"/>
+        <v>55100</v>
+      </c>
+      <c r="BP12" s="6">
+        <v>2177530</v>
+      </c>
+      <c r="BQ12" s="6">
+        <v>4030900</v>
+      </c>
+      <c r="BR12" s="7">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BS12" s="8"/>
+        <v>0.22573122627701009</v>
+      </c>
+      <c r="BS12" s="8">
+        <v>-7.7000000000000002E-3</v>
+      </c>
       <c r="BT12" s="1"/>
       <c r="BU12" s="5">
         <v>45260</v>
       </c>
-      <c r="BV12" s="6"/>
-      <c r="BW12" s="6"/>
-      <c r="BX12" s="6"/>
-      <c r="BY12" s="6"/>
-      <c r="BZ12" s="6"/>
-      <c r="CA12" s="7" t="e">
+      <c r="BV12" s="6">
+        <v>428956</v>
+      </c>
+      <c r="BW12" s="6">
+        <v>1810792</v>
+      </c>
+      <c r="BX12" s="6">
+        <f t="shared" si="8"/>
+        <v>-1381836</v>
+      </c>
+      <c r="BY12" s="6">
+        <v>-30742810</v>
+      </c>
+      <c r="BZ12" s="6">
+        <v>3943400</v>
+      </c>
+      <c r="CA12" s="7">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CB12" s="8"/>
+        <v>0.56797382969011512</v>
+      </c>
+      <c r="CB12" s="8">
+        <v>-4.7399999999999998E-2</v>
+      </c>
       <c r="CC12" s="1"/>
       <c r="CD12" s="5">
         <v>45260</v>
       </c>
-      <c r="CE12" s="6"/>
-      <c r="CF12" s="6"/>
-      <c r="CG12" s="6"/>
-      <c r="CH12" s="6"/>
-      <c r="CI12" s="6"/>
-      <c r="CJ12" s="7" t="e">
+      <c r="CE12" s="6">
+        <v>3585063</v>
+      </c>
+      <c r="CF12" s="6">
+        <v>1480493</v>
+      </c>
+      <c r="CG12" s="6">
+        <f t="shared" si="9"/>
+        <v>2104570</v>
+      </c>
+      <c r="CH12" s="6">
+        <v>87139836</v>
+      </c>
+      <c r="CI12" s="6">
+        <v>7741700</v>
+      </c>
+      <c r="CJ12" s="7">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CK12" s="8"/>
+        <v>0.65432088559360346</v>
+      </c>
+      <c r="CK12" s="8">
+        <v>2.3999999999999998E-3</v>
+      </c>
       <c r="CL12" s="1"/>
       <c r="CM12" s="5">
         <v>45260</v>
       </c>
-      <c r="CN12" s="6"/>
-      <c r="CO12" s="6"/>
-      <c r="CP12" s="6"/>
-      <c r="CQ12" s="6"/>
-      <c r="CR12" s="6"/>
-      <c r="CS12" s="7" t="e">
+      <c r="CN12" s="6">
+        <v>843800</v>
+      </c>
+      <c r="CO12" s="6">
+        <v>179256</v>
+      </c>
+      <c r="CP12" s="6">
+        <f t="shared" si="10"/>
+        <v>664544</v>
+      </c>
+      <c r="CQ12" s="6">
+        <v>13427460</v>
+      </c>
+      <c r="CR12" s="6">
+        <v>16807100</v>
+      </c>
+      <c r="CS12" s="7">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CT12" s="8"/>
+        <v>6.0870465458050464E-2</v>
+      </c>
+      <c r="CT12" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="CU12" s="1"/>
       <c r="CV12" s="5">
         <v>45260</v>
       </c>
-      <c r="CW12" s="6"/>
-      <c r="CX12" s="6"/>
-      <c r="CY12" s="6"/>
-      <c r="CZ12" s="6"/>
+      <c r="CW12" s="6">
+        <v>15430</v>
+      </c>
+      <c r="CX12" s="6">
+        <v>69700</v>
+      </c>
+      <c r="CY12" s="6">
+        <f t="shared" si="11"/>
+        <v>-54270</v>
+      </c>
+      <c r="CZ12" s="6">
+        <v>-1482280</v>
+      </c>
       <c r="DA12" s="6"/>
       <c r="DB12" s="7" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DC12" s="8"/>
+      <c r="DC12" s="8">
+        <v>-3.7000000000000002E-3</v>
+      </c>
       <c r="DD12" s="1"/>
       <c r="DE12" s="5">
         <v>45260</v>
       </c>
-      <c r="DF12" s="6"/>
-      <c r="DG12" s="6"/>
-      <c r="DH12" s="6"/>
-      <c r="DI12" s="6"/>
-      <c r="DJ12" s="6"/>
-      <c r="DK12" s="7" t="e">
+      <c r="DF12" s="6">
+        <v>10500</v>
+      </c>
+      <c r="DG12" s="6">
+        <v>133293</v>
+      </c>
+      <c r="DH12" s="6">
+        <f t="shared" si="12"/>
+        <v>-122793</v>
+      </c>
+      <c r="DI12" s="6">
+        <v>-2198610</v>
+      </c>
+      <c r="DJ12" s="6">
+        <v>25525400</v>
+      </c>
+      <c r="DK12" s="7">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DL12" s="8"/>
+        <v>5.6333299380225185E-3</v>
+      </c>
+      <c r="DL12" s="8">
+        <v>-2.2100000000000002E-2</v>
+      </c>
       <c r="DM12" s="1"/>
       <c r="DN12" s="5">
         <v>45260</v>
       </c>
-      <c r="DO12" s="6"/>
-      <c r="DP12" s="6"/>
-      <c r="DQ12" s="6"/>
-      <c r="DR12" s="6"/>
-      <c r="DS12" s="6"/>
-      <c r="DT12" s="7" t="e">
+      <c r="DO12" s="6">
+        <v>211800</v>
+      </c>
+      <c r="DP12" s="6">
+        <v>495100</v>
+      </c>
+      <c r="DQ12" s="6">
+        <f t="shared" si="13"/>
+        <v>-283300</v>
+      </c>
+      <c r="DR12" s="6">
+        <v>-8933680</v>
+      </c>
+      <c r="DS12" s="6">
+        <v>8285000</v>
+      </c>
+      <c r="DT12" s="7">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DU12" s="8"/>
+        <v>8.532287266143633E-2</v>
+      </c>
+      <c r="DU12" s="8">
+        <v>3.2000000000000002E-3</v>
+      </c>
       <c r="DV12" s="1"/>
       <c r="DW12" s="5">
         <v>45260</v>
       </c>
-      <c r="DX12" s="6"/>
-      <c r="DY12" s="6"/>
-      <c r="DZ12" s="6"/>
-      <c r="EA12" s="6"/>
-      <c r="EB12" s="6"/>
-      <c r="EC12" s="7" t="e">
+      <c r="DX12" s="6">
+        <v>140700</v>
+      </c>
+      <c r="DY12" s="6">
+        <v>24200</v>
+      </c>
+      <c r="DZ12" s="6">
+        <f t="shared" si="14"/>
+        <v>116500</v>
+      </c>
+      <c r="EA12" s="6">
+        <v>8139910</v>
+      </c>
+      <c r="EB12" s="6">
+        <v>412200</v>
+      </c>
+      <c r="EC12" s="7">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="ED12" s="8"/>
+        <v>0.4000485201358564</v>
+      </c>
+      <c r="ED12" s="8">
+        <v>2.8999999999999998E-3</v>
+      </c>
       <c r="EE12" s="1"/>
       <c r="EF12" s="5">
         <v>45260</v>
       </c>
-      <c r="EG12" s="6"/>
-      <c r="EH12" s="6"/>
-      <c r="EI12" s="6"/>
-      <c r="EJ12" s="6"/>
-      <c r="EK12" s="6"/>
-      <c r="EL12" s="7" t="e">
+      <c r="EG12" s="6">
+        <v>2800</v>
+      </c>
+      <c r="EH12" s="6">
+        <v>26300</v>
+      </c>
+      <c r="EI12" s="6">
+        <f t="shared" si="15"/>
+        <v>-23500</v>
+      </c>
+      <c r="EJ12" s="6">
+        <v>-840830</v>
+      </c>
+      <c r="EK12" s="6">
+        <v>3154700</v>
+      </c>
+      <c r="EL12" s="7">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="EM12" s="8"/>
+        <v>9.2243319491552289E-3</v>
+      </c>
+      <c r="EM12" s="8">
+        <v>-1.66E-2</v>
+      </c>
       <c r="EN12" s="1"/>
       <c r="EO12" s="5">
         <v>45260</v>
       </c>
-      <c r="EP12" s="6"/>
-      <c r="EQ12" s="6"/>
-      <c r="ER12" s="6"/>
-      <c r="ES12" s="6"/>
-      <c r="ET12" s="6"/>
-      <c r="EU12" s="7" t="e">
+      <c r="EP12" s="6">
+        <v>3510</v>
+      </c>
+      <c r="EQ12" s="6">
+        <v>6100</v>
+      </c>
+      <c r="ER12" s="6">
+        <f t="shared" si="16"/>
+        <v>-2590</v>
+      </c>
+      <c r="ES12" s="6">
+        <v>1832720</v>
+      </c>
+      <c r="ET12" s="6">
+        <v>1518400</v>
+      </c>
+      <c r="EU12" s="7">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="EV12" s="8"/>
+        <v>6.3290305584826137E-3</v>
+      </c>
+      <c r="EV12" s="8">
+        <v>1.6000000000000001E-3</v>
+      </c>
       <c r="EW12" s="1"/>
       <c r="EX12" s="5">
         <v>45260</v>
       </c>
-      <c r="EY12" s="6"/>
-      <c r="EZ12" s="6"/>
-      <c r="FA12" s="6"/>
-      <c r="FB12" s="6"/>
-      <c r="FC12" s="6"/>
-      <c r="FD12" s="7" t="e">
+      <c r="EY12" s="6">
+        <v>34400</v>
+      </c>
+      <c r="EZ12" s="6">
+        <v>35228</v>
+      </c>
+      <c r="FA12" s="6">
+        <f t="shared" si="17"/>
+        <v>-828</v>
+      </c>
+      <c r="FB12" s="6">
+        <v>-30370</v>
+      </c>
+      <c r="FC12" s="6">
+        <v>5445900</v>
+      </c>
+      <c r="FD12" s="7">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="FE12" s="8"/>
+        <v>1.2785398189463634E-2</v>
+      </c>
+      <c r="FE12" s="8">
+        <v>-1.09E-2</v>
+      </c>
       <c r="FF12" s="1"/>
       <c r="FG12" s="5">
         <v>45260</v>
       </c>
-      <c r="FH12" s="6"/>
-      <c r="FI12" s="6"/>
-      <c r="FJ12" s="6"/>
-      <c r="FK12" s="6"/>
-      <c r="FL12" s="6"/>
-      <c r="FM12" s="7" t="e">
+      <c r="FH12" s="6">
+        <v>67600</v>
+      </c>
+      <c r="FI12" s="6">
+        <v>518900</v>
+      </c>
+      <c r="FJ12" s="6">
+        <f t="shared" si="18"/>
+        <v>-451300</v>
+      </c>
+      <c r="FK12" s="6">
+        <v>-9919970</v>
+      </c>
+      <c r="FL12" s="6">
+        <v>14997300</v>
+      </c>
+      <c r="FM12" s="7">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="FN12" s="8"/>
+        <v>3.9107039267068072E-2</v>
+      </c>
+      <c r="FN12" s="8">
+        <v>-1.83E-2</v>
+      </c>
       <c r="FO12" s="1"/>
       <c r="FP12" s="5">
         <v>45260</v>
       </c>
-      <c r="FQ12" s="6"/>
-      <c r="FR12" s="6"/>
-      <c r="FS12" s="6"/>
-      <c r="FT12" s="6"/>
-      <c r="FU12" s="6"/>
-      <c r="FV12" s="7" t="e">
+      <c r="FQ12" s="6">
+        <v>347500</v>
+      </c>
+      <c r="FR12" s="6">
+        <v>449466</v>
+      </c>
+      <c r="FS12" s="6">
+        <f t="shared" si="19"/>
+        <v>-101966</v>
+      </c>
+      <c r="FT12" s="6">
+        <v>-9368232</v>
+      </c>
+      <c r="FU12" s="6">
+        <v>1602200</v>
+      </c>
+      <c r="FV12" s="7">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="FW12" s="8"/>
+        <v>0.49741979777805517</v>
+      </c>
+      <c r="FW12" s="8">
+        <v>-1.3599999999999999E-2</v>
+      </c>
       <c r="FX12" s="1"/>
       <c r="FY12" s="5">
         <v>45260</v>
       </c>
-      <c r="FZ12" s="6"/>
-      <c r="GA12" s="6"/>
-      <c r="GB12" s="6"/>
-      <c r="GC12" s="6"/>
-      <c r="GD12" s="6"/>
-      <c r="GE12" s="7" t="e">
+      <c r="FZ12" s="6">
+        <v>35800</v>
+      </c>
+      <c r="GA12" s="6">
+        <v>386600</v>
+      </c>
+      <c r="GB12" s="6">
+        <f t="shared" si="20"/>
+        <v>-350800</v>
+      </c>
+      <c r="GC12" s="6">
+        <v>-23420860</v>
+      </c>
+      <c r="GD12" s="6">
+        <v>696700</v>
+      </c>
+      <c r="GE12" s="7">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="GF12" s="8"/>
+        <v>0.60628678053681639</v>
+      </c>
+      <c r="GF12" s="8">
+        <v>-3.3700000000000001E-2</v>
+      </c>
       <c r="GG12" s="1"/>
     </row>
     <row r="13" spans="1:189" x14ac:dyDescent="0.2">
@@ -10853,15 +11085,15 @@
       </c>
       <c r="B29" s="6">
         <f>AVERAGE(B4:B27)</f>
-        <v>1509148.125</v>
+        <v>6753412.111111111</v>
       </c>
       <c r="C29" s="6">
         <f>AVERAGE(C4:C27)</f>
-        <v>602535.375</v>
+        <v>6563139.888888889</v>
       </c>
       <c r="F29" s="6">
         <f>AVERAGE(F4:F27)</f>
-        <v>30400612.5</v>
+        <v>107409810.22222222</v>
       </c>
       <c r="G29" s="6"/>
       <c r="I29" s="1"/>
@@ -10870,11 +11102,11 @@
       </c>
       <c r="K29" s="6">
         <f>AVERAGE(K4:K27)</f>
-        <v>1282915</v>
+        <v>1198202.3333333333</v>
       </c>
       <c r="O29" s="6">
         <f>AVERAGE(O4:O27)</f>
-        <v>21118450.125</v>
+        <v>20625222.333333332</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="9" t="s">
@@ -10882,15 +11114,15 @@
       </c>
       <c r="T29" s="6">
         <f>AVERAGE(T4:T28)</f>
-        <v>303787.5</v>
+        <v>287266.66666666669</v>
       </c>
       <c r="U29" s="6">
         <f>AVERAGE(U4:U28)</f>
-        <v>302167.625</v>
+        <v>313766.77777777775</v>
       </c>
       <c r="X29" s="6">
         <f>AVERAGE(X4:X27)</f>
-        <v>893837.5</v>
+        <v>897588.88888888888</v>
       </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="9" t="s">
@@ -10898,15 +11130,15 @@
       </c>
       <c r="AC29" s="6">
         <f>AVERAGE(AC4:AC28)</f>
-        <v>2206551.25</v>
+        <v>2288601.111111111</v>
       </c>
       <c r="AD29" s="6">
         <f>AVERAGE(AD4:AD27)</f>
-        <v>6239530</v>
+        <v>5958515.555555556</v>
       </c>
       <c r="AG29" s="6">
         <f>AVERAGE(AG4:AG27)</f>
-        <v>18057161.75</v>
+        <v>16800810.444444444</v>
       </c>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="9" t="s">
@@ -10914,15 +11146,15 @@
       </c>
       <c r="AL29" s="6">
         <f>AVERAGE(AL4:AL28)</f>
-        <v>1128562.5</v>
+        <v>1022255.5555555555</v>
       </c>
       <c r="AM29" s="6">
         <f>AVERAGE(AM4:AM27)</f>
-        <v>904512.5</v>
+        <v>946200</v>
       </c>
       <c r="AP29" s="6">
         <f>AVERAGE(AP4:AP27)</f>
-        <v>17189037.5</v>
+        <v>16791177.777777776</v>
       </c>
       <c r="AS29" s="1"/>
       <c r="AT29" s="9" t="s">
@@ -10930,15 +11162,15 @@
       </c>
       <c r="AU29" s="6">
         <f>AVERAGE(AU4:AU28)</f>
-        <v>2298413.375</v>
+        <v>2333823</v>
       </c>
       <c r="AV29" s="6">
         <f>AVERAGE(AV4:AV27)</f>
-        <v>2060408.875</v>
+        <v>2384531.777777778</v>
       </c>
       <c r="AY29" s="6">
         <f>AVERAGE(AY4:AY27)</f>
-        <v>21179050</v>
+        <v>21182277.777777776</v>
       </c>
       <c r="BB29" s="1"/>
       <c r="BC29" s="9" t="s">
@@ -10946,15 +11178,15 @@
       </c>
       <c r="BD29" s="6">
         <f>AVERAGE(BD4:BD28)</f>
-        <v>662242.5</v>
+        <v>878137.77777777775</v>
       </c>
       <c r="BE29" s="6">
         <f>AVERAGE(BE4:BE27)</f>
-        <v>117078.75</v>
+        <v>112547.77777777778</v>
       </c>
       <c r="BH29" s="6">
         <f>AVERAGE(BH4:BH27)</f>
-        <v>15108587.5</v>
+        <v>14838222.222222222</v>
       </c>
       <c r="BK29" s="1"/>
       <c r="BL29" s="9" t="s">
@@ -10962,15 +11194,15 @@
       </c>
       <c r="BM29" s="6">
         <f>AVERAGE(BM4:BM28)</f>
-        <v>1058238.125</v>
+        <v>994267.22222222225</v>
       </c>
       <c r="BN29" s="6">
         <f>AVERAGE(BN4:BN27)</f>
-        <v>1924116.5</v>
+        <v>1757814.6666666667</v>
       </c>
       <c r="BQ29" s="6">
         <f>AVERAGE(BQ4:BQ27)</f>
-        <v>8814125</v>
+        <v>8282655.555555556</v>
       </c>
       <c r="BT29" s="1"/>
       <c r="BU29" s="9" t="s">
@@ -10978,15 +11210,15 @@
       </c>
       <c r="BV29" s="6">
         <f>AVERAGE(BV4:BV28)</f>
-        <v>362375.875</v>
+        <v>369773.66666666669</v>
       </c>
       <c r="BW29" s="6">
         <f>AVERAGE(BW4:BW27)</f>
-        <v>1553728.5</v>
+        <v>1582291.111111111</v>
       </c>
       <c r="BZ29" s="6">
         <f>AVERAGE(BZ4:BZ27)</f>
-        <v>3711912.5</v>
+        <v>3737633.3333333335</v>
       </c>
       <c r="CC29" s="1"/>
       <c r="CD29" s="9" t="s">
@@ -10994,15 +11226,15 @@
       </c>
       <c r="CE29" s="6">
         <f>AVERAGE(CE4:CE28)</f>
-        <v>911050.125</v>
+        <v>1208162.6666666667</v>
       </c>
       <c r="CF29" s="6">
         <f>AVERAGE(CF4:CF27)</f>
-        <v>1902629.875</v>
+        <v>1855725.7777777778</v>
       </c>
       <c r="CI29" s="6">
         <f>AVERAGE(CI4:CI27)</f>
-        <v>6111387.5</v>
+        <v>6292533.333333333</v>
       </c>
       <c r="CL29" s="1"/>
       <c r="CM29" s="9" t="s">
@@ -11010,15 +11242,15 @@
       </c>
       <c r="CN29" s="6">
         <f>AVERAGE(CN4:CN28)</f>
-        <v>442016.25</v>
+        <v>486658.88888888888</v>
       </c>
       <c r="CO29" s="6">
         <f>AVERAGE(CO4:CO27)</f>
-        <v>610053.75</v>
+        <v>562187.33333333337</v>
       </c>
       <c r="CR29" s="6">
         <f>AVERAGE(CR4:CR27)</f>
-        <v>27662642.875</v>
+        <v>26456471.444444444</v>
       </c>
       <c r="CU29" s="1"/>
       <c r="CV29" s="9" t="s">
@@ -11026,11 +11258,11 @@
       </c>
       <c r="CW29" s="6">
         <f>AVERAGE(CW4:CW28)</f>
-        <v>308225</v>
+        <v>275692.22222222225</v>
       </c>
       <c r="CX29" s="6">
         <f>AVERAGE(CX4:CX27)</f>
-        <v>511864.625</v>
+        <v>462735.22222222225</v>
       </c>
       <c r="DA29" s="6">
         <f>AVERAGE(DA4:DA27)</f>
@@ -11042,15 +11274,15 @@
       </c>
       <c r="DF29" s="6">
         <f>AVERAGE(DF4:DF28)</f>
-        <v>169368.25</v>
+        <v>151716.22222222222</v>
       </c>
       <c r="DG29" s="6">
         <f>AVERAGE(DG4:DG27)</f>
-        <v>312584.625</v>
+        <v>292663.33333333331</v>
       </c>
       <c r="DJ29" s="6">
         <f>AVERAGE(DJ4:DJ27)</f>
-        <v>37027487.5</v>
+        <v>35749477.777777776</v>
       </c>
       <c r="DM29" s="1"/>
       <c r="DN29" s="9" t="s">
@@ -11058,15 +11290,15 @@
       </c>
       <c r="DO29" s="6">
         <f>AVERAGE(DO4:DO28)</f>
-        <v>292412.5</v>
+        <v>283455.55555555556</v>
       </c>
       <c r="DP29" s="6">
         <f>AVERAGE(DP4:DP27)</f>
-        <v>308084.875</v>
+        <v>328864.33333333331</v>
       </c>
       <c r="DS29" s="6">
         <f>AVERAGE(DS4:DS27)</f>
-        <v>7720362.5</v>
+        <v>7783100</v>
       </c>
       <c r="DV29" s="1"/>
       <c r="DW29" s="9" t="s">
@@ -11074,15 +11306,15 @@
       </c>
       <c r="DX29" s="6">
         <f>AVERAGE(DX4:DX28)</f>
-        <v>203237.5</v>
+        <v>196288.88888888888</v>
       </c>
       <c r="DY29" s="6">
         <f>AVERAGE(DY4:DY27)</f>
-        <v>194375</v>
+        <v>175466.66666666666</v>
       </c>
       <c r="EB29" s="6">
         <f>AVERAGE(EB4:EB27)</f>
-        <v>816250</v>
+        <v>771355.5555555555</v>
       </c>
       <c r="EE29" s="1"/>
       <c r="EF29" s="9" t="s">
@@ -11090,15 +11322,15 @@
       </c>
       <c r="EG29" s="6">
         <f>AVERAGE(EG4:EG28)</f>
-        <v>33887.5</v>
+        <v>30433.333333333332</v>
       </c>
       <c r="EH29" s="6">
         <f>AVERAGE(EH4:EH27)</f>
-        <v>40887.5</v>
+        <v>39266.666666666664</v>
       </c>
       <c r="EK29" s="6">
         <f>AVERAGE(EK4:EK27)</f>
-        <v>2962325</v>
+        <v>2983700</v>
       </c>
       <c r="EN29" s="1"/>
       <c r="EO29" s="9" t="s">
@@ -11106,15 +11338,15 @@
       </c>
       <c r="EP29" s="6">
         <f>AVERAGE(EP4:EP28)</f>
-        <v>37265.5</v>
+        <v>33514.888888888891</v>
       </c>
       <c r="EQ29" s="6">
         <f>AVERAGE(EQ4:EQ27)</f>
-        <v>36585</v>
+        <v>33197.777777777781</v>
       </c>
       <c r="ET29" s="6">
         <f>AVERAGE(ET4:ET27)</f>
-        <v>2077675</v>
+        <v>2015533.3333333333</v>
       </c>
       <c r="EW29" s="1"/>
       <c r="EX29" s="9" t="s">
@@ -11122,15 +11354,15 @@
       </c>
       <c r="EY29" s="6">
         <f>AVERAGE(EY4:EY28)</f>
-        <v>96223.625</v>
+        <v>89354.333333333328</v>
       </c>
       <c r="EZ29" s="6">
         <f>AVERAGE(EZ4:EZ27)</f>
-        <v>150000</v>
+        <v>137247.55555555556</v>
       </c>
       <c r="FC29" s="6">
         <f>AVERAGE(FC4:FC27)</f>
-        <v>7952912.5</v>
+        <v>7674355.555555556</v>
       </c>
       <c r="FF29" s="1"/>
       <c r="FG29" s="9" t="s">
@@ -11138,15 +11370,15 @@
       </c>
       <c r="FH29" s="6">
         <f>AVERAGE(FH4:FH28)</f>
-        <v>159837.5</v>
+        <v>149588.88888888888</v>
       </c>
       <c r="FI29" s="6">
         <f>AVERAGE(FI4:FI27)</f>
-        <v>329937.5</v>
+        <v>350933.33333333331</v>
       </c>
       <c r="FL29" s="6">
         <f>AVERAGE(FL4:FL27)</f>
-        <v>20913350</v>
+        <v>20256011.111111112</v>
       </c>
       <c r="FO29" s="1"/>
       <c r="FP29" s="9" t="s">
@@ -11154,15 +11386,15 @@
       </c>
       <c r="FQ29" s="6">
         <f>AVERAGE(FQ4:FQ28)</f>
-        <v>472524.625</v>
+        <v>458633</v>
       </c>
       <c r="FR29" s="6">
         <f>AVERAGE(FR4:FR27)</f>
-        <v>110524.75</v>
+        <v>148184.88888888888</v>
       </c>
       <c r="FU29" s="6">
         <f>AVERAGE(FU4:FU27)</f>
-        <v>2404962.5</v>
+        <v>2315766.6666666665</v>
       </c>
       <c r="FX29" s="1"/>
       <c r="FY29" s="9" t="s">
@@ -11170,877 +11402,877 @@
       </c>
       <c r="FZ29" s="6">
         <f>AVERAGE(FZ4:FZ28)</f>
-        <v>15562.5</v>
+        <v>17811.111111111109</v>
       </c>
       <c r="GA29" s="6">
         <f>AVERAGE(GA4:GA27)</f>
-        <v>120737.5</v>
+        <v>150277.77777777778</v>
       </c>
       <c r="GD29" s="6">
         <f>AVERAGE(GD4:GD27)</f>
-        <v>554700</v>
+        <v>570477.77777777775</v>
       </c>
       <c r="GG29" s="1"/>
     </row>
     <row r="30" spans="1:189" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="41"/>
       <c r="D30" s="6">
         <f>SUM(D4:D27)</f>
-        <v>7252902</v>
+        <v>1712450</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="50" t="s">
+      <c r="J30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="50"/>
+      <c r="K30" s="41"/>
       <c r="L30" s="6">
         <f>AVERAGE(L4:L29)</f>
-        <v>824001.75</v>
+        <v>948645.77777777775</v>
       </c>
       <c r="M30" s="6">
         <f>SUM(M3:M26)</f>
-        <v>3671306</v>
+        <v>2246009</v>
       </c>
       <c r="N30" s="6"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="50" t="s">
+      <c r="S30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="T30" s="50"/>
+      <c r="T30" s="41"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6">
         <f>SUM(V3:V26)</f>
-        <v>12959</v>
+        <v>-238501</v>
       </c>
       <c r="W30" s="6"/>
       <c r="AA30" s="1"/>
-      <c r="AB30" s="50" t="s">
+      <c r="AB30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AC30" s="50"/>
+      <c r="AC30" s="41"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="6">
         <f>SUM(AE3:AE26)</f>
-        <v>-32263830</v>
+        <v>-33029230</v>
       </c>
       <c r="AF30" s="6"/>
       <c r="AJ30" s="1"/>
-      <c r="AK30" s="50" t="s">
+      <c r="AK30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AL30" s="50"/>
+      <c r="AL30" s="41"/>
       <c r="AM30" s="6"/>
       <c r="AN30" s="6">
         <f>SUM(AN3:AN26)</f>
-        <v>1792400</v>
+        <v>684500</v>
       </c>
       <c r="AO30" s="6"/>
       <c r="AS30" s="1"/>
-      <c r="AT30" s="50" t="s">
+      <c r="AT30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AU30" s="50"/>
+      <c r="AU30" s="41"/>
       <c r="AV30" s="6"/>
       <c r="AW30" s="6">
         <f>SUM(AW3:AW26)</f>
-        <v>1904036</v>
+        <v>-456379</v>
       </c>
       <c r="AX30" s="6"/>
       <c r="BB30" s="1"/>
-      <c r="BC30" s="50" t="s">
+      <c r="BC30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="BD30" s="50"/>
+      <c r="BD30" s="41"/>
       <c r="BF30" s="6">
         <f>SUM(BF3:BF26)</f>
-        <v>4361310</v>
+        <v>6890310</v>
       </c>
       <c r="BK30" s="1"/>
-      <c r="BL30" s="50" t="s">
+      <c r="BL30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="BM30" s="50"/>
+      <c r="BM30" s="41"/>
       <c r="BN30" s="6"/>
       <c r="BO30" s="6">
         <f>SUM(BO3:BO26)</f>
-        <v>-6927027</v>
+        <v>-6871927</v>
       </c>
       <c r="BP30" s="6"/>
       <c r="BT30" s="1"/>
-      <c r="BU30" s="50" t="s">
+      <c r="BU30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="BV30" s="50"/>
+      <c r="BV30" s="41"/>
       <c r="BW30" s="6"/>
       <c r="BX30" s="6">
         <f>SUM(BX3:BX26)</f>
-        <v>-9530821</v>
+        <v>-10912657</v>
       </c>
       <c r="BY30" s="6"/>
       <c r="CC30" s="1"/>
-      <c r="CD30" s="50" t="s">
+      <c r="CD30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="CE30" s="50"/>
+      <c r="CE30" s="41"/>
       <c r="CF30" s="6"/>
       <c r="CG30" s="6">
         <f>SUM(CG3:CG26)</f>
-        <v>-7932638</v>
+        <v>-5828068</v>
       </c>
       <c r="CH30" s="6"/>
       <c r="CL30" s="1"/>
-      <c r="CM30" s="50" t="s">
+      <c r="CM30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="CN30" s="50"/>
+      <c r="CN30" s="41"/>
       <c r="CO30" s="6"/>
       <c r="CP30" s="6">
         <f>SUM(CP3:CP26)</f>
-        <v>-1344300</v>
+        <v>-679756</v>
       </c>
       <c r="CQ30" s="6"/>
       <c r="CU30" s="1"/>
-      <c r="CV30" s="50" t="s">
+      <c r="CV30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="CW30" s="50"/>
+      <c r="CW30" s="41"/>
       <c r="CX30" s="6"/>
       <c r="CY30" s="6">
         <f>SUM(CY3:CY26)</f>
-        <v>-1629117</v>
+        <v>-1683387</v>
       </c>
       <c r="CZ30" s="6"/>
       <c r="DD30" s="1"/>
-      <c r="DE30" s="50" t="s">
+      <c r="DE30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="DF30" s="50"/>
+      <c r="DF30" s="41"/>
       <c r="DG30" s="6"/>
       <c r="DH30" s="6">
         <f>SUM(DH3:DH26)</f>
-        <v>-1145731</v>
+        <v>-1268524</v>
       </c>
       <c r="DI30" s="6"/>
       <c r="DM30" s="1"/>
-      <c r="DN30" s="50" t="s">
+      <c r="DN30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="DO30" s="50"/>
+      <c r="DO30" s="41"/>
       <c r="DP30" s="6"/>
       <c r="DQ30" s="6">
         <f>SUM(DQ3:DQ26)</f>
-        <v>-125379</v>
+        <v>-408679</v>
       </c>
       <c r="DR30" s="6"/>
       <c r="DV30" s="1"/>
-      <c r="DW30" s="50" t="s">
+      <c r="DW30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="DX30" s="50"/>
+      <c r="DX30" s="41"/>
       <c r="DY30" s="6"/>
       <c r="DZ30" s="6">
         <f>SUM(DZ3:DZ26)</f>
-        <v>70900</v>
+        <v>187400</v>
       </c>
       <c r="EA30" s="6"/>
       <c r="EE30" s="1"/>
-      <c r="EF30" s="50" t="s">
+      <c r="EF30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="EG30" s="50"/>
+      <c r="EG30" s="41"/>
       <c r="EH30" s="6"/>
       <c r="EI30" s="6">
         <f>SUM(EI3:EI26)</f>
-        <v>-56000</v>
+        <v>-79500</v>
       </c>
       <c r="EJ30" s="6"/>
       <c r="EN30" s="1"/>
-      <c r="EO30" s="50" t="s">
+      <c r="EO30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="EP30" s="50"/>
+      <c r="EP30" s="41"/>
       <c r="EQ30" s="6"/>
       <c r="ER30" s="6">
         <f>SUM(ER3:ER26)</f>
-        <v>5444</v>
+        <v>2854</v>
       </c>
       <c r="ES30" s="6"/>
       <c r="EW30" s="1"/>
-      <c r="EX30" s="50" t="s">
+      <c r="EX30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="EY30" s="50"/>
+      <c r="EY30" s="41"/>
       <c r="EZ30" s="6"/>
       <c r="FA30" s="6">
         <f>SUM(FA3:FA26)</f>
-        <v>-430211</v>
+        <v>-431039</v>
       </c>
       <c r="FB30" s="6"/>
       <c r="FF30" s="1"/>
-      <c r="FG30" s="50" t="s">
+      <c r="FG30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="FH30" s="50"/>
+      <c r="FH30" s="41"/>
       <c r="FI30" s="6"/>
       <c r="FJ30" s="6">
         <f>SUM(FJ3:FJ26)</f>
-        <v>-1360800</v>
+        <v>-1812100</v>
       </c>
       <c r="FK30" s="6"/>
       <c r="FO30" s="1"/>
-      <c r="FP30" s="50" t="s">
+      <c r="FP30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="FQ30" s="50"/>
+      <c r="FQ30" s="41"/>
       <c r="FR30" s="6"/>
       <c r="FS30" s="6">
         <f>SUM(FS3:FS26)</f>
-        <v>2895999</v>
+        <v>2794033</v>
       </c>
       <c r="FT30" s="6"/>
       <c r="FX30" s="1"/>
-      <c r="FY30" s="50" t="s">
+      <c r="FY30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="FZ30" s="50"/>
+      <c r="FZ30" s="41"/>
       <c r="GA30" s="6"/>
       <c r="GB30" s="6">
         <f>SUM(GB3:GB26)</f>
-        <v>-841400</v>
+        <v>-1192200</v>
       </c>
       <c r="GC30" s="6"/>
       <c r="GG30" s="1"/>
     </row>
     <row r="31" spans="1:189" x14ac:dyDescent="0.2">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="50"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="6"/>
       <c r="E31" s="6">
         <f>SUM(E4:E27)</f>
-        <v>155104298</v>
+        <v>155103915</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="50"/>
+      <c r="K31" s="41"/>
       <c r="L31" s="6"/>
       <c r="N31" s="6">
         <f>SUM(N4:N27)</f>
-        <v>142926968</v>
+        <v>98360128</v>
       </c>
       <c r="O31" s="6"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="50" t="s">
+      <c r="S31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="T31" s="50"/>
+      <c r="T31" s="41"/>
       <c r="U31" s="6"/>
       <c r="W31" s="6">
         <f>SUM(W4:W27)</f>
-        <v>44081258</v>
+        <v>22708048</v>
       </c>
       <c r="X31" s="6"/>
       <c r="AA31" s="1"/>
-      <c r="AB31" s="50" t="s">
+      <c r="AB31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AC31" s="50"/>
+      <c r="AC31" s="41"/>
       <c r="AD31" s="6"/>
       <c r="AF31" s="6">
         <f>SUM(AF4:AF27)</f>
-        <v>-668158761</v>
+        <v>-682856364</v>
       </c>
       <c r="AG31" s="6"/>
       <c r="AJ31" s="1"/>
-      <c r="AK31" s="50" t="s">
+      <c r="AK31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AL31" s="50"/>
+      <c r="AL31" s="41"/>
       <c r="AM31" s="6"/>
       <c r="AO31" s="6">
         <f>SUM(AO4:AO27)</f>
-        <v>114757826</v>
+        <v>83888265</v>
       </c>
       <c r="AP31" s="6"/>
       <c r="AS31" s="1"/>
-      <c r="AT31" s="50" t="s">
+      <c r="AT31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AU31" s="50"/>
+      <c r="AU31" s="41"/>
       <c r="AV31" s="6"/>
       <c r="AX31" s="6">
         <f>SUM(AX4:AX27)</f>
-        <v>50333249</v>
+        <v>-12147463</v>
       </c>
       <c r="AY31" s="6"/>
       <c r="BB31" s="1"/>
-      <c r="BC31" s="50" t="s">
+      <c r="BC31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="BD31" s="50"/>
+      <c r="BD31" s="41"/>
       <c r="BG31" s="6">
         <f>SUM(BG4:BG27)</f>
-        <v>95871909</v>
+        <v>154026679</v>
       </c>
       <c r="BK31" s="1"/>
-      <c r="BL31" s="50" t="s">
+      <c r="BL31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="BM31" s="50"/>
+      <c r="BM31" s="41"/>
       <c r="BN31" s="6"/>
       <c r="BP31" s="6">
         <f>SUM(BP4:BP27)</f>
-        <v>-274876671</v>
+        <v>-272699141</v>
       </c>
       <c r="BQ31" s="6"/>
       <c r="BT31" s="1"/>
-      <c r="BU31" s="50" t="s">
+      <c r="BU31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="BV31" s="50"/>
+      <c r="BV31" s="41"/>
       <c r="BW31" s="6"/>
       <c r="BY31" s="6">
         <f>SUM(BX4:BX27)</f>
-        <v>-9530821</v>
+        <v>-10912657</v>
       </c>
       <c r="BZ31" s="6"/>
       <c r="CC31" s="1"/>
-      <c r="CD31" s="50" t="s">
+      <c r="CD31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="CE31" s="50"/>
+      <c r="CE31" s="41"/>
       <c r="CF31" s="6"/>
       <c r="CH31" s="6">
         <f>SUM(CH4:CH27)</f>
-        <v>-194139710</v>
+        <v>-106999874</v>
       </c>
       <c r="CI31" s="6"/>
       <c r="CL31" s="1"/>
-      <c r="CM31" s="50" t="s">
+      <c r="CM31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="CN31" s="50"/>
+      <c r="CN31" s="41"/>
       <c r="CO31" s="6"/>
       <c r="CQ31" s="6">
         <f>SUM(CQ4:CQ27)</f>
-        <v>-27259022</v>
+        <v>-13831562</v>
       </c>
       <c r="CR31" s="6"/>
       <c r="CU31" s="1"/>
-      <c r="CV31" s="50" t="s">
+      <c r="CV31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="CW31" s="50"/>
+      <c r="CW31" s="41"/>
       <c r="CX31" s="6"/>
       <c r="CZ31" s="6">
         <f>SUM(CZ4:CZ27)</f>
-        <v>-46353712</v>
+        <v>-47835992</v>
       </c>
       <c r="DA31" s="6"/>
       <c r="DD31" s="1"/>
-      <c r="DE31" s="50" t="s">
+      <c r="DE31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="DF31" s="50"/>
+      <c r="DF31" s="41"/>
       <c r="DG31" s="6"/>
       <c r="DI31" s="6">
         <f>SUM(DI4:DI27)</f>
-        <v>-20020670</v>
+        <v>-22219280</v>
       </c>
       <c r="DJ31" s="6"/>
       <c r="DM31" s="1"/>
-      <c r="DN31" s="50" t="s">
+      <c r="DN31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="DO31" s="50"/>
+      <c r="DO31" s="41"/>
       <c r="DP31" s="6"/>
       <c r="DR31" s="6">
         <f>SUM(DR4:DR27)</f>
-        <v>-4238582</v>
+        <v>-13172262</v>
       </c>
       <c r="DS31" s="6"/>
       <c r="DV31" s="1"/>
-      <c r="DW31" s="50" t="s">
+      <c r="DW31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="DX31" s="50"/>
+      <c r="DX31" s="41"/>
       <c r="DY31" s="6"/>
       <c r="EA31" s="6">
         <f>SUM(EA4:EA27)</f>
-        <v>5322470</v>
+        <v>13462380</v>
       </c>
       <c r="EB31" s="6"/>
       <c r="EE31" s="1"/>
-      <c r="EF31" s="50" t="s">
+      <c r="EF31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="EG31" s="50"/>
+      <c r="EG31" s="41"/>
       <c r="EH31" s="6"/>
       <c r="EJ31" s="6">
         <f>SUM(EJ4:EJ27)</f>
-        <v>-2432910</v>
+        <v>-3273740</v>
       </c>
       <c r="EK31" s="6"/>
       <c r="EN31" s="1"/>
-      <c r="EO31" s="50" t="s">
+      <c r="EO31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="EP31" s="50"/>
+      <c r="EP31" s="41"/>
       <c r="EQ31" s="6"/>
       <c r="ES31" s="6">
         <f>SUM(ES4:ES27)</f>
-        <v>-489740</v>
+        <v>1342980</v>
       </c>
       <c r="ET31" s="6"/>
       <c r="EW31" s="1"/>
-      <c r="EX31" s="50" t="s">
+      <c r="EX31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="EY31" s="50"/>
+      <c r="EY31" s="41"/>
       <c r="EZ31" s="6"/>
       <c r="FB31" s="6">
         <f>SUM(FB4:FB27)</f>
-        <v>-10696840</v>
+        <v>-10727210</v>
       </c>
       <c r="FC31" s="6"/>
       <c r="FF31" s="1"/>
-      <c r="FG31" s="50" t="s">
+      <c r="FG31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="FH31" s="50"/>
+      <c r="FH31" s="41"/>
       <c r="FI31" s="6"/>
       <c r="FK31" s="6">
         <f>SUM(FK4:FK27)</f>
-        <v>-26993511</v>
+        <v>-36913481</v>
       </c>
       <c r="FL31" s="6"/>
       <c r="FO31" s="1"/>
-      <c r="FP31" s="50" t="s">
+      <c r="FP31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="FQ31" s="50"/>
+      <c r="FQ31" s="41"/>
       <c r="FR31" s="6"/>
       <c r="FT31" s="6">
         <f>SUM(FT4:FT27)</f>
-        <v>273418960</v>
+        <v>264050728</v>
       </c>
       <c r="FU31" s="6"/>
       <c r="FX31" s="1"/>
-      <c r="FY31" s="50" t="s">
+      <c r="FY31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="FZ31" s="50"/>
+      <c r="FZ31" s="41"/>
       <c r="GA31" s="6"/>
       <c r="GC31" s="6">
         <f>SUM(GC4:GC27)</f>
-        <v>-59427190</v>
+        <v>-82848050</v>
       </c>
       <c r="GD31" s="6"/>
       <c r="GG31" s="1"/>
     </row>
     <row r="32" spans="1:189" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="50"/>
+      <c r="B32" s="41"/>
       <c r="F32" s="6"/>
       <c r="H32" s="10">
         <f>SUM(H4:H27)</f>
-        <v>4.3099999999999999E-2</v>
+        <v>3.5199999999999995E-2</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="50" t="s">
+      <c r="J32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K32" s="50"/>
+      <c r="K32" s="41"/>
       <c r="O32" s="6"/>
       <c r="Q32" s="10">
         <f>SUM(Q4:Q27)</f>
-        <v>6.7999999999999962E-3</v>
+        <v>-2.7000000000000036E-3</v>
       </c>
       <c r="R32" s="1"/>
-      <c r="S32" s="50" t="s">
+      <c r="S32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="T32" s="50"/>
+      <c r="T32" s="41"/>
       <c r="X32" s="6"/>
       <c r="Z32" s="10">
         <f>SUM(Z4:Z27)</f>
-        <v>-5.7000000000000019E-3</v>
+        <v>-1.0400000000000003E-2</v>
       </c>
       <c r="AA32" s="1"/>
-      <c r="AB32" s="50" t="s">
+      <c r="AB32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="AC32" s="50"/>
+      <c r="AC32" s="41"/>
       <c r="AG32" s="6"/>
       <c r="AI32" s="10">
         <f>SUM(AI4:AI27)</f>
-        <v>-2.1000000000000012E-3</v>
+        <v>-9.9000000000000008E-3</v>
       </c>
       <c r="AJ32" s="1"/>
-      <c r="AK32" s="50" t="s">
+      <c r="AK32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="AL32" s="50"/>
+      <c r="AL32" s="41"/>
       <c r="AP32" s="6"/>
       <c r="AR32" s="10">
         <f>SUM(AR4:AR27)</f>
-        <v>-1.34E-2</v>
+        <v>-2.4199999999999999E-2</v>
       </c>
       <c r="AS32" s="1"/>
-      <c r="AT32" s="50" t="s">
+      <c r="AT32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="AU32" s="50"/>
+      <c r="AU32" s="41"/>
       <c r="AY32" s="6"/>
       <c r="BA32" s="10">
         <f>SUM(BA4:BA27)</f>
-        <v>2.8300000000000006E-2</v>
+        <v>1.1600000000000006E-2</v>
       </c>
       <c r="BB32" s="1"/>
-      <c r="BC32" s="50" t="s">
+      <c r="BC32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="BD32" s="50"/>
+      <c r="BD32" s="41"/>
       <c r="BH32" s="6"/>
       <c r="BJ32" s="10">
         <f>SUM(BJ4:BJ27)</f>
-        <v>7.5400000000000009E-2</v>
+        <v>7.980000000000001E-2</v>
       </c>
       <c r="BK32" s="1"/>
-      <c r="BL32" s="50" t="s">
+      <c r="BL32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="BM32" s="50"/>
+      <c r="BM32" s="41"/>
       <c r="BQ32" s="6"/>
       <c r="BS32" s="10">
         <f>SUM(BS4:BS27)</f>
-        <v>-6.13E-2</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="BT32" s="1"/>
-      <c r="BU32" s="50" t="s">
+      <c r="BU32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="BV32" s="50"/>
+      <c r="BV32" s="41"/>
       <c r="BZ32" s="6"/>
       <c r="CB32" s="10">
         <f>SUM(CB4:CB27)</f>
-        <v>1.9500000000000003E-2</v>
+        <v>-2.7899999999999994E-2</v>
       </c>
       <c r="CC32" s="1"/>
-      <c r="CD32" s="50" t="s">
+      <c r="CD32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="CE32" s="50"/>
+      <c r="CE32" s="41"/>
       <c r="CI32" s="6"/>
       <c r="CK32" s="10">
         <f>SUM(CK4:CK27)</f>
-        <v>5.67E-2</v>
+        <v>5.91E-2</v>
       </c>
       <c r="CL32" s="1"/>
-      <c r="CM32" s="50" t="s">
+      <c r="CM32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="CN32" s="50"/>
+      <c r="CN32" s="41"/>
       <c r="CR32" s="6"/>
       <c r="CT32" s="10">
         <f>SUM(CT4:CT27)</f>
-        <v>4.299999999999999E-2</v>
+        <v>4.7999999999999987E-2</v>
       </c>
       <c r="CU32" s="1"/>
-      <c r="CV32" s="50" t="s">
+      <c r="CV32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="CW32" s="50"/>
+      <c r="CW32" s="41"/>
       <c r="DA32" s="6"/>
       <c r="DC32" s="10">
         <f>SUM(DC4:DC27)</f>
-        <v>8.0999999999999944E-3</v>
+        <v>4.3999999999999942E-3</v>
       </c>
       <c r="DD32" s="1"/>
-      <c r="DE32" s="50" t="s">
+      <c r="DE32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="DF32" s="50"/>
+      <c r="DF32" s="41"/>
       <c r="DJ32" s="6"/>
       <c r="DL32" s="10">
         <f>SUM(DL4:DL27)</f>
-        <v>0.1361</v>
+        <v>0.11399999999999999</v>
       </c>
       <c r="DM32" s="1"/>
-      <c r="DN32" s="50" t="s">
+      <c r="DN32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="DO32" s="50"/>
+      <c r="DO32" s="41"/>
       <c r="DS32" s="6"/>
       <c r="DU32" s="10">
         <f>SUM(DU4:DU27)</f>
-        <v>-3.9999999999999758E-4</v>
+        <v>2.8000000000000026E-3</v>
       </c>
       <c r="DV32" s="1"/>
-      <c r="DW32" s="50" t="s">
+      <c r="DW32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="DX32" s="50"/>
+      <c r="DX32" s="41"/>
       <c r="EB32" s="6"/>
       <c r="ED32" s="10">
         <f>SUM(ED4:ED27)</f>
-        <v>3.3799999999999997E-2</v>
+        <v>3.6699999999999997E-2</v>
       </c>
       <c r="EE32" s="1"/>
-      <c r="EF32" s="50" t="s">
+      <c r="EF32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="EG32" s="50"/>
+      <c r="EG32" s="41"/>
       <c r="EK32" s="6"/>
       <c r="EM32" s="10">
         <f>SUM(EM4:EM27)</f>
-        <v>7.0599999999999996E-2</v>
+        <v>5.3999999999999992E-2</v>
       </c>
       <c r="EN32" s="1"/>
-      <c r="EO32" s="50" t="s">
+      <c r="EO32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="EP32" s="50"/>
+      <c r="EP32" s="41"/>
       <c r="ET32" s="6"/>
       <c r="EV32" s="10">
         <f>SUM(EV4:EV27)</f>
-        <v>6.2799999999999995E-2</v>
+        <v>6.4399999999999999E-2</v>
       </c>
       <c r="EW32" s="1"/>
-      <c r="EX32" s="50" t="s">
+      <c r="EX32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="EY32" s="50"/>
+      <c r="EY32" s="41"/>
       <c r="FC32" s="6"/>
       <c r="FE32" s="10">
         <f>SUM(FE4:FE27)</f>
-        <v>-3.199999999999991E-3</v>
+        <v>-1.4099999999999991E-2</v>
       </c>
       <c r="FF32" s="1"/>
-      <c r="FG32" s="50" t="s">
+      <c r="FG32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="FH32" s="50"/>
+      <c r="FH32" s="41"/>
       <c r="FL32" s="6"/>
       <c r="FN32" s="10">
         <f>SUM(FN4:FN27)</f>
-        <v>4.8600000000000004E-2</v>
+        <v>3.0300000000000004E-2</v>
       </c>
       <c r="FO32" s="1"/>
-      <c r="FP32" s="50" t="s">
+      <c r="FP32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="FQ32" s="50"/>
+      <c r="FQ32" s="41"/>
       <c r="FU32" s="6"/>
       <c r="FW32" s="10">
         <f>SUM(FW4:FW27)</f>
-        <v>4.250000000000001E-2</v>
+        <v>2.8900000000000009E-2</v>
       </c>
       <c r="FX32" s="1"/>
-      <c r="FY32" s="50" t="s">
+      <c r="FY32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="FZ32" s="50"/>
+      <c r="FZ32" s="41"/>
       <c r="GD32" s="6"/>
       <c r="GF32" s="10">
         <f>SUM(GF4:GF27)</f>
-        <v>-2.23E-2</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="GG32" s="1"/>
     </row>
     <row r="33" spans="1:189" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="41"/>
       <c r="H33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="50" t="s">
+      <c r="J33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="50"/>
+      <c r="K33" s="41"/>
       <c r="Q33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="R33" s="1"/>
-      <c r="S33" s="50" t="s">
+      <c r="S33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="T33" s="50"/>
+      <c r="T33" s="41"/>
       <c r="Z33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="AA33" s="1"/>
-      <c r="AB33" s="50" t="s">
+      <c r="AB33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="AC33" s="50"/>
+      <c r="AC33" s="41"/>
       <c r="AI33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="AJ33" s="1"/>
-      <c r="AK33" s="50" t="s">
+      <c r="AK33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="AL33" s="50"/>
+      <c r="AL33" s="41"/>
       <c r="AR33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="AS33" s="1"/>
-      <c r="AT33" s="50" t="s">
+      <c r="AT33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="AU33" s="50"/>
+      <c r="AU33" s="41"/>
       <c r="BA33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="BB33" s="1"/>
-      <c r="BC33" s="50" t="s">
+      <c r="BC33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="BD33" s="50"/>
+      <c r="BD33" s="41"/>
       <c r="BJ33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="BK33" s="1"/>
-      <c r="BL33" s="50" t="s">
+      <c r="BL33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="BM33" s="50"/>
+      <c r="BM33" s="41"/>
       <c r="BS33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="BT33" s="1"/>
-      <c r="BU33" s="50" t="s">
+      <c r="BU33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="BV33" s="50"/>
+      <c r="BV33" s="41"/>
       <c r="CB33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="CC33" s="1"/>
-      <c r="CD33" s="50" t="s">
+      <c r="CD33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="CE33" s="50"/>
+      <c r="CE33" s="41"/>
       <c r="CK33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="CL33" s="1"/>
-      <c r="CM33" s="50" t="s">
+      <c r="CM33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="CN33" s="50"/>
+      <c r="CN33" s="41"/>
       <c r="CT33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="CU33" s="1"/>
-      <c r="CV33" s="50" t="s">
+      <c r="CV33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="CW33" s="50"/>
+      <c r="CW33" s="41"/>
       <c r="DC33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="DD33" s="1"/>
-      <c r="DE33" s="50" t="s">
+      <c r="DE33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="DF33" s="50"/>
+      <c r="DF33" s="41"/>
       <c r="DL33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="DM33" s="1"/>
-      <c r="DN33" s="50" t="s">
+      <c r="DN33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="DO33" s="50"/>
+      <c r="DO33" s="41"/>
       <c r="DU33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="DV33" s="1"/>
-      <c r="DW33" s="50" t="s">
+      <c r="DW33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="DX33" s="50"/>
+      <c r="DX33" s="41"/>
       <c r="ED33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="EE33" s="1"/>
-      <c r="EF33" s="50" t="s">
+      <c r="EF33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="EG33" s="50"/>
+      <c r="EG33" s="41"/>
       <c r="EM33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="EN33" s="1"/>
-      <c r="EO33" s="50" t="s">
+      <c r="EO33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="EP33" s="50"/>
+      <c r="EP33" s="41"/>
       <c r="EV33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="EW33" s="1"/>
-      <c r="EX33" s="50" t="s">
+      <c r="EX33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="EY33" s="50"/>
+      <c r="EY33" s="41"/>
       <c r="FE33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="FF33" s="1"/>
-      <c r="FG33" s="50" t="s">
+      <c r="FG33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="FH33" s="50"/>
+      <c r="FH33" s="41"/>
       <c r="FN33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="FO33" s="1"/>
-      <c r="FP33" s="50" t="s">
+      <c r="FP33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="FQ33" s="50"/>
+      <c r="FQ33" s="41"/>
       <c r="FW33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
       </c>
       <c r="FX33" s="1"/>
-      <c r="FY33" s="50" t="s">
+      <c r="FY33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="FZ33" s="50"/>
+      <c r="FZ33" s="41"/>
       <c r="GF33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.7999999999999978E-3</v>
@@ -12064,81 +12296,22 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="FP33:FQ33"/>
-    <mergeCell ref="FY33:FZ33"/>
-    <mergeCell ref="DW33:DX33"/>
-    <mergeCell ref="EF33:EG33"/>
-    <mergeCell ref="EO33:EP33"/>
-    <mergeCell ref="EX33:EY33"/>
-    <mergeCell ref="FG33:FH33"/>
-    <mergeCell ref="CD33:CE33"/>
-    <mergeCell ref="CM33:CN33"/>
-    <mergeCell ref="CV33:CW33"/>
-    <mergeCell ref="DE33:DF33"/>
-    <mergeCell ref="DN33:DO33"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="BC33:BD33"/>
-    <mergeCell ref="BL33:BM33"/>
-    <mergeCell ref="BU33:BV33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="BK1:CA1"/>
-    <mergeCell ref="CC1:DT1"/>
-    <mergeCell ref="EX2:FE2"/>
-    <mergeCell ref="EX30:EY30"/>
-    <mergeCell ref="EX31:EY31"/>
-    <mergeCell ref="EN1:FE1"/>
-    <mergeCell ref="AK2:AR2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="S1:AH1"/>
-    <mergeCell ref="AS1:BI1"/>
-    <mergeCell ref="FP2:FW2"/>
-    <mergeCell ref="FY2:GF2"/>
-    <mergeCell ref="DW2:ED2"/>
-    <mergeCell ref="EF2:EM2"/>
-    <mergeCell ref="EO2:EV2"/>
-    <mergeCell ref="FG2:FN2"/>
-    <mergeCell ref="DV1:EL1"/>
-    <mergeCell ref="FY1:GF1"/>
-    <mergeCell ref="FP1:FW1"/>
-    <mergeCell ref="FG1:FN1"/>
-    <mergeCell ref="DE2:DL2"/>
-    <mergeCell ref="DN2:DU2"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="BC2:BJ2"/>
-    <mergeCell ref="BL2:BR2"/>
-    <mergeCell ref="BU2:CB2"/>
-    <mergeCell ref="CD2:CK2"/>
-    <mergeCell ref="CM2:CT2"/>
-    <mergeCell ref="CV2:DC2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="S2:Z2"/>
-    <mergeCell ref="AB2:AI2"/>
-    <mergeCell ref="FP30:FQ30"/>
-    <mergeCell ref="FY30:FZ30"/>
-    <mergeCell ref="BU30:BV30"/>
-    <mergeCell ref="CD30:CE30"/>
-    <mergeCell ref="CM30:CN30"/>
-    <mergeCell ref="CV30:CW30"/>
-    <mergeCell ref="DE30:DF30"/>
-    <mergeCell ref="DN30:DO30"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="DW30:DX30"/>
-    <mergeCell ref="EF30:EG30"/>
-    <mergeCell ref="EO30:EP30"/>
-    <mergeCell ref="FG30:FH30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="BC30:BD30"/>
-    <mergeCell ref="BL30:BM30"/>
-    <mergeCell ref="FP31:FQ31"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="DW32:DX32"/>
+    <mergeCell ref="EF32:EG32"/>
+    <mergeCell ref="EO32:EP32"/>
+    <mergeCell ref="FG32:FH32"/>
+    <mergeCell ref="BC31:BD31"/>
+    <mergeCell ref="BL31:BM31"/>
+    <mergeCell ref="BU31:BV31"/>
+    <mergeCell ref="CD31:CE31"/>
+    <mergeCell ref="CM31:CN31"/>
+    <mergeCell ref="CV31:CW31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AK31:AL31"/>
     <mergeCell ref="FY31:FZ31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="J32:K32"/>
@@ -12163,22 +12336,81 @@
     <mergeCell ref="DE32:DF32"/>
     <mergeCell ref="DN32:DO32"/>
     <mergeCell ref="EX32:EY32"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="DW32:DX32"/>
-    <mergeCell ref="EF32:EG32"/>
-    <mergeCell ref="EO32:EP32"/>
-    <mergeCell ref="FG32:FH32"/>
-    <mergeCell ref="BC31:BD31"/>
-    <mergeCell ref="BL31:BM31"/>
-    <mergeCell ref="BU31:BV31"/>
-    <mergeCell ref="CD31:CE31"/>
-    <mergeCell ref="CM31:CN31"/>
-    <mergeCell ref="CV31:CW31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="DW30:DX30"/>
+    <mergeCell ref="EF30:EG30"/>
+    <mergeCell ref="EO30:EP30"/>
+    <mergeCell ref="FG30:FH30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="BC30:BD30"/>
+    <mergeCell ref="BL30:BM30"/>
+    <mergeCell ref="FP31:FQ31"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="AB2:AI2"/>
+    <mergeCell ref="FP30:FQ30"/>
+    <mergeCell ref="FY30:FZ30"/>
+    <mergeCell ref="BU30:BV30"/>
+    <mergeCell ref="CD30:CE30"/>
+    <mergeCell ref="CM30:CN30"/>
+    <mergeCell ref="CV30:CW30"/>
+    <mergeCell ref="DE30:DF30"/>
+    <mergeCell ref="DN30:DO30"/>
+    <mergeCell ref="FP2:FW2"/>
+    <mergeCell ref="FY2:GF2"/>
+    <mergeCell ref="DW2:ED2"/>
+    <mergeCell ref="EF2:EM2"/>
+    <mergeCell ref="EO2:EV2"/>
+    <mergeCell ref="FG2:FN2"/>
+    <mergeCell ref="DV1:EL1"/>
+    <mergeCell ref="FY1:GF1"/>
+    <mergeCell ref="FP1:FW1"/>
+    <mergeCell ref="FG1:FN1"/>
+    <mergeCell ref="BK1:CA1"/>
+    <mergeCell ref="CC1:DT1"/>
+    <mergeCell ref="EX2:FE2"/>
+    <mergeCell ref="EX30:EY30"/>
+    <mergeCell ref="EX31:EY31"/>
+    <mergeCell ref="EN1:FE1"/>
+    <mergeCell ref="AK2:AR2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="S1:AH1"/>
+    <mergeCell ref="AS1:BI1"/>
+    <mergeCell ref="DE2:DL2"/>
+    <mergeCell ref="DN2:DU2"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="BC2:BJ2"/>
+    <mergeCell ref="BL2:BR2"/>
+    <mergeCell ref="BU2:CB2"/>
+    <mergeCell ref="CD2:CK2"/>
+    <mergeCell ref="CM2:CT2"/>
+    <mergeCell ref="CV2:DC2"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="BC33:BD33"/>
+    <mergeCell ref="BL33:BM33"/>
+    <mergeCell ref="BU33:BV33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="FP33:FQ33"/>
+    <mergeCell ref="FY33:FZ33"/>
+    <mergeCell ref="DW33:DX33"/>
+    <mergeCell ref="EF33:EG33"/>
+    <mergeCell ref="EO33:EP33"/>
+    <mergeCell ref="EX33:EY33"/>
+    <mergeCell ref="FG33:FH33"/>
+    <mergeCell ref="CD33:CE33"/>
+    <mergeCell ref="CM33:CN33"/>
+    <mergeCell ref="CV33:CW33"/>
+    <mergeCell ref="DE33:DF33"/>
+    <mergeCell ref="DN33:DO33"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F7">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -12204,22 +12436,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -12254,7 +12486,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="55">
+      <c r="A3" s="37">
         <v>45250</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -12276,16 +12508,16 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="17">
-        <f>IF(AND(C3&gt;0,G3+H3&lt;I3),1,0)</f>
+        <f t="shared" ref="J3:J9" si="0">IF(AND(C3&gt;0,G3+H3&lt;I3),1,0)</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f>IF(AND(C3&lt;0,G3&gt;H3+I3),1,0)</f>
+        <f t="shared" ref="K3:K9" si="1">IF(AND(C3&lt;0,G3&gt;H3+I3),1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="54">
+      <c r="A4" s="36">
         <v>45251</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -12307,16 +12539,16 @@
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="17">
-        <f>IF(AND(C4&gt;0,G4+H4&lt;I4),1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="22">
-        <f>IF(AND(C4&lt;0,G4&gt;H4+I4),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="54">
+      <c r="A5" s="36">
         <v>45252</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -12338,16 +12570,16 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="17">
-        <f>IF(AND(C5&gt;0,G5+H5&lt;I5),1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="22">
-        <f>IF(AND(C5&lt;0,G5&gt;H5+I5),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="54">
+      <c r="A6" s="36">
         <v>45253</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -12369,19 +12601,19 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="17">
-        <f>IF(AND(C6&gt;0,G6+H6&lt;I6),1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="17">
-        <f>IF(AND(C6&lt;0,G6&gt;H6+I6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="54">
+      <c r="A7" s="36">
         <v>45254</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="34" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="20">
@@ -12393,29 +12625,29 @@
       <c r="E7" s="15">
         <v>2.06E-2</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="34">
         <v>958343250</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="35">
         <v>146</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="35">
         <v>77</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="35">
         <v>381</v>
       </c>
       <c r="J7" s="17">
-        <f>IF(AND(C7&gt;0,G7+H7&lt;I7),1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K7" s="17">
-        <f>IF(AND(C7&lt;0,G7&gt;H7+I7),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="54">
+      <c r="A8" s="36">
         <v>45257</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -12443,16 +12675,16 @@
         <v>351</v>
       </c>
       <c r="J8" s="17">
-        <f>IF(AND(C8&gt;0,G8+H8&lt;I8),1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="22">
-        <f>IF(AND(C8&lt;0,G8&gt;H8+I8),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="54">
+      <c r="A9" s="36">
         <v>45258</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -12480,16 +12712,16 @@
         <v>210</v>
       </c>
       <c r="J9" s="17">
-        <f>IF(AND(C9&gt;0,G9+H9&lt;I9),1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="22">
-        <f>IF(AND(C9&lt;0,G9&gt;H9+I9),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="54">
+      <c r="A10" s="36">
         <v>45259</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -12517,16 +12749,16 @@
         <v>122</v>
       </c>
       <c r="J10" s="17">
-        <f t="shared" ref="J10:J34" si="0">IF(AND(C10&gt;0,G10+H10&lt;I10),1,0)</f>
+        <f t="shared" ref="J10:J34" si="2">IF(AND(C10&gt;0,G10+H10&lt;I10),1,0)</f>
         <v>0</v>
       </c>
       <c r="K10" s="22">
-        <f t="shared" ref="K10:K34" si="1">IF(AND(C10&lt;0,G10&gt;H10+I10),1,0)</f>
+        <f t="shared" ref="K10:K34" si="3">IF(AND(C10&lt;0,G10&gt;H10+I10),1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="54">
+      <c r="A11" s="36">
         <v>45260</v>
       </c>
       <c r="B11" s="6"/>
@@ -12538,11 +12770,11 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12559,11 +12791,11 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12580,11 +12812,11 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K13" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12601,11 +12833,11 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12622,11 +12854,11 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12643,11 +12875,11 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12664,11 +12896,11 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12685,11 +12917,11 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12706,11 +12938,11 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K19" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12727,11 +12959,11 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12748,11 +12980,11 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12769,11 +13001,11 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K22" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12790,11 +13022,11 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K23" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12811,11 +13043,11 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K24" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12832,11 +13064,11 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12853,11 +13085,11 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12874,11 +13106,11 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12895,11 +13127,11 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K28" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12916,11 +13148,11 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12937,11 +13169,11 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12958,11 +13190,11 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12979,11 +13211,11 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K32" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13000,11 +13232,11 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K33" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13021,19 +13253,19 @@
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K34" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="10">
         <f>SUM(C3:C34)</f>
         <v>1.6100000000000012</v>
@@ -13044,10 +13276,10 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="50"/>
+      <c r="B37" s="41"/>
       <c r="F37" s="6">
         <f>AVERAGE(F3:F34)</f>
         <v>797353828.75</v>

--- a/2023/DongTien.xlsx
+++ b/2023/DongTien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/stocks/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329BF1E5-7CBC-3249-A477-418C4835E298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDA0DB9-C7D6-054A-8619-FC162E96525C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17000" yWindow="0" windowWidth="16600" windowHeight="21000" xr2:uid="{42582BF8-9AD7-9540-81DE-245C476BF20D}"/>
+    <workbookView xWindow="17000" yWindow="0" windowWidth="16600" windowHeight="21000" activeTab="1" xr2:uid="{42582BF8-9AD7-9540-81DE-245C476BF20D}"/>
   </bookViews>
   <sheets>
     <sheet name="GDNN T11-T12" sheetId="1" r:id="rId1"/>
@@ -558,16 +558,34 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,18 +600,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,12 +607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC78DB7-94EE-DD4A-955E-8CCDACC517C9}">
   <dimension ref="A1:GG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FX1" workbookViewId="0">
-      <selection activeCell="GH11" sqref="GH11"/>
+    <sheetView topLeftCell="FH1" workbookViewId="0">
+      <selection activeCell="GF16" sqref="GF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -980,44 +980,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:189" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
@@ -1028,178 +1028,178 @@
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="AR1" s="1"/>
-      <c r="AS1" s="48" t="s">
+      <c r="AS1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="48"/>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="48"/>
-      <c r="BG1" s="48"/>
-      <c r="BH1" s="48"/>
-      <c r="BI1" s="48"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="54"/>
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="54"/>
       <c r="BJ1" s="1"/>
-      <c r="BK1" s="42" t="s">
+      <c r="BK1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BL1" s="42"/>
-      <c r="BM1" s="42"/>
-      <c r="BN1" s="42"/>
-      <c r="BO1" s="42"/>
-      <c r="BP1" s="42"/>
-      <c r="BQ1" s="42"/>
-      <c r="BR1" s="42"/>
-      <c r="BS1" s="42"/>
-      <c r="BT1" s="42"/>
-      <c r="BU1" s="42"/>
-      <c r="BV1" s="42"/>
-      <c r="BW1" s="42"/>
-      <c r="BX1" s="42"/>
-      <c r="BY1" s="42"/>
-      <c r="BZ1" s="42"/>
-      <c r="CA1" s="42"/>
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="49"/>
+      <c r="BO1" s="49"/>
+      <c r="BP1" s="49"/>
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="49"/>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="49"/>
+      <c r="BW1" s="49"/>
+      <c r="BX1" s="49"/>
+      <c r="BY1" s="49"/>
+      <c r="BZ1" s="49"/>
+      <c r="CA1" s="49"/>
       <c r="CB1" s="1"/>
-      <c r="CC1" s="43" t="s">
+      <c r="CC1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="CD1" s="43"/>
-      <c r="CE1" s="43"/>
-      <c r="CF1" s="43"/>
-      <c r="CG1" s="43"/>
-      <c r="CH1" s="43"/>
-      <c r="CI1" s="43"/>
-      <c r="CJ1" s="43"/>
-      <c r="CK1" s="43"/>
-      <c r="CL1" s="43"/>
-      <c r="CM1" s="43"/>
-      <c r="CN1" s="43"/>
-      <c r="CO1" s="43"/>
-      <c r="CP1" s="43"/>
-      <c r="CQ1" s="43"/>
-      <c r="CR1" s="43"/>
-      <c r="CS1" s="43"/>
-      <c r="CT1" s="43"/>
-      <c r="CU1" s="43"/>
-      <c r="CV1" s="43"/>
-      <c r="CW1" s="43"/>
-      <c r="CX1" s="43"/>
-      <c r="CY1" s="43"/>
-      <c r="CZ1" s="43"/>
-      <c r="DA1" s="43"/>
-      <c r="DB1" s="43"/>
-      <c r="DC1" s="43"/>
-      <c r="DD1" s="43"/>
-      <c r="DE1" s="43"/>
-      <c r="DF1" s="43"/>
-      <c r="DG1" s="43"/>
-      <c r="DH1" s="43"/>
-      <c r="DI1" s="43"/>
-      <c r="DJ1" s="43"/>
-      <c r="DK1" s="43"/>
-      <c r="DL1" s="43"/>
-      <c r="DM1" s="43"/>
-      <c r="DN1" s="43"/>
-      <c r="DO1" s="43"/>
-      <c r="DP1" s="43"/>
-      <c r="DQ1" s="43"/>
-      <c r="DR1" s="43"/>
-      <c r="DS1" s="43"/>
-      <c r="DT1" s="43"/>
+      <c r="CD1" s="50"/>
+      <c r="CE1" s="50"/>
+      <c r="CF1" s="50"/>
+      <c r="CG1" s="50"/>
+      <c r="CH1" s="50"/>
+      <c r="CI1" s="50"/>
+      <c r="CJ1" s="50"/>
+      <c r="CK1" s="50"/>
+      <c r="CL1" s="50"/>
+      <c r="CM1" s="50"/>
+      <c r="CN1" s="50"/>
+      <c r="CO1" s="50"/>
+      <c r="CP1" s="50"/>
+      <c r="CQ1" s="50"/>
+      <c r="CR1" s="50"/>
+      <c r="CS1" s="50"/>
+      <c r="CT1" s="50"/>
+      <c r="CU1" s="50"/>
+      <c r="CV1" s="50"/>
+      <c r="CW1" s="50"/>
+      <c r="CX1" s="50"/>
+      <c r="CY1" s="50"/>
+      <c r="CZ1" s="50"/>
+      <c r="DA1" s="50"/>
+      <c r="DB1" s="50"/>
+      <c r="DC1" s="50"/>
+      <c r="DD1" s="50"/>
+      <c r="DE1" s="50"/>
+      <c r="DF1" s="50"/>
+      <c r="DG1" s="50"/>
+      <c r="DH1" s="50"/>
+      <c r="DI1" s="50"/>
+      <c r="DJ1" s="50"/>
+      <c r="DK1" s="50"/>
+      <c r="DL1" s="50"/>
+      <c r="DM1" s="50"/>
+      <c r="DN1" s="50"/>
+      <c r="DO1" s="50"/>
+      <c r="DP1" s="50"/>
+      <c r="DQ1" s="50"/>
+      <c r="DR1" s="50"/>
+      <c r="DS1" s="50"/>
+      <c r="DT1" s="50"/>
       <c r="DU1" s="1"/>
-      <c r="DV1" s="49" t="s">
+      <c r="DV1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="DW1" s="49"/>
-      <c r="DX1" s="49"/>
-      <c r="DY1" s="49"/>
-      <c r="DZ1" s="49"/>
-      <c r="EA1" s="49"/>
-      <c r="EB1" s="49"/>
-      <c r="EC1" s="49"/>
-      <c r="ED1" s="49"/>
-      <c r="EE1" s="49"/>
-      <c r="EF1" s="49"/>
-      <c r="EG1" s="49"/>
-      <c r="EH1" s="49"/>
-      <c r="EI1" s="49"/>
-      <c r="EJ1" s="49"/>
-      <c r="EK1" s="49"/>
-      <c r="EL1" s="49"/>
+      <c r="DW1" s="45"/>
+      <c r="DX1" s="45"/>
+      <c r="DY1" s="45"/>
+      <c r="DZ1" s="45"/>
+      <c r="EA1" s="45"/>
+      <c r="EB1" s="45"/>
+      <c r="EC1" s="45"/>
+      <c r="ED1" s="45"/>
+      <c r="EE1" s="45"/>
+      <c r="EF1" s="45"/>
+      <c r="EG1" s="45"/>
+      <c r="EH1" s="45"/>
+      <c r="EI1" s="45"/>
+      <c r="EJ1" s="45"/>
+      <c r="EK1" s="45"/>
+      <c r="EL1" s="45"/>
       <c r="EM1" s="1"/>
-      <c r="EN1" s="45" t="s">
+      <c r="EN1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="EO1" s="45"/>
-      <c r="EP1" s="45"/>
-      <c r="EQ1" s="45"/>
-      <c r="ER1" s="45"/>
-      <c r="ES1" s="45"/>
-      <c r="ET1" s="45"/>
-      <c r="EU1" s="45"/>
-      <c r="EV1" s="45"/>
-      <c r="EW1" s="45"/>
-      <c r="EX1" s="45"/>
-      <c r="EY1" s="45"/>
-      <c r="EZ1" s="45"/>
-      <c r="FA1" s="45"/>
-      <c r="FB1" s="45"/>
-      <c r="FC1" s="45"/>
-      <c r="FD1" s="45"/>
-      <c r="FE1" s="45"/>
+      <c r="EO1" s="51"/>
+      <c r="EP1" s="51"/>
+      <c r="EQ1" s="51"/>
+      <c r="ER1" s="51"/>
+      <c r="ES1" s="51"/>
+      <c r="ET1" s="51"/>
+      <c r="EU1" s="51"/>
+      <c r="EV1" s="51"/>
+      <c r="EW1" s="51"/>
+      <c r="EX1" s="51"/>
+      <c r="EY1" s="51"/>
+      <c r="EZ1" s="51"/>
+      <c r="FA1" s="51"/>
+      <c r="FB1" s="51"/>
+      <c r="FC1" s="51"/>
+      <c r="FD1" s="51"/>
+      <c r="FE1" s="51"/>
       <c r="FF1" s="1"/>
-      <c r="FG1" s="52" t="s">
+      <c r="FG1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="FH1" s="52"/>
-      <c r="FI1" s="52"/>
-      <c r="FJ1" s="52"/>
-      <c r="FK1" s="52"/>
-      <c r="FL1" s="52"/>
-      <c r="FM1" s="52"/>
-      <c r="FN1" s="52"/>
+      <c r="FH1" s="48"/>
+      <c r="FI1" s="48"/>
+      <c r="FJ1" s="48"/>
+      <c r="FK1" s="48"/>
+      <c r="FL1" s="48"/>
+      <c r="FM1" s="48"/>
+      <c r="FN1" s="48"/>
       <c r="FO1" s="1"/>
-      <c r="FP1" s="51" t="s">
+      <c r="FP1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="FQ1" s="51"/>
-      <c r="FR1" s="51"/>
-      <c r="FS1" s="51"/>
-      <c r="FT1" s="51"/>
-      <c r="FU1" s="51"/>
-      <c r="FV1" s="51"/>
-      <c r="FW1" s="51"/>
+      <c r="FQ1" s="47"/>
+      <c r="FR1" s="47"/>
+      <c r="FS1" s="47"/>
+      <c r="FT1" s="47"/>
+      <c r="FU1" s="47"/>
+      <c r="FV1" s="47"/>
+      <c r="FW1" s="47"/>
       <c r="FX1" s="1"/>
-      <c r="FY1" s="50" t="s">
+      <c r="FY1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="FZ1" s="50"/>
-      <c r="GA1" s="50"/>
-      <c r="GB1" s="50"/>
-      <c r="GC1" s="50"/>
-      <c r="GD1" s="50"/>
-      <c r="GE1" s="50"/>
-      <c r="GF1" s="50"/>
+      <c r="FZ1" s="46"/>
+      <c r="GA1" s="46"/>
+      <c r="GB1" s="46"/>
+      <c r="GC1" s="46"/>
+      <c r="GD1" s="46"/>
+      <c r="GE1" s="46"/>
+      <c r="GF1" s="46"/>
     </row>
     <row r="2" spans="1:189" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="1"/>
       <c r="J2" s="44" t="s">
         <v>11</v>
@@ -1256,26 +1256,26 @@
       <c r="AZ2" s="44"/>
       <c r="BA2" s="44"/>
       <c r="BB2" s="1"/>
-      <c r="BC2" s="53" t="s">
+      <c r="BC2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="BD2" s="54"/>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="55"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
+      <c r="BJ2" s="57"/>
       <c r="BK2" s="1"/>
-      <c r="BL2" s="53" t="s">
+      <c r="BL2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="54"/>
-      <c r="BP2" s="54"/>
-      <c r="BQ2" s="54"/>
-      <c r="BR2" s="55"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="56"/>
+      <c r="BP2" s="56"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="57"/>
       <c r="BS2" s="3"/>
       <c r="BT2" s="1"/>
       <c r="BU2" s="44" t="s">
@@ -1960,7 +1960,7 @@
         <v>384330</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D12" si="0">B4-C4</f>
+        <f t="shared" ref="D4:D13" si="0">B4-C4</f>
         <v>1774270</v>
       </c>
       <c r="E4" s="6">
@@ -1987,7 +1987,7 @@
         <v>439391</v>
       </c>
       <c r="M4" s="6">
-        <f t="shared" ref="M4:M12" si="2">K4-L4</f>
+        <f t="shared" ref="M4:M13" si="2">K4-L4</f>
         <v>2153509</v>
       </c>
       <c r="N4" s="6">
@@ -2014,7 +2014,7 @@
         <v>129945</v>
       </c>
       <c r="V4" s="6">
-        <f t="shared" ref="V4:V12" si="3">T4-U4</f>
+        <f t="shared" ref="V4:V13" si="3">T4-U4</f>
         <v>316655</v>
       </c>
       <c r="W4" s="6">
@@ -2041,7 +2041,7 @@
         <v>1073400</v>
       </c>
       <c r="AE4" s="6">
-        <f t="shared" ref="AE4:AE12" si="4">AC4-AD4</f>
+        <f t="shared" ref="AE4:AE13" si="4">AC4-AD4</f>
         <v>416000</v>
       </c>
       <c r="AF4" s="6">
@@ -2068,7 +2068,7 @@
         <v>881700</v>
       </c>
       <c r="AN4" s="6">
-        <f t="shared" ref="AN4:AN12" si="5">AL4-AM4</f>
+        <f t="shared" ref="AN4:AN13" si="5">AL4-AM4</f>
         <v>110800</v>
       </c>
       <c r="AO4" s="6">
@@ -2095,7 +2095,7 @@
         <v>2133894</v>
       </c>
       <c r="AW4" s="6">
-        <f t="shared" ref="AW4:AW12" si="6">AU4-AV4</f>
+        <f t="shared" ref="AW4:AW13" si="6">AU4-AV4</f>
         <v>210406</v>
       </c>
       <c r="AX4" s="6">
@@ -2149,7 +2149,7 @@
         <v>1209600</v>
       </c>
       <c r="BO4" s="6">
-        <f t="shared" ref="BO4:BO12" si="7">BM4-BN4</f>
+        <f t="shared" ref="BO4:BO13" si="7">BM4-BN4</f>
         <v>-500000</v>
       </c>
       <c r="BP4" s="6">
@@ -2176,7 +2176,7 @@
         <v>2044402</v>
       </c>
       <c r="BX4" s="6">
-        <f t="shared" ref="BX4:BX12" si="8">BV4-BW4</f>
+        <f t="shared" ref="BX4:BX13" si="8">BV4-BW4</f>
         <v>-1679095</v>
       </c>
       <c r="BY4" s="6">
@@ -2203,7 +2203,7 @@
         <v>1291650</v>
       </c>
       <c r="CG4" s="6">
-        <f t="shared" ref="CG4:CG12" si="9">CE4-CF4</f>
+        <f t="shared" ref="CG4:CG13" si="9">CE4-CF4</f>
         <v>-862150</v>
       </c>
       <c r="CH4" s="6">
@@ -2230,7 +2230,7 @@
         <v>100800</v>
       </c>
       <c r="CP4" s="6">
-        <f t="shared" ref="CP4:CP12" si="10">CN4-CO4</f>
+        <f t="shared" ref="CP4:CP13" si="10">CN4-CO4</f>
         <v>1038810</v>
       </c>
       <c r="CQ4" s="6">
@@ -2257,7 +2257,7 @@
         <v>219800</v>
       </c>
       <c r="CY4" s="6">
-        <f t="shared" ref="CY4:CY12" si="11">CW4-CX4</f>
+        <f t="shared" ref="CY4:CY13" si="11">CW4-CX4</f>
         <v>-156000</v>
       </c>
       <c r="CZ4" s="6">
@@ -2284,7 +2284,7 @@
         <v>10759</v>
       </c>
       <c r="DH4" s="6">
-        <f t="shared" ref="DH4:DH12" si="12">DF4-DG4</f>
+        <f t="shared" ref="DH4:DH13" si="12">DF4-DG4</f>
         <v>220353</v>
       </c>
       <c r="DI4" s="6">
@@ -2311,7 +2311,7 @@
         <v>396900</v>
       </c>
       <c r="DQ4" s="6">
-        <f t="shared" ref="DQ4:DQ12" si="13">DO4-DP4</f>
+        <f t="shared" ref="DQ4:DQ13" si="13">DO4-DP4</f>
         <v>-115300</v>
       </c>
       <c r="DR4" s="6">
@@ -2338,7 +2338,7 @@
         <v>102900</v>
       </c>
       <c r="DZ4" s="6">
-        <f t="shared" ref="DZ4:DZ12" si="14">DX4-DY4</f>
+        <f t="shared" ref="DZ4:DZ13" si="14">DX4-DY4</f>
         <v>17200</v>
       </c>
       <c r="EA4" s="6">
@@ -2365,7 +2365,7 @@
         <v>11400</v>
       </c>
       <c r="EI4" s="6">
-        <f t="shared" ref="EI4:EI12" si="15">EG4-EH4</f>
+        <f t="shared" ref="EI4:EI13" si="15">EG4-EH4</f>
         <v>113300</v>
       </c>
       <c r="EJ4" s="6">
@@ -2392,7 +2392,7 @@
         <v>3004</v>
       </c>
       <c r="ER4" s="6">
-        <f t="shared" ref="ER4:ER12" si="16">EP4-EQ4</f>
+        <f t="shared" ref="ER4:ER13" si="16">EP4-EQ4</f>
         <v>67263</v>
       </c>
       <c r="ES4" s="6">
@@ -2419,7 +2419,7 @@
         <v>12200</v>
       </c>
       <c r="FA4" s="6">
-        <f t="shared" ref="FA4:FA12" si="17">EY4-EZ4</f>
+        <f t="shared" ref="FA4:FA13" si="17">EY4-EZ4</f>
         <v>229136</v>
       </c>
       <c r="FB4" s="6">
@@ -2446,7 +2446,7 @@
         <v>38900</v>
       </c>
       <c r="FJ4" s="6">
-        <f t="shared" ref="FJ4:FJ12" si="18">FH4-FI4</f>
+        <f t="shared" ref="FJ4:FJ13" si="18">FH4-FI4</f>
         <v>457000</v>
       </c>
       <c r="FK4" s="6">
@@ -2473,7 +2473,7 @@
         <v>17298</v>
       </c>
       <c r="FS4" s="6">
-        <f t="shared" ref="FS4:FS12" si="19">FQ4-FR4</f>
+        <f t="shared" ref="FS4:FS13" si="19">FQ4-FR4</f>
         <v>211802</v>
       </c>
       <c r="FT4" s="6">
@@ -2500,7 +2500,7 @@
         <v>107000</v>
       </c>
       <c r="GB4" s="6">
-        <f t="shared" ref="GB4:GB12" si="20">FZ4-GA4</f>
+        <f t="shared" ref="GB4:GB13" si="20">FZ4-GA4</f>
         <v>-105500</v>
       </c>
       <c r="GC4" s="6">
@@ -2691,7 +2691,7 @@
         <v>238300</v>
       </c>
       <c r="BF5" s="6">
-        <f t="shared" ref="BF5:BF12" si="26">BD5-BE5</f>
+        <f t="shared" ref="BF5:BF13" si="26">BD5-BE5</f>
         <v>82200</v>
       </c>
       <c r="BG5" s="6">
@@ -6815,10 +6815,12 @@
       <c r="CZ12" s="6">
         <v>-1482280</v>
       </c>
-      <c r="DA12" s="6"/>
-      <c r="DB12" s="7" t="e">
+      <c r="DA12" s="6">
+        <v>10284300</v>
+      </c>
+      <c r="DB12" s="7">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>8.2776659568468448E-3</v>
       </c>
       <c r="DC12" s="8">
         <v>-3.7000000000000002E-3</v>
@@ -7072,296 +7074,569 @@
       <c r="A13" s="5">
         <v>45261</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7" t="e">
+      <c r="B13" s="6">
+        <v>22939708</v>
+      </c>
+      <c r="C13" s="6">
+        <v>35708736</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>-12769028</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-309</v>
+      </c>
+      <c r="F13" s="6">
+        <v>603587520</v>
+      </c>
+      <c r="G13" s="7">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="8"/>
+        <v>9.716642915347222E-2</v>
+      </c>
+      <c r="H13" s="8">
+        <v>7.3000000000000001E-3</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="5">
         <v>45261</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="7" t="e">
+      <c r="K13" s="6">
+        <v>865600</v>
+      </c>
+      <c r="L13" s="6">
+        <v>341352</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="2"/>
+        <v>524248</v>
+      </c>
+      <c r="N13" s="6">
+        <v>16625861</v>
+      </c>
+      <c r="O13" s="6">
+        <v>20043200</v>
+      </c>
+      <c r="P13" s="7">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" s="8"/>
+        <v>6.0217530134908596E-2</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>2.24E-2</v>
+      </c>
       <c r="R13" s="1"/>
       <c r="S13" s="5">
         <v>45261</v>
       </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="7" t="e">
+      <c r="T13" s="6">
+        <v>107600</v>
+      </c>
+      <c r="U13" s="6">
+        <v>176600</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" si="3"/>
+        <v>-69000</v>
+      </c>
+      <c r="W13" s="6">
+        <v>5809560</v>
+      </c>
+      <c r="X13" s="6">
+        <v>714700</v>
+      </c>
+      <c r="Y13" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z13" s="8"/>
+        <v>0.39764936336924583</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>3.5000000000000001E-3</v>
+      </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="5">
         <v>45261</v>
       </c>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="7" t="e">
+      <c r="AC13" s="6">
+        <v>539900</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>674900</v>
+      </c>
+      <c r="AE13" s="6">
+        <f t="shared" si="4"/>
+        <v>-135000</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>-2575400</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>71900</v>
+      </c>
+      <c r="AH13" s="7">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="8"/>
+        <v>16.895688456189152</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>1.0500000000000001E-2</v>
+      </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="5">
         <v>45261</v>
       </c>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="7" t="e">
+      <c r="AL13" s="6">
+        <v>302400</v>
+      </c>
+      <c r="AM13" s="6">
+        <v>1059300</v>
+      </c>
+      <c r="AN13" s="6">
+        <f t="shared" si="5"/>
+        <v>-756900</v>
+      </c>
+      <c r="AO13" s="6">
+        <v>-20699629</v>
+      </c>
+      <c r="AP13" s="6">
+        <v>13635000</v>
+      </c>
+      <c r="AQ13" s="7">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR13" s="8"/>
+        <v>9.9867986798679864E-2</v>
+      </c>
+      <c r="AR13" s="8">
+        <v>0</v>
+      </c>
       <c r="AS13" s="1"/>
       <c r="AT13" s="5">
         <v>45261</v>
       </c>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
-      <c r="AW13" s="6"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="7" t="e">
+      <c r="AU13" s="6">
+        <v>817600</v>
+      </c>
+      <c r="AV13" s="6">
+        <v>1241963</v>
+      </c>
+      <c r="AW13" s="6">
+        <f t="shared" si="6"/>
+        <v>-424363</v>
+      </c>
+      <c r="AX13" s="6">
+        <v>-11468790</v>
+      </c>
+      <c r="AY13" s="6">
+        <v>15400100</v>
+      </c>
+      <c r="AZ13" s="7">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA13" s="8"/>
+        <v>0.13373698872085246</v>
+      </c>
+      <c r="BA13" s="8">
+        <v>1.32E-2</v>
+      </c>
       <c r="BB13" s="1"/>
       <c r="BC13" s="5">
         <v>45261</v>
       </c>
-      <c r="BD13" s="6"/>
-      <c r="BE13" s="6"/>
-      <c r="BF13" s="6"/>
-      <c r="BG13" s="6"/>
-      <c r="BH13" s="6"/>
-      <c r="BI13" s="7" t="e">
+      <c r="BD13" s="6">
+        <v>71300</v>
+      </c>
+      <c r="BE13" s="6">
+        <v>374000</v>
+      </c>
+      <c r="BF13" s="6">
+        <f t="shared" si="26"/>
+        <v>-302700</v>
+      </c>
+      <c r="BG13" s="6">
+        <v>-6817710</v>
+      </c>
+      <c r="BH13" s="6">
+        <v>15835800</v>
+      </c>
+      <c r="BI13" s="7">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ13" s="8"/>
+        <v>2.8119829752838506E-2</v>
+      </c>
+      <c r="BJ13" s="8">
+        <v>-4.3E-3</v>
+      </c>
       <c r="BK13" s="1"/>
       <c r="BL13" s="5">
         <v>45261</v>
       </c>
-      <c r="BM13" s="6"/>
-      <c r="BN13" s="6"/>
-      <c r="BO13" s="6"/>
-      <c r="BP13" s="6"/>
-      <c r="BQ13" s="6"/>
-      <c r="BR13" s="7" t="e">
+      <c r="BM13" s="6">
+        <v>543700</v>
+      </c>
+      <c r="BN13" s="6">
+        <v>406800</v>
+      </c>
+      <c r="BO13" s="6">
+        <f t="shared" si="7"/>
+        <v>136900</v>
+      </c>
+      <c r="BP13" s="6">
+        <v>5229750</v>
+      </c>
+      <c r="BQ13" s="6">
+        <v>4161100</v>
+      </c>
+      <c r="BR13" s="7">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BS13" s="8"/>
+        <v>0.228425176035183</v>
+      </c>
+      <c r="BS13" s="8">
+        <v>6.4999999999999997E-3</v>
+      </c>
       <c r="BT13" s="1"/>
       <c r="BU13" s="5">
         <v>45261</v>
       </c>
-      <c r="BV13" s="6"/>
-      <c r="BW13" s="6"/>
-      <c r="BX13" s="6"/>
-      <c r="BY13" s="6"/>
-      <c r="BZ13" s="6"/>
-      <c r="CA13" s="7" t="e">
+      <c r="BV13" s="6">
+        <v>407300</v>
+      </c>
+      <c r="BW13" s="6">
+        <v>387605</v>
+      </c>
+      <c r="BX13" s="6">
+        <f t="shared" si="8"/>
+        <v>19695</v>
+      </c>
+      <c r="BY13" s="6">
+        <v>455980</v>
+      </c>
+      <c r="BZ13" s="6">
+        <v>2550200</v>
+      </c>
+      <c r="CA13" s="7">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CB13" s="8"/>
+        <v>0.31170300368598541</v>
+      </c>
+      <c r="CB13" s="8">
+        <v>3.1699999999999999E-2</v>
+      </c>
       <c r="CC13" s="1"/>
       <c r="CD13" s="5">
         <v>45261</v>
       </c>
-      <c r="CE13" s="6"/>
-      <c r="CF13" s="6"/>
-      <c r="CG13" s="6"/>
-      <c r="CH13" s="6"/>
-      <c r="CI13" s="6"/>
-      <c r="CJ13" s="7" t="e">
+      <c r="CE13" s="6">
+        <v>544920</v>
+      </c>
+      <c r="CF13" s="6">
+        <v>3355419</v>
+      </c>
+      <c r="CG13" s="6">
+        <f t="shared" si="9"/>
+        <v>-2810499</v>
+      </c>
+      <c r="CH13" s="6">
+        <v>-114387137</v>
+      </c>
+      <c r="CI13" s="6">
+        <v>6970800</v>
+      </c>
+      <c r="CJ13" s="7">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CK13" s="8"/>
+        <v>0.55952530556033742</v>
+      </c>
+      <c r="CK13" s="8">
+        <v>9.7000000000000003E-3</v>
+      </c>
       <c r="CL13" s="1"/>
       <c r="CM13" s="5">
         <v>45261</v>
       </c>
-      <c r="CN13" s="6"/>
-      <c r="CO13" s="6"/>
-      <c r="CP13" s="6"/>
-      <c r="CQ13" s="6"/>
-      <c r="CR13" s="6"/>
-      <c r="CS13" s="7" t="e">
+      <c r="CN13" s="6">
+        <v>320000</v>
+      </c>
+      <c r="CO13" s="6">
+        <v>1886409</v>
+      </c>
+      <c r="CP13" s="6">
+        <f t="shared" si="10"/>
+        <v>-1566409</v>
+      </c>
+      <c r="CQ13" s="6">
+        <v>-30580612</v>
+      </c>
+      <c r="CR13" s="6">
+        <v>34597100</v>
+      </c>
+      <c r="CS13" s="7">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CT13" s="8"/>
+        <v>6.3774391495240931E-2</v>
+      </c>
+      <c r="CT13" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
       <c r="CU13" s="1"/>
       <c r="CV13" s="5">
         <v>45261</v>
       </c>
-      <c r="CW13" s="6"/>
-      <c r="CX13" s="6"/>
-      <c r="CY13" s="6"/>
-      <c r="CZ13" s="6"/>
-      <c r="DA13" s="6"/>
-      <c r="DB13" s="7" t="e">
+      <c r="CW13" s="6">
+        <v>33400</v>
+      </c>
+      <c r="CX13" s="6">
+        <v>645100</v>
+      </c>
+      <c r="CY13" s="6">
+        <f t="shared" si="11"/>
+        <v>-611700</v>
+      </c>
+      <c r="CZ13" s="6">
+        <v>-16395689</v>
+      </c>
+      <c r="DA13" s="6">
+        <v>9558700</v>
+      </c>
+      <c r="DB13" s="7">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DC13" s="8"/>
+        <v>7.0982455773274611E-2</v>
+      </c>
+      <c r="DC13" s="8">
+        <v>7.4000000000000003E-3</v>
+      </c>
       <c r="DD13" s="1"/>
       <c r="DE13" s="5">
         <v>45261</v>
       </c>
-      <c r="DF13" s="6"/>
-      <c r="DG13" s="6"/>
-      <c r="DH13" s="6"/>
-      <c r="DI13" s="6"/>
-      <c r="DJ13" s="6"/>
-      <c r="DK13" s="7" t="e">
+      <c r="DF13" s="6">
+        <v>45107</v>
+      </c>
+      <c r="DG13" s="6">
+        <v>3300</v>
+      </c>
+      <c r="DH13" s="6">
+        <f t="shared" si="12"/>
+        <v>41807</v>
+      </c>
+      <c r="DI13" s="6">
+        <v>736310</v>
+      </c>
+      <c r="DJ13" s="6">
+        <v>19593300</v>
+      </c>
+      <c r="DK13" s="7">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DL13" s="8"/>
+        <v>2.4705894361848183E-3</v>
+      </c>
+      <c r="DL13" s="8">
+        <v>0</v>
+      </c>
       <c r="DM13" s="1"/>
       <c r="DN13" s="5">
         <v>45261</v>
       </c>
-      <c r="DO13" s="6"/>
-      <c r="DP13" s="6"/>
-      <c r="DQ13" s="6"/>
-      <c r="DR13" s="6"/>
-      <c r="DS13" s="6"/>
-      <c r="DT13" s="7" t="e">
+      <c r="DO13" s="6">
+        <v>364600</v>
+      </c>
+      <c r="DP13" s="6">
+        <v>118700</v>
+      </c>
+      <c r="DQ13" s="6">
+        <f t="shared" si="13"/>
+        <v>245900</v>
+      </c>
+      <c r="DR13" s="6">
+        <v>7665700</v>
+      </c>
+      <c r="DS13" s="6">
+        <v>5518600</v>
+      </c>
+      <c r="DT13" s="7">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DU13" s="8"/>
+        <v>8.7576559272279197E-2</v>
+      </c>
+      <c r="DU13" s="8">
+        <v>1.4500000000000001E-2</v>
+      </c>
       <c r="DV13" s="1"/>
       <c r="DW13" s="5">
         <v>45261</v>
       </c>
-      <c r="DX13" s="6"/>
-      <c r="DY13" s="6"/>
-      <c r="DZ13" s="6"/>
-      <c r="EA13" s="6"/>
-      <c r="EB13" s="6"/>
-      <c r="EC13" s="7" t="e">
+      <c r="DX13" s="6">
+        <v>260300</v>
+      </c>
+      <c r="DY13" s="6">
+        <v>129750</v>
+      </c>
+      <c r="DZ13" s="6">
+        <f t="shared" si="14"/>
+        <v>130550</v>
+      </c>
+      <c r="EA13" s="6">
+        <v>9058009</v>
+      </c>
+      <c r="EB13" s="6">
+        <v>622700</v>
+      </c>
+      <c r="EC13" s="7">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="ED13" s="8"/>
+        <v>0.62638509715753976</v>
+      </c>
+      <c r="ED13" s="8">
+        <v>0</v>
+      </c>
       <c r="EE13" s="1"/>
       <c r="EF13" s="5">
         <v>45261</v>
       </c>
-      <c r="EG13" s="6"/>
-      <c r="EH13" s="6"/>
-      <c r="EI13" s="6"/>
-      <c r="EJ13" s="6"/>
-      <c r="EK13" s="6"/>
-      <c r="EL13" s="7" t="e">
+      <c r="EG13" s="6">
+        <v>76900</v>
+      </c>
+      <c r="EH13" s="6">
+        <v>1000</v>
+      </c>
+      <c r="EI13" s="6">
+        <f t="shared" si="15"/>
+        <v>75900</v>
+      </c>
+      <c r="EJ13" s="6">
+        <v>2743890</v>
+      </c>
+      <c r="EK13" s="6">
+        <v>3282700</v>
+      </c>
+      <c r="EL13" s="7">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="EM13" s="8"/>
+        <v>2.3730465775124134E-2</v>
+      </c>
+      <c r="EM13" s="8">
+        <v>2.1100000000000001E-2</v>
+      </c>
       <c r="EN13" s="1"/>
       <c r="EO13" s="5">
         <v>45261</v>
       </c>
-      <c r="EP13" s="6"/>
-      <c r="EQ13" s="6"/>
-      <c r="ER13" s="6"/>
-      <c r="ES13" s="6"/>
-      <c r="ET13" s="6"/>
-      <c r="EU13" s="7" t="e">
+      <c r="EP13" s="6">
+        <v>25100</v>
+      </c>
+      <c r="EQ13" s="6">
+        <v>8300</v>
+      </c>
+      <c r="ER13" s="6">
+        <f t="shared" si="16"/>
+        <v>16800</v>
+      </c>
+      <c r="ES13" s="6">
+        <v>1058580</v>
+      </c>
+      <c r="ET13" s="6">
+        <v>1564700</v>
+      </c>
+      <c r="EU13" s="7">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="EV13" s="8"/>
+        <v>2.134594490956733E-2</v>
+      </c>
+      <c r="EV13" s="8">
+        <v>8.0999999999999996E-3</v>
+      </c>
       <c r="EW13" s="1"/>
       <c r="EX13" s="5">
         <v>45261</v>
       </c>
-      <c r="EY13" s="6"/>
-      <c r="EZ13" s="6"/>
-      <c r="FA13" s="6"/>
-      <c r="FB13" s="6"/>
-      <c r="FC13" s="6"/>
-      <c r="FD13" s="7" t="e">
+      <c r="EY13" s="6">
+        <v>31900</v>
+      </c>
+      <c r="EZ13" s="6">
+        <v>207639</v>
+      </c>
+      <c r="FA13" s="6">
+        <f t="shared" si="17"/>
+        <v>-175739</v>
+      </c>
+      <c r="FB13" s="6">
+        <v>-3982370</v>
+      </c>
+      <c r="FC13" s="6">
+        <v>4848100</v>
+      </c>
+      <c r="FD13" s="7">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="FE13" s="8"/>
+        <v>4.9408840576720778E-2</v>
+      </c>
+      <c r="FE13" s="8">
+        <v>0</v>
+      </c>
       <c r="FF13" s="1"/>
       <c r="FG13" s="5">
         <v>45261</v>
       </c>
-      <c r="FH13" s="6"/>
-      <c r="FI13" s="6"/>
-      <c r="FJ13" s="6"/>
-      <c r="FK13" s="6"/>
-      <c r="FL13" s="6"/>
-      <c r="FM13" s="7" t="e">
+      <c r="FH13" s="6">
+        <v>32400</v>
+      </c>
+      <c r="FI13" s="6">
+        <v>298000</v>
+      </c>
+      <c r="FJ13" s="6">
+        <f t="shared" si="18"/>
+        <v>-265600</v>
+      </c>
+      <c r="FK13" s="6">
+        <v>-5710200</v>
+      </c>
+      <c r="FL13" s="6">
+        <v>10002900</v>
+      </c>
+      <c r="FM13" s="7">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="FN13" s="8"/>
+        <v>3.303042117785842E-2</v>
+      </c>
+      <c r="FN13" s="8">
+        <v>1.4E-2</v>
+      </c>
       <c r="FO13" s="1"/>
       <c r="FP13" s="5">
         <v>45261</v>
       </c>
-      <c r="FQ13" s="6"/>
-      <c r="FR13" s="6"/>
-      <c r="FS13" s="6"/>
-      <c r="FT13" s="6"/>
-      <c r="FU13" s="6"/>
-      <c r="FV13" s="7" t="e">
+      <c r="FQ13" s="6">
+        <v>217100</v>
+      </c>
+      <c r="FR13" s="6">
+        <v>21800</v>
+      </c>
+      <c r="FS13" s="6">
+        <f t="shared" si="19"/>
+        <v>195300</v>
+      </c>
+      <c r="FT13" s="6">
+        <v>18495570</v>
+      </c>
+      <c r="FU13" s="6">
+        <v>1677600</v>
+      </c>
+      <c r="FV13" s="7">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="FW13" s="8"/>
+        <v>0.14240581783500239</v>
+      </c>
+      <c r="FW13" s="8">
+        <v>6.3E-3</v>
+      </c>
       <c r="FX13" s="1"/>
       <c r="FY13" s="5">
         <v>45261</v>
       </c>
-      <c r="FZ13" s="6"/>
-      <c r="GA13" s="6"/>
-      <c r="GB13" s="6"/>
-      <c r="GC13" s="6"/>
-      <c r="GD13" s="6"/>
-      <c r="GE13" s="7" t="e">
+      <c r="FZ13" s="6">
+        <v>3200</v>
+      </c>
+      <c r="GA13" s="6">
+        <v>9600</v>
+      </c>
+      <c r="GB13" s="6">
+        <f t="shared" si="20"/>
+        <v>-6400</v>
+      </c>
+      <c r="GC13" s="6">
+        <v>-429800</v>
+      </c>
+      <c r="GD13" s="6">
+        <v>283200</v>
+      </c>
+      <c r="GE13" s="7">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="GF13" s="8"/>
+        <v>4.519774011299435E-2</v>
+      </c>
+      <c r="GF13" s="8">
+        <v>2.2700000000000001E-2</v>
+      </c>
       <c r="GG13" s="1"/>
     </row>
     <row r="14" spans="1:189" x14ac:dyDescent="0.2">
@@ -11085,15 +11360,15 @@
       </c>
       <c r="B29" s="6">
         <f>AVERAGE(B4:B27)</f>
-        <v>6753412.111111111</v>
+        <v>8372041.7000000002</v>
       </c>
       <c r="C29" s="6">
         <f>AVERAGE(C4:C27)</f>
-        <v>6563139.888888889</v>
+        <v>9477699.5</v>
       </c>
       <c r="F29" s="6">
         <f>AVERAGE(F4:F27)</f>
-        <v>107409810.22222222</v>
+        <v>157027581.19999999</v>
       </c>
       <c r="G29" s="6"/>
       <c r="I29" s="1"/>
@@ -11102,11 +11377,11 @@
       </c>
       <c r="K29" s="6">
         <f>AVERAGE(K4:K27)</f>
-        <v>1198202.3333333333</v>
+        <v>1164942.1000000001</v>
       </c>
       <c r="O29" s="6">
         <f>AVERAGE(O4:O27)</f>
-        <v>20625222.333333332</v>
+        <v>20567020.100000001</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="9" t="s">
@@ -11114,15 +11389,15 @@
       </c>
       <c r="T29" s="6">
         <f>AVERAGE(T4:T28)</f>
-        <v>287266.66666666669</v>
+        <v>269300</v>
       </c>
       <c r="U29" s="6">
         <f>AVERAGE(U4:U28)</f>
-        <v>313766.77777777775</v>
+        <v>300050.09999999998</v>
       </c>
       <c r="X29" s="6">
         <f>AVERAGE(X4:X27)</f>
-        <v>897588.88888888888</v>
+        <v>879300</v>
       </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="9" t="s">
@@ -11130,15 +11405,15 @@
       </c>
       <c r="AC29" s="6">
         <f>AVERAGE(AC4:AC28)</f>
-        <v>2288601.111111111</v>
+        <v>2113731</v>
       </c>
       <c r="AD29" s="6">
         <f>AVERAGE(AD4:AD27)</f>
-        <v>5958515.555555556</v>
+        <v>5430154</v>
       </c>
       <c r="AG29" s="6">
         <f>AVERAGE(AG4:AG27)</f>
-        <v>16800810.444444444</v>
+        <v>15127919.4</v>
       </c>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="9" t="s">
@@ -11146,15 +11421,15 @@
       </c>
       <c r="AL29" s="6">
         <f>AVERAGE(AL4:AL28)</f>
-        <v>1022255.5555555555</v>
+        <v>950270</v>
       </c>
       <c r="AM29" s="6">
         <f>AVERAGE(AM4:AM27)</f>
-        <v>946200</v>
+        <v>957510</v>
       </c>
       <c r="AP29" s="6">
         <f>AVERAGE(AP4:AP27)</f>
-        <v>16791177.777777776</v>
+        <v>16475560</v>
       </c>
       <c r="AS29" s="1"/>
       <c r="AT29" s="9" t="s">
@@ -11162,15 +11437,15 @@
       </c>
       <c r="AU29" s="6">
         <f>AVERAGE(AU4:AU28)</f>
-        <v>2333823</v>
+        <v>2182200.7000000002</v>
       </c>
       <c r="AV29" s="6">
         <f>AVERAGE(AV4:AV27)</f>
-        <v>2384531.777777778</v>
+        <v>2270274.9</v>
       </c>
       <c r="AY29" s="6">
         <f>AVERAGE(AY4:AY27)</f>
-        <v>21182277.777777776</v>
+        <v>20604060</v>
       </c>
       <c r="BB29" s="1"/>
       <c r="BC29" s="9" t="s">
@@ -11178,15 +11453,15 @@
       </c>
       <c r="BD29" s="6">
         <f>AVERAGE(BD4:BD28)</f>
-        <v>878137.77777777775</v>
+        <v>797454</v>
       </c>
       <c r="BE29" s="6">
         <f>AVERAGE(BE4:BE27)</f>
-        <v>112547.77777777778</v>
+        <v>138693</v>
       </c>
       <c r="BH29" s="6">
         <f>AVERAGE(BH4:BH27)</f>
-        <v>14838222.222222222</v>
+        <v>14937980</v>
       </c>
       <c r="BK29" s="1"/>
       <c r="BL29" s="9" t="s">
@@ -11194,15 +11469,15 @@
       </c>
       <c r="BM29" s="6">
         <f>AVERAGE(BM4:BM28)</f>
-        <v>994267.22222222225</v>
+        <v>949210.5</v>
       </c>
       <c r="BN29" s="6">
         <f>AVERAGE(BN4:BN27)</f>
-        <v>1757814.6666666667</v>
+        <v>1622713.2</v>
       </c>
       <c r="BQ29" s="6">
         <f>AVERAGE(BQ4:BQ27)</f>
-        <v>8282655.555555556</v>
+        <v>7870500</v>
       </c>
       <c r="BT29" s="1"/>
       <c r="BU29" s="9" t="s">
@@ -11210,15 +11485,15 @@
       </c>
       <c r="BV29" s="6">
         <f>AVERAGE(BV4:BV28)</f>
-        <v>369773.66666666669</v>
+        <v>373526.3</v>
       </c>
       <c r="BW29" s="6">
         <f>AVERAGE(BW4:BW27)</f>
-        <v>1582291.111111111</v>
+        <v>1462822.5</v>
       </c>
       <c r="BZ29" s="6">
         <f>AVERAGE(BZ4:BZ27)</f>
-        <v>3737633.3333333335</v>
+        <v>3618890</v>
       </c>
       <c r="CC29" s="1"/>
       <c r="CD29" s="9" t="s">
@@ -11226,15 +11501,15 @@
       </c>
       <c r="CE29" s="6">
         <f>AVERAGE(CE4:CE28)</f>
-        <v>1208162.6666666667</v>
+        <v>1141838.3999999999</v>
       </c>
       <c r="CF29" s="6">
         <f>AVERAGE(CF4:CF27)</f>
-        <v>1855725.7777777778</v>
+        <v>2005695.1</v>
       </c>
       <c r="CI29" s="6">
         <f>AVERAGE(CI4:CI27)</f>
-        <v>6292533.333333333</v>
+        <v>6360360</v>
       </c>
       <c r="CL29" s="1"/>
       <c r="CM29" s="9" t="s">
@@ -11242,15 +11517,15 @@
       </c>
       <c r="CN29" s="6">
         <f>AVERAGE(CN4:CN28)</f>
-        <v>486658.88888888888</v>
+        <v>469993</v>
       </c>
       <c r="CO29" s="6">
         <f>AVERAGE(CO4:CO27)</f>
-        <v>562187.33333333337</v>
+        <v>694609.5</v>
       </c>
       <c r="CR29" s="6">
         <f>AVERAGE(CR4:CR27)</f>
-        <v>26456471.444444444</v>
+        <v>27270534.300000001</v>
       </c>
       <c r="CU29" s="1"/>
       <c r="CV29" s="9" t="s">
@@ -11258,15 +11533,15 @@
       </c>
       <c r="CW29" s="6">
         <f>AVERAGE(CW4:CW28)</f>
-        <v>275692.22222222225</v>
+        <v>251463</v>
       </c>
       <c r="CX29" s="6">
         <f>AVERAGE(CX4:CX27)</f>
-        <v>462735.22222222225</v>
+        <v>480971.7</v>
       </c>
       <c r="DA29" s="6">
         <f>AVERAGE(DA4:DA27)</f>
-        <v>14661400</v>
+        <v>13713420</v>
       </c>
       <c r="DD29" s="1"/>
       <c r="DE29" s="9" t="s">
@@ -11274,15 +11549,15 @@
       </c>
       <c r="DF29" s="6">
         <f>AVERAGE(DF4:DF28)</f>
-        <v>151716.22222222222</v>
+        <v>141055.29999999999</v>
       </c>
       <c r="DG29" s="6">
         <f>AVERAGE(DG4:DG27)</f>
-        <v>292663.33333333331</v>
+        <v>263727</v>
       </c>
       <c r="DJ29" s="6">
         <f>AVERAGE(DJ4:DJ27)</f>
-        <v>35749477.777777776</v>
+        <v>34133860</v>
       </c>
       <c r="DM29" s="1"/>
       <c r="DN29" s="9" t="s">
@@ -11290,15 +11565,15 @@
       </c>
       <c r="DO29" s="6">
         <f>AVERAGE(DO4:DO28)</f>
-        <v>283455.55555555556</v>
+        <v>291570</v>
       </c>
       <c r="DP29" s="6">
         <f>AVERAGE(DP4:DP27)</f>
-        <v>328864.33333333331</v>
+        <v>307847.90000000002</v>
       </c>
       <c r="DS29" s="6">
         <f>AVERAGE(DS4:DS27)</f>
-        <v>7783100</v>
+        <v>7556650</v>
       </c>
       <c r="DV29" s="1"/>
       <c r="DW29" s="9" t="s">
@@ -11306,15 +11581,15 @@
       </c>
       <c r="DX29" s="6">
         <f>AVERAGE(DX4:DX28)</f>
-        <v>196288.88888888888</v>
+        <v>202690</v>
       </c>
       <c r="DY29" s="6">
         <f>AVERAGE(DY4:DY27)</f>
-        <v>175466.66666666666</v>
+        <v>170895</v>
       </c>
       <c r="EB29" s="6">
         <f>AVERAGE(EB4:EB27)</f>
-        <v>771355.5555555555</v>
+        <v>756490</v>
       </c>
       <c r="EE29" s="1"/>
       <c r="EF29" s="9" t="s">
@@ -11322,15 +11597,15 @@
       </c>
       <c r="EG29" s="6">
         <f>AVERAGE(EG4:EG28)</f>
-        <v>30433.333333333332</v>
+        <v>35080</v>
       </c>
       <c r="EH29" s="6">
         <f>AVERAGE(EH4:EH27)</f>
-        <v>39266.666666666664</v>
+        <v>35440</v>
       </c>
       <c r="EK29" s="6">
         <f>AVERAGE(EK4:EK27)</f>
-        <v>2983700</v>
+        <v>3013600</v>
       </c>
       <c r="EN29" s="1"/>
       <c r="EO29" s="9" t="s">
@@ -11338,15 +11613,15 @@
       </c>
       <c r="EP29" s="6">
         <f>AVERAGE(EP4:EP28)</f>
-        <v>33514.888888888891</v>
+        <v>32673.4</v>
       </c>
       <c r="EQ29" s="6">
         <f>AVERAGE(EQ4:EQ27)</f>
-        <v>33197.777777777781</v>
+        <v>30708</v>
       </c>
       <c r="ET29" s="6">
         <f>AVERAGE(ET4:ET27)</f>
-        <v>2015533.3333333333</v>
+        <v>1970450</v>
       </c>
       <c r="EW29" s="1"/>
       <c r="EX29" s="9" t="s">
@@ -11354,15 +11629,15 @@
       </c>
       <c r="EY29" s="6">
         <f>AVERAGE(EY4:EY28)</f>
-        <v>89354.333333333328</v>
+        <v>83608.899999999994</v>
       </c>
       <c r="EZ29" s="6">
         <f>AVERAGE(EZ4:EZ27)</f>
-        <v>137247.55555555556</v>
+        <v>144286.70000000001</v>
       </c>
       <c r="FC29" s="6">
         <f>AVERAGE(FC4:FC27)</f>
-        <v>7674355.555555556</v>
+        <v>7391730</v>
       </c>
       <c r="FF29" s="1"/>
       <c r="FG29" s="9" t="s">
@@ -11370,15 +11645,15 @@
       </c>
       <c r="FH29" s="6">
         <f>AVERAGE(FH4:FH28)</f>
-        <v>149588.88888888888</v>
+        <v>137870</v>
       </c>
       <c r="FI29" s="6">
         <f>AVERAGE(FI4:FI27)</f>
-        <v>350933.33333333331</v>
+        <v>345640</v>
       </c>
       <c r="FL29" s="6">
         <f>AVERAGE(FL4:FL27)</f>
-        <v>20256011.111111112</v>
+        <v>19230700</v>
       </c>
       <c r="FO29" s="1"/>
       <c r="FP29" s="9" t="s">
@@ -11386,15 +11661,15 @@
       </c>
       <c r="FQ29" s="6">
         <f>AVERAGE(FQ4:FQ28)</f>
-        <v>458633</v>
+        <v>434479.7</v>
       </c>
       <c r="FR29" s="6">
         <f>AVERAGE(FR4:FR27)</f>
-        <v>148184.88888888888</v>
+        <v>135546.4</v>
       </c>
       <c r="FU29" s="6">
         <f>AVERAGE(FU4:FU27)</f>
-        <v>2315766.6666666665</v>
+        <v>2251950</v>
       </c>
       <c r="FX29" s="1"/>
       <c r="FY29" s="9" t="s">
@@ -11402,880 +11677,880 @@
       </c>
       <c r="FZ29" s="6">
         <f>AVERAGE(FZ4:FZ28)</f>
-        <v>17811.111111111109</v>
+        <v>16350</v>
       </c>
       <c r="GA29" s="6">
         <f>AVERAGE(GA4:GA27)</f>
-        <v>150277.77777777778</v>
+        <v>136210</v>
       </c>
       <c r="GD29" s="6">
         <f>AVERAGE(GD4:GD27)</f>
-        <v>570477.77777777775</v>
+        <v>541750</v>
       </c>
       <c r="GG29" s="1"/>
     </row>
     <row r="30" spans="1:189" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="41"/>
+      <c r="B30" s="43"/>
       <c r="D30" s="6">
         <f>SUM(D4:D27)</f>
-        <v>1712450</v>
+        <v>-11056578</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="41" t="s">
+      <c r="J30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="41"/>
+      <c r="K30" s="43"/>
       <c r="L30" s="6">
         <f>AVERAGE(L4:L29)</f>
-        <v>948645.77777777775</v>
+        <v>887916.4</v>
       </c>
       <c r="M30" s="6">
         <f>SUM(M3:M26)</f>
-        <v>2246009</v>
+        <v>2770257</v>
       </c>
       <c r="N30" s="6"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="41" t="s">
+      <c r="S30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="T30" s="41"/>
+      <c r="T30" s="43"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6">
         <f>SUM(V3:V26)</f>
-        <v>-238501</v>
+        <v>-307501</v>
       </c>
       <c r="W30" s="6"/>
       <c r="AA30" s="1"/>
-      <c r="AB30" s="41" t="s">
+      <c r="AB30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AC30" s="41"/>
+      <c r="AC30" s="43"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="6">
         <f>SUM(AE3:AE26)</f>
-        <v>-33029230</v>
+        <v>-33164230</v>
       </c>
       <c r="AF30" s="6"/>
       <c r="AJ30" s="1"/>
-      <c r="AK30" s="41" t="s">
+      <c r="AK30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AL30" s="41"/>
+      <c r="AL30" s="43"/>
       <c r="AM30" s="6"/>
       <c r="AN30" s="6">
         <f>SUM(AN3:AN26)</f>
-        <v>684500</v>
+        <v>-72400</v>
       </c>
       <c r="AO30" s="6"/>
       <c r="AS30" s="1"/>
-      <c r="AT30" s="41" t="s">
+      <c r="AT30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AU30" s="41"/>
+      <c r="AU30" s="43"/>
       <c r="AV30" s="6"/>
       <c r="AW30" s="6">
         <f>SUM(AW3:AW26)</f>
-        <v>-456379</v>
+        <v>-880742</v>
       </c>
       <c r="AX30" s="6"/>
       <c r="BB30" s="1"/>
-      <c r="BC30" s="41" t="s">
+      <c r="BC30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="BD30" s="41"/>
+      <c r="BD30" s="43"/>
       <c r="BF30" s="6">
         <f>SUM(BF3:BF26)</f>
-        <v>6890310</v>
+        <v>6587610</v>
       </c>
       <c r="BK30" s="1"/>
-      <c r="BL30" s="41" t="s">
+      <c r="BL30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="BM30" s="41"/>
+      <c r="BM30" s="43"/>
       <c r="BN30" s="6"/>
       <c r="BO30" s="6">
         <f>SUM(BO3:BO26)</f>
-        <v>-6871927</v>
+        <v>-6735027</v>
       </c>
       <c r="BP30" s="6"/>
       <c r="BT30" s="1"/>
-      <c r="BU30" s="41" t="s">
+      <c r="BU30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="BV30" s="41"/>
+      <c r="BV30" s="43"/>
       <c r="BW30" s="6"/>
       <c r="BX30" s="6">
         <f>SUM(BX3:BX26)</f>
-        <v>-10912657</v>
+        <v>-10892962</v>
       </c>
       <c r="BY30" s="6"/>
       <c r="CC30" s="1"/>
-      <c r="CD30" s="41" t="s">
+      <c r="CD30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="CE30" s="41"/>
+      <c r="CE30" s="43"/>
       <c r="CF30" s="6"/>
       <c r="CG30" s="6">
         <f>SUM(CG3:CG26)</f>
-        <v>-5828068</v>
+        <v>-8638567</v>
       </c>
       <c r="CH30" s="6"/>
       <c r="CL30" s="1"/>
-      <c r="CM30" s="41" t="s">
+      <c r="CM30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="CN30" s="41"/>
+      <c r="CN30" s="43"/>
       <c r="CO30" s="6"/>
       <c r="CP30" s="6">
         <f>SUM(CP3:CP26)</f>
-        <v>-679756</v>
+        <v>-2246165</v>
       </c>
       <c r="CQ30" s="6"/>
       <c r="CU30" s="1"/>
-      <c r="CV30" s="41" t="s">
+      <c r="CV30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="CW30" s="41"/>
+      <c r="CW30" s="43"/>
       <c r="CX30" s="6"/>
       <c r="CY30" s="6">
         <f>SUM(CY3:CY26)</f>
-        <v>-1683387</v>
+        <v>-2295087</v>
       </c>
       <c r="CZ30" s="6"/>
       <c r="DD30" s="1"/>
-      <c r="DE30" s="41" t="s">
+      <c r="DE30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="DF30" s="41"/>
+      <c r="DF30" s="43"/>
       <c r="DG30" s="6"/>
       <c r="DH30" s="6">
         <f>SUM(DH3:DH26)</f>
-        <v>-1268524</v>
+        <v>-1226717</v>
       </c>
       <c r="DI30" s="6"/>
       <c r="DM30" s="1"/>
-      <c r="DN30" s="41" t="s">
+      <c r="DN30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="DO30" s="41"/>
+      <c r="DO30" s="43"/>
       <c r="DP30" s="6"/>
       <c r="DQ30" s="6">
         <f>SUM(DQ3:DQ26)</f>
-        <v>-408679</v>
+        <v>-162779</v>
       </c>
       <c r="DR30" s="6"/>
       <c r="DV30" s="1"/>
-      <c r="DW30" s="41" t="s">
+      <c r="DW30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="DX30" s="41"/>
+      <c r="DX30" s="43"/>
       <c r="DY30" s="6"/>
       <c r="DZ30" s="6">
         <f>SUM(DZ3:DZ26)</f>
-        <v>187400</v>
+        <v>317950</v>
       </c>
       <c r="EA30" s="6"/>
       <c r="EE30" s="1"/>
-      <c r="EF30" s="41" t="s">
+      <c r="EF30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="EG30" s="41"/>
+      <c r="EG30" s="43"/>
       <c r="EH30" s="6"/>
       <c r="EI30" s="6">
         <f>SUM(EI3:EI26)</f>
-        <v>-79500</v>
+        <v>-3600</v>
       </c>
       <c r="EJ30" s="6"/>
       <c r="EN30" s="1"/>
-      <c r="EO30" s="41" t="s">
+      <c r="EO30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="EP30" s="41"/>
+      <c r="EP30" s="43"/>
       <c r="EQ30" s="6"/>
       <c r="ER30" s="6">
         <f>SUM(ER3:ER26)</f>
-        <v>2854</v>
+        <v>19654</v>
       </c>
       <c r="ES30" s="6"/>
       <c r="EW30" s="1"/>
-      <c r="EX30" s="41" t="s">
+      <c r="EX30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="EY30" s="41"/>
+      <c r="EY30" s="43"/>
       <c r="EZ30" s="6"/>
       <c r="FA30" s="6">
         <f>SUM(FA3:FA26)</f>
-        <v>-431039</v>
+        <v>-606778</v>
       </c>
       <c r="FB30" s="6"/>
       <c r="FF30" s="1"/>
-      <c r="FG30" s="41" t="s">
+      <c r="FG30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="FH30" s="41"/>
+      <c r="FH30" s="43"/>
       <c r="FI30" s="6"/>
       <c r="FJ30" s="6">
         <f>SUM(FJ3:FJ26)</f>
-        <v>-1812100</v>
+        <v>-2077700</v>
       </c>
       <c r="FK30" s="6"/>
       <c r="FO30" s="1"/>
-      <c r="FP30" s="41" t="s">
+      <c r="FP30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="FQ30" s="41"/>
+      <c r="FQ30" s="43"/>
       <c r="FR30" s="6"/>
       <c r="FS30" s="6">
         <f>SUM(FS3:FS26)</f>
-        <v>2794033</v>
+        <v>2989333</v>
       </c>
       <c r="FT30" s="6"/>
       <c r="FX30" s="1"/>
-      <c r="FY30" s="41" t="s">
+      <c r="FY30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="FZ30" s="41"/>
+      <c r="FZ30" s="43"/>
       <c r="GA30" s="6"/>
       <c r="GB30" s="6">
         <f>SUM(GB3:GB26)</f>
-        <v>-1192200</v>
+        <v>-1198600</v>
       </c>
       <c r="GC30" s="6"/>
       <c r="GG30" s="1"/>
     </row>
     <row r="31" spans="1:189" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="6"/>
       <c r="E31" s="6">
         <f>SUM(E4:E27)</f>
-        <v>155103915</v>
+        <v>155103606</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="41" t="s">
+      <c r="J31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="41"/>
+      <c r="K31" s="43"/>
       <c r="L31" s="6"/>
       <c r="N31" s="6">
         <f>SUM(N4:N27)</f>
-        <v>98360128</v>
+        <v>114985989</v>
       </c>
       <c r="O31" s="6"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="41" t="s">
+      <c r="S31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="T31" s="41"/>
+      <c r="T31" s="43"/>
       <c r="U31" s="6"/>
       <c r="W31" s="6">
         <f>SUM(W4:W27)</f>
-        <v>22708048</v>
+        <v>28517608</v>
       </c>
       <c r="X31" s="6"/>
       <c r="AA31" s="1"/>
-      <c r="AB31" s="41" t="s">
+      <c r="AB31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AC31" s="41"/>
+      <c r="AC31" s="43"/>
       <c r="AD31" s="6"/>
       <c r="AF31" s="6">
         <f>SUM(AF4:AF27)</f>
-        <v>-682856364</v>
+        <v>-685431764</v>
       </c>
       <c r="AG31" s="6"/>
       <c r="AJ31" s="1"/>
-      <c r="AK31" s="41" t="s">
+      <c r="AK31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AL31" s="41"/>
+      <c r="AL31" s="43"/>
       <c r="AM31" s="6"/>
       <c r="AO31" s="6">
         <f>SUM(AO4:AO27)</f>
-        <v>83888265</v>
+        <v>63188636</v>
       </c>
       <c r="AP31" s="6"/>
       <c r="AS31" s="1"/>
-      <c r="AT31" s="41" t="s">
+      <c r="AT31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AU31" s="41"/>
+      <c r="AU31" s="43"/>
       <c r="AV31" s="6"/>
       <c r="AX31" s="6">
         <f>SUM(AX4:AX27)</f>
-        <v>-12147463</v>
+        <v>-23616253</v>
       </c>
       <c r="AY31" s="6"/>
       <c r="BB31" s="1"/>
-      <c r="BC31" s="41" t="s">
+      <c r="BC31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="BD31" s="41"/>
+      <c r="BD31" s="43"/>
       <c r="BG31" s="6">
         <f>SUM(BG4:BG27)</f>
-        <v>154026679</v>
+        <v>147208969</v>
       </c>
       <c r="BK31" s="1"/>
-      <c r="BL31" s="41" t="s">
+      <c r="BL31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="BM31" s="41"/>
+      <c r="BM31" s="43"/>
       <c r="BN31" s="6"/>
       <c r="BP31" s="6">
         <f>SUM(BP4:BP27)</f>
-        <v>-272699141</v>
+        <v>-267469391</v>
       </c>
       <c r="BQ31" s="6"/>
       <c r="BT31" s="1"/>
-      <c r="BU31" s="41" t="s">
+      <c r="BU31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="BV31" s="41"/>
+      <c r="BV31" s="43"/>
       <c r="BW31" s="6"/>
       <c r="BY31" s="6">
         <f>SUM(BX4:BX27)</f>
-        <v>-10912657</v>
+        <v>-10892962</v>
       </c>
       <c r="BZ31" s="6"/>
       <c r="CC31" s="1"/>
-      <c r="CD31" s="41" t="s">
+      <c r="CD31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="CE31" s="41"/>
+      <c r="CE31" s="43"/>
       <c r="CF31" s="6"/>
       <c r="CH31" s="6">
         <f>SUM(CH4:CH27)</f>
-        <v>-106999874</v>
+        <v>-221387011</v>
       </c>
       <c r="CI31" s="6"/>
       <c r="CL31" s="1"/>
-      <c r="CM31" s="41" t="s">
+      <c r="CM31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="CN31" s="41"/>
+      <c r="CN31" s="43"/>
       <c r="CO31" s="6"/>
       <c r="CQ31" s="6">
         <f>SUM(CQ4:CQ27)</f>
-        <v>-13831562</v>
+        <v>-44412174</v>
       </c>
       <c r="CR31" s="6"/>
       <c r="CU31" s="1"/>
-      <c r="CV31" s="41" t="s">
+      <c r="CV31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="CW31" s="41"/>
+      <c r="CW31" s="43"/>
       <c r="CX31" s="6"/>
       <c r="CZ31" s="6">
         <f>SUM(CZ4:CZ27)</f>
-        <v>-47835992</v>
+        <v>-64231681</v>
       </c>
       <c r="DA31" s="6"/>
       <c r="DD31" s="1"/>
-      <c r="DE31" s="41" t="s">
+      <c r="DE31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="DF31" s="41"/>
+      <c r="DF31" s="43"/>
       <c r="DG31" s="6"/>
       <c r="DI31" s="6">
         <f>SUM(DI4:DI27)</f>
-        <v>-22219280</v>
+        <v>-21482970</v>
       </c>
       <c r="DJ31" s="6"/>
       <c r="DM31" s="1"/>
-      <c r="DN31" s="41" t="s">
+      <c r="DN31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="DO31" s="41"/>
+      <c r="DO31" s="43"/>
       <c r="DP31" s="6"/>
       <c r="DR31" s="6">
         <f>SUM(DR4:DR27)</f>
-        <v>-13172262</v>
+        <v>-5506562</v>
       </c>
       <c r="DS31" s="6"/>
       <c r="DV31" s="1"/>
-      <c r="DW31" s="41" t="s">
+      <c r="DW31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="DX31" s="41"/>
+      <c r="DX31" s="43"/>
       <c r="DY31" s="6"/>
       <c r="EA31" s="6">
         <f>SUM(EA4:EA27)</f>
-        <v>13462380</v>
+        <v>22520389</v>
       </c>
       <c r="EB31" s="6"/>
       <c r="EE31" s="1"/>
-      <c r="EF31" s="41" t="s">
+      <c r="EF31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="EG31" s="41"/>
+      <c r="EG31" s="43"/>
       <c r="EH31" s="6"/>
       <c r="EJ31" s="6">
         <f>SUM(EJ4:EJ27)</f>
-        <v>-3273740</v>
+        <v>-529850</v>
       </c>
       <c r="EK31" s="6"/>
       <c r="EN31" s="1"/>
-      <c r="EO31" s="41" t="s">
+      <c r="EO31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="EP31" s="41"/>
+      <c r="EP31" s="43"/>
       <c r="EQ31" s="6"/>
       <c r="ES31" s="6">
         <f>SUM(ES4:ES27)</f>
-        <v>1342980</v>
+        <v>2401560</v>
       </c>
       <c r="ET31" s="6"/>
       <c r="EW31" s="1"/>
-      <c r="EX31" s="41" t="s">
+      <c r="EX31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="EY31" s="41"/>
+      <c r="EY31" s="43"/>
       <c r="EZ31" s="6"/>
       <c r="FB31" s="6">
         <f>SUM(FB4:FB27)</f>
-        <v>-10727210</v>
+        <v>-14709580</v>
       </c>
       <c r="FC31" s="6"/>
       <c r="FF31" s="1"/>
-      <c r="FG31" s="41" t="s">
+      <c r="FG31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="FH31" s="41"/>
+      <c r="FH31" s="43"/>
       <c r="FI31" s="6"/>
       <c r="FK31" s="6">
         <f>SUM(FK4:FK27)</f>
-        <v>-36913481</v>
+        <v>-42623681</v>
       </c>
       <c r="FL31" s="6"/>
       <c r="FO31" s="1"/>
-      <c r="FP31" s="41" t="s">
+      <c r="FP31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="FQ31" s="41"/>
+      <c r="FQ31" s="43"/>
       <c r="FR31" s="6"/>
       <c r="FT31" s="6">
         <f>SUM(FT4:FT27)</f>
-        <v>264050728</v>
+        <v>282546298</v>
       </c>
       <c r="FU31" s="6"/>
       <c r="FX31" s="1"/>
-      <c r="FY31" s="41" t="s">
+      <c r="FY31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="FZ31" s="41"/>
+      <c r="FZ31" s="43"/>
       <c r="GA31" s="6"/>
       <c r="GC31" s="6">
         <f>SUM(GC4:GC27)</f>
-        <v>-82848050</v>
+        <v>-83277850</v>
       </c>
       <c r="GD31" s="6"/>
       <c r="GG31" s="1"/>
     </row>
     <row r="32" spans="1:189" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="41"/>
+      <c r="B32" s="43"/>
       <c r="F32" s="6"/>
       <c r="H32" s="10">
         <f>SUM(H4:H27)</f>
-        <v>3.5199999999999995E-2</v>
+        <v>4.2499999999999996E-2</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="41" t="s">
+      <c r="J32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="K32" s="41"/>
+      <c r="K32" s="43"/>
       <c r="O32" s="6"/>
       <c r="Q32" s="10">
         <f>SUM(Q4:Q27)</f>
-        <v>-2.7000000000000036E-3</v>
+        <v>1.9699999999999995E-2</v>
       </c>
       <c r="R32" s="1"/>
-      <c r="S32" s="41" t="s">
+      <c r="S32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="T32" s="41"/>
+      <c r="T32" s="43"/>
       <c r="X32" s="6"/>
       <c r="Z32" s="10">
         <f>SUM(Z4:Z27)</f>
-        <v>-1.0400000000000003E-2</v>
+        <v>-6.9000000000000034E-3</v>
       </c>
       <c r="AA32" s="1"/>
-      <c r="AB32" s="41" t="s">
+      <c r="AB32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="AC32" s="41"/>
+      <c r="AC32" s="43"/>
       <c r="AG32" s="6"/>
       <c r="AI32" s="10">
         <f>SUM(AI4:AI27)</f>
-        <v>-9.9000000000000008E-3</v>
+        <v>5.9999999999999984E-4</v>
       </c>
       <c r="AJ32" s="1"/>
-      <c r="AK32" s="41" t="s">
+      <c r="AK32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="AL32" s="41"/>
+      <c r="AL32" s="43"/>
       <c r="AP32" s="6"/>
       <c r="AR32" s="10">
         <f>SUM(AR4:AR27)</f>
         <v>-2.4199999999999999E-2</v>
       </c>
       <c r="AS32" s="1"/>
-      <c r="AT32" s="41" t="s">
+      <c r="AT32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="AU32" s="41"/>
+      <c r="AU32" s="43"/>
       <c r="AY32" s="6"/>
       <c r="BA32" s="10">
         <f>SUM(BA4:BA27)</f>
-        <v>1.1600000000000006E-2</v>
+        <v>2.4800000000000006E-2</v>
       </c>
       <c r="BB32" s="1"/>
-      <c r="BC32" s="41" t="s">
+      <c r="BC32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="BD32" s="41"/>
+      <c r="BD32" s="43"/>
       <c r="BH32" s="6"/>
       <c r="BJ32" s="10">
         <f>SUM(BJ4:BJ27)</f>
-        <v>7.980000000000001E-2</v>
+        <v>7.5500000000000012E-2</v>
       </c>
       <c r="BK32" s="1"/>
-      <c r="BL32" s="41" t="s">
+      <c r="BL32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="BM32" s="41"/>
+      <c r="BM32" s="43"/>
       <c r="BQ32" s="6"/>
       <c r="BS32" s="10">
         <f>SUM(BS4:BS27)</f>
-        <v>-6.9000000000000006E-2</v>
+        <v>-6.25E-2</v>
       </c>
       <c r="BT32" s="1"/>
-      <c r="BU32" s="41" t="s">
+      <c r="BU32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="BV32" s="41"/>
+      <c r="BV32" s="43"/>
       <c r="BZ32" s="6"/>
       <c r="CB32" s="10">
         <f>SUM(CB4:CB27)</f>
-        <v>-2.7899999999999994E-2</v>
+        <v>3.8000000000000048E-3</v>
       </c>
       <c r="CC32" s="1"/>
-      <c r="CD32" s="41" t="s">
+      <c r="CD32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="CE32" s="41"/>
+      <c r="CE32" s="43"/>
       <c r="CI32" s="6"/>
       <c r="CK32" s="10">
         <f>SUM(CK4:CK27)</f>
-        <v>5.91E-2</v>
+        <v>6.88E-2</v>
       </c>
       <c r="CL32" s="1"/>
-      <c r="CM32" s="41" t="s">
+      <c r="CM32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="CN32" s="41"/>
+      <c r="CN32" s="43"/>
       <c r="CR32" s="6"/>
       <c r="CT32" s="10">
         <f>SUM(CT4:CT27)</f>
-        <v>4.7999999999999987E-2</v>
+        <v>5.5499999999999987E-2</v>
       </c>
       <c r="CU32" s="1"/>
-      <c r="CV32" s="41" t="s">
+      <c r="CV32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="CW32" s="41"/>
+      <c r="CW32" s="43"/>
       <c r="DA32" s="6"/>
       <c r="DC32" s="10">
         <f>SUM(DC4:DC27)</f>
-        <v>4.3999999999999942E-3</v>
+        <v>1.1799999999999995E-2</v>
       </c>
       <c r="DD32" s="1"/>
-      <c r="DE32" s="41" t="s">
+      <c r="DE32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="DF32" s="41"/>
+      <c r="DF32" s="43"/>
       <c r="DJ32" s="6"/>
       <c r="DL32" s="10">
         <f>SUM(DL4:DL27)</f>
         <v>0.11399999999999999</v>
       </c>
       <c r="DM32" s="1"/>
-      <c r="DN32" s="41" t="s">
+      <c r="DN32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="DO32" s="41"/>
+      <c r="DO32" s="43"/>
       <c r="DS32" s="6"/>
       <c r="DU32" s="10">
         <f>SUM(DU4:DU27)</f>
-        <v>2.8000000000000026E-3</v>
+        <v>1.7300000000000003E-2</v>
       </c>
       <c r="DV32" s="1"/>
-      <c r="DW32" s="41" t="s">
+      <c r="DW32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="DX32" s="41"/>
+      <c r="DX32" s="43"/>
       <c r="EB32" s="6"/>
       <c r="ED32" s="10">
         <f>SUM(ED4:ED27)</f>
         <v>3.6699999999999997E-2</v>
       </c>
       <c r="EE32" s="1"/>
-      <c r="EF32" s="41" t="s">
+      <c r="EF32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="EG32" s="41"/>
+      <c r="EG32" s="43"/>
       <c r="EK32" s="6"/>
       <c r="EM32" s="10">
         <f>SUM(EM4:EM27)</f>
-        <v>5.3999999999999992E-2</v>
+        <v>7.51E-2</v>
       </c>
       <c r="EN32" s="1"/>
-      <c r="EO32" s="41" t="s">
+      <c r="EO32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="EP32" s="41"/>
+      <c r="EP32" s="43"/>
       <c r="ET32" s="6"/>
       <c r="EV32" s="10">
         <f>SUM(EV4:EV27)</f>
-        <v>6.4399999999999999E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="EW32" s="1"/>
-      <c r="EX32" s="41" t="s">
+      <c r="EX32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="EY32" s="41"/>
+      <c r="EY32" s="43"/>
       <c r="FC32" s="6"/>
       <c r="FE32" s="10">
         <f>SUM(FE4:FE27)</f>
         <v>-1.4099999999999991E-2</v>
       </c>
       <c r="FF32" s="1"/>
-      <c r="FG32" s="41" t="s">
+      <c r="FG32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="FH32" s="41"/>
+      <c r="FH32" s="43"/>
       <c r="FL32" s="6"/>
       <c r="FN32" s="10">
         <f>SUM(FN4:FN27)</f>
-        <v>3.0300000000000004E-2</v>
+        <v>4.4300000000000006E-2</v>
       </c>
       <c r="FO32" s="1"/>
-      <c r="FP32" s="41" t="s">
+      <c r="FP32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="FQ32" s="41"/>
+      <c r="FQ32" s="43"/>
       <c r="FU32" s="6"/>
       <c r="FW32" s="10">
         <f>SUM(FW4:FW27)</f>
-        <v>2.8900000000000009E-2</v>
+        <v>3.5200000000000009E-2</v>
       </c>
       <c r="FX32" s="1"/>
-      <c r="FY32" s="41" t="s">
+      <c r="FY32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="FZ32" s="41"/>
+      <c r="FZ32" s="43"/>
       <c r="GD32" s="6"/>
       <c r="GF32" s="10">
         <f>SUM(GF4:GF27)</f>
-        <v>-5.6000000000000001E-2</v>
+        <v>-3.3299999999999996E-2</v>
       </c>
       <c r="GG32" s="1"/>
     </row>
     <row r="33" spans="1:189" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="41"/>
+      <c r="B33" s="43"/>
       <c r="H33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="41" t="s">
+      <c r="J33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="41"/>
+      <c r="K33" s="43"/>
       <c r="Q33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="R33" s="1"/>
-      <c r="S33" s="41" t="s">
+      <c r="S33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="T33" s="41"/>
+      <c r="T33" s="43"/>
       <c r="Z33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="AA33" s="1"/>
-      <c r="AB33" s="41" t="s">
+      <c r="AB33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="AC33" s="41"/>
+      <c r="AC33" s="43"/>
       <c r="AI33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="AJ33" s="1"/>
-      <c r="AK33" s="41" t="s">
+      <c r="AK33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="AL33" s="41"/>
+      <c r="AL33" s="43"/>
       <c r="AR33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="AS33" s="1"/>
-      <c r="AT33" s="41" t="s">
+      <c r="AT33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="AU33" s="41"/>
+      <c r="AU33" s="43"/>
       <c r="BA33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="BB33" s="1"/>
-      <c r="BC33" s="41" t="s">
+      <c r="BC33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="BD33" s="41"/>
+      <c r="BD33" s="43"/>
       <c r="BJ33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="BK33" s="1"/>
-      <c r="BL33" s="41" t="s">
+      <c r="BL33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="BM33" s="41"/>
+      <c r="BM33" s="43"/>
       <c r="BS33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="BT33" s="1"/>
-      <c r="BU33" s="41" t="s">
+      <c r="BU33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="BV33" s="41"/>
+      <c r="BV33" s="43"/>
       <c r="CB33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="CC33" s="1"/>
-      <c r="CD33" s="41" t="s">
+      <c r="CD33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="CE33" s="41"/>
+      <c r="CE33" s="43"/>
       <c r="CK33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="CL33" s="1"/>
-      <c r="CM33" s="41" t="s">
+      <c r="CM33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="CN33" s="41"/>
+      <c r="CN33" s="43"/>
       <c r="CT33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="CU33" s="1"/>
-      <c r="CV33" s="41" t="s">
+      <c r="CV33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="CW33" s="41"/>
+      <c r="CW33" s="43"/>
       <c r="DC33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="DD33" s="1"/>
-      <c r="DE33" s="41" t="s">
+      <c r="DE33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="DF33" s="41"/>
+      <c r="DF33" s="43"/>
       <c r="DL33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="DM33" s="1"/>
-      <c r="DN33" s="41" t="s">
+      <c r="DN33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="DO33" s="41"/>
+      <c r="DO33" s="43"/>
       <c r="DU33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="DV33" s="1"/>
-      <c r="DW33" s="41" t="s">
+      <c r="DW33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="DX33" s="41"/>
+      <c r="DX33" s="43"/>
       <c r="ED33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="EE33" s="1"/>
-      <c r="EF33" s="41" t="s">
+      <c r="EF33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="EG33" s="41"/>
+      <c r="EG33" s="43"/>
       <c r="EM33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="EN33" s="1"/>
-      <c r="EO33" s="41" t="s">
+      <c r="EO33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="EP33" s="41"/>
+      <c r="EP33" s="43"/>
       <c r="EV33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="EW33" s="1"/>
-      <c r="EX33" s="41" t="s">
+      <c r="EX33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="EY33" s="41"/>
+      <c r="EY33" s="43"/>
       <c r="FE33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="FF33" s="1"/>
-      <c r="FG33" s="41" t="s">
+      <c r="FG33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="FH33" s="41"/>
+      <c r="FH33" s="43"/>
       <c r="FN33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="FO33" s="1"/>
-      <c r="FP33" s="41" t="s">
+      <c r="FP33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="FQ33" s="41"/>
+      <c r="FQ33" s="43"/>
       <c r="FW33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="FX33" s="1"/>
-      <c r="FY33" s="41" t="s">
+      <c r="FY33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="FZ33" s="41"/>
+      <c r="FZ33" s="43"/>
       <c r="GF33" s="10">
         <f>'VNINDEX T11-T12'!D36</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
       <c r="GG33" s="1"/>
     </row>
@@ -12296,22 +12571,73 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="DW32:DX32"/>
-    <mergeCell ref="EF32:EG32"/>
-    <mergeCell ref="EO32:EP32"/>
-    <mergeCell ref="FG32:FH32"/>
-    <mergeCell ref="BC31:BD31"/>
-    <mergeCell ref="BL31:BM31"/>
-    <mergeCell ref="BU31:BV31"/>
-    <mergeCell ref="CD31:CE31"/>
-    <mergeCell ref="CM31:CN31"/>
-    <mergeCell ref="CV31:CW31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="FP33:FQ33"/>
+    <mergeCell ref="FY33:FZ33"/>
+    <mergeCell ref="DW33:DX33"/>
+    <mergeCell ref="EF33:EG33"/>
+    <mergeCell ref="EO33:EP33"/>
+    <mergeCell ref="EX33:EY33"/>
+    <mergeCell ref="FG33:FH33"/>
+    <mergeCell ref="CD33:CE33"/>
+    <mergeCell ref="CM33:CN33"/>
+    <mergeCell ref="CV33:CW33"/>
+    <mergeCell ref="DE33:DF33"/>
+    <mergeCell ref="DN33:DO33"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="BC33:BD33"/>
+    <mergeCell ref="BL33:BM33"/>
+    <mergeCell ref="BU33:BV33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="S1:AH1"/>
+    <mergeCell ref="AS1:BI1"/>
+    <mergeCell ref="DE2:DL2"/>
+    <mergeCell ref="DN2:DU2"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="BC2:BJ2"/>
+    <mergeCell ref="BL2:BR2"/>
+    <mergeCell ref="BU2:CB2"/>
+    <mergeCell ref="CD2:CK2"/>
+    <mergeCell ref="CM2:CT2"/>
+    <mergeCell ref="CV2:DC2"/>
+    <mergeCell ref="DV1:EL1"/>
+    <mergeCell ref="FY1:GF1"/>
+    <mergeCell ref="FP1:FW1"/>
+    <mergeCell ref="FG1:FN1"/>
+    <mergeCell ref="BK1:CA1"/>
+    <mergeCell ref="CC1:DT1"/>
+    <mergeCell ref="EX2:FE2"/>
+    <mergeCell ref="EX30:EY30"/>
+    <mergeCell ref="EX31:EY31"/>
+    <mergeCell ref="EN1:FE1"/>
+    <mergeCell ref="FP31:FQ31"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="AB2:AI2"/>
+    <mergeCell ref="FP30:FQ30"/>
+    <mergeCell ref="FY30:FZ30"/>
+    <mergeCell ref="BU30:BV30"/>
+    <mergeCell ref="CD30:CE30"/>
+    <mergeCell ref="CM30:CN30"/>
+    <mergeCell ref="CV30:CW30"/>
+    <mergeCell ref="DE30:DF30"/>
+    <mergeCell ref="DN30:DO30"/>
+    <mergeCell ref="FP2:FW2"/>
+    <mergeCell ref="FY2:GF2"/>
+    <mergeCell ref="DW2:ED2"/>
+    <mergeCell ref="EF2:EM2"/>
+    <mergeCell ref="EO2:EV2"/>
+    <mergeCell ref="FG2:FN2"/>
+    <mergeCell ref="AK2:AR2"/>
+    <mergeCell ref="AT2:BA2"/>
     <mergeCell ref="FY31:FZ31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="J32:K32"/>
@@ -12336,6 +12662,22 @@
     <mergeCell ref="DE32:DF32"/>
     <mergeCell ref="DN32:DO32"/>
     <mergeCell ref="EX32:EY32"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="DW32:DX32"/>
+    <mergeCell ref="EF32:EG32"/>
+    <mergeCell ref="EO32:EP32"/>
+    <mergeCell ref="FG32:FH32"/>
+    <mergeCell ref="BC31:BD31"/>
+    <mergeCell ref="BL31:BM31"/>
+    <mergeCell ref="BU31:BV31"/>
+    <mergeCell ref="CD31:CE31"/>
+    <mergeCell ref="CM31:CN31"/>
+    <mergeCell ref="CV31:CW31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AK31:AL31"/>
     <mergeCell ref="AT31:AU31"/>
     <mergeCell ref="DW30:DX30"/>
     <mergeCell ref="EF30:EG30"/>
@@ -12344,73 +12686,6 @@
     <mergeCell ref="AT30:AU30"/>
     <mergeCell ref="BC30:BD30"/>
     <mergeCell ref="BL30:BM30"/>
-    <mergeCell ref="FP31:FQ31"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="S2:Z2"/>
-    <mergeCell ref="AB2:AI2"/>
-    <mergeCell ref="FP30:FQ30"/>
-    <mergeCell ref="FY30:FZ30"/>
-    <mergeCell ref="BU30:BV30"/>
-    <mergeCell ref="CD30:CE30"/>
-    <mergeCell ref="CM30:CN30"/>
-    <mergeCell ref="CV30:CW30"/>
-    <mergeCell ref="DE30:DF30"/>
-    <mergeCell ref="DN30:DO30"/>
-    <mergeCell ref="FP2:FW2"/>
-    <mergeCell ref="FY2:GF2"/>
-    <mergeCell ref="DW2:ED2"/>
-    <mergeCell ref="EF2:EM2"/>
-    <mergeCell ref="EO2:EV2"/>
-    <mergeCell ref="FG2:FN2"/>
-    <mergeCell ref="DV1:EL1"/>
-    <mergeCell ref="FY1:GF1"/>
-    <mergeCell ref="FP1:FW1"/>
-    <mergeCell ref="FG1:FN1"/>
-    <mergeCell ref="BK1:CA1"/>
-    <mergeCell ref="CC1:DT1"/>
-    <mergeCell ref="EX2:FE2"/>
-    <mergeCell ref="EX30:EY30"/>
-    <mergeCell ref="EX31:EY31"/>
-    <mergeCell ref="EN1:FE1"/>
-    <mergeCell ref="AK2:AR2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="S1:AH1"/>
-    <mergeCell ref="AS1:BI1"/>
-    <mergeCell ref="DE2:DL2"/>
-    <mergeCell ref="DN2:DU2"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="BC2:BJ2"/>
-    <mergeCell ref="BL2:BR2"/>
-    <mergeCell ref="BU2:CB2"/>
-    <mergeCell ref="CD2:CK2"/>
-    <mergeCell ref="CM2:CT2"/>
-    <mergeCell ref="CV2:DC2"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="BC33:BD33"/>
-    <mergeCell ref="BL33:BM33"/>
-    <mergeCell ref="BU33:BV33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="FP33:FQ33"/>
-    <mergeCell ref="FY33:FZ33"/>
-    <mergeCell ref="DW33:DX33"/>
-    <mergeCell ref="EF33:EG33"/>
-    <mergeCell ref="EO33:EP33"/>
-    <mergeCell ref="EX33:EY33"/>
-    <mergeCell ref="FG33:FH33"/>
-    <mergeCell ref="CD33:CE33"/>
-    <mergeCell ref="CM33:CN33"/>
-    <mergeCell ref="CV33:CW33"/>
-    <mergeCell ref="DE33:DF33"/>
-    <mergeCell ref="DN33:DO33"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F7">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -12425,8 +12700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F7BD41-53A8-314D-BC0D-3D6EA387CE74}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12783,10 +13058,18 @@
         <v>45261</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="20">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="D12" s="15">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>603587520</v>
+      </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -13262,27 +13545,27 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="10">
         <f>SUM(C3:C34)</f>
-        <v>1.6100000000000012</v>
+        <v>9.64</v>
       </c>
       <c r="D36" s="10">
         <f>SUM(D3:D34)</f>
-        <v>1.7999999999999978E-3</v>
+        <v>9.099999999999997E-3</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="41"/>
+      <c r="B37" s="43"/>
       <c r="F37" s="6">
         <f>AVERAGE(F3:F34)</f>
-        <v>797353828.75</v>
+        <v>775824238.88888884</v>
       </c>
     </row>
   </sheetData>

--- a/2023/DongTien.xlsx
+++ b/2023/DongTien.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trung.nguyenhoang/Documents/github/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C0ACCF-883B-434D-8335-B94E6867216B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3BEB7F-4DD4-5746-9B66-FDF1EB5B4DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17080" xr2:uid="{42582BF8-9AD7-9540-81DE-245C476BF20D}"/>
   </bookViews>
@@ -560,28 +560,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -596,27 +593,28 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC78DB7-94EE-DD4A-955E-8CCDACC517C9}">
   <dimension ref="A1:GP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
+      <selection activeCell="CL1" sqref="CL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -985,465 +983,465 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:198" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="39" t="s">
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="39"/>
-      <c r="BI1" s="39"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="1"/>
-      <c r="BK1" s="48"/>
-      <c r="BL1" s="48"/>
-      <c r="BM1" s="48"/>
-      <c r="BN1" s="48"/>
-      <c r="BO1" s="48"/>
-      <c r="BP1" s="48"/>
-      <c r="BQ1" s="48"/>
-      <c r="BR1" s="48"/>
-      <c r="BS1" s="48"/>
-      <c r="BT1" s="48"/>
-      <c r="BU1" s="48"/>
-      <c r="BV1" s="48"/>
-      <c r="BW1" s="48"/>
-      <c r="BX1" s="48"/>
-      <c r="BY1" s="48"/>
-      <c r="BZ1" s="48"/>
-      <c r="CA1" s="48"/>
-      <c r="CB1" s="48"/>
-      <c r="CC1" s="48"/>
-      <c r="CD1" s="48"/>
-      <c r="CE1" s="48"/>
-      <c r="CF1" s="48"/>
-      <c r="CG1" s="48"/>
-      <c r="CH1" s="48"/>
-      <c r="CI1" s="48"/>
-      <c r="CJ1" s="48"/>
-      <c r="CK1" s="48"/>
-      <c r="CL1" s="49" t="s">
+      <c r="BK1" s="40"/>
+      <c r="BL1" s="40"/>
+      <c r="BM1" s="40"/>
+      <c r="BN1" s="40"/>
+      <c r="BO1" s="40"/>
+      <c r="BP1" s="40"/>
+      <c r="BQ1" s="40"/>
+      <c r="BR1" s="40"/>
+      <c r="BS1" s="40"/>
+      <c r="BT1" s="40"/>
+      <c r="BU1" s="40"/>
+      <c r="BV1" s="40"/>
+      <c r="BW1" s="40"/>
+      <c r="BX1" s="40"/>
+      <c r="BY1" s="40"/>
+      <c r="BZ1" s="40"/>
+      <c r="CA1" s="40"/>
+      <c r="CB1" s="40"/>
+      <c r="CC1" s="40"/>
+      <c r="CD1" s="40"/>
+      <c r="CE1" s="40"/>
+      <c r="CF1" s="40"/>
+      <c r="CG1" s="40"/>
+      <c r="CH1" s="40"/>
+      <c r="CI1" s="40"/>
+      <c r="CJ1" s="40"/>
+      <c r="CK1" s="40"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="CM1" s="49"/>
-      <c r="CN1" s="49"/>
-      <c r="CO1" s="49"/>
-      <c r="CP1" s="49"/>
-      <c r="CQ1" s="49"/>
-      <c r="CR1" s="49"/>
-      <c r="CS1" s="49"/>
-      <c r="CT1" s="49"/>
-      <c r="CU1" s="49"/>
-      <c r="CV1" s="49"/>
-      <c r="CW1" s="49"/>
-      <c r="CX1" s="49"/>
-      <c r="CY1" s="49"/>
-      <c r="CZ1" s="49"/>
-      <c r="DA1" s="49"/>
-      <c r="DB1" s="49"/>
-      <c r="DC1" s="49"/>
-      <c r="DD1" s="49"/>
-      <c r="DE1" s="49"/>
-      <c r="DF1" s="49"/>
-      <c r="DG1" s="49"/>
-      <c r="DH1" s="49"/>
-      <c r="DI1" s="49"/>
-      <c r="DJ1" s="49"/>
-      <c r="DK1" s="49"/>
-      <c r="DL1" s="49"/>
-      <c r="DM1" s="49"/>
-      <c r="DN1" s="49"/>
-      <c r="DO1" s="49"/>
-      <c r="DP1" s="49"/>
-      <c r="DQ1" s="49"/>
-      <c r="DR1" s="49"/>
-      <c r="DS1" s="49"/>
-      <c r="DT1" s="49"/>
-      <c r="DU1" s="49"/>
-      <c r="DV1" s="49"/>
-      <c r="DW1" s="49"/>
-      <c r="DX1" s="49"/>
-      <c r="DY1" s="49"/>
-      <c r="DZ1" s="49"/>
-      <c r="EA1" s="49"/>
-      <c r="EB1" s="49"/>
-      <c r="EC1" s="49"/>
-      <c r="ED1" s="1"/>
-      <c r="EE1" s="44" t="s">
+      <c r="CN1" s="56"/>
+      <c r="CO1" s="56"/>
+      <c r="CP1" s="56"/>
+      <c r="CQ1" s="56"/>
+      <c r="CR1" s="56"/>
+      <c r="CS1" s="56"/>
+      <c r="CT1" s="56"/>
+      <c r="CU1" s="56"/>
+      <c r="CV1" s="56"/>
+      <c r="CW1" s="56"/>
+      <c r="CX1" s="56"/>
+      <c r="CY1" s="56"/>
+      <c r="CZ1" s="56"/>
+      <c r="DA1" s="56"/>
+      <c r="DB1" s="56"/>
+      <c r="DC1" s="56"/>
+      <c r="DD1" s="56"/>
+      <c r="DE1" s="56"/>
+      <c r="DF1" s="56"/>
+      <c r="DG1" s="56"/>
+      <c r="DH1" s="56"/>
+      <c r="DI1" s="56"/>
+      <c r="DJ1" s="56"/>
+      <c r="DK1" s="56"/>
+      <c r="DL1" s="56"/>
+      <c r="DM1" s="56"/>
+      <c r="DN1" s="56"/>
+      <c r="DO1" s="56"/>
+      <c r="DP1" s="56"/>
+      <c r="DQ1" s="56"/>
+      <c r="DR1" s="56"/>
+      <c r="DS1" s="56"/>
+      <c r="DT1" s="56"/>
+      <c r="DU1" s="56"/>
+      <c r="DV1" s="56"/>
+      <c r="DW1" s="56"/>
+      <c r="DX1" s="56"/>
+      <c r="DY1" s="56"/>
+      <c r="DZ1" s="56"/>
+      <c r="EA1" s="56"/>
+      <c r="EB1" s="56"/>
+      <c r="EC1" s="56"/>
+      <c r="ED1" s="56"/>
+      <c r="EE1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="EF1" s="44"/>
-      <c r="EG1" s="44"/>
-      <c r="EH1" s="44"/>
-      <c r="EI1" s="44"/>
-      <c r="EJ1" s="44"/>
-      <c r="EK1" s="44"/>
-      <c r="EL1" s="44"/>
-      <c r="EM1" s="44"/>
-      <c r="EN1" s="44"/>
-      <c r="EO1" s="44"/>
-      <c r="EP1" s="44"/>
-      <c r="EQ1" s="44"/>
-      <c r="ER1" s="44"/>
-      <c r="ES1" s="44"/>
-      <c r="ET1" s="44"/>
-      <c r="EU1" s="44"/>
+      <c r="EF1" s="45"/>
+      <c r="EG1" s="45"/>
+      <c r="EH1" s="45"/>
+      <c r="EI1" s="45"/>
+      <c r="EJ1" s="45"/>
+      <c r="EK1" s="45"/>
+      <c r="EL1" s="45"/>
+      <c r="EM1" s="45"/>
+      <c r="EN1" s="45"/>
+      <c r="EO1" s="45"/>
+      <c r="EP1" s="45"/>
+      <c r="EQ1" s="45"/>
+      <c r="ER1" s="45"/>
+      <c r="ES1" s="45"/>
+      <c r="ET1" s="45"/>
+      <c r="EU1" s="45"/>
       <c r="EV1" s="1"/>
-      <c r="EW1" s="50" t="s">
+      <c r="EW1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="EX1" s="50"/>
-      <c r="EY1" s="50"/>
-      <c r="EZ1" s="50"/>
-      <c r="FA1" s="50"/>
-      <c r="FB1" s="50"/>
-      <c r="FC1" s="50"/>
-      <c r="FD1" s="50"/>
-      <c r="FE1" s="50"/>
-      <c r="FF1" s="50"/>
-      <c r="FG1" s="50"/>
-      <c r="FH1" s="50"/>
-      <c r="FI1" s="50"/>
-      <c r="FJ1" s="50"/>
-      <c r="FK1" s="50"/>
-      <c r="FL1" s="50"/>
-      <c r="FM1" s="50"/>
-      <c r="FN1" s="50"/>
+      <c r="EX1" s="49"/>
+      <c r="EY1" s="49"/>
+      <c r="EZ1" s="49"/>
+      <c r="FA1" s="49"/>
+      <c r="FB1" s="49"/>
+      <c r="FC1" s="49"/>
+      <c r="FD1" s="49"/>
+      <c r="FE1" s="49"/>
+      <c r="FF1" s="49"/>
+      <c r="FG1" s="49"/>
+      <c r="FH1" s="49"/>
+      <c r="FI1" s="49"/>
+      <c r="FJ1" s="49"/>
+      <c r="FK1" s="49"/>
+      <c r="FL1" s="49"/>
+      <c r="FM1" s="49"/>
+      <c r="FN1" s="49"/>
       <c r="FO1" s="1"/>
-      <c r="FP1" s="47" t="s">
+      <c r="FP1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="FQ1" s="47"/>
-      <c r="FR1" s="47"/>
-      <c r="FS1" s="47"/>
-      <c r="FT1" s="47"/>
-      <c r="FU1" s="47"/>
-      <c r="FV1" s="47"/>
-      <c r="FW1" s="47"/>
+      <c r="FQ1" s="48"/>
+      <c r="FR1" s="48"/>
+      <c r="FS1" s="48"/>
+      <c r="FT1" s="48"/>
+      <c r="FU1" s="48"/>
+      <c r="FV1" s="48"/>
+      <c r="FW1" s="48"/>
       <c r="FX1" s="1"/>
-      <c r="FY1" s="46" t="s">
+      <c r="FY1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="FZ1" s="46"/>
-      <c r="GA1" s="46"/>
-      <c r="GB1" s="46"/>
-      <c r="GC1" s="46"/>
-      <c r="GD1" s="46"/>
-      <c r="GE1" s="46"/>
-      <c r="GF1" s="46"/>
+      <c r="FZ1" s="47"/>
+      <c r="GA1" s="47"/>
+      <c r="GB1" s="47"/>
+      <c r="GC1" s="47"/>
+      <c r="GD1" s="47"/>
+      <c r="GE1" s="47"/>
+      <c r="GF1" s="47"/>
       <c r="GG1" s="1"/>
-      <c r="GH1" s="45" t="s">
+      <c r="GH1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="GI1" s="45"/>
-      <c r="GJ1" s="45"/>
-      <c r="GK1" s="45"/>
-      <c r="GL1" s="45"/>
-      <c r="GM1" s="45"/>
-      <c r="GN1" s="45"/>
-      <c r="GO1" s="45"/>
+      <c r="GI1" s="46"/>
+      <c r="GJ1" s="46"/>
+      <c r="GK1" s="46"/>
+      <c r="GL1" s="46"/>
+      <c r="GM1" s="46"/>
+      <c r="GN1" s="46"/>
+      <c r="GO1" s="46"/>
       <c r="GP1" s="1"/>
     </row>
     <row r="2" spans="1:198" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="40" t="s">
+      <c r="AB2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
       <c r="AJ2" s="1"/>
-      <c r="AK2" s="40" t="s">
+      <c r="AK2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
       <c r="AS2" s="1"/>
-      <c r="AT2" s="40" t="s">
+      <c r="AT2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
       <c r="BB2" s="1"/>
-      <c r="BC2" s="41" t="s">
+      <c r="BC2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="42"/>
-      <c r="BF2" s="42"/>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
-      <c r="BJ2" s="43"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="54"/>
       <c r="BK2" s="1"/>
-      <c r="BL2" s="41" t="s">
+      <c r="BL2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="BM2" s="42"/>
-      <c r="BN2" s="42"/>
-      <c r="BO2" s="42"/>
-      <c r="BP2" s="42"/>
-      <c r="BQ2" s="42"/>
-      <c r="BR2" s="43"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="53"/>
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="53"/>
+      <c r="BR2" s="54"/>
       <c r="BS2" s="2"/>
       <c r="BT2" s="1"/>
-      <c r="BU2" s="40" t="s">
+      <c r="BU2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BV2" s="40"/>
-      <c r="BW2" s="40"/>
-      <c r="BX2" s="40"/>
-      <c r="BY2" s="40"/>
-      <c r="BZ2" s="40"/>
-      <c r="CA2" s="40"/>
-      <c r="CB2" s="40"/>
+      <c r="BV2" s="44"/>
+      <c r="BW2" s="44"/>
+      <c r="BX2" s="44"/>
+      <c r="BY2" s="44"/>
+      <c r="BZ2" s="44"/>
+      <c r="CA2" s="44"/>
+      <c r="CB2" s="44"/>
       <c r="CC2" s="1"/>
-      <c r="CD2" s="40" t="s">
+      <c r="CD2" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="CE2" s="40"/>
-      <c r="CF2" s="40"/>
-      <c r="CG2" s="40"/>
-      <c r="CH2" s="40"/>
-      <c r="CI2" s="40"/>
-      <c r="CJ2" s="40"/>
-      <c r="CK2" s="40"/>
+      <c r="CE2" s="44"/>
+      <c r="CF2" s="44"/>
+      <c r="CG2" s="44"/>
+      <c r="CH2" s="44"/>
+      <c r="CI2" s="44"/>
+      <c r="CJ2" s="44"/>
+      <c r="CK2" s="44"/>
       <c r="CL2" s="1"/>
-      <c r="CM2" s="40" t="s">
+      <c r="CM2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CN2" s="40"/>
-      <c r="CO2" s="40"/>
-      <c r="CP2" s="40"/>
-      <c r="CQ2" s="40"/>
-      <c r="CR2" s="40"/>
-      <c r="CS2" s="40"/>
-      <c r="CT2" s="40"/>
+      <c r="CN2" s="44"/>
+      <c r="CO2" s="44"/>
+      <c r="CP2" s="44"/>
+      <c r="CQ2" s="44"/>
+      <c r="CR2" s="44"/>
+      <c r="CS2" s="44"/>
+      <c r="CT2" s="44"/>
       <c r="CU2" s="1"/>
-      <c r="CV2" s="40" t="s">
+      <c r="CV2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CW2" s="40"/>
-      <c r="CX2" s="40"/>
-      <c r="CY2" s="40"/>
-      <c r="CZ2" s="40"/>
-      <c r="DA2" s="40"/>
-      <c r="DB2" s="40"/>
-      <c r="DC2" s="40"/>
+      <c r="CW2" s="44"/>
+      <c r="CX2" s="44"/>
+      <c r="CY2" s="44"/>
+      <c r="CZ2" s="44"/>
+      <c r="DA2" s="44"/>
+      <c r="DB2" s="44"/>
+      <c r="DC2" s="44"/>
       <c r="DD2" s="1"/>
-      <c r="DE2" s="40" t="s">
+      <c r="DE2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="DF2" s="40"/>
-      <c r="DG2" s="40"/>
-      <c r="DH2" s="40"/>
-      <c r="DI2" s="40"/>
-      <c r="DJ2" s="40"/>
-      <c r="DK2" s="40"/>
-      <c r="DL2" s="40"/>
+      <c r="DF2" s="44"/>
+      <c r="DG2" s="44"/>
+      <c r="DH2" s="44"/>
+      <c r="DI2" s="44"/>
+      <c r="DJ2" s="44"/>
+      <c r="DK2" s="44"/>
+      <c r="DL2" s="44"/>
       <c r="DM2" s="1"/>
-      <c r="DN2" s="40" t="s">
+      <c r="DN2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="DO2" s="40"/>
-      <c r="DP2" s="40"/>
-      <c r="DQ2" s="40"/>
-      <c r="DR2" s="40"/>
-      <c r="DS2" s="40"/>
-      <c r="DT2" s="40"/>
-      <c r="DU2" s="40"/>
+      <c r="DO2" s="44"/>
+      <c r="DP2" s="44"/>
+      <c r="DQ2" s="44"/>
+      <c r="DR2" s="44"/>
+      <c r="DS2" s="44"/>
+      <c r="DT2" s="44"/>
+      <c r="DU2" s="44"/>
       <c r="DV2" s="1"/>
-      <c r="DW2" s="40" t="s">
+      <c r="DW2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="DX2" s="40"/>
-      <c r="DY2" s="40"/>
-      <c r="DZ2" s="40"/>
-      <c r="EA2" s="40"/>
-      <c r="EB2" s="40"/>
-      <c r="EC2" s="40"/>
-      <c r="ED2" s="40"/>
+      <c r="DX2" s="44"/>
+      <c r="DY2" s="44"/>
+      <c r="DZ2" s="44"/>
+      <c r="EA2" s="44"/>
+      <c r="EB2" s="44"/>
+      <c r="EC2" s="44"/>
+      <c r="ED2" s="44"/>
       <c r="EE2" s="1"/>
-      <c r="EF2" s="40" t="s">
+      <c r="EF2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="EG2" s="40"/>
-      <c r="EH2" s="40"/>
-      <c r="EI2" s="40"/>
-      <c r="EJ2" s="40"/>
-      <c r="EK2" s="40"/>
-      <c r="EL2" s="40"/>
-      <c r="EM2" s="40"/>
+      <c r="EG2" s="44"/>
+      <c r="EH2" s="44"/>
+      <c r="EI2" s="44"/>
+      <c r="EJ2" s="44"/>
+      <c r="EK2" s="44"/>
+      <c r="EL2" s="44"/>
+      <c r="EM2" s="44"/>
       <c r="EN2" s="1"/>
-      <c r="EO2" s="40" t="s">
+      <c r="EO2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="EP2" s="40"/>
-      <c r="EQ2" s="40"/>
-      <c r="ER2" s="40"/>
-      <c r="ES2" s="40"/>
-      <c r="ET2" s="40"/>
-      <c r="EU2" s="40"/>
-      <c r="EV2" s="40"/>
+      <c r="EP2" s="44"/>
+      <c r="EQ2" s="44"/>
+      <c r="ER2" s="44"/>
+      <c r="ES2" s="44"/>
+      <c r="ET2" s="44"/>
+      <c r="EU2" s="44"/>
+      <c r="EV2" s="44"/>
       <c r="EW2" s="1"/>
-      <c r="EX2" s="40" t="s">
+      <c r="EX2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="EY2" s="40"/>
-      <c r="EZ2" s="40"/>
-      <c r="FA2" s="40"/>
-      <c r="FB2" s="40"/>
-      <c r="FC2" s="40"/>
-      <c r="FD2" s="40"/>
-      <c r="FE2" s="40"/>
+      <c r="EY2" s="44"/>
+      <c r="EZ2" s="44"/>
+      <c r="FA2" s="44"/>
+      <c r="FB2" s="44"/>
+      <c r="FC2" s="44"/>
+      <c r="FD2" s="44"/>
+      <c r="FE2" s="44"/>
       <c r="FF2" s="1"/>
-      <c r="FG2" s="40" t="s">
+      <c r="FG2" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="FH2" s="40"/>
-      <c r="FI2" s="40"/>
-      <c r="FJ2" s="40"/>
-      <c r="FK2" s="40"/>
-      <c r="FL2" s="40"/>
-      <c r="FM2" s="40"/>
-      <c r="FN2" s="40"/>
+      <c r="FH2" s="44"/>
+      <c r="FI2" s="44"/>
+      <c r="FJ2" s="44"/>
+      <c r="FK2" s="44"/>
+      <c r="FL2" s="44"/>
+      <c r="FM2" s="44"/>
+      <c r="FN2" s="44"/>
       <c r="FO2" s="1"/>
-      <c r="FP2" s="40" t="s">
+      <c r="FP2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="FQ2" s="40"/>
-      <c r="FR2" s="40"/>
-      <c r="FS2" s="40"/>
-      <c r="FT2" s="40"/>
-      <c r="FU2" s="40"/>
-      <c r="FV2" s="40"/>
-      <c r="FW2" s="40"/>
+      <c r="FQ2" s="44"/>
+      <c r="FR2" s="44"/>
+      <c r="FS2" s="44"/>
+      <c r="FT2" s="44"/>
+      <c r="FU2" s="44"/>
+      <c r="FV2" s="44"/>
+      <c r="FW2" s="44"/>
       <c r="FX2" s="1"/>
-      <c r="FY2" s="40" t="s">
+      <c r="FY2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="FZ2" s="40"/>
-      <c r="GA2" s="40"/>
-      <c r="GB2" s="40"/>
-      <c r="GC2" s="40"/>
-      <c r="GD2" s="40"/>
-      <c r="GE2" s="40"/>
-      <c r="GF2" s="40"/>
+      <c r="FZ2" s="44"/>
+      <c r="GA2" s="44"/>
+      <c r="GB2" s="44"/>
+      <c r="GC2" s="44"/>
+      <c r="GD2" s="44"/>
+      <c r="GE2" s="44"/>
+      <c r="GF2" s="44"/>
       <c r="GG2" s="1"/>
-      <c r="GH2" s="40" t="s">
+      <c r="GH2" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="GI2" s="40"/>
-      <c r="GJ2" s="40"/>
-      <c r="GK2" s="40"/>
-      <c r="GL2" s="40"/>
-      <c r="GM2" s="40"/>
-      <c r="GN2" s="40"/>
-      <c r="GO2" s="40"/>
+      <c r="GI2" s="44"/>
+      <c r="GJ2" s="44"/>
+      <c r="GK2" s="44"/>
+      <c r="GL2" s="44"/>
+      <c r="GM2" s="44"/>
+      <c r="GN2" s="44"/>
+      <c r="GO2" s="44"/>
       <c r="GP2" s="1"/>
     </row>
     <row r="3" spans="1:198" x14ac:dyDescent="0.2">
@@ -3710,24 +3708,24 @@
       <c r="FQ6" s="5">
         <v>2000</v>
       </c>
-      <c r="FR6" s="55">
+      <c r="FR6" s="37">
         <v>475000</v>
       </c>
-      <c r="FS6" s="55">
+      <c r="FS6" s="37">
         <f t="shared" si="19"/>
         <v>-473000</v>
       </c>
       <c r="FT6" s="5">
         <v>-10731370</v>
       </c>
-      <c r="FU6" s="55">
+      <c r="FU6" s="37">
         <v>43215800</v>
       </c>
       <c r="FV6" s="6">
         <f t="shared" si="41"/>
         <v>1.1037629755783764E-2</v>
       </c>
-      <c r="FW6" s="56">
+      <c r="FW6" s="38">
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="FX6" s="1"/>
@@ -7373,7 +7371,7 @@
         <v>35708736</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D13" si="45">B13-C13</f>
         <v>-12769028</v>
       </c>
       <c r="E13" s="5">
@@ -12200,19 +12198,19 @@
       <c r="GP29" s="1"/>
     </row>
     <row r="30" spans="1:198" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="36"/>
+      <c r="B30" s="39"/>
       <c r="D30" s="5">
         <f>SUM(D4:D27)</f>
         <v>-11056578</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="36" t="s">
+      <c r="J30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="36"/>
+      <c r="K30" s="39"/>
       <c r="L30" s="5">
         <f>AVERAGE(L4:L29)</f>
         <v>887916.4</v>
@@ -12223,10 +12221,10 @@
       </c>
       <c r="N30" s="5"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="36" t="s">
+      <c r="S30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="T30" s="36"/>
+      <c r="T30" s="39"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5">
         <f>SUM(V3:V26)</f>
@@ -12234,10 +12232,10 @@
       </c>
       <c r="W30" s="5"/>
       <c r="AA30" s="1"/>
-      <c r="AB30" s="36" t="s">
+      <c r="AB30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AC30" s="36"/>
+      <c r="AC30" s="39"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5">
         <f>SUM(AE3:AE26)</f>
@@ -12245,10 +12243,10 @@
       </c>
       <c r="AF30" s="5"/>
       <c r="AJ30" s="1"/>
-      <c r="AK30" s="36" t="s">
+      <c r="AK30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AL30" s="36"/>
+      <c r="AL30" s="39"/>
       <c r="AM30" s="5"/>
       <c r="AN30" s="5">
         <f>SUM(AN3:AN26)</f>
@@ -12256,10 +12254,10 @@
       </c>
       <c r="AO30" s="5"/>
       <c r="AS30" s="1"/>
-      <c r="AT30" s="36" t="s">
+      <c r="AT30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AU30" s="36"/>
+      <c r="AU30" s="39"/>
       <c r="AV30" s="5"/>
       <c r="AW30" s="5">
         <f>SUM(AW3:AW26)</f>
@@ -12267,19 +12265,19 @@
       </c>
       <c r="AX30" s="5"/>
       <c r="BB30" s="1"/>
-      <c r="BC30" s="36" t="s">
+      <c r="BC30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="BD30" s="36"/>
+      <c r="BD30" s="39"/>
       <c r="BF30" s="5">
         <f>SUM(BF3:BF26)</f>
         <v>6587610</v>
       </c>
       <c r="BK30" s="1"/>
-      <c r="BL30" s="36" t="s">
+      <c r="BL30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="BM30" s="36"/>
+      <c r="BM30" s="39"/>
       <c r="BN30" s="5"/>
       <c r="BO30" s="5">
         <f>SUM(BO3:BO26)</f>
@@ -12287,10 +12285,10 @@
       </c>
       <c r="BP30" s="5"/>
       <c r="BT30" s="1"/>
-      <c r="BU30" s="36" t="s">
+      <c r="BU30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="BV30" s="36"/>
+      <c r="BV30" s="39"/>
       <c r="BW30" s="5"/>
       <c r="BX30" s="5">
         <f>SUM(BX3:BX26)</f>
@@ -12298,10 +12296,10 @@
       </c>
       <c r="BY30" s="5"/>
       <c r="CC30" s="1"/>
-      <c r="CD30" s="36" t="s">
+      <c r="CD30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="CE30" s="36"/>
+      <c r="CE30" s="39"/>
       <c r="CF30" s="5"/>
       <c r="CG30" s="5">
         <f>SUM(CG3:CG26)</f>
@@ -12309,10 +12307,10 @@
       </c>
       <c r="CH30" s="5"/>
       <c r="CL30" s="1"/>
-      <c r="CM30" s="36" t="s">
+      <c r="CM30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="CN30" s="36"/>
+      <c r="CN30" s="39"/>
       <c r="CO30" s="5"/>
       <c r="CP30" s="5">
         <f>SUM(CP3:CP26)</f>
@@ -12320,10 +12318,10 @@
       </c>
       <c r="CQ30" s="5"/>
       <c r="CU30" s="1"/>
-      <c r="CV30" s="36" t="s">
+      <c r="CV30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="CW30" s="36"/>
+      <c r="CW30" s="39"/>
       <c r="CX30" s="5"/>
       <c r="CY30" s="5">
         <f>SUM(CY3:CY26)</f>
@@ -12331,10 +12329,10 @@
       </c>
       <c r="CZ30" s="5"/>
       <c r="DD30" s="1"/>
-      <c r="DE30" s="36" t="s">
+      <c r="DE30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="DF30" s="36"/>
+      <c r="DF30" s="39"/>
       <c r="DG30" s="5"/>
       <c r="DH30" s="5">
         <f>SUM(DH3:DH26)</f>
@@ -12342,10 +12340,10 @@
       </c>
       <c r="DI30" s="5"/>
       <c r="DM30" s="1"/>
-      <c r="DN30" s="36" t="s">
+      <c r="DN30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="DO30" s="36"/>
+      <c r="DO30" s="39"/>
       <c r="DP30" s="5"/>
       <c r="DQ30" s="5">
         <f>SUM(DQ3:DQ26)</f>
@@ -12353,10 +12351,10 @@
       </c>
       <c r="DR30" s="5"/>
       <c r="DV30" s="1"/>
-      <c r="DW30" s="36" t="s">
+      <c r="DW30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="DX30" s="36"/>
+      <c r="DX30" s="39"/>
       <c r="DY30" s="5"/>
       <c r="DZ30" s="5">
         <f>SUM(DZ3:DZ26)</f>
@@ -12364,10 +12362,10 @@
       </c>
       <c r="EA30" s="5"/>
       <c r="EE30" s="1"/>
-      <c r="EF30" s="36" t="s">
+      <c r="EF30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="EG30" s="36"/>
+      <c r="EG30" s="39"/>
       <c r="EH30" s="5"/>
       <c r="EI30" s="5">
         <f>SUM(EI3:EI26)</f>
@@ -12375,10 +12373,10 @@
       </c>
       <c r="EJ30" s="5"/>
       <c r="EN30" s="1"/>
-      <c r="EO30" s="36" t="s">
+      <c r="EO30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="EP30" s="36"/>
+      <c r="EP30" s="39"/>
       <c r="EQ30" s="5"/>
       <c r="ER30" s="5">
         <f>SUM(ER3:ER26)</f>
@@ -12386,10 +12384,10 @@
       </c>
       <c r="ES30" s="5"/>
       <c r="EW30" s="1"/>
-      <c r="EX30" s="36" t="s">
+      <c r="EX30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="EY30" s="36"/>
+      <c r="EY30" s="39"/>
       <c r="EZ30" s="5"/>
       <c r="FA30" s="5">
         <f>SUM(FA3:FA26)</f>
@@ -12397,10 +12395,10 @@
       </c>
       <c r="FB30" s="5"/>
       <c r="FF30" s="1"/>
-      <c r="FG30" s="36" t="s">
+      <c r="FG30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="FH30" s="36"/>
+      <c r="FH30" s="39"/>
       <c r="FI30" s="5"/>
       <c r="FJ30" s="5">
         <f>SUM(FJ3:FJ26)</f>
@@ -12408,10 +12406,10 @@
       </c>
       <c r="FK30" s="5"/>
       <c r="FO30" s="1"/>
-      <c r="FP30" s="36" t="s">
+      <c r="FP30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="FQ30" s="36"/>
+      <c r="FQ30" s="39"/>
       <c r="FR30" s="5"/>
       <c r="FS30" s="5">
         <f>SUM(FS3:FS26)</f>
@@ -12419,10 +12417,10 @@
       </c>
       <c r="FT30" s="5"/>
       <c r="FX30" s="1"/>
-      <c r="FY30" s="36" t="s">
+      <c r="FY30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="FZ30" s="36"/>
+      <c r="FZ30" s="39"/>
       <c r="GA30" s="5"/>
       <c r="GB30" s="5">
         <f>SUM(GB3:GB26)</f>
@@ -12430,10 +12428,10 @@
       </c>
       <c r="GC30" s="5"/>
       <c r="GG30" s="1"/>
-      <c r="GH30" s="36" t="s">
+      <c r="GH30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="GI30" s="36"/>
+      <c r="GI30" s="39"/>
       <c r="GJ30" s="5"/>
       <c r="GK30" s="5">
         <f>SUM(GK3:GK26)</f>
@@ -12443,20 +12441,20 @@
       <c r="GP30" s="1"/>
     </row>
     <row r="31" spans="1:198" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="36"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="5"/>
       <c r="E31" s="5">
         <f>SUM(E4:E27)</f>
         <v>134806368</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="36" t="s">
+      <c r="J31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="36"/>
+      <c r="K31" s="39"/>
       <c r="L31" s="5"/>
       <c r="N31" s="5">
         <f>SUM(N4:N27)</f>
@@ -12464,10 +12462,10 @@
       </c>
       <c r="O31" s="5"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="36" t="s">
+      <c r="S31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="T31" s="36"/>
+      <c r="T31" s="39"/>
       <c r="U31" s="5"/>
       <c r="W31" s="5">
         <f>SUM(W4:W27)</f>
@@ -12475,10 +12473,10 @@
       </c>
       <c r="X31" s="5"/>
       <c r="AA31" s="1"/>
-      <c r="AB31" s="36" t="s">
+      <c r="AB31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC31" s="36"/>
+      <c r="AC31" s="39"/>
       <c r="AD31" s="5"/>
       <c r="AF31" s="5">
         <f>SUM(AF4:AF27)</f>
@@ -12486,10 +12484,10 @@
       </c>
       <c r="AG31" s="5"/>
       <c r="AJ31" s="1"/>
-      <c r="AK31" s="36" t="s">
+      <c r="AK31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AL31" s="36"/>
+      <c r="AL31" s="39"/>
       <c r="AM31" s="5"/>
       <c r="AO31" s="5">
         <f>SUM(AO4:AO27)</f>
@@ -12497,10 +12495,10 @@
       </c>
       <c r="AP31" s="5"/>
       <c r="AS31" s="1"/>
-      <c r="AT31" s="36" t="s">
+      <c r="AT31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AU31" s="36"/>
+      <c r="AU31" s="39"/>
       <c r="AV31" s="5"/>
       <c r="AX31" s="5">
         <f>SUM(AX4:AX27)</f>
@@ -12508,19 +12506,19 @@
       </c>
       <c r="AY31" s="5"/>
       <c r="BB31" s="1"/>
-      <c r="BC31" s="36" t="s">
+      <c r="BC31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="BD31" s="36"/>
+      <c r="BD31" s="39"/>
       <c r="BG31" s="5">
         <f>SUM(BG4:BG27)</f>
         <v>147208969</v>
       </c>
       <c r="BK31" s="1"/>
-      <c r="BL31" s="36" t="s">
+      <c r="BL31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="BM31" s="36"/>
+      <c r="BM31" s="39"/>
       <c r="BN31" s="5"/>
       <c r="BP31" s="5">
         <f>SUM(BP4:BP27)</f>
@@ -12528,10 +12526,10 @@
       </c>
       <c r="BQ31" s="5"/>
       <c r="BT31" s="1"/>
-      <c r="BU31" s="36" t="s">
+      <c r="BU31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="BV31" s="36"/>
+      <c r="BV31" s="39"/>
       <c r="BW31" s="5"/>
       <c r="BY31" s="5">
         <f>SUM(BX4:BX27)</f>
@@ -12539,10 +12537,10 @@
       </c>
       <c r="BZ31" s="5"/>
       <c r="CC31" s="1"/>
-      <c r="CD31" s="36" t="s">
+      <c r="CD31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="CE31" s="36"/>
+      <c r="CE31" s="39"/>
       <c r="CF31" s="5"/>
       <c r="CH31" s="5">
         <f>SUM(CH4:CH27)</f>
@@ -12550,10 +12548,10 @@
       </c>
       <c r="CI31" s="5"/>
       <c r="CL31" s="1"/>
-      <c r="CM31" s="36" t="s">
+      <c r="CM31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="CN31" s="36"/>
+      <c r="CN31" s="39"/>
       <c r="CO31" s="5"/>
       <c r="CQ31" s="5">
         <f>SUM(CQ4:CQ27)</f>
@@ -12561,10 +12559,10 @@
       </c>
       <c r="CR31" s="5"/>
       <c r="CU31" s="1"/>
-      <c r="CV31" s="36" t="s">
+      <c r="CV31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="CW31" s="36"/>
+      <c r="CW31" s="39"/>
       <c r="CX31" s="5"/>
       <c r="CZ31" s="5">
         <f>SUM(CZ4:CZ27)</f>
@@ -12572,10 +12570,10 @@
       </c>
       <c r="DA31" s="5"/>
       <c r="DD31" s="1"/>
-      <c r="DE31" s="36" t="s">
+      <c r="DE31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="DF31" s="36"/>
+      <c r="DF31" s="39"/>
       <c r="DG31" s="5"/>
       <c r="DI31" s="5">
         <f>SUM(DI4:DI27)</f>
@@ -12583,10 +12581,10 @@
       </c>
       <c r="DJ31" s="5"/>
       <c r="DM31" s="1"/>
-      <c r="DN31" s="36" t="s">
+      <c r="DN31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="DO31" s="36"/>
+      <c r="DO31" s="39"/>
       <c r="DP31" s="5"/>
       <c r="DR31" s="5">
         <f>SUM(DR4:DR27)</f>
@@ -12594,10 +12592,10 @@
       </c>
       <c r="DS31" s="5"/>
       <c r="DV31" s="1"/>
-      <c r="DW31" s="36" t="s">
+      <c r="DW31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="DX31" s="36"/>
+      <c r="DX31" s="39"/>
       <c r="DY31" s="5"/>
       <c r="EA31" s="5">
         <f>SUM(EA4:EA27)</f>
@@ -12605,10 +12603,10 @@
       </c>
       <c r="EB31" s="5"/>
       <c r="EE31" s="1"/>
-      <c r="EF31" s="36" t="s">
+      <c r="EF31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="EG31" s="36"/>
+      <c r="EG31" s="39"/>
       <c r="EH31" s="5"/>
       <c r="EJ31" s="5">
         <f>SUM(EJ4:EJ27)</f>
@@ -12616,10 +12614,10 @@
       </c>
       <c r="EK31" s="5"/>
       <c r="EN31" s="1"/>
-      <c r="EO31" s="36" t="s">
+      <c r="EO31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="EP31" s="36"/>
+      <c r="EP31" s="39"/>
       <c r="EQ31" s="5"/>
       <c r="ES31" s="5">
         <f>SUM(ES4:ES27)</f>
@@ -12627,10 +12625,10 @@
       </c>
       <c r="ET31" s="5"/>
       <c r="EW31" s="1"/>
-      <c r="EX31" s="36" t="s">
+      <c r="EX31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="EY31" s="36"/>
+      <c r="EY31" s="39"/>
       <c r="EZ31" s="5"/>
       <c r="FB31" s="5">
         <f>SUM(FB4:FB27)</f>
@@ -12638,10 +12636,10 @@
       </c>
       <c r="FC31" s="5"/>
       <c r="FF31" s="1"/>
-      <c r="FG31" s="36" t="s">
+      <c r="FG31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="FH31" s="36"/>
+      <c r="FH31" s="39"/>
       <c r="FI31" s="5"/>
       <c r="FK31" s="5">
         <f>SUM(FK4:FK27)</f>
@@ -12649,10 +12647,10 @@
       </c>
       <c r="FL31" s="5"/>
       <c r="FO31" s="1"/>
-      <c r="FP31" s="36" t="s">
+      <c r="FP31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="FQ31" s="36"/>
+      <c r="FQ31" s="39"/>
       <c r="FR31" s="5"/>
       <c r="FT31" s="5">
         <f>SUM(FT4:FT27)</f>
@@ -12660,10 +12658,10 @@
       </c>
       <c r="FU31" s="5"/>
       <c r="FX31" s="1"/>
-      <c r="FY31" s="36" t="s">
+      <c r="FY31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="FZ31" s="36"/>
+      <c r="FZ31" s="39"/>
       <c r="GA31" s="5"/>
       <c r="GC31" s="5">
         <f>SUM(GC4:GC27)</f>
@@ -12671,10 +12669,10 @@
       </c>
       <c r="GD31" s="5"/>
       <c r="GG31" s="1"/>
-      <c r="GH31" s="36" t="s">
+      <c r="GH31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="GI31" s="36"/>
+      <c r="GI31" s="39"/>
       <c r="GJ31" s="5"/>
       <c r="GL31" s="5">
         <f>SUM(GL4:GL27)</f>
@@ -12684,220 +12682,220 @@
       <c r="GP31" s="1"/>
     </row>
     <row r="32" spans="1:198" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="36"/>
+      <c r="B32" s="39"/>
       <c r="F32" s="5"/>
       <c r="H32" s="9">
         <f>SUM(H4:H27)</f>
         <v>4.2499999999999996E-2</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="36" t="s">
+      <c r="J32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="K32" s="36"/>
+      <c r="K32" s="39"/>
       <c r="O32" s="5"/>
       <c r="Q32" s="9">
         <f>SUM(Q4:Q27)</f>
         <v>1.9699999999999995E-2</v>
       </c>
       <c r="R32" s="1"/>
-      <c r="S32" s="36" t="s">
+      <c r="S32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="T32" s="36"/>
+      <c r="T32" s="39"/>
       <c r="X32" s="5"/>
       <c r="Z32" s="9">
         <f>SUM(Z4:Z27)</f>
         <v>-6.9000000000000034E-3</v>
       </c>
       <c r="AA32" s="1"/>
-      <c r="AB32" s="36" t="s">
+      <c r="AB32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="AC32" s="36"/>
+      <c r="AC32" s="39"/>
       <c r="AG32" s="5"/>
       <c r="AI32" s="9">
         <f>SUM(AI4:AI27)</f>
         <v>5.9999999999999984E-4</v>
       </c>
       <c r="AJ32" s="1"/>
-      <c r="AK32" s="36" t="s">
+      <c r="AK32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="AL32" s="36"/>
+      <c r="AL32" s="39"/>
       <c r="AP32" s="5"/>
       <c r="AR32" s="9">
         <f>SUM(AR4:AR27)</f>
         <v>-2.4199999999999999E-2</v>
       </c>
       <c r="AS32" s="1"/>
-      <c r="AT32" s="36" t="s">
+      <c r="AT32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="AU32" s="36"/>
+      <c r="AU32" s="39"/>
       <c r="AY32" s="5"/>
       <c r="BA32" s="9">
         <f>SUM(BA4:BA27)</f>
         <v>2.4800000000000006E-2</v>
       </c>
       <c r="BB32" s="1"/>
-      <c r="BC32" s="36" t="s">
+      <c r="BC32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="BD32" s="36"/>
+      <c r="BD32" s="39"/>
       <c r="BH32" s="5"/>
       <c r="BJ32" s="9">
         <f>SUM(BJ4:BJ27)</f>
         <v>7.5500000000000012E-2</v>
       </c>
       <c r="BK32" s="1"/>
-      <c r="BL32" s="36" t="s">
+      <c r="BL32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="BM32" s="36"/>
+      <c r="BM32" s="39"/>
       <c r="BQ32" s="5"/>
       <c r="BS32" s="9">
         <f>SUM(BS4:BS27)</f>
         <v>-6.25E-2</v>
       </c>
       <c r="BT32" s="1"/>
-      <c r="BU32" s="36" t="s">
+      <c r="BU32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="BV32" s="36"/>
+      <c r="BV32" s="39"/>
       <c r="BZ32" s="5"/>
       <c r="CB32" s="9">
         <f>SUM(CB4:CB27)</f>
         <v>3.8000000000000048E-3</v>
       </c>
       <c r="CC32" s="1"/>
-      <c r="CD32" s="36" t="s">
+      <c r="CD32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="CE32" s="36"/>
+      <c r="CE32" s="39"/>
       <c r="CI32" s="5"/>
       <c r="CK32" s="9">
         <f>SUM(CK4:CK27)</f>
         <v>2.3999999999999976E-3</v>
       </c>
       <c r="CL32" s="1"/>
-      <c r="CM32" s="36" t="s">
+      <c r="CM32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="CN32" s="36"/>
+      <c r="CN32" s="39"/>
       <c r="CR32" s="5"/>
       <c r="CT32" s="9">
         <f>SUM(CT4:CT27)</f>
         <v>6.88E-2</v>
       </c>
       <c r="CU32" s="1"/>
-      <c r="CV32" s="36" t="s">
+      <c r="CV32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="CW32" s="36"/>
+      <c r="CW32" s="39"/>
       <c r="DA32" s="5"/>
       <c r="DC32" s="9">
         <f>SUM(DC4:DC27)</f>
         <v>5.5499999999999987E-2</v>
       </c>
       <c r="DD32" s="1"/>
-      <c r="DE32" s="36" t="s">
+      <c r="DE32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="DF32" s="36"/>
+      <c r="DF32" s="39"/>
       <c r="DJ32" s="5"/>
       <c r="DL32" s="9">
         <f>SUM(DL4:DL27)</f>
         <v>1.1799999999999995E-2</v>
       </c>
       <c r="DM32" s="1"/>
-      <c r="DN32" s="36" t="s">
+      <c r="DN32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="DO32" s="36"/>
+      <c r="DO32" s="39"/>
       <c r="DS32" s="5"/>
       <c r="DU32" s="9">
         <f>SUM(DU4:DU27)</f>
         <v>0.11399999999999999</v>
       </c>
       <c r="DV32" s="1"/>
-      <c r="DW32" s="36" t="s">
+      <c r="DW32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="DX32" s="36"/>
+      <c r="DX32" s="39"/>
       <c r="EB32" s="5"/>
       <c r="ED32" s="9">
         <f>SUM(ED4:ED27)</f>
         <v>1.7300000000000003E-2</v>
       </c>
       <c r="EE32" s="1"/>
-      <c r="EF32" s="36" t="s">
+      <c r="EF32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="EG32" s="36"/>
+      <c r="EG32" s="39"/>
       <c r="EK32" s="5"/>
       <c r="EM32" s="9">
         <f>SUM(EM4:EM27)</f>
         <v>3.6699999999999997E-2</v>
       </c>
       <c r="EN32" s="1"/>
-      <c r="EO32" s="36" t="s">
+      <c r="EO32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="EP32" s="36"/>
+      <c r="EP32" s="39"/>
       <c r="ET32" s="5"/>
       <c r="EV32" s="9">
         <f>SUM(EV4:EV27)</f>
         <v>7.51E-2</v>
       </c>
       <c r="EW32" s="1"/>
-      <c r="EX32" s="36" t="s">
+      <c r="EX32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="EY32" s="36"/>
+      <c r="EY32" s="39"/>
       <c r="FC32" s="5"/>
       <c r="FE32" s="9">
         <f>SUM(FE4:FE27)</f>
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="FF32" s="1"/>
-      <c r="FG32" s="36" t="s">
+      <c r="FG32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="FH32" s="36"/>
+      <c r="FH32" s="39"/>
       <c r="FL32" s="5"/>
       <c r="FN32" s="9">
         <f>SUM(FN4:FN27)</f>
         <v>-1.4099999999999991E-2</v>
       </c>
       <c r="FO32" s="1"/>
-      <c r="FP32" s="36" t="s">
+      <c r="FP32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="FQ32" s="36"/>
+      <c r="FQ32" s="39"/>
       <c r="FU32" s="5"/>
       <c r="FW32" s="9">
         <f>SUM(FW4:FW27)</f>
         <v>4.4300000000000006E-2</v>
       </c>
       <c r="FX32" s="1"/>
-      <c r="FY32" s="36" t="s">
+      <c r="FY32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="FZ32" s="36"/>
+      <c r="FZ32" s="39"/>
       <c r="GD32" s="5"/>
       <c r="GF32" s="9">
         <f>SUM(GF4:GF27)</f>
         <v>3.5200000000000009E-2</v>
       </c>
       <c r="GG32" s="1"/>
-      <c r="GH32" s="36" t="s">
+      <c r="GH32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="GI32" s="36"/>
+      <c r="GI32" s="39"/>
       <c r="GM32" s="5"/>
       <c r="GO32" s="9">
         <f>SUM(GO4:GO27)</f>
@@ -12906,199 +12904,199 @@
       <c r="GP32" s="1"/>
     </row>
     <row r="33" spans="1:198" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="36"/>
+      <c r="B33" s="39"/>
       <c r="H33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="36" t="s">
+      <c r="J33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="36"/>
+      <c r="K33" s="39"/>
       <c r="Q33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="R33" s="1"/>
-      <c r="S33" s="36" t="s">
+      <c r="S33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="T33" s="36"/>
+      <c r="T33" s="39"/>
       <c r="Z33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="AA33" s="1"/>
-      <c r="AB33" s="36" t="s">
+      <c r="AB33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="AC33" s="36"/>
+      <c r="AC33" s="39"/>
       <c r="AI33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="AJ33" s="1"/>
-      <c r="AK33" s="36" t="s">
+      <c r="AK33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="AL33" s="36"/>
+      <c r="AL33" s="39"/>
       <c r="AR33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="AS33" s="1"/>
-      <c r="AT33" s="36" t="s">
+      <c r="AT33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="AU33" s="36"/>
+      <c r="AU33" s="39"/>
       <c r="BA33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="BB33" s="1"/>
-      <c r="BC33" s="36" t="s">
+      <c r="BC33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="BD33" s="36"/>
+      <c r="BD33" s="39"/>
       <c r="BJ33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="BK33" s="1"/>
-      <c r="BL33" s="36" t="s">
+      <c r="BL33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="BM33" s="36"/>
+      <c r="BM33" s="39"/>
       <c r="BS33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="BT33" s="1"/>
-      <c r="BU33" s="36" t="s">
+      <c r="BU33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="BV33" s="36"/>
+      <c r="BV33" s="39"/>
       <c r="CB33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="CC33" s="1"/>
-      <c r="CD33" s="36" t="s">
+      <c r="CD33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="CE33" s="36"/>
+      <c r="CE33" s="39"/>
       <c r="CK33" s="9">
         <f>'VNINDEX T11-T12'!M36</f>
         <v>0</v>
       </c>
       <c r="CL33" s="1"/>
-      <c r="CM33" s="36" t="s">
+      <c r="CM33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="CN33" s="36"/>
+      <c r="CN33" s="39"/>
       <c r="CT33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="CU33" s="1"/>
-      <c r="CV33" s="36" t="s">
+      <c r="CV33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="CW33" s="36"/>
+      <c r="CW33" s="39"/>
       <c r="DC33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="DD33" s="1"/>
-      <c r="DE33" s="36" t="s">
+      <c r="DE33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="DF33" s="36"/>
+      <c r="DF33" s="39"/>
       <c r="DL33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="DM33" s="1"/>
-      <c r="DN33" s="36" t="s">
+      <c r="DN33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="DO33" s="36"/>
+      <c r="DO33" s="39"/>
       <c r="DU33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="DV33" s="1"/>
-      <c r="DW33" s="36" t="s">
+      <c r="DW33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="DX33" s="36"/>
+      <c r="DX33" s="39"/>
       <c r="ED33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="EE33" s="1"/>
-      <c r="EF33" s="36" t="s">
+      <c r="EF33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="EG33" s="36"/>
+      <c r="EG33" s="39"/>
       <c r="EM33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="EN33" s="1"/>
-      <c r="EO33" s="36" t="s">
+      <c r="EO33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="EP33" s="36"/>
+      <c r="EP33" s="39"/>
       <c r="EV33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="EW33" s="1"/>
-      <c r="EX33" s="36" t="s">
+      <c r="EX33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="EY33" s="36"/>
+      <c r="EY33" s="39"/>
       <c r="FE33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="FF33" s="1"/>
-      <c r="FG33" s="36" t="s">
+      <c r="FG33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="FH33" s="36"/>
+      <c r="FH33" s="39"/>
       <c r="FN33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="FO33" s="1"/>
-      <c r="FP33" s="36" t="s">
+      <c r="FP33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="FQ33" s="36"/>
+      <c r="FQ33" s="39"/>
       <c r="FW33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="FX33" s="1"/>
-      <c r="FY33" s="36" t="s">
+      <c r="FY33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="FZ33" s="36"/>
+      <c r="FZ33" s="39"/>
       <c r="GF33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
       </c>
       <c r="GG33" s="1"/>
-      <c r="GH33" s="36" t="s">
+      <c r="GH33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="GI33" s="36"/>
+      <c r="GI33" s="39"/>
       <c r="GO33" s="9">
         <f>'VNINDEX T11-T12'!D36</f>
         <v>1.1999999999999971E-3</v>
@@ -13121,35 +13119,64 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="120">
-    <mergeCell ref="CD31:CE31"/>
-    <mergeCell ref="CD32:CE32"/>
-    <mergeCell ref="CD33:CE33"/>
-    <mergeCell ref="BK1:CK1"/>
-    <mergeCell ref="S1:AR1"/>
-    <mergeCell ref="DN32:DO32"/>
-    <mergeCell ref="DW32:DX32"/>
-    <mergeCell ref="FG32:FH32"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="EF32:EG32"/>
-    <mergeCell ref="EO32:EP32"/>
-    <mergeCell ref="EX32:EY32"/>
-    <mergeCell ref="FP32:FQ32"/>
-    <mergeCell ref="BC31:BD31"/>
-    <mergeCell ref="BL31:BM31"/>
-    <mergeCell ref="BU31:BV31"/>
-    <mergeCell ref="CM31:CN31"/>
-    <mergeCell ref="CV31:CW31"/>
-    <mergeCell ref="DE31:DF31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="EF30:EG30"/>
-    <mergeCell ref="EO30:EP30"/>
-    <mergeCell ref="EX30:EY30"/>
+  <mergeCells count="119">
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="FY33:FZ33"/>
+    <mergeCell ref="GH33:GI33"/>
+    <mergeCell ref="EF33:EG33"/>
+    <mergeCell ref="EO33:EP33"/>
+    <mergeCell ref="EX33:EY33"/>
+    <mergeCell ref="FG33:FH33"/>
+    <mergeCell ref="FP33:FQ33"/>
+    <mergeCell ref="CM33:CN33"/>
+    <mergeCell ref="CV33:CW33"/>
+    <mergeCell ref="DE33:DF33"/>
+    <mergeCell ref="DN33:DO33"/>
+    <mergeCell ref="DW33:DX33"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="BC30:BD30"/>
+    <mergeCell ref="BL30:BM30"/>
+    <mergeCell ref="CD2:CK2"/>
+    <mergeCell ref="CD30:CE30"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="BC33:BD33"/>
+    <mergeCell ref="BL33:BM33"/>
+    <mergeCell ref="BU33:BV33"/>
+    <mergeCell ref="BC2:BJ2"/>
+    <mergeCell ref="BL2:BR2"/>
+    <mergeCell ref="BU2:CB2"/>
+    <mergeCell ref="CM2:CT2"/>
+    <mergeCell ref="CV2:DC2"/>
+    <mergeCell ref="DE2:DL2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="AB2:AI2"/>
+    <mergeCell ref="GH1:GO1"/>
+    <mergeCell ref="FY1:GF1"/>
+    <mergeCell ref="FP1:FW1"/>
+    <mergeCell ref="FG2:FN2"/>
+    <mergeCell ref="FG30:FH30"/>
+    <mergeCell ref="FG31:FH31"/>
+    <mergeCell ref="EW1:FN1"/>
+    <mergeCell ref="FY31:FZ31"/>
+    <mergeCell ref="FY30:FZ30"/>
+    <mergeCell ref="GH30:GI30"/>
+    <mergeCell ref="CM30:CN30"/>
+    <mergeCell ref="CV30:CW30"/>
+    <mergeCell ref="DE30:DF30"/>
+    <mergeCell ref="DN30:DO30"/>
+    <mergeCell ref="DW30:DX30"/>
+    <mergeCell ref="FY2:GF2"/>
+    <mergeCell ref="GH2:GO2"/>
+    <mergeCell ref="EF2:EM2"/>
+    <mergeCell ref="EO2:EV2"/>
+    <mergeCell ref="EX2:FE2"/>
+    <mergeCell ref="DN2:DU2"/>
+    <mergeCell ref="DW2:ED2"/>
     <mergeCell ref="FP30:FQ30"/>
     <mergeCell ref="FP2:FW2"/>
     <mergeCell ref="AK2:AR2"/>
@@ -13174,74 +13201,44 @@
     <mergeCell ref="BU32:BV32"/>
     <mergeCell ref="CM32:CN32"/>
     <mergeCell ref="CV32:CW32"/>
+    <mergeCell ref="FP32:FQ32"/>
+    <mergeCell ref="BC31:BD31"/>
+    <mergeCell ref="BL31:BM31"/>
+    <mergeCell ref="BU31:BV31"/>
+    <mergeCell ref="CM31:CN31"/>
+    <mergeCell ref="CV31:CW31"/>
+    <mergeCell ref="DE31:DF31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AT31:AU31"/>
     <mergeCell ref="DE32:DF32"/>
+    <mergeCell ref="CD31:CE31"/>
+    <mergeCell ref="CD32:CE32"/>
+    <mergeCell ref="CD33:CE33"/>
+    <mergeCell ref="BK1:CK1"/>
+    <mergeCell ref="S1:AR1"/>
+    <mergeCell ref="DN32:DO32"/>
+    <mergeCell ref="DW32:DX32"/>
+    <mergeCell ref="FG32:FH32"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="EF32:EG32"/>
+    <mergeCell ref="EO32:EP32"/>
+    <mergeCell ref="EX32:EY32"/>
+    <mergeCell ref="EF30:EG30"/>
+    <mergeCell ref="EO30:EP30"/>
+    <mergeCell ref="EX30:EY30"/>
     <mergeCell ref="EE1:EU1"/>
-    <mergeCell ref="GH1:GO1"/>
-    <mergeCell ref="FY1:GF1"/>
-    <mergeCell ref="FP1:FW1"/>
-    <mergeCell ref="CL1:EC1"/>
-    <mergeCell ref="FG2:FN2"/>
-    <mergeCell ref="FG30:FH30"/>
-    <mergeCell ref="FG31:FH31"/>
-    <mergeCell ref="EW1:FN1"/>
-    <mergeCell ref="FY31:FZ31"/>
-    <mergeCell ref="FY30:FZ30"/>
-    <mergeCell ref="GH30:GI30"/>
     <mergeCell ref="BU30:BV30"/>
-    <mergeCell ref="CM30:CN30"/>
-    <mergeCell ref="CV30:CW30"/>
-    <mergeCell ref="DE30:DF30"/>
-    <mergeCell ref="DN30:DO30"/>
-    <mergeCell ref="DW30:DX30"/>
-    <mergeCell ref="FY2:GF2"/>
-    <mergeCell ref="GH2:GO2"/>
-    <mergeCell ref="EF2:EM2"/>
-    <mergeCell ref="EO2:EV2"/>
-    <mergeCell ref="EX2:FE2"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="AS1:BI1"/>
-    <mergeCell ref="DN2:DU2"/>
-    <mergeCell ref="DW2:ED2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="AB30:AC30"/>
     <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="BC2:BJ2"/>
-    <mergeCell ref="BL2:BR2"/>
-    <mergeCell ref="BU2:CB2"/>
-    <mergeCell ref="CM2:CT2"/>
-    <mergeCell ref="CV2:DC2"/>
-    <mergeCell ref="DE2:DL2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="S2:Z2"/>
-    <mergeCell ref="AB2:AI2"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="BC30:BD30"/>
-    <mergeCell ref="BL30:BM30"/>
-    <mergeCell ref="CD2:CK2"/>
-    <mergeCell ref="CD30:CE30"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="BC33:BD33"/>
-    <mergeCell ref="BL33:BM33"/>
-    <mergeCell ref="BU33:BV33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="FY33:FZ33"/>
-    <mergeCell ref="GH33:GI33"/>
-    <mergeCell ref="EF33:EG33"/>
-    <mergeCell ref="EO33:EP33"/>
-    <mergeCell ref="EX33:EY33"/>
-    <mergeCell ref="FG33:FH33"/>
-    <mergeCell ref="FP33:FQ33"/>
-    <mergeCell ref="CM33:CN33"/>
-    <mergeCell ref="CV33:CW33"/>
-    <mergeCell ref="DE33:DF33"/>
-    <mergeCell ref="DN33:DO33"/>
-    <mergeCell ref="DW33:DX33"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F7">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -13267,19 +13264,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -14125,11 +14122,11 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="54">
+      <c r="B36" s="39"/>
+      <c r="C36" s="36">
         <f>SUM(C3:C34)</f>
         <v>0.97000000000000064</v>
       </c>
@@ -14139,20 +14136,20 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="36"/>
+      <c r="B37" s="39"/>
       <c r="F37" s="5">
         <f>AVERAGE(F3:F34)</f>
         <v>770590152.79999995</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="36"/>
+      <c r="B38" s="39"/>
       <c r="E38" s="9">
         <f>AVERAGE(E3:E34)</f>
         <v>1.4749999999999999E-2</v>
